--- a/docs/lang.xlsx
+++ b/docs/lang.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>key</t>
   </si>
@@ -36,10 +36,7 @@
     </r>
   </si>
   <si>
-    <t>请选择</t>
-  </si>
-  <si>
-    <t>Select</t>
+    <t>{msg} world</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -621,7 +618,7 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1376,7 +1373,7 @@
   <dimension ref="A1:K667"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1414,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="1"/>
@@ -1725,7 +1722,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" ht="49.5" spans="4:11">
+    <row r="33" ht="16.5" spans="4:11">
       <c r="D33" s="11"/>
       <c r="E33" s="1"/>
       <c r="F33" s="7"/>
@@ -2617,7 +2614,7 @@
     </row>
     <row r="122" ht="16.5" spans="4:11">
       <c r="D122" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="11"/>
@@ -3099,7 +3096,7 @@
     </row>
     <row r="170" ht="16.5" spans="4:11">
       <c r="D170" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E170" s="1"/>
       <c r="F170" s="11"/>
@@ -7341,7 +7338,7 @@
     </row>
     <row r="594" ht="16.5" spans="4:11">
       <c r="D594" s="21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E594" s="1"/>
       <c r="F594" s="11"/>
@@ -7373,7 +7370,7 @@
     </row>
     <row r="597" ht="16.5" spans="4:11">
       <c r="D597" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E597" s="1"/>
       <c r="F597" s="11"/>

--- a/docs/lang.xlsx
+++ b/docs/lang.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>key</t>
   </si>
@@ -34,6 +34,9 @@
       </rPr>
       <t>trans0001</t>
     </r>
+  </si>
+  <si>
+    <t>{msg} 世界</t>
   </si>
   <si>
     <t>{msg} world</t>
@@ -1373,7 +1376,7 @@
   <dimension ref="A1:K667"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1411,7 +1414,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="1"/>
@@ -2614,7 +2617,7 @@
     </row>
     <row r="122" ht="16.5" spans="4:11">
       <c r="D122" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="11"/>
@@ -3096,7 +3099,7 @@
     </row>
     <row r="170" ht="16.5" spans="4:11">
       <c r="D170" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E170" s="1"/>
       <c r="F170" s="11"/>
@@ -7338,7 +7341,7 @@
     </row>
     <row r="594" ht="16.5" spans="4:11">
       <c r="D594" s="21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E594" s="1"/>
       <c r="F594" s="11"/>
@@ -7370,7 +7373,7 @@
     </row>
     <row r="597" ht="16.5" spans="4:11">
       <c r="D597" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E597" s="1"/>
       <c r="F597" s="11"/>

--- a/docs/lang.xlsx
+++ b/docs/lang.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>key</t>
   </si>
@@ -25,214 +25,21 @@
     <t>en-US</t>
   </si>
   <si>
-    <t>trans0001</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>trans0001</t>
+    </r>
   </si>
   <si>
-    <t>请求出错，请稍候重试</t>
+    <t>{msg} 世界</t>
   </si>
   <si>
-    <t>The interface request failed, please try again later!</t>
-  </si>
-  <si>
-    <t>trans0002</t>
-  </si>
-  <si>
-    <t>操作成功</t>
-  </si>
-  <si>
-    <t>Operation Success</t>
-  </si>
-  <si>
-    <t>trans0003</t>
-  </si>
-  <si>
-    <t>成功提示</t>
-  </si>
-  <si>
-    <t>Success Tip</t>
-  </si>
-  <si>
-    <t>trans0004</t>
-  </si>
-  <si>
-    <t>登录超时,请重新登录!</t>
-  </si>
-  <si>
-    <t>Login timed out, please log in again!</t>
-  </si>
-  <si>
-    <t>trans0005</t>
-  </si>
-  <si>
-    <t>错误提示</t>
-  </si>
-  <si>
-    <t>Error Tip</t>
-  </si>
-  <si>
-    <t>trans0006</t>
-  </si>
-  <si>
-    <t>trans0007</t>
-  </si>
-  <si>
-    <t>接口请求超时,请刷新页面重试!</t>
-  </si>
-  <si>
-    <t>The interface request timed out, please refresh the page and try again!</t>
-  </si>
-  <si>
-    <t>trans0008</t>
-  </si>
-  <si>
-    <t>网络异常，请检查您的网络连接是否正常!</t>
-  </si>
-  <si>
-    <t>Please check if your network connection is normal! The network is abnormal</t>
-  </si>
-  <si>
-    <t>trans0009</t>
-  </si>
-  <si>
-    <t>确认</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>trans0010</t>
-  </si>
-  <si>
-    <t>用户没有权限（令牌、用户名、密码错误）!</t>
-  </si>
-  <si>
-    <t>The user does not have permission (token, user name, password error)!</t>
-  </si>
-  <si>
-    <t>trans0011</t>
-  </si>
-  <si>
-    <t>用户得到授权，但是访问是被禁止的。!</t>
-  </si>
-  <si>
-    <t>The user is authorized, but access is forbidden!</t>
-  </si>
-  <si>
-    <t>trans0012</t>
-  </si>
-  <si>
-    <t>网络请求错误,未找到该资源!</t>
-  </si>
-  <si>
-    <t>Network request error, the resource was not found!</t>
-  </si>
-  <si>
-    <t>trans0013</t>
-  </si>
-  <si>
-    <t>网络请求错误,请求方法未允许!</t>
-  </si>
-  <si>
-    <t>Network request error, request method not allowed!</t>
-  </si>
-  <si>
-    <t>trans0014</t>
-  </si>
-  <si>
-    <t>网络请求超时!</t>
-  </si>
-  <si>
-    <t>Network request timed out!</t>
-  </si>
-  <si>
-    <t>trans0015</t>
-  </si>
-  <si>
-    <t>服务器错误,请联系管理员!</t>
-  </si>
-  <si>
-    <t>Server error, please contact the administrator!</t>
-  </si>
-  <si>
-    <t>trans0016</t>
-  </si>
-  <si>
-    <t>网络未实现!</t>
-  </si>
-  <si>
-    <t>The network is not implemented!</t>
-  </si>
-  <si>
-    <t>trans0017</t>
-  </si>
-  <si>
-    <t>网络错误!</t>
-  </si>
-  <si>
-    <t>Network Error!</t>
-  </si>
-  <si>
-    <t>trans0018</t>
-  </si>
-  <si>
-    <t>服务不可用，服务器暂时过载或维护!</t>
-  </si>
-  <si>
-    <t>The service is unavailable, the server is temporarily overloaded or maintained!</t>
-  </si>
-  <si>
-    <t>trans0019</t>
-  </si>
-  <si>
-    <t>网络超时!</t>
-  </si>
-  <si>
-    <t>Network timeout!</t>
-  </si>
-  <si>
-    <t>trans0020</t>
-  </si>
-  <si>
-    <t>http版本不支持该请求!</t>
-  </si>
-  <si>
-    <t>The http version does not support the request!</t>
-  </si>
-  <si>
-    <t>trans0021</t>
-  </si>
-  <si>
-    <t>操作失败</t>
-  </si>
-  <si>
-    <t>Operation failed</t>
-  </si>
-  <si>
-    <t>trans0022</t>
-  </si>
-  <si>
-    <t>操作失败,系统异常!</t>
-  </si>
-  <si>
-    <t>The operation failed, the system is abnormal!</t>
-  </si>
-  <si>
-    <t>trans0023</t>
-  </si>
-  <si>
-    <t>网络异常</t>
-  </si>
-  <si>
-    <t>network anomaly</t>
-  </si>
-  <si>
-    <t>trans0024</t>
-  </si>
-  <si>
-    <t>trans0025</t>
-  </si>
-  <si>
-    <t>trans0026</t>
+    <t>{msg} world</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -251,7 +58,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -262,12 +69,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -286,16 +87,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -833,19 +624,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -854,131 +657,119 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -989,7 +780,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -998,64 +789,55 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1594,13 +1376,13 @@
   <dimension ref="A1:K667"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="60" customWidth="1"/>
     <col min="4" max="11" width="11" customWidth="1"/>
   </cols>
@@ -1643,16 +1425,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" ht="16.5" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
+    <row r="3" ht="16.5" spans="4:11">
       <c r="D3" s="3"/>
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
@@ -1662,54 +1435,27 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" ht="16.5" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5"/>
+    <row r="4" ht="16.5" spans="4:11">
+      <c r="D4" s="4"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="6"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" ht="16.5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="7"/>
+    <row r="5" ht="16.5" spans="4:11">
+      <c r="D5" s="6"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="7"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" ht="16.5" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
-      </c>
+    <row r="6" ht="16.5" spans="4:11">
       <c r="D6" s="3"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
@@ -1719,16 +1465,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" ht="16.5" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>5</v>
-      </c>
+    <row r="7" ht="16.5" spans="4:11">
       <c r="D7" s="2"/>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
@@ -1738,16 +1475,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" ht="16.5" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>21</v>
-      </c>
+    <row r="8" ht="16.5" spans="4:11">
       <c r="D8" s="2"/>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
@@ -1757,16 +1485,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" ht="16.5" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>24</v>
-      </c>
+    <row r="9" ht="16.5" spans="4:11">
       <c r="D9" s="2"/>
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
@@ -1776,92 +1495,47 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" ht="16.5" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>27</v>
-      </c>
+    <row r="10" ht="16.5" spans="4:11">
       <c r="D10" s="2"/>
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="7"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" ht="16.5" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>30</v>
-      </c>
+    <row r="11" ht="16.5" spans="4:11">
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="7"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" ht="16.5" spans="1:11">
-      <c r="A12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>33</v>
-      </c>
+    <row r="12" ht="16.5" spans="4:11">
       <c r="D12" s="2"/>
       <c r="E12" s="1"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="7"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" ht="16.5" spans="1:11">
-      <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>36</v>
-      </c>
+    <row r="13" ht="16.5" spans="4:11">
       <c r="D13" s="2"/>
       <c r="E13" s="1"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="7"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" ht="16.5" spans="1:11">
-      <c r="A14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>39</v>
-      </c>
+    <row r="14" ht="16.5" spans="4:11">
       <c r="D14" s="2"/>
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
@@ -1871,54 +1545,27 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" ht="16.5" spans="1:11">
-      <c r="A15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>42</v>
-      </c>
+    <row r="15" ht="16.5" spans="4:11">
       <c r="D15" s="2"/>
       <c r="E15" s="1"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="7"/>
+      <c r="H15" s="6"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" ht="17.25" spans="1:11">
-      <c r="A16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>45</v>
-      </c>
+    <row r="16" ht="16.5" spans="4:11">
       <c r="D16" s="2"/>
       <c r="E16" s="1"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="7"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" ht="16.5" spans="1:11">
-      <c r="A17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>48</v>
-      </c>
+    <row r="17" ht="16.5" spans="4:11">
       <c r="D17" s="2"/>
       <c r="E17" s="1"/>
       <c r="F17" s="2"/>
@@ -1928,35 +1575,17 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" ht="16.5" spans="1:11">
-      <c r="A18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>51</v>
-      </c>
+    <row r="18" ht="16.5" spans="4:11">
       <c r="D18" s="2"/>
       <c r="E18" s="1"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="7"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" ht="16.5" spans="1:11">
-      <c r="A19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>54</v>
-      </c>
+    <row r="19" ht="16.5" spans="4:11">
       <c r="D19" s="2"/>
       <c r="E19" s="1"/>
       <c r="F19" s="2"/>
@@ -1966,16 +1595,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" ht="16.5" spans="1:11">
-      <c r="A20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>57</v>
-      </c>
+    <row r="20" ht="16.5" spans="4:11">
       <c r="D20" s="2"/>
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
@@ -1985,16 +1605,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" ht="16.5" spans="1:11">
-      <c r="A21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>60</v>
-      </c>
+    <row r="21" ht="16.5" spans="4:11">
       <c r="D21" s="2"/>
       <c r="E21" s="1"/>
       <c r="F21" s="2"/>
@@ -2004,16 +1615,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" ht="16.5" spans="1:11">
-      <c r="A22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>63</v>
-      </c>
+    <row r="22" ht="16.5" spans="4:11">
       <c r="D22" s="2"/>
       <c r="E22" s="1"/>
       <c r="F22" s="2"/>
@@ -2023,178 +1625,151 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" ht="16.5" spans="1:11">
-      <c r="A23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>66</v>
-      </c>
+    <row r="23" ht="16.5" spans="4:11">
       <c r="D23" s="2"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" ht="16.5" spans="1:11">
-      <c r="A24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>69</v>
-      </c>
+    <row r="24" ht="16.5" spans="4:11">
       <c r="D24" s="2"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" ht="16.5" spans="1:11">
-      <c r="A25" s="1" t="s">
-        <v>70</v>
-      </c>
+    <row r="25" ht="16.5" spans="4:11">
       <c r="D25" s="2"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" ht="17.25" spans="1:11">
-      <c r="A26" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="12"/>
+    <row r="26" ht="17.25" spans="4:11">
+      <c r="D26" s="9"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="13"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="10"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" ht="16.5" spans="1:11">
-      <c r="A27" s="1" t="s">
-        <v>72</v>
-      </c>
+    <row r="27" ht="16.5" spans="4:11">
       <c r="D27" s="3"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
     <row r="28" ht="16.5" spans="4:11">
-      <c r="D28" s="7"/>
+      <c r="D28" s="6"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="6"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
     <row r="29" ht="16.5" spans="4:11">
-      <c r="D29" s="10"/>
+      <c r="D29" s="7"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
     </row>
     <row r="30" ht="16.5" spans="4:11">
-      <c r="D30" s="7"/>
+      <c r="D30" s="6"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="6"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
     <row r="31" ht="16.5" spans="4:11">
-      <c r="D31" s="7"/>
+      <c r="D31" s="6"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="6"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
     </row>
     <row r="32" ht="16.5" spans="4:11">
-      <c r="D32" s="7"/>
+      <c r="D32" s="6"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="6"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
     <row r="33" ht="16.5" spans="4:11">
-      <c r="D33" s="14"/>
+      <c r="D33" s="11"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="14"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="11"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
     </row>
     <row r="34" ht="16.5" spans="4:11">
-      <c r="D34" s="7"/>
+      <c r="D34" s="6"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="6"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
     </row>
     <row r="35" ht="16.5" spans="4:11">
-      <c r="D35" s="10"/>
+      <c r="D35" s="7"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
     </row>
     <row r="36" ht="16.5" spans="4:11">
-      <c r="D36" s="10"/>
+      <c r="D36" s="7"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
     </row>
     <row r="37" ht="16.5" spans="4:11">
-      <c r="D37" s="10"/>
+      <c r="D37" s="7"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -2203,29 +1778,29 @@
     <row r="38" ht="16.5" spans="4:11">
       <c r="D38" s="3"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
     </row>
     <row r="39" ht="16.5" spans="4:11">
-      <c r="D39" s="14"/>
+      <c r="D39" s="11"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="6"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
     <row r="40" ht="16.5" spans="4:11">
-      <c r="D40" s="7"/>
+      <c r="D40" s="6"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="6"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -2233,8 +1808,8 @@
     <row r="41" ht="16.5" spans="4:11">
       <c r="D41" s="3"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
@@ -2243,8 +1818,8 @@
     <row r="42" ht="16.5" spans="4:11">
       <c r="D42" s="3"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -2253,8 +1828,8 @@
     <row r="43" ht="16.5" spans="4:11">
       <c r="D43" s="3"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -2263,58 +1838,58 @@
     <row r="44" ht="16.5" spans="4:11">
       <c r="D44" s="3"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
     <row r="45" ht="16.5" spans="4:11">
-      <c r="D45" s="7"/>
+      <c r="D45" s="6"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
     </row>
     <row r="46" ht="16.5" spans="4:11">
-      <c r="D46" s="7"/>
+      <c r="D46" s="6"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
     </row>
     <row r="47" ht="16.5" spans="4:11">
-      <c r="D47" s="7"/>
+      <c r="D47" s="6"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
     </row>
     <row r="48" ht="16.5" spans="4:11">
-      <c r="D48" s="7"/>
+      <c r="D48" s="6"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
     </row>
     <row r="49" ht="16.5" spans="4:11">
-      <c r="D49" s="10"/>
+      <c r="D49" s="7"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -2323,8 +1898,8 @@
     <row r="50" ht="16.5" spans="4:11">
       <c r="D50" s="3"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
@@ -2333,8 +1908,8 @@
     <row r="51" ht="16.5" spans="4:11">
       <c r="D51" s="3"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -2343,8 +1918,8 @@
     <row r="52" ht="16.5" spans="4:11">
       <c r="D52" s="3"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
@@ -2353,18 +1928,18 @@
     <row r="53" ht="16.5" spans="4:11">
       <c r="D53" s="3"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
     </row>
     <row r="54" ht="17.25" spans="4:11">
-      <c r="D54" s="15"/>
+      <c r="D54" s="12"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
@@ -2373,8 +1948,8 @@
     <row r="55" ht="16.5" spans="4:11">
       <c r="D55" s="3"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
@@ -2383,8 +1958,8 @@
     <row r="56" ht="16.5" spans="4:11">
       <c r="D56" s="3"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
@@ -2393,8 +1968,8 @@
     <row r="57" ht="16.5" spans="4:11">
       <c r="D57" s="3"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
@@ -2403,8 +1978,8 @@
     <row r="58" ht="16.5" spans="4:11">
       <c r="D58" s="3"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
@@ -2413,8 +1988,8 @@
     <row r="59" ht="16.5" spans="4:11">
       <c r="D59" s="3"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
@@ -2423,8 +1998,8 @@
     <row r="60" ht="16.5" spans="4:11">
       <c r="D60" s="3"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
@@ -2433,19 +2008,19 @@
     <row r="61" ht="16.5" spans="4:11">
       <c r="D61" s="3"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
     </row>
     <row r="62" ht="16.5" spans="4:11">
-      <c r="D62" s="16"/>
+      <c r="D62" s="13"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="16"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="13"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
@@ -2453,8 +2028,8 @@
     <row r="63" ht="16.5" spans="4:11">
       <c r="D63" s="3"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
@@ -2463,8 +2038,8 @@
     <row r="64" ht="16.5" spans="4:11">
       <c r="D64" s="3"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
@@ -2473,8 +2048,8 @@
     <row r="65" ht="16.5" spans="4:11">
       <c r="D65" s="3"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
@@ -2483,8 +2058,8 @@
     <row r="66" ht="16.5" spans="4:11">
       <c r="D66" s="3"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
@@ -2493,8 +2068,8 @@
     <row r="67" ht="16.5" spans="4:11">
       <c r="D67" s="3"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
@@ -2503,18 +2078,18 @@
     <row r="68" ht="16.5" spans="4:11">
       <c r="D68" s="3"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
     </row>
     <row r="69" ht="17.25" spans="4:11">
-      <c r="D69" s="17"/>
+      <c r="D69" s="14"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
@@ -2523,18 +2098,18 @@
     <row r="70" ht="16.5" spans="4:11">
       <c r="D70" s="3"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
     </row>
     <row r="71" ht="16.5" spans="4:11">
-      <c r="D71" s="7"/>
+      <c r="D71" s="6"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
@@ -2543,8 +2118,8 @@
     <row r="72" ht="16.5" spans="4:11">
       <c r="D72" s="3"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
@@ -2553,8 +2128,8 @@
     <row r="73" ht="16.5" spans="4:11">
       <c r="D73" s="3"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
@@ -2563,8 +2138,8 @@
     <row r="74" ht="16.5" spans="4:11">
       <c r="D74" s="3"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
@@ -2573,18 +2148,18 @@
     <row r="75" ht="16.5" spans="4:11">
       <c r="D75" s="3"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
     </row>
     <row r="76" ht="16.5" spans="4:11">
-      <c r="D76" s="7"/>
+      <c r="D76" s="6"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
@@ -2593,8 +2168,8 @@
     <row r="77" ht="16.5" spans="4:11">
       <c r="D77" s="3"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
@@ -2603,8 +2178,8 @@
     <row r="78" ht="16.5" spans="4:11">
       <c r="D78" s="3"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
@@ -2613,29 +2188,29 @@
     <row r="79" ht="16.5" spans="4:11">
       <c r="D79" s="3"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
     </row>
     <row r="80" ht="16.5" spans="4:11">
-      <c r="D80" s="7"/>
+      <c r="D80" s="6"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="7"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="6"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
     </row>
     <row r="81" ht="16.5" spans="4:11">
-      <c r="D81" s="14"/>
+      <c r="D81" s="11"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="19"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="16"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
@@ -2643,8 +2218,8 @@
     <row r="82" ht="16.5" spans="4:11">
       <c r="D82" s="3"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
@@ -2653,19 +2228,19 @@
     <row r="83" ht="16.5" spans="4:11">
       <c r="D83" s="3"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
     </row>
     <row r="84" ht="16.5" spans="4:11">
-      <c r="D84" s="7"/>
+      <c r="D84" s="6"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="7"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="6"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
@@ -2673,8 +2248,8 @@
     <row r="85" ht="16.5" spans="4:11">
       <c r="D85" s="3"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
@@ -2683,29 +2258,29 @@
     <row r="86" ht="16.5" spans="4:11">
       <c r="D86" s="3"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
     </row>
     <row r="87" ht="16.5" spans="4:11">
-      <c r="D87" s="7"/>
+      <c r="D87" s="6"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="7"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="6"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
     </row>
     <row r="88" ht="16.5" spans="4:11">
-      <c r="D88" s="7"/>
+      <c r="D88" s="6"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="7"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="6"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
@@ -2713,8 +2288,8 @@
     <row r="89" ht="16.5" spans="4:11">
       <c r="D89" s="3"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
@@ -2723,8 +2298,8 @@
     <row r="90" ht="16.5" spans="4:11">
       <c r="D90" s="3"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
@@ -2733,8 +2308,8 @@
     <row r="91" ht="16.5" spans="4:11">
       <c r="D91" s="3"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
@@ -2743,8 +2318,8 @@
     <row r="92" ht="16.5" spans="4:11">
       <c r="D92" s="3"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
@@ -2753,8 +2328,8 @@
     <row r="93" ht="16.5" spans="4:11">
       <c r="D93" s="3"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
@@ -2763,8 +2338,8 @@
     <row r="94" ht="16.5" spans="4:11">
       <c r="D94" s="3"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="14"/>
-      <c r="G94" s="14"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
@@ -2773,8 +2348,8 @@
     <row r="95" ht="16.5" spans="4:11">
       <c r="D95" s="3"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
@@ -2783,8 +2358,8 @@
     <row r="96" ht="16.5" spans="4:11">
       <c r="D96" s="3"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
@@ -2793,8 +2368,8 @@
     <row r="97" ht="16.5" spans="4:11">
       <c r="D97" s="3"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
@@ -2803,8 +2378,8 @@
     <row r="98" ht="16.5" spans="4:11">
       <c r="D98" s="3"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
@@ -2813,8 +2388,8 @@
     <row r="99" ht="16.5" spans="4:11">
       <c r="D99" s="3"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="14"/>
-      <c r="G99" s="14"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
@@ -2823,29 +2398,29 @@
     <row r="100" ht="16.5" spans="4:11">
       <c r="D100" s="3"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="14"/>
-      <c r="G100" s="14"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
     </row>
     <row r="101" ht="16.5" spans="4:11">
-      <c r="D101" s="7"/>
+      <c r="D101" s="6"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="7"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="6"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
     </row>
     <row r="102" ht="16.5" spans="4:11">
-      <c r="D102" s="11"/>
+      <c r="D102" s="8"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="14"/>
-      <c r="G102" s="14"/>
-      <c r="H102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="8"/>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
@@ -2853,8 +2428,8 @@
     <row r="103" ht="16.5" spans="4:11">
       <c r="D103" s="3"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
@@ -2863,8 +2438,8 @@
     <row r="104" ht="16.5" spans="4:11">
       <c r="D104" s="3"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="14"/>
-      <c r="G104" s="14"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
@@ -2873,8 +2448,8 @@
     <row r="105" ht="16.5" spans="4:11">
       <c r="D105" s="3"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="14"/>
-      <c r="G105" s="14"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
@@ -2883,8 +2458,8 @@
     <row r="106" ht="16.5" spans="4:11">
       <c r="D106" s="3"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="14"/>
-      <c r="G106" s="14"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
@@ -2893,8 +2468,8 @@
     <row r="107" ht="16.5" spans="4:11">
       <c r="D107" s="3"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="14"/>
-      <c r="G107" s="14"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
@@ -2903,8 +2478,8 @@
     <row r="108" ht="16.5" spans="4:11">
       <c r="D108" s="3"/>
       <c r="E108" s="1"/>
-      <c r="F108" s="14"/>
-      <c r="G108" s="14"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
@@ -2913,8 +2488,8 @@
     <row r="109" ht="16.5" spans="4:11">
       <c r="D109" s="3"/>
       <c r="E109" s="1"/>
-      <c r="F109" s="14"/>
-      <c r="G109" s="14"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
@@ -2923,8 +2498,8 @@
     <row r="110" ht="16.5" spans="4:11">
       <c r="D110" s="3"/>
       <c r="E110" s="1"/>
-      <c r="F110" s="14"/>
-      <c r="G110" s="14"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
@@ -2933,8 +2508,8 @@
     <row r="111" ht="16.5" spans="4:11">
       <c r="D111" s="3"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="14"/>
-      <c r="G111" s="14"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
@@ -2943,19 +2518,19 @@
     <row r="112" ht="16.5" spans="4:11">
       <c r="D112" s="3"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="14"/>
-      <c r="G112" s="14"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
     </row>
     <row r="113" ht="16.5" spans="4:11">
-      <c r="D113" s="14"/>
+      <c r="D113" s="11"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="14"/>
-      <c r="G113" s="14"/>
-      <c r="H113" s="14"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
@@ -2963,8 +2538,8 @@
     <row r="114" ht="16.5" spans="4:11">
       <c r="D114" s="3"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="14"/>
-      <c r="G114" s="14"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
@@ -2973,8 +2548,8 @@
     <row r="115" ht="16.5" spans="4:11">
       <c r="D115" s="3"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="14"/>
-      <c r="G115" s="14"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
@@ -2983,8 +2558,8 @@
     <row r="116" ht="16.5" spans="4:11">
       <c r="D116" s="3"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="14"/>
-      <c r="G116" s="14"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
@@ -2993,8 +2568,8 @@
     <row r="117" ht="16.5" spans="4:11">
       <c r="D117" s="3"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="14"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
@@ -3003,8 +2578,8 @@
     <row r="118" ht="16.5" spans="4:11">
       <c r="D118" s="3"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="14"/>
-      <c r="G118" s="14"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
@@ -3013,8 +2588,8 @@
     <row r="119" ht="16.5" spans="4:11">
       <c r="D119" s="3"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="14"/>
-      <c r="G119" s="14"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
@@ -3023,8 +2598,8 @@
     <row r="120" ht="16.5" spans="4:11">
       <c r="D120" s="3"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="14"/>
-      <c r="G120" s="14"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
@@ -3033,20 +2608,20 @@
     <row r="121" ht="16.5" spans="4:11">
       <c r="D121" s="3"/>
       <c r="E121" s="1"/>
-      <c r="F121" s="14"/>
-      <c r="G121" s="14"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
     </row>
     <row r="122" ht="16.5" spans="4:11">
-      <c r="D122" s="7" t="s">
-        <v>73</v>
+      <c r="D122" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="E122" s="1"/>
-      <c r="F122" s="14"/>
-      <c r="G122" s="14"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
@@ -3055,8 +2630,8 @@
     <row r="123" ht="16.5" spans="4:11">
       <c r="D123" s="3"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="14"/>
-      <c r="G123" s="14"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
@@ -3065,8 +2640,8 @@
     <row r="124" ht="16.5" spans="4:11">
       <c r="D124" s="3"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="14"/>
-      <c r="G124" s="14"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11"/>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
@@ -3075,8 +2650,8 @@
     <row r="125" ht="16.5" spans="4:11">
       <c r="D125" s="3"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="14"/>
-      <c r="G125" s="14"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
@@ -3085,8 +2660,8 @@
     <row r="126" ht="16.5" spans="4:11">
       <c r="D126" s="3"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="14"/>
-      <c r="G126" s="14"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
@@ -3095,8 +2670,8 @@
     <row r="127" ht="16.5" spans="4:11">
       <c r="D127" s="3"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="14"/>
-      <c r="G127" s="14"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
@@ -3105,8 +2680,8 @@
     <row r="128" ht="16.5" spans="4:11">
       <c r="D128" s="3"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="14"/>
-      <c r="G128" s="14"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
@@ -3115,8 +2690,8 @@
     <row r="129" ht="16.5" spans="4:11">
       <c r="D129" s="3"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="14"/>
-      <c r="G129" s="14"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
@@ -3125,8 +2700,8 @@
     <row r="130" ht="16.5" spans="4:11">
       <c r="D130" s="3"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="14"/>
-      <c r="G130" s="14"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
@@ -3135,8 +2710,8 @@
     <row r="131" ht="16.5" spans="4:11">
       <c r="D131" s="3"/>
       <c r="E131" s="1"/>
-      <c r="F131" s="14"/>
-      <c r="G131" s="14"/>
+      <c r="F131" s="11"/>
+      <c r="G131" s="11"/>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
@@ -3145,8 +2720,8 @@
     <row r="132" ht="16.5" spans="4:11">
       <c r="D132" s="3"/>
       <c r="E132" s="1"/>
-      <c r="F132" s="14"/>
-      <c r="G132" s="14"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="11"/>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
@@ -3155,8 +2730,8 @@
     <row r="133" ht="16.5" spans="4:11">
       <c r="D133" s="3"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="14"/>
-      <c r="G133" s="14"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
@@ -3165,8 +2740,8 @@
     <row r="134" ht="16.5" spans="4:11">
       <c r="D134" s="3"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="14"/>
-      <c r="G134" s="14"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
@@ -3175,8 +2750,8 @@
     <row r="135" ht="16.5" spans="4:11">
       <c r="D135" s="3"/>
       <c r="E135" s="1"/>
-      <c r="F135" s="14"/>
-      <c r="G135" s="14"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
@@ -3185,8 +2760,8 @@
     <row r="136" ht="16.5" spans="4:11">
       <c r="D136" s="3"/>
       <c r="E136" s="1"/>
-      <c r="F136" s="14"/>
-      <c r="G136" s="14"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
@@ -3195,8 +2770,8 @@
     <row r="137" ht="16.5" spans="4:11">
       <c r="D137" s="3"/>
       <c r="E137" s="1"/>
-      <c r="F137" s="14"/>
-      <c r="G137" s="14"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
@@ -3205,8 +2780,8 @@
     <row r="138" ht="16.5" spans="4:11">
       <c r="D138" s="3"/>
       <c r="E138" s="1"/>
-      <c r="F138" s="14"/>
-      <c r="G138" s="14"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="11"/>
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
@@ -3215,8 +2790,8 @@
     <row r="139" ht="16.5" spans="4:11">
       <c r="D139" s="3"/>
       <c r="E139" s="1"/>
-      <c r="F139" s="14"/>
-      <c r="G139" s="14"/>
+      <c r="F139" s="11"/>
+      <c r="G139" s="11"/>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
@@ -3225,8 +2800,8 @@
     <row r="140" ht="16.5" spans="4:11">
       <c r="D140" s="3"/>
       <c r="E140" s="1"/>
-      <c r="F140" s="14"/>
-      <c r="G140" s="14"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11"/>
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
@@ -3235,8 +2810,8 @@
     <row r="141" ht="16.5" spans="4:11">
       <c r="D141" s="3"/>
       <c r="E141" s="1"/>
-      <c r="F141" s="14"/>
-      <c r="G141" s="14"/>
+      <c r="F141" s="11"/>
+      <c r="G141" s="11"/>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
@@ -3245,18 +2820,18 @@
     <row r="142" ht="16.5" spans="4:11">
       <c r="D142" s="3"/>
       <c r="E142" s="1"/>
-      <c r="F142" s="14"/>
-      <c r="G142" s="14"/>
+      <c r="F142" s="11"/>
+      <c r="G142" s="11"/>
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
     </row>
     <row r="143" ht="16.5" spans="4:11">
-      <c r="D143" s="7"/>
+      <c r="D143" s="6"/>
       <c r="E143" s="1"/>
-      <c r="F143" s="14"/>
-      <c r="G143" s="14"/>
+      <c r="F143" s="11"/>
+      <c r="G143" s="11"/>
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
@@ -3265,8 +2840,8 @@
     <row r="144" ht="16.5" spans="4:11">
       <c r="D144" s="3"/>
       <c r="E144" s="1"/>
-      <c r="F144" s="14"/>
-      <c r="G144" s="14"/>
+      <c r="F144" s="11"/>
+      <c r="G144" s="11"/>
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
@@ -3275,8 +2850,8 @@
     <row r="145" ht="16.5" spans="4:11">
       <c r="D145" s="3"/>
       <c r="E145" s="1"/>
-      <c r="F145" s="14"/>
-      <c r="G145" s="14"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
@@ -3285,8 +2860,8 @@
     <row r="146" ht="16.5" spans="4:11">
       <c r="D146" s="3"/>
       <c r="E146" s="1"/>
-      <c r="F146" s="14"/>
-      <c r="G146" s="14"/>
+      <c r="F146" s="11"/>
+      <c r="G146" s="11"/>
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
@@ -3295,8 +2870,8 @@
     <row r="147" ht="16.5" spans="4:11">
       <c r="D147" s="3"/>
       <c r="E147" s="1"/>
-      <c r="F147" s="14"/>
-      <c r="G147" s="14"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="11"/>
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
@@ -3305,8 +2880,8 @@
     <row r="148" ht="16.5" spans="4:11">
       <c r="D148" s="3"/>
       <c r="E148" s="1"/>
-      <c r="F148" s="14"/>
-      <c r="G148" s="14"/>
+      <c r="F148" s="11"/>
+      <c r="G148" s="11"/>
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
@@ -3315,8 +2890,8 @@
     <row r="149" ht="16.5" spans="4:11">
       <c r="D149" s="3"/>
       <c r="E149" s="1"/>
-      <c r="F149" s="14"/>
-      <c r="G149" s="14"/>
+      <c r="F149" s="11"/>
+      <c r="G149" s="11"/>
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
@@ -3325,8 +2900,8 @@
     <row r="150" ht="16.5" spans="4:11">
       <c r="D150" s="3"/>
       <c r="E150" s="1"/>
-      <c r="F150" s="14"/>
-      <c r="G150" s="14"/>
+      <c r="F150" s="11"/>
+      <c r="G150" s="11"/>
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
@@ -3335,8 +2910,8 @@
     <row r="151" ht="16.5" spans="4:11">
       <c r="D151" s="3"/>
       <c r="E151" s="1"/>
-      <c r="F151" s="14"/>
-      <c r="G151" s="14"/>
+      <c r="F151" s="11"/>
+      <c r="G151" s="11"/>
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
@@ -3345,8 +2920,8 @@
     <row r="152" ht="16.5" spans="4:11">
       <c r="D152" s="3"/>
       <c r="E152" s="1"/>
-      <c r="F152" s="14"/>
-      <c r="G152" s="14"/>
+      <c r="F152" s="11"/>
+      <c r="G152" s="11"/>
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
@@ -3355,8 +2930,8 @@
     <row r="153" ht="16.5" spans="4:11">
       <c r="D153" s="3"/>
       <c r="E153" s="1"/>
-      <c r="F153" s="14"/>
-      <c r="G153" s="14"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="11"/>
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
@@ -3365,18 +2940,18 @@
     <row r="154" ht="16.5" spans="4:11">
       <c r="D154" s="3"/>
       <c r="E154" s="1"/>
-      <c r="F154" s="14"/>
-      <c r="G154" s="14"/>
+      <c r="F154" s="11"/>
+      <c r="G154" s="11"/>
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
     </row>
     <row r="155" ht="16.5" spans="4:11">
-      <c r="D155" s="11"/>
+      <c r="D155" s="8"/>
       <c r="E155" s="1"/>
-      <c r="F155" s="14"/>
-      <c r="G155" s="14"/>
+      <c r="F155" s="11"/>
+      <c r="G155" s="11"/>
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
@@ -3385,8 +2960,8 @@
     <row r="156" ht="16.5" spans="4:11">
       <c r="D156" s="3"/>
       <c r="E156" s="1"/>
-      <c r="F156" s="14"/>
-      <c r="G156" s="14"/>
+      <c r="F156" s="11"/>
+      <c r="G156" s="11"/>
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
@@ -3395,8 +2970,8 @@
     <row r="157" ht="16.5" spans="4:11">
       <c r="D157" s="3"/>
       <c r="E157" s="1"/>
-      <c r="F157" s="14"/>
-      <c r="G157" s="14"/>
+      <c r="F157" s="11"/>
+      <c r="G157" s="11"/>
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
@@ -3405,8 +2980,8 @@
     <row r="158" ht="16.5" spans="4:11">
       <c r="D158" s="3"/>
       <c r="E158" s="1"/>
-      <c r="F158" s="14"/>
-      <c r="G158" s="14"/>
+      <c r="F158" s="11"/>
+      <c r="G158" s="11"/>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
@@ -3415,8 +2990,8 @@
     <row r="159" ht="16.5" spans="4:11">
       <c r="D159" s="3"/>
       <c r="E159" s="1"/>
-      <c r="F159" s="14"/>
-      <c r="G159" s="14"/>
+      <c r="F159" s="11"/>
+      <c r="G159" s="11"/>
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
@@ -3425,8 +3000,8 @@
     <row r="160" ht="16.5" spans="4:11">
       <c r="D160" s="3"/>
       <c r="E160" s="1"/>
-      <c r="F160" s="14"/>
-      <c r="G160" s="14"/>
+      <c r="F160" s="11"/>
+      <c r="G160" s="11"/>
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
@@ -3435,8 +3010,8 @@
     <row r="161" ht="16.5" spans="4:11">
       <c r="D161" s="3"/>
       <c r="E161" s="1"/>
-      <c r="F161" s="14"/>
-      <c r="G161" s="14"/>
+      <c r="F161" s="11"/>
+      <c r="G161" s="11"/>
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
@@ -3445,8 +3020,8 @@
     <row r="162" ht="16.5" spans="4:11">
       <c r="D162" s="3"/>
       <c r="E162" s="1"/>
-      <c r="F162" s="14"/>
-      <c r="G162" s="14"/>
+      <c r="F162" s="11"/>
+      <c r="G162" s="11"/>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
@@ -3455,8 +3030,8 @@
     <row r="163" ht="16.5" spans="4:11">
       <c r="D163" s="3"/>
       <c r="E163" s="1"/>
-      <c r="F163" s="14"/>
-      <c r="G163" s="14"/>
+      <c r="F163" s="11"/>
+      <c r="G163" s="11"/>
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
@@ -3465,8 +3040,8 @@
     <row r="164" ht="16.5" spans="4:11">
       <c r="D164" s="3"/>
       <c r="E164" s="1"/>
-      <c r="F164" s="14"/>
-      <c r="G164" s="14"/>
+      <c r="F164" s="11"/>
+      <c r="G164" s="11"/>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
@@ -3475,8 +3050,8 @@
     <row r="165" ht="16.5" spans="4:11">
       <c r="D165" s="3"/>
       <c r="E165" s="1"/>
-      <c r="F165" s="14"/>
-      <c r="G165" s="14"/>
+      <c r="F165" s="11"/>
+      <c r="G165" s="11"/>
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
@@ -3485,8 +3060,8 @@
     <row r="166" ht="16.5" spans="4:11">
       <c r="D166" s="3"/>
       <c r="E166" s="1"/>
-      <c r="F166" s="14"/>
-      <c r="G166" s="14"/>
+      <c r="F166" s="11"/>
+      <c r="G166" s="11"/>
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
@@ -3495,8 +3070,8 @@
     <row r="167" ht="16.5" spans="4:11">
       <c r="D167" s="3"/>
       <c r="E167" s="1"/>
-      <c r="F167" s="14"/>
-      <c r="G167" s="14"/>
+      <c r="F167" s="11"/>
+      <c r="G167" s="11"/>
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
@@ -3505,30 +3080,30 @@
     <row r="168" ht="16.5" spans="4:11">
       <c r="D168" s="3"/>
       <c r="E168" s="1"/>
-      <c r="F168" s="14"/>
-      <c r="G168" s="14"/>
+      <c r="F168" s="11"/>
+      <c r="G168" s="11"/>
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="3"/>
     </row>
     <row r="169" ht="16.5" spans="4:11">
-      <c r="D169" s="14"/>
+      <c r="D169" s="11"/>
       <c r="E169" s="1"/>
-      <c r="F169" s="14"/>
-      <c r="G169" s="14"/>
+      <c r="F169" s="11"/>
+      <c r="G169" s="11"/>
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3"/>
     </row>
     <row r="170" ht="16.5" spans="4:11">
-      <c r="D170" s="14" t="s">
-        <v>73</v>
+      <c r="D170" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="E170" s="1"/>
-      <c r="F170" s="14"/>
-      <c r="G170" s="14"/>
+      <c r="F170" s="11"/>
+      <c r="G170" s="11"/>
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
@@ -3537,8 +3112,8 @@
     <row r="171" ht="16.5" spans="4:11">
       <c r="D171" s="3"/>
       <c r="E171" s="1"/>
-      <c r="F171" s="14"/>
-      <c r="G171" s="14"/>
+      <c r="F171" s="11"/>
+      <c r="G171" s="11"/>
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
@@ -3547,88 +3122,88 @@
     <row r="172" ht="16.5" spans="4:11">
       <c r="D172" s="3"/>
       <c r="E172" s="1"/>
-      <c r="F172" s="14"/>
-      <c r="G172" s="14"/>
+      <c r="F172" s="11"/>
+      <c r="G172" s="11"/>
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
     </row>
     <row r="173" ht="16.5" spans="4:11">
-      <c r="D173" s="7"/>
+      <c r="D173" s="6"/>
       <c r="E173" s="1"/>
-      <c r="F173" s="14"/>
-      <c r="G173" s="14"/>
+      <c r="F173" s="11"/>
+      <c r="G173" s="11"/>
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
       <c r="K173" s="3"/>
     </row>
     <row r="174" ht="16.5" spans="4:11">
-      <c r="D174" s="14"/>
+      <c r="D174" s="11"/>
       <c r="E174" s="1"/>
-      <c r="F174" s="14"/>
-      <c r="G174" s="14"/>
+      <c r="F174" s="11"/>
+      <c r="G174" s="11"/>
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
       <c r="K174" s="3"/>
     </row>
     <row r="175" ht="16.5" spans="4:11">
-      <c r="D175" s="14"/>
+      <c r="D175" s="11"/>
       <c r="E175" s="1"/>
-      <c r="F175" s="14"/>
-      <c r="G175" s="14"/>
+      <c r="F175" s="11"/>
+      <c r="G175" s="11"/>
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
       <c r="K175" s="3"/>
     </row>
     <row r="176" ht="16.5" spans="4:11">
-      <c r="D176" s="14"/>
+      <c r="D176" s="11"/>
       <c r="E176" s="1"/>
-      <c r="F176" s="14"/>
-      <c r="G176" s="14"/>
+      <c r="F176" s="11"/>
+      <c r="G176" s="11"/>
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
       <c r="K176" s="3"/>
     </row>
     <row r="177" ht="16.5" spans="4:11">
-      <c r="D177" s="7"/>
+      <c r="D177" s="6"/>
       <c r="E177" s="1"/>
-      <c r="F177" s="14"/>
-      <c r="G177" s="14"/>
+      <c r="F177" s="11"/>
+      <c r="G177" s="11"/>
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
       <c r="K177" s="3"/>
     </row>
     <row r="178" ht="16.5" spans="4:11">
-      <c r="D178" s="11"/>
+      <c r="D178" s="8"/>
       <c r="E178" s="1"/>
-      <c r="F178" s="14"/>
-      <c r="G178" s="14"/>
+      <c r="F178" s="11"/>
+      <c r="G178" s="11"/>
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
       <c r="K178" s="3"/>
     </row>
     <row r="179" ht="16.5" spans="4:11">
-      <c r="D179" s="7"/>
+      <c r="D179" s="6"/>
       <c r="E179" s="1"/>
-      <c r="F179" s="14"/>
-      <c r="G179" s="14"/>
+      <c r="F179" s="11"/>
+      <c r="G179" s="11"/>
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
     </row>
     <row r="180" ht="16.5" spans="4:11">
-      <c r="D180" s="14"/>
+      <c r="D180" s="11"/>
       <c r="E180" s="1"/>
-      <c r="F180" s="14"/>
-      <c r="G180" s="14"/>
+      <c r="F180" s="11"/>
+      <c r="G180" s="11"/>
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
@@ -3637,8 +3212,8 @@
     <row r="181" ht="16.5" spans="4:11">
       <c r="D181" s="3"/>
       <c r="E181" s="1"/>
-      <c r="F181" s="14"/>
-      <c r="G181" s="14"/>
+      <c r="F181" s="11"/>
+      <c r="G181" s="11"/>
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
@@ -3647,8 +3222,8 @@
     <row r="182" ht="16.5" spans="4:11">
       <c r="D182" s="3"/>
       <c r="E182" s="1"/>
-      <c r="F182" s="14"/>
-      <c r="G182" s="14"/>
+      <c r="F182" s="11"/>
+      <c r="G182" s="11"/>
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
@@ -3657,8 +3232,8 @@
     <row r="183" ht="16.5" spans="4:11">
       <c r="D183" s="3"/>
       <c r="E183" s="1"/>
-      <c r="F183" s="14"/>
-      <c r="G183" s="14"/>
+      <c r="F183" s="11"/>
+      <c r="G183" s="11"/>
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
@@ -3667,8 +3242,8 @@
     <row r="184" ht="16.5" spans="4:11">
       <c r="D184" s="3"/>
       <c r="E184" s="1"/>
-      <c r="F184" s="14"/>
-      <c r="G184" s="14"/>
+      <c r="F184" s="11"/>
+      <c r="G184" s="11"/>
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
@@ -3677,8 +3252,8 @@
     <row r="185" ht="16.5" spans="4:11">
       <c r="D185" s="3"/>
       <c r="E185" s="1"/>
-      <c r="F185" s="14"/>
-      <c r="G185" s="14"/>
+      <c r="F185" s="11"/>
+      <c r="G185" s="11"/>
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
@@ -3687,8 +3262,8 @@
     <row r="186" ht="16.5" spans="4:11">
       <c r="D186" s="3"/>
       <c r="E186" s="1"/>
-      <c r="F186" s="14"/>
-      <c r="G186" s="14"/>
+      <c r="F186" s="11"/>
+      <c r="G186" s="11"/>
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
@@ -3697,8 +3272,8 @@
     <row r="187" ht="16.5" spans="4:11">
       <c r="D187" s="3"/>
       <c r="E187" s="1"/>
-      <c r="F187" s="14"/>
-      <c r="G187" s="14"/>
+      <c r="F187" s="11"/>
+      <c r="G187" s="11"/>
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
@@ -3707,8 +3282,8 @@
     <row r="188" ht="16.5" spans="4:11">
       <c r="D188" s="3"/>
       <c r="E188" s="1"/>
-      <c r="F188" s="14"/>
-      <c r="G188" s="14"/>
+      <c r="F188" s="11"/>
+      <c r="G188" s="11"/>
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
@@ -3717,8 +3292,8 @@
     <row r="189" ht="16.5" spans="4:11">
       <c r="D189" s="3"/>
       <c r="E189" s="1"/>
-      <c r="F189" s="14"/>
-      <c r="G189" s="14"/>
+      <c r="F189" s="11"/>
+      <c r="G189" s="11"/>
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
@@ -3727,8 +3302,8 @@
     <row r="190" ht="16.5" spans="4:11">
       <c r="D190" s="3"/>
       <c r="E190" s="1"/>
-      <c r="F190" s="14"/>
-      <c r="G190" s="14"/>
+      <c r="F190" s="11"/>
+      <c r="G190" s="11"/>
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
@@ -3737,8 +3312,8 @@
     <row r="191" ht="16.5" spans="4:11">
       <c r="D191" s="3"/>
       <c r="E191" s="1"/>
-      <c r="F191" s="14"/>
-      <c r="G191" s="14"/>
+      <c r="F191" s="11"/>
+      <c r="G191" s="11"/>
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
@@ -3747,8 +3322,8 @@
     <row r="192" ht="16.5" spans="4:11">
       <c r="D192" s="3"/>
       <c r="E192" s="1"/>
-      <c r="F192" s="14"/>
-      <c r="G192" s="14"/>
+      <c r="F192" s="11"/>
+      <c r="G192" s="11"/>
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
@@ -3757,8 +3332,8 @@
     <row r="193" ht="16.5" spans="4:11">
       <c r="D193" s="3"/>
       <c r="E193" s="1"/>
-      <c r="F193" s="14"/>
-      <c r="G193" s="14"/>
+      <c r="F193" s="11"/>
+      <c r="G193" s="11"/>
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
@@ -3767,8 +3342,8 @@
     <row r="194" ht="16.5" spans="4:11">
       <c r="D194" s="3"/>
       <c r="E194" s="1"/>
-      <c r="F194" s="14"/>
-      <c r="G194" s="14"/>
+      <c r="F194" s="11"/>
+      <c r="G194" s="11"/>
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
@@ -3777,8 +3352,8 @@
     <row r="195" ht="16.5" spans="4:11">
       <c r="D195" s="3"/>
       <c r="E195" s="1"/>
-      <c r="F195" s="14"/>
-      <c r="G195" s="14"/>
+      <c r="F195" s="11"/>
+      <c r="G195" s="11"/>
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
@@ -3787,8 +3362,8 @@
     <row r="196" ht="16.5" spans="4:11">
       <c r="D196" s="3"/>
       <c r="E196" s="1"/>
-      <c r="F196" s="14"/>
-      <c r="G196" s="14"/>
+      <c r="F196" s="11"/>
+      <c r="G196" s="11"/>
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
@@ -3797,8 +3372,8 @@
     <row r="197" ht="16.5" spans="4:11">
       <c r="D197" s="3"/>
       <c r="E197" s="1"/>
-      <c r="F197" s="14"/>
-      <c r="G197" s="14"/>
+      <c r="F197" s="11"/>
+      <c r="G197" s="11"/>
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
@@ -3807,8 +3382,8 @@
     <row r="198" ht="16.5" spans="4:11">
       <c r="D198" s="3"/>
       <c r="E198" s="1"/>
-      <c r="F198" s="14"/>
-      <c r="G198" s="14"/>
+      <c r="F198" s="11"/>
+      <c r="G198" s="11"/>
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
@@ -3817,8 +3392,8 @@
     <row r="199" ht="16.5" spans="4:11">
       <c r="D199" s="3"/>
       <c r="E199" s="1"/>
-      <c r="F199" s="14"/>
-      <c r="G199" s="14"/>
+      <c r="F199" s="11"/>
+      <c r="G199" s="11"/>
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
@@ -3827,8 +3402,8 @@
     <row r="200" ht="16.5" spans="4:11">
       <c r="D200" s="3"/>
       <c r="E200" s="1"/>
-      <c r="F200" s="14"/>
-      <c r="G200" s="14"/>
+      <c r="F200" s="11"/>
+      <c r="G200" s="11"/>
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
@@ -3837,8 +3412,8 @@
     <row r="201" ht="16.5" spans="4:11">
       <c r="D201" s="3"/>
       <c r="E201" s="1"/>
-      <c r="F201" s="14"/>
-      <c r="G201" s="14"/>
+      <c r="F201" s="11"/>
+      <c r="G201" s="11"/>
       <c r="H201" s="3"/>
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
@@ -3847,8 +3422,8 @@
     <row r="202" ht="16.5" spans="4:11">
       <c r="D202" s="3"/>
       <c r="E202" s="1"/>
-      <c r="F202" s="14"/>
-      <c r="G202" s="14"/>
+      <c r="F202" s="11"/>
+      <c r="G202" s="11"/>
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
@@ -3857,38 +3432,38 @@
     <row r="203" ht="16.5" spans="4:11">
       <c r="D203" s="3"/>
       <c r="E203" s="1"/>
-      <c r="F203" s="14"/>
-      <c r="G203" s="14"/>
+      <c r="F203" s="11"/>
+      <c r="G203" s="11"/>
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
       <c r="K203" s="3"/>
     </row>
     <row r="204" ht="16.5" spans="4:11">
-      <c r="D204" s="14"/>
+      <c r="D204" s="11"/>
       <c r="E204" s="1"/>
-      <c r="F204" s="14"/>
-      <c r="G204" s="14"/>
+      <c r="F204" s="11"/>
+      <c r="G204" s="11"/>
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
       <c r="K204" s="3"/>
     </row>
     <row r="205" ht="16.5" spans="4:11">
-      <c r="D205" s="11"/>
+      <c r="D205" s="8"/>
       <c r="E205" s="1"/>
-      <c r="F205" s="14"/>
-      <c r="G205" s="14"/>
+      <c r="F205" s="11"/>
+      <c r="G205" s="11"/>
       <c r="H205" s="3"/>
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
       <c r="K205" s="3"/>
     </row>
     <row r="206" ht="16.5" spans="4:11">
-      <c r="D206" s="11"/>
+      <c r="D206" s="8"/>
       <c r="E206" s="1"/>
-      <c r="F206" s="14"/>
-      <c r="G206" s="14"/>
+      <c r="F206" s="11"/>
+      <c r="G206" s="11"/>
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
@@ -3897,8 +3472,8 @@
     <row r="207" ht="16.5" spans="4:11">
       <c r="D207" s="3"/>
       <c r="E207" s="1"/>
-      <c r="F207" s="14"/>
-      <c r="G207" s="14"/>
+      <c r="F207" s="11"/>
+      <c r="G207" s="11"/>
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
@@ -3907,8 +3482,8 @@
     <row r="208" ht="16.5" spans="4:11">
       <c r="D208" s="3"/>
       <c r="E208" s="1"/>
-      <c r="F208" s="14"/>
-      <c r="G208" s="14"/>
+      <c r="F208" s="11"/>
+      <c r="G208" s="11"/>
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
@@ -3917,8 +3492,8 @@
     <row r="209" ht="16.5" spans="4:11">
       <c r="D209" s="3"/>
       <c r="E209" s="1"/>
-      <c r="F209" s="14"/>
-      <c r="G209" s="14"/>
+      <c r="F209" s="11"/>
+      <c r="G209" s="11"/>
       <c r="H209" s="3"/>
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
@@ -3927,8 +3502,8 @@
     <row r="210" ht="16.5" spans="4:11">
       <c r="D210" s="3"/>
       <c r="E210" s="1"/>
-      <c r="F210" s="14"/>
-      <c r="G210" s="14"/>
+      <c r="F210" s="11"/>
+      <c r="G210" s="11"/>
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
@@ -3937,8 +3512,8 @@
     <row r="211" ht="16.5" spans="4:11">
       <c r="D211" s="3"/>
       <c r="E211" s="1"/>
-      <c r="F211" s="14"/>
-      <c r="G211" s="14"/>
+      <c r="F211" s="11"/>
+      <c r="G211" s="11"/>
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
@@ -3947,18 +3522,18 @@
     <row r="212" ht="16.5" spans="4:11">
       <c r="D212" s="3"/>
       <c r="E212" s="1"/>
-      <c r="F212" s="14"/>
-      <c r="G212" s="14"/>
+      <c r="F212" s="11"/>
+      <c r="G212" s="11"/>
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
       <c r="K212" s="3"/>
     </row>
     <row r="213" ht="16.5" spans="4:11">
-      <c r="D213" s="11"/>
+      <c r="D213" s="8"/>
       <c r="E213" s="1"/>
-      <c r="F213" s="14"/>
-      <c r="G213" s="14"/>
+      <c r="F213" s="11"/>
+      <c r="G213" s="11"/>
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
@@ -3967,8 +3542,8 @@
     <row r="214" ht="16.5" spans="4:11">
       <c r="D214" s="3"/>
       <c r="E214" s="1"/>
-      <c r="F214" s="14"/>
-      <c r="G214" s="14"/>
+      <c r="F214" s="11"/>
+      <c r="G214" s="11"/>
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
@@ -3977,8 +3552,8 @@
     <row r="215" ht="16.5" spans="4:11">
       <c r="D215" s="3"/>
       <c r="E215" s="1"/>
-      <c r="F215" s="14"/>
-      <c r="G215" s="14"/>
+      <c r="F215" s="11"/>
+      <c r="G215" s="11"/>
       <c r="H215" s="3"/>
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
@@ -3987,8 +3562,8 @@
     <row r="216" ht="16.5" spans="4:11">
       <c r="D216" s="3"/>
       <c r="E216" s="1"/>
-      <c r="F216" s="14"/>
-      <c r="G216" s="14"/>
+      <c r="F216" s="11"/>
+      <c r="G216" s="11"/>
       <c r="H216" s="3"/>
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
@@ -3997,8 +3572,8 @@
     <row r="217" ht="16.5" spans="4:11">
       <c r="D217" s="3"/>
       <c r="E217" s="1"/>
-      <c r="F217" s="14"/>
-      <c r="G217" s="14"/>
+      <c r="F217" s="11"/>
+      <c r="G217" s="11"/>
       <c r="H217" s="3"/>
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
@@ -4007,8 +3582,8 @@
     <row r="218" ht="16.5" spans="4:11">
       <c r="D218" s="3"/>
       <c r="E218" s="1"/>
-      <c r="F218" s="14"/>
-      <c r="G218" s="14"/>
+      <c r="F218" s="11"/>
+      <c r="G218" s="11"/>
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
@@ -4017,8 +3592,8 @@
     <row r="219" ht="16.5" spans="4:11">
       <c r="D219" s="3"/>
       <c r="E219" s="1"/>
-      <c r="F219" s="14"/>
-      <c r="G219" s="14"/>
+      <c r="F219" s="11"/>
+      <c r="G219" s="11"/>
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
@@ -4027,8 +3602,8 @@
     <row r="220" ht="16.5" spans="4:11">
       <c r="D220" s="3"/>
       <c r="E220" s="1"/>
-      <c r="F220" s="14"/>
-      <c r="G220" s="14"/>
+      <c r="F220" s="11"/>
+      <c r="G220" s="11"/>
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
       <c r="J220" s="3"/>
@@ -4037,8 +3612,8 @@
     <row r="221" ht="16.5" spans="4:11">
       <c r="D221" s="3"/>
       <c r="E221" s="1"/>
-      <c r="F221" s="14"/>
-      <c r="G221" s="14"/>
+      <c r="F221" s="11"/>
+      <c r="G221" s="11"/>
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
@@ -4047,58 +3622,58 @@
     <row r="222" ht="16.5" spans="4:11">
       <c r="D222" s="3"/>
       <c r="E222" s="1"/>
-      <c r="F222" s="14"/>
-      <c r="G222" s="14"/>
+      <c r="F222" s="11"/>
+      <c r="G222" s="11"/>
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
       <c r="K222" s="3"/>
     </row>
     <row r="223" ht="16.5" spans="4:11">
-      <c r="D223" s="14"/>
+      <c r="D223" s="11"/>
       <c r="E223" s="1"/>
-      <c r="F223" s="14"/>
-      <c r="G223" s="14"/>
+      <c r="F223" s="11"/>
+      <c r="G223" s="11"/>
       <c r="H223" s="3"/>
       <c r="I223" s="3"/>
       <c r="J223" s="3"/>
       <c r="K223" s="3"/>
     </row>
     <row r="224" ht="16.5" spans="4:11">
-      <c r="D224" s="7"/>
+      <c r="D224" s="6"/>
       <c r="E224" s="1"/>
-      <c r="F224" s="14"/>
-      <c r="G224" s="14"/>
+      <c r="F224" s="11"/>
+      <c r="G224" s="11"/>
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
       <c r="J224" s="3"/>
       <c r="K224" s="3"/>
     </row>
     <row r="225" ht="16.5" spans="4:11">
-      <c r="D225" s="7"/>
+      <c r="D225" s="6"/>
       <c r="E225" s="1"/>
-      <c r="F225" s="14"/>
-      <c r="G225" s="14"/>
+      <c r="F225" s="11"/>
+      <c r="G225" s="11"/>
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
       <c r="K225" s="3"/>
     </row>
     <row r="226" ht="16.5" spans="4:11">
-      <c r="D226" s="14"/>
+      <c r="D226" s="11"/>
       <c r="E226" s="1"/>
-      <c r="F226" s="14"/>
-      <c r="G226" s="14"/>
+      <c r="F226" s="11"/>
+      <c r="G226" s="11"/>
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
       <c r="K226" s="3"/>
     </row>
     <row r="227" ht="16.5" spans="4:11">
-      <c r="D227" s="14"/>
+      <c r="D227" s="11"/>
       <c r="E227" s="1"/>
-      <c r="F227" s="14"/>
-      <c r="G227" s="14"/>
+      <c r="F227" s="11"/>
+      <c r="G227" s="11"/>
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
@@ -4107,18 +3682,18 @@
     <row r="228" ht="16.5" spans="4:11">
       <c r="D228" s="3"/>
       <c r="E228" s="1"/>
-      <c r="F228" s="14"/>
-      <c r="G228" s="14"/>
+      <c r="F228" s="11"/>
+      <c r="G228" s="11"/>
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
       <c r="K228" s="3"/>
     </row>
     <row r="229" ht="16.5" spans="4:11">
-      <c r="D229" s="7"/>
+      <c r="D229" s="6"/>
       <c r="E229" s="1"/>
-      <c r="F229" s="14"/>
-      <c r="G229" s="14"/>
+      <c r="F229" s="11"/>
+      <c r="G229" s="11"/>
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
       <c r="J229" s="3"/>
@@ -4127,8 +3702,8 @@
     <row r="230" ht="16.5" spans="4:11">
       <c r="D230" s="3"/>
       <c r="E230" s="1"/>
-      <c r="F230" s="14"/>
-      <c r="G230" s="14"/>
+      <c r="F230" s="11"/>
+      <c r="G230" s="11"/>
       <c r="H230" s="3"/>
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
@@ -4137,8 +3712,8 @@
     <row r="231" ht="16.5" spans="4:11">
       <c r="D231" s="3"/>
       <c r="E231" s="1"/>
-      <c r="F231" s="14"/>
-      <c r="G231" s="14"/>
+      <c r="F231" s="11"/>
+      <c r="G231" s="11"/>
       <c r="H231" s="3"/>
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
@@ -4147,8 +3722,8 @@
     <row r="232" ht="16.5" spans="4:11">
       <c r="D232" s="3"/>
       <c r="E232" s="1"/>
-      <c r="F232" s="14"/>
-      <c r="G232" s="14"/>
+      <c r="F232" s="11"/>
+      <c r="G232" s="11"/>
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
@@ -4157,8 +3732,8 @@
     <row r="233" ht="16.5" spans="4:11">
       <c r="D233" s="3"/>
       <c r="E233" s="1"/>
-      <c r="F233" s="14"/>
-      <c r="G233" s="14"/>
+      <c r="F233" s="11"/>
+      <c r="G233" s="11"/>
       <c r="H233" s="3"/>
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
@@ -4167,8 +3742,8 @@
     <row r="234" ht="16.5" spans="4:11">
       <c r="D234" s="3"/>
       <c r="E234" s="1"/>
-      <c r="F234" s="14"/>
-      <c r="G234" s="14"/>
+      <c r="F234" s="11"/>
+      <c r="G234" s="11"/>
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
@@ -4177,8 +3752,8 @@
     <row r="235" ht="16.5" spans="4:11">
       <c r="D235" s="3"/>
       <c r="E235" s="1"/>
-      <c r="F235" s="14"/>
-      <c r="G235" s="14"/>
+      <c r="F235" s="11"/>
+      <c r="G235" s="11"/>
       <c r="H235" s="3"/>
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
@@ -4187,8 +3762,8 @@
     <row r="236" ht="16.5" spans="4:11">
       <c r="D236" s="3"/>
       <c r="E236" s="1"/>
-      <c r="F236" s="14"/>
-      <c r="G236" s="14"/>
+      <c r="F236" s="11"/>
+      <c r="G236" s="11"/>
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
@@ -4197,8 +3772,8 @@
     <row r="237" ht="16.5" spans="4:11">
       <c r="D237" s="3"/>
       <c r="E237" s="1"/>
-      <c r="F237" s="14"/>
-      <c r="G237" s="14"/>
+      <c r="F237" s="11"/>
+      <c r="G237" s="11"/>
       <c r="H237" s="3"/>
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
@@ -4207,18 +3782,18 @@
     <row r="238" ht="16.5" spans="4:11">
       <c r="D238" s="3"/>
       <c r="E238" s="1"/>
-      <c r="F238" s="14"/>
-      <c r="G238" s="14"/>
+      <c r="F238" s="11"/>
+      <c r="G238" s="11"/>
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
       <c r="J238" s="3"/>
       <c r="K238" s="3"/>
     </row>
     <row r="239" ht="16.5" spans="4:11">
-      <c r="D239" s="14"/>
+      <c r="D239" s="11"/>
       <c r="E239" s="1"/>
-      <c r="F239" s="14"/>
-      <c r="G239" s="14"/>
+      <c r="F239" s="11"/>
+      <c r="G239" s="11"/>
       <c r="H239" s="3"/>
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
@@ -4227,8 +3802,8 @@
     <row r="240" ht="16.5" spans="4:11">
       <c r="D240" s="3"/>
       <c r="E240" s="1"/>
-      <c r="F240" s="14"/>
-      <c r="G240" s="14"/>
+      <c r="F240" s="11"/>
+      <c r="G240" s="11"/>
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
       <c r="J240" s="3"/>
@@ -4237,8 +3812,8 @@
     <row r="241" ht="16.5" spans="4:11">
       <c r="D241" s="3"/>
       <c r="E241" s="1"/>
-      <c r="F241" s="14"/>
-      <c r="G241" s="14"/>
+      <c r="F241" s="11"/>
+      <c r="G241" s="11"/>
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
       <c r="J241" s="3"/>
@@ -4247,8 +3822,8 @@
     <row r="242" ht="16.5" spans="4:11">
       <c r="D242" s="3"/>
       <c r="E242" s="1"/>
-      <c r="F242" s="14"/>
-      <c r="G242" s="14"/>
+      <c r="F242" s="11"/>
+      <c r="G242" s="11"/>
       <c r="H242" s="3"/>
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
@@ -4257,8 +3832,8 @@
     <row r="243" ht="16.5" spans="4:11">
       <c r="D243" s="3"/>
       <c r="E243" s="1"/>
-      <c r="F243" s="14"/>
-      <c r="G243" s="14"/>
+      <c r="F243" s="11"/>
+      <c r="G243" s="11"/>
       <c r="H243" s="3"/>
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
@@ -4267,8 +3842,8 @@
     <row r="244" ht="16.5" spans="4:11">
       <c r="D244" s="3"/>
       <c r="E244" s="1"/>
-      <c r="F244" s="14"/>
-      <c r="G244" s="14"/>
+      <c r="F244" s="11"/>
+      <c r="G244" s="11"/>
       <c r="H244" s="3"/>
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
@@ -4277,8 +3852,8 @@
     <row r="245" ht="16.5" spans="4:11">
       <c r="D245" s="3"/>
       <c r="E245" s="1"/>
-      <c r="F245" s="14"/>
-      <c r="G245" s="14"/>
+      <c r="F245" s="11"/>
+      <c r="G245" s="11"/>
       <c r="H245" s="3"/>
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
@@ -4287,8 +3862,8 @@
     <row r="246" ht="16.5" spans="4:11">
       <c r="D246" s="3"/>
       <c r="E246" s="1"/>
-      <c r="F246" s="14"/>
-      <c r="G246" s="14"/>
+      <c r="F246" s="11"/>
+      <c r="G246" s="11"/>
       <c r="H246" s="3"/>
       <c r="I246" s="3"/>
       <c r="J246" s="3"/>
@@ -4297,8 +3872,8 @@
     <row r="247" ht="16.5" spans="4:11">
       <c r="D247" s="3"/>
       <c r="E247" s="1"/>
-      <c r="F247" s="14"/>
-      <c r="G247" s="14"/>
+      <c r="F247" s="11"/>
+      <c r="G247" s="11"/>
       <c r="H247" s="3"/>
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>
@@ -4307,8 +3882,8 @@
     <row r="248" ht="16.5" spans="4:11">
       <c r="D248" s="3"/>
       <c r="E248" s="1"/>
-      <c r="F248" s="14"/>
-      <c r="G248" s="14"/>
+      <c r="F248" s="11"/>
+      <c r="G248" s="11"/>
       <c r="H248" s="3"/>
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
@@ -4317,8 +3892,8 @@
     <row r="249" ht="16.5" spans="4:11">
       <c r="D249" s="3"/>
       <c r="E249" s="1"/>
-      <c r="F249" s="14"/>
-      <c r="G249" s="14"/>
+      <c r="F249" s="11"/>
+      <c r="G249" s="11"/>
       <c r="H249" s="3"/>
       <c r="I249" s="3"/>
       <c r="J249" s="3"/>
@@ -4327,8 +3902,8 @@
     <row r="250" ht="16.5" spans="4:11">
       <c r="D250" s="3"/>
       <c r="E250" s="1"/>
-      <c r="F250" s="14"/>
-      <c r="G250" s="14"/>
+      <c r="F250" s="11"/>
+      <c r="G250" s="11"/>
       <c r="H250" s="3"/>
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
@@ -4337,8 +3912,8 @@
     <row r="251" ht="16.5" spans="4:11">
       <c r="D251" s="3"/>
       <c r="E251" s="1"/>
-      <c r="F251" s="14"/>
-      <c r="G251" s="14"/>
+      <c r="F251" s="11"/>
+      <c r="G251" s="11"/>
       <c r="H251" s="3"/>
       <c r="I251" s="3"/>
       <c r="J251" s="3"/>
@@ -4347,8 +3922,8 @@
     <row r="252" ht="16.5" spans="4:11">
       <c r="D252" s="3"/>
       <c r="E252" s="1"/>
-      <c r="F252" s="14"/>
-      <c r="G252" s="14"/>
+      <c r="F252" s="11"/>
+      <c r="G252" s="11"/>
       <c r="H252" s="3"/>
       <c r="I252" s="3"/>
       <c r="J252" s="3"/>
@@ -4357,8 +3932,8 @@
     <row r="253" ht="16.5" spans="4:11">
       <c r="D253" s="3"/>
       <c r="E253" s="1"/>
-      <c r="F253" s="14"/>
-      <c r="G253" s="14"/>
+      <c r="F253" s="11"/>
+      <c r="G253" s="11"/>
       <c r="H253" s="3"/>
       <c r="I253" s="3"/>
       <c r="J253" s="3"/>
@@ -4367,8 +3942,8 @@
     <row r="254" ht="16.5" spans="4:11">
       <c r="D254" s="3"/>
       <c r="E254" s="1"/>
-      <c r="F254" s="14"/>
-      <c r="G254" s="14"/>
+      <c r="F254" s="11"/>
+      <c r="G254" s="11"/>
       <c r="H254" s="3"/>
       <c r="I254" s="3"/>
       <c r="J254" s="3"/>
@@ -4377,18 +3952,18 @@
     <row r="255" ht="16.5" spans="4:11">
       <c r="D255" s="3"/>
       <c r="E255" s="1"/>
-      <c r="F255" s="14"/>
-      <c r="G255" s="14"/>
+      <c r="F255" s="11"/>
+      <c r="G255" s="11"/>
       <c r="H255" s="3"/>
       <c r="I255" s="3"/>
       <c r="J255" s="3"/>
       <c r="K255" s="3"/>
     </row>
     <row r="256" ht="16.5" spans="4:11">
-      <c r="D256" s="7"/>
+      <c r="D256" s="6"/>
       <c r="E256" s="1"/>
-      <c r="F256" s="14"/>
-      <c r="G256" s="14"/>
+      <c r="F256" s="11"/>
+      <c r="G256" s="11"/>
       <c r="H256" s="3"/>
       <c r="I256" s="3"/>
       <c r="J256" s="3"/>
@@ -4397,8 +3972,8 @@
     <row r="257" ht="16.5" spans="4:11">
       <c r="D257" s="3"/>
       <c r="E257" s="1"/>
-      <c r="F257" s="14"/>
-      <c r="G257" s="14"/>
+      <c r="F257" s="11"/>
+      <c r="G257" s="11"/>
       <c r="H257" s="3"/>
       <c r="I257" s="3"/>
       <c r="J257" s="3"/>
@@ -4407,8 +3982,8 @@
     <row r="258" ht="16.5" spans="4:11">
       <c r="D258" s="3"/>
       <c r="E258" s="1"/>
-      <c r="F258" s="14"/>
-      <c r="G258" s="14"/>
+      <c r="F258" s="11"/>
+      <c r="G258" s="11"/>
       <c r="H258" s="3"/>
       <c r="I258" s="3"/>
       <c r="J258" s="3"/>
@@ -4417,8 +3992,8 @@
     <row r="259" ht="16.5" spans="4:11">
       <c r="D259" s="3"/>
       <c r="E259" s="1"/>
-      <c r="F259" s="14"/>
-      <c r="G259" s="14"/>
+      <c r="F259" s="11"/>
+      <c r="G259" s="11"/>
       <c r="H259" s="3"/>
       <c r="I259" s="3"/>
       <c r="J259" s="3"/>
@@ -4427,8 +4002,8 @@
     <row r="260" ht="16.5" spans="4:11">
       <c r="D260" s="3"/>
       <c r="E260" s="1"/>
-      <c r="F260" s="14"/>
-      <c r="G260" s="14"/>
+      <c r="F260" s="11"/>
+      <c r="G260" s="11"/>
       <c r="H260" s="3"/>
       <c r="I260" s="3"/>
       <c r="J260" s="3"/>
@@ -4437,8 +4012,8 @@
     <row r="261" ht="16.5" spans="4:11">
       <c r="D261" s="3"/>
       <c r="E261" s="1"/>
-      <c r="F261" s="14"/>
-      <c r="G261" s="14"/>
+      <c r="F261" s="11"/>
+      <c r="G261" s="11"/>
       <c r="H261" s="3"/>
       <c r="I261" s="3"/>
       <c r="J261" s="3"/>
@@ -4447,8 +4022,8 @@
     <row r="262" ht="16.5" spans="4:11">
       <c r="D262" s="3"/>
       <c r="E262" s="1"/>
-      <c r="F262" s="14"/>
-      <c r="G262" s="14"/>
+      <c r="F262" s="11"/>
+      <c r="G262" s="11"/>
       <c r="H262" s="3"/>
       <c r="I262" s="3"/>
       <c r="J262" s="3"/>
@@ -4457,8 +4032,8 @@
     <row r="263" ht="16.5" spans="4:11">
       <c r="D263" s="3"/>
       <c r="E263" s="1"/>
-      <c r="F263" s="14"/>
-      <c r="G263" s="14"/>
+      <c r="F263" s="11"/>
+      <c r="G263" s="11"/>
       <c r="H263" s="3"/>
       <c r="I263" s="3"/>
       <c r="J263" s="3"/>
@@ -4467,8 +4042,8 @@
     <row r="264" ht="16.5" spans="4:11">
       <c r="D264" s="3"/>
       <c r="E264" s="1"/>
-      <c r="F264" s="14"/>
-      <c r="G264" s="20"/>
+      <c r="F264" s="11"/>
+      <c r="G264" s="17"/>
       <c r="H264" s="3"/>
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
@@ -4477,8 +4052,8 @@
     <row r="265" ht="16.5" spans="4:11">
       <c r="D265" s="3"/>
       <c r="E265" s="1"/>
-      <c r="F265" s="14"/>
-      <c r="G265" s="14"/>
+      <c r="F265" s="11"/>
+      <c r="G265" s="11"/>
       <c r="H265" s="3"/>
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
@@ -4487,8 +4062,8 @@
     <row r="266" ht="16.5" spans="4:11">
       <c r="D266" s="3"/>
       <c r="E266" s="1"/>
-      <c r="F266" s="14"/>
-      <c r="G266" s="14"/>
+      <c r="F266" s="11"/>
+      <c r="G266" s="11"/>
       <c r="H266" s="3"/>
       <c r="I266" s="3"/>
       <c r="J266" s="3"/>
@@ -4497,8 +4072,8 @@
     <row r="267" ht="16.5" spans="4:11">
       <c r="D267" s="3"/>
       <c r="E267" s="1"/>
-      <c r="F267" s="14"/>
-      <c r="G267" s="14"/>
+      <c r="F267" s="11"/>
+      <c r="G267" s="11"/>
       <c r="H267" s="3"/>
       <c r="I267" s="3"/>
       <c r="J267" s="3"/>
@@ -4507,8 +4082,8 @@
     <row r="268" ht="16.5" spans="4:11">
       <c r="D268" s="3"/>
       <c r="E268" s="1"/>
-      <c r="F268" s="14"/>
-      <c r="G268" s="14"/>
+      <c r="F268" s="11"/>
+      <c r="G268" s="11"/>
       <c r="H268" s="3"/>
       <c r="I268" s="3"/>
       <c r="J268" s="3"/>
@@ -4517,8 +4092,8 @@
     <row r="269" ht="16.5" spans="4:11">
       <c r="D269" s="3"/>
       <c r="E269" s="1"/>
-      <c r="F269" s="14"/>
-      <c r="G269" s="14"/>
+      <c r="F269" s="11"/>
+      <c r="G269" s="11"/>
       <c r="H269" s="3"/>
       <c r="I269" s="3"/>
       <c r="J269" s="3"/>
@@ -4527,8 +4102,8 @@
     <row r="270" ht="16.5" spans="4:11">
       <c r="D270" s="3"/>
       <c r="E270" s="1"/>
-      <c r="F270" s="14"/>
-      <c r="G270" s="14"/>
+      <c r="F270" s="11"/>
+      <c r="G270" s="11"/>
       <c r="H270" s="3"/>
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
@@ -4537,8 +4112,8 @@
     <row r="271" ht="16.5" spans="4:11">
       <c r="D271" s="3"/>
       <c r="E271" s="1"/>
-      <c r="F271" s="16"/>
-      <c r="G271" s="16"/>
+      <c r="F271" s="13"/>
+      <c r="G271" s="13"/>
       <c r="H271" s="3"/>
       <c r="I271" s="3"/>
       <c r="J271" s="3"/>
@@ -4547,8 +4122,8 @@
     <row r="272" ht="16.5" spans="4:11">
       <c r="D272" s="3"/>
       <c r="E272" s="1"/>
-      <c r="F272" s="14"/>
-      <c r="G272" s="14"/>
+      <c r="F272" s="11"/>
+      <c r="G272" s="11"/>
       <c r="H272" s="3"/>
       <c r="I272" s="3"/>
       <c r="J272" s="3"/>
@@ -4557,8 +4132,8 @@
     <row r="273" ht="16.5" spans="4:11">
       <c r="D273" s="3"/>
       <c r="E273" s="1"/>
-      <c r="F273" s="14"/>
-      <c r="G273" s="14"/>
+      <c r="F273" s="11"/>
+      <c r="G273" s="11"/>
       <c r="H273" s="3"/>
       <c r="I273" s="3"/>
       <c r="J273" s="3"/>
@@ -4567,8 +4142,8 @@
     <row r="274" ht="16.5" spans="4:11">
       <c r="D274" s="3"/>
       <c r="E274" s="1"/>
-      <c r="F274" s="14"/>
-      <c r="G274" s="14"/>
+      <c r="F274" s="11"/>
+      <c r="G274" s="11"/>
       <c r="H274" s="3"/>
       <c r="I274" s="3"/>
       <c r="J274" s="3"/>
@@ -4577,8 +4152,8 @@
     <row r="275" ht="16.5" spans="4:11">
       <c r="D275" s="3"/>
       <c r="E275" s="1"/>
-      <c r="F275" s="14"/>
-      <c r="G275" s="14"/>
+      <c r="F275" s="11"/>
+      <c r="G275" s="11"/>
       <c r="H275" s="3"/>
       <c r="I275" s="3"/>
       <c r="J275" s="3"/>
@@ -4587,8 +4162,8 @@
     <row r="276" ht="16.5" spans="4:11">
       <c r="D276" s="3"/>
       <c r="E276" s="1"/>
-      <c r="F276" s="14"/>
-      <c r="G276" s="14"/>
+      <c r="F276" s="11"/>
+      <c r="G276" s="11"/>
       <c r="H276" s="3"/>
       <c r="I276" s="3"/>
       <c r="J276" s="3"/>
@@ -4597,8 +4172,8 @@
     <row r="277" ht="16.5" spans="4:11">
       <c r="D277" s="3"/>
       <c r="E277" s="1"/>
-      <c r="F277" s="14"/>
-      <c r="G277" s="14"/>
+      <c r="F277" s="11"/>
+      <c r="G277" s="11"/>
       <c r="H277" s="3"/>
       <c r="I277" s="3"/>
       <c r="J277" s="3"/>
@@ -4607,8 +4182,8 @@
     <row r="278" ht="16.5" spans="4:11">
       <c r="D278" s="3"/>
       <c r="E278" s="1"/>
-      <c r="F278" s="14"/>
-      <c r="G278" s="14"/>
+      <c r="F278" s="11"/>
+      <c r="G278" s="11"/>
       <c r="H278" s="3"/>
       <c r="I278" s="3"/>
       <c r="J278" s="3"/>
@@ -4617,8 +4192,8 @@
     <row r="279" ht="16.5" spans="4:11">
       <c r="D279" s="3"/>
       <c r="E279" s="1"/>
-      <c r="F279" s="14"/>
-      <c r="G279" s="14"/>
+      <c r="F279" s="11"/>
+      <c r="G279" s="11"/>
       <c r="H279" s="3"/>
       <c r="I279" s="3"/>
       <c r="J279" s="3"/>
@@ -4627,18 +4202,18 @@
     <row r="280" ht="16.5" spans="4:11">
       <c r="D280" s="3"/>
       <c r="E280" s="1"/>
-      <c r="F280" s="14"/>
-      <c r="G280" s="14"/>
+      <c r="F280" s="11"/>
+      <c r="G280" s="11"/>
       <c r="H280" s="3"/>
       <c r="I280" s="3"/>
       <c r="J280" s="3"/>
       <c r="K280" s="3"/>
     </row>
     <row r="281" ht="16.5" spans="4:11">
-      <c r="D281" s="11"/>
+      <c r="D281" s="8"/>
       <c r="E281" s="1"/>
-      <c r="F281" s="16"/>
-      <c r="G281" s="16"/>
+      <c r="F281" s="13"/>
+      <c r="G281" s="13"/>
       <c r="H281" s="3"/>
       <c r="I281" s="3"/>
       <c r="J281" s="3"/>
@@ -4647,8 +4222,8 @@
     <row r="282" ht="16.5" spans="4:11">
       <c r="D282" s="3"/>
       <c r="E282" s="1"/>
-      <c r="F282" s="16"/>
-      <c r="G282" s="16"/>
+      <c r="F282" s="13"/>
+      <c r="G282" s="13"/>
       <c r="H282" s="3"/>
       <c r="I282" s="3"/>
       <c r="J282" s="3"/>
@@ -4657,8 +4232,8 @@
     <row r="283" ht="16.5" spans="4:11">
       <c r="D283" s="3"/>
       <c r="E283" s="1"/>
-      <c r="F283" s="16"/>
-      <c r="G283" s="16"/>
+      <c r="F283" s="13"/>
+      <c r="G283" s="13"/>
       <c r="H283" s="3"/>
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
@@ -4667,8 +4242,8 @@
     <row r="284" ht="16.5" spans="4:11">
       <c r="D284" s="3"/>
       <c r="E284" s="1"/>
-      <c r="F284" s="16"/>
-      <c r="G284" s="16"/>
+      <c r="F284" s="13"/>
+      <c r="G284" s="13"/>
       <c r="H284" s="3"/>
       <c r="I284" s="3"/>
       <c r="J284" s="3"/>
@@ -4677,8 +4252,8 @@
     <row r="285" ht="16.5" spans="4:11">
       <c r="D285" s="3"/>
       <c r="E285" s="1"/>
-      <c r="F285" s="16"/>
-      <c r="G285" s="16"/>
+      <c r="F285" s="13"/>
+      <c r="G285" s="13"/>
       <c r="H285" s="3"/>
       <c r="I285" s="3"/>
       <c r="J285" s="3"/>
@@ -4687,8 +4262,8 @@
     <row r="286" ht="16.5" spans="4:11">
       <c r="D286" s="3"/>
       <c r="E286" s="1"/>
-      <c r="F286" s="16"/>
-      <c r="G286" s="16"/>
+      <c r="F286" s="13"/>
+      <c r="G286" s="13"/>
       <c r="H286" s="3"/>
       <c r="I286" s="3"/>
       <c r="J286" s="3"/>
@@ -4697,8 +4272,8 @@
     <row r="287" ht="16.5" spans="4:11">
       <c r="D287" s="3"/>
       <c r="E287" s="1"/>
-      <c r="F287" s="16"/>
-      <c r="G287" s="16"/>
+      <c r="F287" s="13"/>
+      <c r="G287" s="13"/>
       <c r="H287" s="3"/>
       <c r="I287" s="3"/>
       <c r="J287" s="3"/>
@@ -4707,8 +4282,8 @@
     <row r="288" ht="16.5" spans="4:11">
       <c r="D288" s="3"/>
       <c r="E288" s="1"/>
-      <c r="F288" s="16"/>
-      <c r="G288" s="16"/>
+      <c r="F288" s="13"/>
+      <c r="G288" s="13"/>
       <c r="H288" s="3"/>
       <c r="I288" s="3"/>
       <c r="J288" s="3"/>
@@ -4717,8 +4292,8 @@
     <row r="289" ht="16.5" spans="4:11">
       <c r="D289" s="3"/>
       <c r="E289" s="1"/>
-      <c r="F289" s="16"/>
-      <c r="G289" s="16"/>
+      <c r="F289" s="13"/>
+      <c r="G289" s="13"/>
       <c r="H289" s="3"/>
       <c r="I289" s="3"/>
       <c r="J289" s="3"/>
@@ -4727,8 +4302,8 @@
     <row r="290" ht="16.5" spans="4:11">
       <c r="D290" s="3"/>
       <c r="E290" s="1"/>
-      <c r="F290" s="16"/>
-      <c r="G290" s="16"/>
+      <c r="F290" s="13"/>
+      <c r="G290" s="13"/>
       <c r="H290" s="3"/>
       <c r="I290" s="3"/>
       <c r="J290" s="3"/>
@@ -4737,8 +4312,8 @@
     <row r="291" ht="16.5" spans="4:11">
       <c r="D291" s="3"/>
       <c r="E291" s="1"/>
-      <c r="F291" s="16"/>
-      <c r="G291" s="16"/>
+      <c r="F291" s="13"/>
+      <c r="G291" s="13"/>
       <c r="H291" s="3"/>
       <c r="I291" s="3"/>
       <c r="J291" s="3"/>
@@ -4747,8 +4322,8 @@
     <row r="292" ht="16.5" spans="4:11">
       <c r="D292" s="3"/>
       <c r="E292" s="1"/>
-      <c r="F292" s="16"/>
-      <c r="G292" s="16"/>
+      <c r="F292" s="13"/>
+      <c r="G292" s="13"/>
       <c r="H292" s="3"/>
       <c r="I292" s="3"/>
       <c r="J292" s="3"/>
@@ -4757,8 +4332,8 @@
     <row r="293" ht="16.5" spans="4:11">
       <c r="D293" s="3"/>
       <c r="E293" s="1"/>
-      <c r="F293" s="16"/>
-      <c r="G293" s="16"/>
+      <c r="F293" s="13"/>
+      <c r="G293" s="13"/>
       <c r="H293" s="3"/>
       <c r="I293" s="3"/>
       <c r="J293" s="3"/>
@@ -4767,8 +4342,8 @@
     <row r="294" ht="16.5" spans="4:11">
       <c r="D294" s="3"/>
       <c r="E294" s="1"/>
-      <c r="F294" s="16"/>
-      <c r="G294" s="16"/>
+      <c r="F294" s="13"/>
+      <c r="G294" s="13"/>
       <c r="H294" s="3"/>
       <c r="I294" s="3"/>
       <c r="J294" s="3"/>
@@ -4777,8 +4352,8 @@
     <row r="295" ht="16.5" spans="4:11">
       <c r="D295" s="3"/>
       <c r="E295" s="1"/>
-      <c r="F295" s="16"/>
-      <c r="G295" s="16"/>
+      <c r="F295" s="13"/>
+      <c r="G295" s="13"/>
       <c r="H295" s="3"/>
       <c r="I295" s="3"/>
       <c r="J295" s="3"/>
@@ -4787,8 +4362,8 @@
     <row r="296" ht="16.5" spans="4:11">
       <c r="D296" s="3"/>
       <c r="E296" s="1"/>
-      <c r="F296" s="16"/>
-      <c r="G296" s="16"/>
+      <c r="F296" s="13"/>
+      <c r="G296" s="13"/>
       <c r="H296" s="3"/>
       <c r="I296" s="3"/>
       <c r="J296" s="3"/>
@@ -4797,8 +4372,8 @@
     <row r="297" ht="16.5" spans="4:11">
       <c r="D297" s="3"/>
       <c r="E297" s="1"/>
-      <c r="F297" s="16"/>
-      <c r="G297" s="16"/>
+      <c r="F297" s="13"/>
+      <c r="G297" s="13"/>
       <c r="H297" s="3"/>
       <c r="I297" s="3"/>
       <c r="J297" s="3"/>
@@ -4807,8 +4382,8 @@
     <row r="298" ht="16.5" spans="4:11">
       <c r="D298" s="3"/>
       <c r="E298" s="1"/>
-      <c r="F298" s="16"/>
-      <c r="G298" s="16"/>
+      <c r="F298" s="13"/>
+      <c r="G298" s="13"/>
       <c r="H298" s="3"/>
       <c r="I298" s="3"/>
       <c r="J298" s="3"/>
@@ -4817,8 +4392,8 @@
     <row r="299" ht="16.5" spans="4:11">
       <c r="D299" s="3"/>
       <c r="E299" s="1"/>
-      <c r="F299" s="16"/>
-      <c r="G299" s="16"/>
+      <c r="F299" s="13"/>
+      <c r="G299" s="13"/>
       <c r="H299" s="3"/>
       <c r="I299" s="3"/>
       <c r="J299" s="3"/>
@@ -4827,8 +4402,8 @@
     <row r="300" ht="16.5" spans="4:11">
       <c r="D300" s="3"/>
       <c r="E300" s="1"/>
-      <c r="F300" s="16"/>
-      <c r="G300" s="16"/>
+      <c r="F300" s="13"/>
+      <c r="G300" s="13"/>
       <c r="H300" s="3"/>
       <c r="I300" s="3"/>
       <c r="J300" s="3"/>
@@ -4837,8 +4412,8 @@
     <row r="301" ht="16.5" spans="4:11">
       <c r="D301" s="3"/>
       <c r="E301" s="1"/>
-      <c r="F301" s="16"/>
-      <c r="G301" s="16"/>
+      <c r="F301" s="13"/>
+      <c r="G301" s="13"/>
       <c r="H301" s="3"/>
       <c r="I301" s="3"/>
       <c r="J301" s="3"/>
@@ -4847,8 +4422,8 @@
     <row r="302" ht="16.5" spans="4:11">
       <c r="D302" s="3"/>
       <c r="E302" s="1"/>
-      <c r="F302" s="16"/>
-      <c r="G302" s="16"/>
+      <c r="F302" s="13"/>
+      <c r="G302" s="13"/>
       <c r="H302" s="3"/>
       <c r="I302" s="3"/>
       <c r="J302" s="3"/>
@@ -4857,8 +4432,8 @@
     <row r="303" ht="16.5" spans="4:11">
       <c r="D303" s="3"/>
       <c r="E303" s="1"/>
-      <c r="F303" s="16"/>
-      <c r="G303" s="16"/>
+      <c r="F303" s="13"/>
+      <c r="G303" s="13"/>
       <c r="H303" s="3"/>
       <c r="I303" s="3"/>
       <c r="J303" s="3"/>
@@ -4867,8 +4442,8 @@
     <row r="304" ht="16.5" spans="4:11">
       <c r="D304" s="3"/>
       <c r="E304" s="1"/>
-      <c r="F304" s="16"/>
-      <c r="G304" s="16"/>
+      <c r="F304" s="13"/>
+      <c r="G304" s="13"/>
       <c r="H304" s="3"/>
       <c r="I304" s="3"/>
       <c r="J304" s="3"/>
@@ -4877,8 +4452,8 @@
     <row r="305" ht="16.5" spans="4:11">
       <c r="D305" s="3"/>
       <c r="E305" s="1"/>
-      <c r="F305" s="16"/>
-      <c r="G305" s="16"/>
+      <c r="F305" s="13"/>
+      <c r="G305" s="13"/>
       <c r="H305" s="3"/>
       <c r="I305" s="3"/>
       <c r="J305" s="3"/>
@@ -4887,8 +4462,8 @@
     <row r="306" ht="16.5" spans="4:11">
       <c r="D306" s="3"/>
       <c r="E306" s="1"/>
-      <c r="F306" s="16"/>
-      <c r="G306" s="16"/>
+      <c r="F306" s="13"/>
+      <c r="G306" s="13"/>
       <c r="H306" s="3"/>
       <c r="I306" s="3"/>
       <c r="J306" s="3"/>
@@ -4897,8 +4472,8 @@
     <row r="307" ht="16.5" spans="4:11">
       <c r="D307" s="3"/>
       <c r="E307" s="1"/>
-      <c r="F307" s="16"/>
-      <c r="G307" s="16"/>
+      <c r="F307" s="13"/>
+      <c r="G307" s="13"/>
       <c r="H307" s="3"/>
       <c r="I307" s="3"/>
       <c r="J307" s="3"/>
@@ -4907,8 +4482,8 @@
     <row r="308" ht="16.5" spans="4:11">
       <c r="D308" s="3"/>
       <c r="E308" s="1"/>
-      <c r="F308" s="16"/>
-      <c r="G308" s="16"/>
+      <c r="F308" s="13"/>
+      <c r="G308" s="13"/>
       <c r="H308" s="3"/>
       <c r="I308" s="3"/>
       <c r="J308" s="3"/>
@@ -4917,8 +4492,8 @@
     <row r="309" ht="16.5" spans="4:11">
       <c r="D309" s="3"/>
       <c r="E309" s="1"/>
-      <c r="F309" s="16"/>
-      <c r="G309" s="16"/>
+      <c r="F309" s="13"/>
+      <c r="G309" s="13"/>
       <c r="H309" s="3"/>
       <c r="I309" s="3"/>
       <c r="J309" s="3"/>
@@ -4927,8 +4502,8 @@
     <row r="310" ht="16.5" spans="4:11">
       <c r="D310" s="3"/>
       <c r="E310" s="1"/>
-      <c r="F310" s="16"/>
-      <c r="G310" s="16"/>
+      <c r="F310" s="13"/>
+      <c r="G310" s="13"/>
       <c r="H310" s="3"/>
       <c r="I310" s="3"/>
       <c r="J310" s="3"/>
@@ -4937,8 +4512,8 @@
     <row r="311" ht="16.5" spans="4:11">
       <c r="D311" s="3"/>
       <c r="E311" s="1"/>
-      <c r="F311" s="16"/>
-      <c r="G311" s="16"/>
+      <c r="F311" s="13"/>
+      <c r="G311" s="13"/>
       <c r="H311" s="3"/>
       <c r="I311" s="3"/>
       <c r="J311" s="3"/>
@@ -4947,8 +4522,8 @@
     <row r="312" ht="16.5" spans="4:11">
       <c r="D312" s="3"/>
       <c r="E312" s="1"/>
-      <c r="F312" s="16"/>
-      <c r="G312" s="16"/>
+      <c r="F312" s="13"/>
+      <c r="G312" s="13"/>
       <c r="H312" s="3"/>
       <c r="I312" s="3"/>
       <c r="J312" s="3"/>
@@ -4957,8 +4532,8 @@
     <row r="313" ht="16.5" spans="4:11">
       <c r="D313" s="3"/>
       <c r="E313" s="1"/>
-      <c r="F313" s="16"/>
-      <c r="G313" s="16"/>
+      <c r="F313" s="13"/>
+      <c r="G313" s="13"/>
       <c r="H313" s="3"/>
       <c r="I313" s="3"/>
       <c r="J313" s="3"/>
@@ -4967,8 +4542,8 @@
     <row r="314" ht="16.5" spans="4:11">
       <c r="D314" s="3"/>
       <c r="E314" s="1"/>
-      <c r="F314" s="16"/>
-      <c r="G314" s="16"/>
+      <c r="F314" s="13"/>
+      <c r="G314" s="13"/>
       <c r="H314" s="3"/>
       <c r="I314" s="3"/>
       <c r="J314" s="3"/>
@@ -4977,8 +4552,8 @@
     <row r="315" ht="16.5" spans="4:11">
       <c r="D315" s="3"/>
       <c r="E315" s="1"/>
-      <c r="F315" s="16"/>
-      <c r="G315" s="16"/>
+      <c r="F315" s="13"/>
+      <c r="G315" s="13"/>
       <c r="H315" s="3"/>
       <c r="I315" s="3"/>
       <c r="J315" s="3"/>
@@ -4987,8 +4562,8 @@
     <row r="316" ht="16.5" spans="4:11">
       <c r="D316" s="3"/>
       <c r="E316" s="1"/>
-      <c r="F316" s="16"/>
-      <c r="G316" s="16"/>
+      <c r="F316" s="13"/>
+      <c r="G316" s="13"/>
       <c r="H316" s="3"/>
       <c r="I316" s="3"/>
       <c r="J316" s="3"/>
@@ -4997,8 +4572,8 @@
     <row r="317" ht="16.5" spans="4:11">
       <c r="D317" s="3"/>
       <c r="E317" s="1"/>
-      <c r="F317" s="16"/>
-      <c r="G317" s="16"/>
+      <c r="F317" s="13"/>
+      <c r="G317" s="13"/>
       <c r="H317" s="3"/>
       <c r="I317" s="3"/>
       <c r="J317" s="3"/>
@@ -5007,8 +4582,8 @@
     <row r="318" ht="16.5" spans="4:11">
       <c r="D318" s="3"/>
       <c r="E318" s="1"/>
-      <c r="F318" s="16"/>
-      <c r="G318" s="16"/>
+      <c r="F318" s="13"/>
+      <c r="G318" s="13"/>
       <c r="H318" s="3"/>
       <c r="I318" s="3"/>
       <c r="J318" s="3"/>
@@ -5017,8 +4592,8 @@
     <row r="319" ht="16.5" spans="4:11">
       <c r="D319" s="3"/>
       <c r="E319" s="1"/>
-      <c r="F319" s="16"/>
-      <c r="G319" s="16"/>
+      <c r="F319" s="13"/>
+      <c r="G319" s="13"/>
       <c r="H319" s="3"/>
       <c r="I319" s="3"/>
       <c r="J319" s="3"/>
@@ -5027,8 +4602,8 @@
     <row r="320" ht="16.5" spans="4:11">
       <c r="D320" s="3"/>
       <c r="E320" s="1"/>
-      <c r="F320" s="16"/>
-      <c r="G320" s="16"/>
+      <c r="F320" s="13"/>
+      <c r="G320" s="13"/>
       <c r="H320" s="3"/>
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
@@ -5037,8 +4612,8 @@
     <row r="321" ht="16.5" spans="4:11">
       <c r="D321" s="3"/>
       <c r="E321" s="1"/>
-      <c r="F321" s="16"/>
-      <c r="G321" s="16"/>
+      <c r="F321" s="13"/>
+      <c r="G321" s="13"/>
       <c r="H321" s="3"/>
       <c r="I321" s="3"/>
       <c r="J321" s="3"/>
@@ -5047,8 +4622,8 @@
     <row r="322" ht="16.5" spans="4:11">
       <c r="D322" s="3"/>
       <c r="E322" s="1"/>
-      <c r="F322" s="16"/>
-      <c r="G322" s="16"/>
+      <c r="F322" s="13"/>
+      <c r="G322" s="13"/>
       <c r="H322" s="3"/>
       <c r="I322" s="3"/>
       <c r="J322" s="3"/>
@@ -5057,8 +4632,8 @@
     <row r="323" ht="16.5" spans="4:11">
       <c r="D323" s="3"/>
       <c r="E323" s="1"/>
-      <c r="F323" s="16"/>
-      <c r="G323" s="16"/>
+      <c r="F323" s="13"/>
+      <c r="G323" s="13"/>
       <c r="H323" s="3"/>
       <c r="I323" s="3"/>
       <c r="J323" s="3"/>
@@ -5067,8 +4642,8 @@
     <row r="324" ht="16.5" spans="4:11">
       <c r="D324" s="3"/>
       <c r="E324" s="1"/>
-      <c r="F324" s="16"/>
-      <c r="G324" s="16"/>
+      <c r="F324" s="13"/>
+      <c r="G324" s="13"/>
       <c r="H324" s="3"/>
       <c r="I324" s="3"/>
       <c r="J324" s="3"/>
@@ -5077,8 +4652,8 @@
     <row r="325" ht="16.5" spans="4:11">
       <c r="D325" s="3"/>
       <c r="E325" s="1"/>
-      <c r="F325" s="16"/>
-      <c r="G325" s="16"/>
+      <c r="F325" s="13"/>
+      <c r="G325" s="13"/>
       <c r="H325" s="3"/>
       <c r="I325" s="3"/>
       <c r="J325" s="3"/>
@@ -5087,8 +4662,8 @@
     <row r="326" ht="16.5" spans="4:11">
       <c r="D326" s="3"/>
       <c r="E326" s="1"/>
-      <c r="F326" s="16"/>
-      <c r="G326" s="16"/>
+      <c r="F326" s="13"/>
+      <c r="G326" s="13"/>
       <c r="H326" s="3"/>
       <c r="I326" s="3"/>
       <c r="J326" s="3"/>
@@ -5097,8 +4672,8 @@
     <row r="327" ht="16.5" spans="4:11">
       <c r="D327" s="3"/>
       <c r="E327" s="1"/>
-      <c r="F327" s="16"/>
-      <c r="G327" s="16"/>
+      <c r="F327" s="13"/>
+      <c r="G327" s="13"/>
       <c r="H327" s="3"/>
       <c r="I327" s="3"/>
       <c r="J327" s="3"/>
@@ -5107,8 +4682,8 @@
     <row r="328" ht="16.5" spans="4:11">
       <c r="D328" s="3"/>
       <c r="E328" s="1"/>
-      <c r="F328" s="16"/>
-      <c r="G328" s="16"/>
+      <c r="F328" s="13"/>
+      <c r="G328" s="13"/>
       <c r="H328" s="3"/>
       <c r="I328" s="3"/>
       <c r="J328" s="3"/>
@@ -5117,8 +4692,8 @@
     <row r="329" ht="16.5" spans="4:11">
       <c r="D329" s="3"/>
       <c r="E329" s="1"/>
-      <c r="F329" s="16"/>
-      <c r="G329" s="16"/>
+      <c r="F329" s="13"/>
+      <c r="G329" s="13"/>
       <c r="H329" s="3"/>
       <c r="I329" s="3"/>
       <c r="J329" s="3"/>
@@ -5127,8 +4702,8 @@
     <row r="330" ht="16.5" spans="4:11">
       <c r="D330" s="3"/>
       <c r="E330" s="1"/>
-      <c r="F330" s="16"/>
-      <c r="G330" s="16"/>
+      <c r="F330" s="13"/>
+      <c r="G330" s="13"/>
       <c r="H330" s="3"/>
       <c r="I330" s="3"/>
       <c r="J330" s="3"/>
@@ -5137,8 +4712,8 @@
     <row r="331" ht="16.5" spans="4:11">
       <c r="D331" s="3"/>
       <c r="E331" s="1"/>
-      <c r="F331" s="16"/>
-      <c r="G331" s="16"/>
+      <c r="F331" s="13"/>
+      <c r="G331" s="13"/>
       <c r="H331" s="3"/>
       <c r="I331" s="3"/>
       <c r="J331" s="3"/>
@@ -5147,8 +4722,8 @@
     <row r="332" ht="16.5" spans="4:11">
       <c r="D332" s="3"/>
       <c r="E332" s="1"/>
-      <c r="F332" s="16"/>
-      <c r="G332" s="16"/>
+      <c r="F332" s="13"/>
+      <c r="G332" s="13"/>
       <c r="H332" s="3"/>
       <c r="I332" s="3"/>
       <c r="J332" s="3"/>
@@ -5157,8 +4732,8 @@
     <row r="333" ht="16.5" spans="4:11">
       <c r="D333" s="3"/>
       <c r="E333" s="1"/>
-      <c r="F333" s="16"/>
-      <c r="G333" s="16"/>
+      <c r="F333" s="13"/>
+      <c r="G333" s="13"/>
       <c r="H333" s="3"/>
       <c r="I333" s="3"/>
       <c r="J333" s="3"/>
@@ -5167,8 +4742,8 @@
     <row r="334" ht="16.5" spans="4:11">
       <c r="D334" s="3"/>
       <c r="E334" s="1"/>
-      <c r="F334" s="16"/>
-      <c r="G334" s="16"/>
+      <c r="F334" s="13"/>
+      <c r="G334" s="13"/>
       <c r="H334" s="3"/>
       <c r="I334" s="3"/>
       <c r="J334" s="3"/>
@@ -5177,8 +4752,8 @@
     <row r="335" ht="16.5" spans="4:11">
       <c r="D335" s="3"/>
       <c r="E335" s="1"/>
-      <c r="F335" s="16"/>
-      <c r="G335" s="16"/>
+      <c r="F335" s="13"/>
+      <c r="G335" s="13"/>
       <c r="H335" s="3"/>
       <c r="I335" s="3"/>
       <c r="J335" s="3"/>
@@ -5187,8 +4762,8 @@
     <row r="336" ht="16.5" spans="4:11">
       <c r="D336" s="3"/>
       <c r="E336" s="1"/>
-      <c r="F336" s="16"/>
-      <c r="G336" s="16"/>
+      <c r="F336" s="13"/>
+      <c r="G336" s="13"/>
       <c r="H336" s="3"/>
       <c r="I336" s="3"/>
       <c r="J336" s="3"/>
@@ -5197,8 +4772,8 @@
     <row r="337" ht="16.5" spans="4:11">
       <c r="D337" s="3"/>
       <c r="E337" s="1"/>
-      <c r="F337" s="16"/>
-      <c r="G337" s="16"/>
+      <c r="F337" s="13"/>
+      <c r="G337" s="13"/>
       <c r="H337" s="3"/>
       <c r="I337" s="3"/>
       <c r="J337" s="3"/>
@@ -5207,8 +4782,8 @@
     <row r="338" ht="16.5" spans="4:11">
       <c r="D338" s="3"/>
       <c r="E338" s="1"/>
-      <c r="F338" s="16"/>
-      <c r="G338" s="16"/>
+      <c r="F338" s="13"/>
+      <c r="G338" s="13"/>
       <c r="H338" s="3"/>
       <c r="I338" s="3"/>
       <c r="J338" s="3"/>
@@ -5217,8 +4792,8 @@
     <row r="339" ht="16.5" spans="4:11">
       <c r="D339" s="3"/>
       <c r="E339" s="1"/>
-      <c r="F339" s="16"/>
-      <c r="G339" s="16"/>
+      <c r="F339" s="13"/>
+      <c r="G339" s="13"/>
       <c r="H339" s="3"/>
       <c r="I339" s="3"/>
       <c r="J339" s="3"/>
@@ -5227,8 +4802,8 @@
     <row r="340" ht="16.5" spans="4:11">
       <c r="D340" s="3"/>
       <c r="E340" s="1"/>
-      <c r="F340" s="16"/>
-      <c r="G340" s="16"/>
+      <c r="F340" s="13"/>
+      <c r="G340" s="13"/>
       <c r="H340" s="3"/>
       <c r="I340" s="3"/>
       <c r="J340" s="3"/>
@@ -5237,8 +4812,8 @@
     <row r="341" ht="16.5" spans="4:11">
       <c r="D341" s="3"/>
       <c r="E341" s="1"/>
-      <c r="F341" s="16"/>
-      <c r="G341" s="16"/>
+      <c r="F341" s="13"/>
+      <c r="G341" s="13"/>
       <c r="H341" s="3"/>
       <c r="I341" s="3"/>
       <c r="J341" s="3"/>
@@ -5247,8 +4822,8 @@
     <row r="342" ht="16.5" spans="4:11">
       <c r="D342" s="3"/>
       <c r="E342" s="1"/>
-      <c r="F342" s="16"/>
-      <c r="G342" s="16"/>
+      <c r="F342" s="13"/>
+      <c r="G342" s="13"/>
       <c r="H342" s="3"/>
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
@@ -5257,8 +4832,8 @@
     <row r="343" ht="16.5" spans="4:11">
       <c r="D343" s="3"/>
       <c r="E343" s="1"/>
-      <c r="F343" s="16"/>
-      <c r="G343" s="16"/>
+      <c r="F343" s="13"/>
+      <c r="G343" s="13"/>
       <c r="H343" s="3"/>
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
@@ -5267,8 +4842,8 @@
     <row r="344" ht="16.5" spans="4:11">
       <c r="D344" s="3"/>
       <c r="E344" s="1"/>
-      <c r="F344" s="16"/>
-      <c r="G344" s="16"/>
+      <c r="F344" s="13"/>
+      <c r="G344" s="13"/>
       <c r="H344" s="3"/>
       <c r="I344" s="3"/>
       <c r="J344" s="3"/>
@@ -5277,8 +4852,8 @@
     <row r="345" ht="16.5" spans="4:11">
       <c r="D345" s="3"/>
       <c r="E345" s="1"/>
-      <c r="F345" s="16"/>
-      <c r="G345" s="16"/>
+      <c r="F345" s="13"/>
+      <c r="G345" s="13"/>
       <c r="H345" s="3"/>
       <c r="I345" s="3"/>
       <c r="J345" s="3"/>
@@ -5287,8 +4862,8 @@
     <row r="346" ht="16.5" spans="4:11">
       <c r="D346" s="3"/>
       <c r="E346" s="1"/>
-      <c r="F346" s="16"/>
-      <c r="G346" s="16"/>
+      <c r="F346" s="13"/>
+      <c r="G346" s="13"/>
       <c r="H346" s="3"/>
       <c r="I346" s="3"/>
       <c r="J346" s="3"/>
@@ -5297,8 +4872,8 @@
     <row r="347" ht="16.5" spans="4:11">
       <c r="D347" s="3"/>
       <c r="E347" s="1"/>
-      <c r="F347" s="16"/>
-      <c r="G347" s="16"/>
+      <c r="F347" s="13"/>
+      <c r="G347" s="13"/>
       <c r="H347" s="3"/>
       <c r="I347" s="3"/>
       <c r="J347" s="3"/>
@@ -5307,8 +4882,8 @@
     <row r="348" ht="16.5" spans="4:11">
       <c r="D348" s="3"/>
       <c r="E348" s="1"/>
-      <c r="F348" s="16"/>
-      <c r="G348" s="16"/>
+      <c r="F348" s="13"/>
+      <c r="G348" s="13"/>
       <c r="H348" s="3"/>
       <c r="I348" s="3"/>
       <c r="J348" s="3"/>
@@ -5317,8 +4892,8 @@
     <row r="349" ht="16.5" spans="4:11">
       <c r="D349" s="3"/>
       <c r="E349" s="1"/>
-      <c r="F349" s="16"/>
-      <c r="G349" s="16"/>
+      <c r="F349" s="13"/>
+      <c r="G349" s="13"/>
       <c r="H349" s="3"/>
       <c r="I349" s="3"/>
       <c r="J349" s="3"/>
@@ -5327,8 +4902,8 @@
     <row r="350" ht="16.5" spans="4:11">
       <c r="D350" s="3"/>
       <c r="E350" s="1"/>
-      <c r="F350" s="16"/>
-      <c r="G350" s="16"/>
+      <c r="F350" s="13"/>
+      <c r="G350" s="13"/>
       <c r="H350" s="3"/>
       <c r="I350" s="3"/>
       <c r="J350" s="3"/>
@@ -5337,8 +4912,8 @@
     <row r="351" ht="16.5" spans="4:11">
       <c r="D351" s="3"/>
       <c r="E351" s="1"/>
-      <c r="F351" s="16"/>
-      <c r="G351" s="16"/>
+      <c r="F351" s="13"/>
+      <c r="G351" s="13"/>
       <c r="H351" s="3"/>
       <c r="I351" s="3"/>
       <c r="J351" s="3"/>
@@ -5347,8 +4922,8 @@
     <row r="352" ht="16.5" spans="4:11">
       <c r="D352" s="3"/>
       <c r="E352" s="1"/>
-      <c r="F352" s="16"/>
-      <c r="G352" s="16"/>
+      <c r="F352" s="13"/>
+      <c r="G352" s="13"/>
       <c r="H352" s="3"/>
       <c r="I352" s="3"/>
       <c r="J352" s="3"/>
@@ -5357,8 +4932,8 @@
     <row r="353" ht="16.5" spans="4:11">
       <c r="D353" s="3"/>
       <c r="E353" s="1"/>
-      <c r="F353" s="16"/>
-      <c r="G353" s="16"/>
+      <c r="F353" s="13"/>
+      <c r="G353" s="13"/>
       <c r="H353" s="3"/>
       <c r="I353" s="3"/>
       <c r="J353" s="3"/>
@@ -5367,8 +4942,8 @@
     <row r="354" ht="16.5" spans="4:11">
       <c r="D354" s="3"/>
       <c r="E354" s="1"/>
-      <c r="F354" s="16"/>
-      <c r="G354" s="16"/>
+      <c r="F354" s="13"/>
+      <c r="G354" s="13"/>
       <c r="H354" s="3"/>
       <c r="I354" s="3"/>
       <c r="J354" s="3"/>
@@ -5377,8 +4952,8 @@
     <row r="355" ht="16.5" spans="4:11">
       <c r="D355" s="3"/>
       <c r="E355" s="1"/>
-      <c r="F355" s="16"/>
-      <c r="G355" s="16"/>
+      <c r="F355" s="13"/>
+      <c r="G355" s="13"/>
       <c r="H355" s="3"/>
       <c r="I355" s="3"/>
       <c r="J355" s="3"/>
@@ -5387,8 +4962,8 @@
     <row r="356" ht="16.5" spans="4:11">
       <c r="D356" s="3"/>
       <c r="E356" s="1"/>
-      <c r="F356" s="14"/>
-      <c r="G356" s="14"/>
+      <c r="F356" s="11"/>
+      <c r="G356" s="11"/>
       <c r="H356" s="3"/>
       <c r="I356" s="3"/>
       <c r="J356" s="3"/>
@@ -5397,8 +4972,8 @@
     <row r="357" ht="16.5" spans="4:11">
       <c r="D357" s="3"/>
       <c r="E357" s="1"/>
-      <c r="F357" s="14"/>
-      <c r="G357" s="14"/>
+      <c r="F357" s="11"/>
+      <c r="G357" s="11"/>
       <c r="H357" s="3"/>
       <c r="I357" s="3"/>
       <c r="J357" s="3"/>
@@ -5407,8 +4982,8 @@
     <row r="358" ht="16.5" spans="4:11">
       <c r="D358" s="3"/>
       <c r="E358" s="1"/>
-      <c r="F358" s="14"/>
-      <c r="G358" s="14"/>
+      <c r="F358" s="11"/>
+      <c r="G358" s="11"/>
       <c r="H358" s="3"/>
       <c r="I358" s="3"/>
       <c r="J358" s="3"/>
@@ -5417,8 +4992,8 @@
     <row r="359" ht="16.5" spans="4:11">
       <c r="D359" s="3"/>
       <c r="E359" s="1"/>
-      <c r="F359" s="14"/>
-      <c r="G359" s="14"/>
+      <c r="F359" s="11"/>
+      <c r="G359" s="11"/>
       <c r="H359" s="3"/>
       <c r="I359" s="3"/>
       <c r="J359" s="3"/>
@@ -5427,58 +5002,58 @@
     <row r="360" ht="16.5" spans="4:11">
       <c r="D360" s="3"/>
       <c r="E360" s="1"/>
-      <c r="F360" s="14"/>
-      <c r="G360" s="14"/>
+      <c r="F360" s="11"/>
+      <c r="G360" s="11"/>
       <c r="H360" s="3"/>
       <c r="I360" s="3"/>
       <c r="J360" s="3"/>
       <c r="K360" s="3"/>
     </row>
     <row r="361" ht="16.5" spans="4:11">
-      <c r="D361" s="7"/>
+      <c r="D361" s="6"/>
       <c r="E361" s="1"/>
-      <c r="F361" s="14"/>
-      <c r="G361" s="14"/>
+      <c r="F361" s="11"/>
+      <c r="G361" s="11"/>
       <c r="H361" s="3"/>
       <c r="I361" s="3"/>
       <c r="J361" s="3"/>
       <c r="K361" s="3"/>
     </row>
     <row r="362" ht="16.5" spans="4:11">
-      <c r="D362" s="7"/>
+      <c r="D362" s="6"/>
       <c r="E362" s="1"/>
-      <c r="F362" s="14"/>
-      <c r="G362" s="14"/>
+      <c r="F362" s="11"/>
+      <c r="G362" s="11"/>
       <c r="H362" s="3"/>
       <c r="I362" s="3"/>
       <c r="J362" s="3"/>
       <c r="K362" s="3"/>
     </row>
     <row r="363" ht="16.5" spans="4:11">
-      <c r="D363" s="7"/>
+      <c r="D363" s="6"/>
       <c r="E363" s="1"/>
-      <c r="F363" s="14"/>
-      <c r="G363" s="14"/>
+      <c r="F363" s="11"/>
+      <c r="G363" s="11"/>
       <c r="H363" s="3"/>
       <c r="I363" s="3"/>
       <c r="J363" s="3"/>
       <c r="K363" s="3"/>
     </row>
     <row r="364" ht="16.5" spans="4:11">
-      <c r="D364" s="7"/>
+      <c r="D364" s="6"/>
       <c r="E364" s="1"/>
-      <c r="F364" s="14"/>
-      <c r="G364" s="14"/>
+      <c r="F364" s="11"/>
+      <c r="G364" s="11"/>
       <c r="H364" s="3"/>
       <c r="I364" s="3"/>
       <c r="J364" s="3"/>
       <c r="K364" s="3"/>
     </row>
     <row r="365" ht="16.5" spans="4:11">
-      <c r="D365" s="11"/>
+      <c r="D365" s="8"/>
       <c r="E365" s="1"/>
-      <c r="F365" s="14"/>
-      <c r="G365" s="14"/>
+      <c r="F365" s="11"/>
+      <c r="G365" s="11"/>
       <c r="H365" s="3"/>
       <c r="I365" s="3"/>
       <c r="J365" s="3"/>
@@ -5487,8 +5062,8 @@
     <row r="366" ht="16.5" spans="4:11">
       <c r="D366" s="3"/>
       <c r="E366" s="1"/>
-      <c r="F366" s="14"/>
-      <c r="G366" s="14"/>
+      <c r="F366" s="11"/>
+      <c r="G366" s="11"/>
       <c r="H366" s="3"/>
       <c r="I366" s="3"/>
       <c r="J366" s="3"/>
@@ -5497,8 +5072,8 @@
     <row r="367" ht="16.5" spans="4:11">
       <c r="D367" s="3"/>
       <c r="E367" s="1"/>
-      <c r="F367" s="14"/>
-      <c r="G367" s="14"/>
+      <c r="F367" s="11"/>
+      <c r="G367" s="11"/>
       <c r="H367" s="3"/>
       <c r="I367" s="3"/>
       <c r="J367" s="3"/>
@@ -5507,8 +5082,8 @@
     <row r="368" ht="16.5" spans="4:11">
       <c r="D368" s="3"/>
       <c r="E368" s="1"/>
-      <c r="F368" s="14"/>
-      <c r="G368" s="14"/>
+      <c r="F368" s="11"/>
+      <c r="G368" s="11"/>
       <c r="H368" s="3"/>
       <c r="I368" s="3"/>
       <c r="J368" s="3"/>
@@ -5517,8 +5092,8 @@
     <row r="369" ht="16.5" spans="4:11">
       <c r="D369" s="3"/>
       <c r="E369" s="1"/>
-      <c r="F369" s="14"/>
-      <c r="G369" s="14"/>
+      <c r="F369" s="11"/>
+      <c r="G369" s="11"/>
       <c r="H369" s="3"/>
       <c r="I369" s="3"/>
       <c r="J369" s="3"/>
@@ -5527,8 +5102,8 @@
     <row r="370" ht="16.5" spans="4:11">
       <c r="D370" s="3"/>
       <c r="E370" s="1"/>
-      <c r="F370" s="14"/>
-      <c r="G370" s="14"/>
+      <c r="F370" s="11"/>
+      <c r="G370" s="11"/>
       <c r="H370" s="3"/>
       <c r="I370" s="3"/>
       <c r="J370" s="3"/>
@@ -5537,8 +5112,8 @@
     <row r="371" ht="16.5" spans="4:11">
       <c r="D371" s="3"/>
       <c r="E371" s="1"/>
-      <c r="F371" s="14"/>
-      <c r="G371" s="14"/>
+      <c r="F371" s="11"/>
+      <c r="G371" s="11"/>
       <c r="H371" s="3"/>
       <c r="I371" s="3"/>
       <c r="J371" s="3"/>
@@ -5547,8 +5122,8 @@
     <row r="372" ht="16.5" spans="4:11">
       <c r="D372" s="3"/>
       <c r="E372" s="1"/>
-      <c r="F372" s="16"/>
-      <c r="G372" s="16"/>
+      <c r="F372" s="13"/>
+      <c r="G372" s="13"/>
       <c r="H372" s="3"/>
       <c r="I372" s="3"/>
       <c r="J372" s="3"/>
@@ -5557,8 +5132,8 @@
     <row r="373" ht="16.5" spans="4:11">
       <c r="D373" s="3"/>
       <c r="E373" s="1"/>
-      <c r="F373" s="16"/>
-      <c r="G373" s="16"/>
+      <c r="F373" s="13"/>
+      <c r="G373" s="13"/>
       <c r="H373" s="3"/>
       <c r="I373" s="3"/>
       <c r="J373" s="3"/>
@@ -5567,8 +5142,8 @@
     <row r="374" ht="16.5" spans="4:11">
       <c r="D374" s="3"/>
       <c r="E374" s="1"/>
-      <c r="F374" s="14"/>
-      <c r="G374" s="14"/>
+      <c r="F374" s="11"/>
+      <c r="G374" s="11"/>
       <c r="H374" s="3"/>
       <c r="I374" s="3"/>
       <c r="J374" s="3"/>
@@ -5577,8 +5152,8 @@
     <row r="375" ht="16.5" spans="4:11">
       <c r="D375" s="3"/>
       <c r="E375" s="1"/>
-      <c r="F375" s="14"/>
-      <c r="G375" s="14"/>
+      <c r="F375" s="11"/>
+      <c r="G375" s="11"/>
       <c r="H375" s="3"/>
       <c r="I375" s="3"/>
       <c r="J375" s="3"/>
@@ -5587,8 +5162,8 @@
     <row r="376" ht="16.5" spans="4:11">
       <c r="D376" s="3"/>
       <c r="E376" s="1"/>
-      <c r="F376" s="14"/>
-      <c r="G376" s="14"/>
+      <c r="F376" s="11"/>
+      <c r="G376" s="11"/>
       <c r="H376" s="3"/>
       <c r="I376" s="3"/>
       <c r="J376" s="3"/>
@@ -5597,8 +5172,8 @@
     <row r="377" ht="16.5" spans="4:11">
       <c r="D377" s="3"/>
       <c r="E377" s="1"/>
-      <c r="F377" s="14"/>
-      <c r="G377" s="14"/>
+      <c r="F377" s="11"/>
+      <c r="G377" s="11"/>
       <c r="H377" s="3"/>
       <c r="I377" s="3"/>
       <c r="J377" s="3"/>
@@ -5607,18 +5182,18 @@
     <row r="378" ht="16.5" spans="4:11">
       <c r="D378" s="3"/>
       <c r="E378" s="1"/>
-      <c r="F378" s="14"/>
-      <c r="G378" s="14"/>
+      <c r="F378" s="11"/>
+      <c r="G378" s="11"/>
       <c r="H378" s="3"/>
       <c r="I378" s="3"/>
       <c r="J378" s="3"/>
       <c r="K378" s="3"/>
     </row>
     <row r="379" ht="16.5" spans="4:11">
-      <c r="D379" s="7"/>
+      <c r="D379" s="6"/>
       <c r="E379" s="1"/>
-      <c r="F379" s="14"/>
-      <c r="G379" s="14"/>
+      <c r="F379" s="11"/>
+      <c r="G379" s="11"/>
       <c r="H379" s="3"/>
       <c r="I379" s="3"/>
       <c r="J379" s="3"/>
@@ -5627,8 +5202,8 @@
     <row r="380" ht="16.5" spans="4:11">
       <c r="D380" s="3"/>
       <c r="E380" s="1"/>
-      <c r="F380" s="14"/>
-      <c r="G380" s="14"/>
+      <c r="F380" s="11"/>
+      <c r="G380" s="11"/>
       <c r="H380" s="3"/>
       <c r="I380" s="3"/>
       <c r="J380" s="3"/>
@@ -5637,8 +5212,8 @@
     <row r="381" ht="16.5" spans="4:11">
       <c r="D381" s="3"/>
       <c r="E381" s="1"/>
-      <c r="F381" s="14"/>
-      <c r="G381" s="14"/>
+      <c r="F381" s="11"/>
+      <c r="G381" s="11"/>
       <c r="H381" s="3"/>
       <c r="I381" s="3"/>
       <c r="J381" s="3"/>
@@ -5647,8 +5222,8 @@
     <row r="382" ht="16.5" spans="4:11">
       <c r="D382" s="3"/>
       <c r="E382" s="1"/>
-      <c r="F382" s="14"/>
-      <c r="G382" s="14"/>
+      <c r="F382" s="11"/>
+      <c r="G382" s="11"/>
       <c r="H382" s="3"/>
       <c r="I382" s="3"/>
       <c r="J382" s="3"/>
@@ -5657,8 +5232,8 @@
     <row r="383" ht="16.5" spans="4:11">
       <c r="D383" s="3"/>
       <c r="E383" s="1"/>
-      <c r="F383" s="14"/>
-      <c r="G383" s="14"/>
+      <c r="F383" s="11"/>
+      <c r="G383" s="11"/>
       <c r="H383" s="3"/>
       <c r="I383" s="3"/>
       <c r="J383" s="3"/>
@@ -5667,8 +5242,8 @@
     <row r="384" ht="16.5" spans="4:11">
       <c r="D384" s="3"/>
       <c r="E384" s="1"/>
-      <c r="F384" s="14"/>
-      <c r="G384" s="14"/>
+      <c r="F384" s="11"/>
+      <c r="G384" s="11"/>
       <c r="H384" s="3"/>
       <c r="I384" s="3"/>
       <c r="J384" s="3"/>
@@ -5677,8 +5252,8 @@
     <row r="385" ht="16.5" spans="4:11">
       <c r="D385" s="3"/>
       <c r="E385" s="1"/>
-      <c r="F385" s="14"/>
-      <c r="G385" s="14"/>
+      <c r="F385" s="11"/>
+      <c r="G385" s="11"/>
       <c r="H385" s="3"/>
       <c r="I385" s="3"/>
       <c r="J385" s="3"/>
@@ -5687,8 +5262,8 @@
     <row r="386" ht="16.5" spans="4:11">
       <c r="D386" s="3"/>
       <c r="E386" s="1"/>
-      <c r="F386" s="14"/>
-      <c r="G386" s="14"/>
+      <c r="F386" s="11"/>
+      <c r="G386" s="11"/>
       <c r="H386" s="3"/>
       <c r="I386" s="3"/>
       <c r="J386" s="3"/>
@@ -5697,18 +5272,18 @@
     <row r="387" ht="16.5" spans="4:11">
       <c r="D387" s="3"/>
       <c r="E387" s="1"/>
-      <c r="F387" s="14"/>
-      <c r="G387" s="14"/>
+      <c r="F387" s="11"/>
+      <c r="G387" s="11"/>
       <c r="H387" s="3"/>
       <c r="I387" s="3"/>
       <c r="J387" s="3"/>
       <c r="K387" s="3"/>
     </row>
     <row r="388" ht="16.5" spans="4:11">
-      <c r="D388" s="7"/>
+      <c r="D388" s="6"/>
       <c r="E388" s="1"/>
-      <c r="F388" s="14"/>
-      <c r="G388" s="14"/>
+      <c r="F388" s="11"/>
+      <c r="G388" s="11"/>
       <c r="H388" s="3"/>
       <c r="I388" s="3"/>
       <c r="J388" s="3"/>
@@ -5717,8 +5292,8 @@
     <row r="389" ht="16.5" spans="4:11">
       <c r="D389" s="3"/>
       <c r="E389" s="1"/>
-      <c r="F389" s="14"/>
-      <c r="G389" s="14"/>
+      <c r="F389" s="11"/>
+      <c r="G389" s="11"/>
       <c r="H389" s="3"/>
       <c r="I389" s="3"/>
       <c r="J389" s="3"/>
@@ -5727,8 +5302,8 @@
     <row r="390" ht="16.5" spans="4:11">
       <c r="D390" s="3"/>
       <c r="E390" s="1"/>
-      <c r="F390" s="14"/>
-      <c r="G390" s="14"/>
+      <c r="F390" s="11"/>
+      <c r="G390" s="11"/>
       <c r="H390" s="3"/>
       <c r="I390" s="3"/>
       <c r="J390" s="3"/>
@@ -5737,8 +5312,8 @@
     <row r="391" ht="16.5" spans="4:11">
       <c r="D391" s="3"/>
       <c r="E391" s="1"/>
-      <c r="F391" s="14"/>
-      <c r="G391" s="14"/>
+      <c r="F391" s="11"/>
+      <c r="G391" s="11"/>
       <c r="H391" s="3"/>
       <c r="I391" s="3"/>
       <c r="J391" s="3"/>
@@ -5747,8 +5322,8 @@
     <row r="392" ht="16.5" spans="4:11">
       <c r="D392" s="3"/>
       <c r="E392" s="1"/>
-      <c r="F392" s="14"/>
-      <c r="G392" s="14"/>
+      <c r="F392" s="11"/>
+      <c r="G392" s="11"/>
       <c r="H392" s="3"/>
       <c r="I392" s="3"/>
       <c r="J392" s="3"/>
@@ -5757,8 +5332,8 @@
     <row r="393" ht="16.5" spans="4:11">
       <c r="D393" s="3"/>
       <c r="E393" s="1"/>
-      <c r="F393" s="14"/>
-      <c r="G393" s="14"/>
+      <c r="F393" s="11"/>
+      <c r="G393" s="11"/>
       <c r="H393" s="3"/>
       <c r="I393" s="3"/>
       <c r="J393" s="3"/>
@@ -5767,8 +5342,8 @@
     <row r="394" ht="16.5" spans="4:11">
       <c r="D394" s="3"/>
       <c r="E394" s="1"/>
-      <c r="F394" s="14"/>
-      <c r="G394" s="14"/>
+      <c r="F394" s="11"/>
+      <c r="G394" s="11"/>
       <c r="H394" s="3"/>
       <c r="I394" s="3"/>
       <c r="J394" s="3"/>
@@ -5777,8 +5352,8 @@
     <row r="395" ht="16.5" spans="4:11">
       <c r="D395" s="3"/>
       <c r="E395" s="1"/>
-      <c r="F395" s="14"/>
-      <c r="G395" s="14"/>
+      <c r="F395" s="11"/>
+      <c r="G395" s="11"/>
       <c r="H395" s="3"/>
       <c r="I395" s="3"/>
       <c r="J395" s="3"/>
@@ -5787,28 +5362,28 @@
     <row r="396" ht="16.5" spans="4:11">
       <c r="D396" s="3"/>
       <c r="E396" s="1"/>
-      <c r="F396" s="14"/>
-      <c r="G396" s="14"/>
+      <c r="F396" s="11"/>
+      <c r="G396" s="11"/>
       <c r="H396" s="3"/>
       <c r="I396" s="3"/>
       <c r="J396" s="3"/>
       <c r="K396" s="3"/>
     </row>
     <row r="397" ht="16.5" spans="4:11">
-      <c r="D397" s="7"/>
+      <c r="D397" s="6"/>
       <c r="E397" s="1"/>
-      <c r="F397" s="14"/>
-      <c r="G397" s="14"/>
+      <c r="F397" s="11"/>
+      <c r="G397" s="11"/>
       <c r="H397" s="3"/>
       <c r="I397" s="3"/>
       <c r="J397" s="3"/>
       <c r="K397" s="3"/>
     </row>
     <row r="398" ht="16.5" spans="4:11">
-      <c r="D398" s="21"/>
+      <c r="D398" s="18"/>
       <c r="E398" s="1"/>
-      <c r="F398" s="14"/>
-      <c r="G398" s="14"/>
+      <c r="F398" s="11"/>
+      <c r="G398" s="11"/>
       <c r="H398" s="3"/>
       <c r="I398" s="3"/>
       <c r="J398" s="3"/>
@@ -5817,8 +5392,8 @@
     <row r="399" ht="16.5" spans="4:11">
       <c r="D399" s="3"/>
       <c r="E399" s="1"/>
-      <c r="F399" s="14"/>
-      <c r="G399" s="14"/>
+      <c r="F399" s="11"/>
+      <c r="G399" s="11"/>
       <c r="H399" s="3"/>
       <c r="I399" s="3"/>
       <c r="J399" s="3"/>
@@ -5827,38 +5402,38 @@
     <row r="400" ht="16.5" spans="4:11">
       <c r="D400" s="3"/>
       <c r="E400" s="1"/>
-      <c r="F400" s="14"/>
-      <c r="G400" s="14"/>
+      <c r="F400" s="11"/>
+      <c r="G400" s="11"/>
       <c r="H400" s="3"/>
       <c r="I400" s="3"/>
       <c r="J400" s="3"/>
       <c r="K400" s="3"/>
     </row>
     <row r="401" ht="16.5" spans="4:11">
-      <c r="D401" s="11"/>
+      <c r="D401" s="8"/>
       <c r="E401" s="1"/>
-      <c r="F401" s="14"/>
-      <c r="G401" s="14"/>
+      <c r="F401" s="11"/>
+      <c r="G401" s="11"/>
       <c r="H401" s="3"/>
       <c r="I401" s="3"/>
       <c r="J401" s="3"/>
       <c r="K401" s="3"/>
     </row>
     <row r="402" ht="16.5" spans="4:11">
-      <c r="D402" s="7"/>
+      <c r="D402" s="6"/>
       <c r="E402" s="1"/>
-      <c r="F402" s="14"/>
-      <c r="G402" s="14"/>
+      <c r="F402" s="11"/>
+      <c r="G402" s="11"/>
       <c r="H402" s="3"/>
       <c r="I402" s="3"/>
       <c r="J402" s="3"/>
       <c r="K402" s="3"/>
     </row>
     <row r="403" ht="16.5" spans="4:11">
-      <c r="D403" s="7"/>
+      <c r="D403" s="6"/>
       <c r="E403" s="1"/>
-      <c r="F403" s="14"/>
-      <c r="G403" s="14"/>
+      <c r="F403" s="11"/>
+      <c r="G403" s="11"/>
       <c r="H403" s="3"/>
       <c r="I403" s="3"/>
       <c r="J403" s="3"/>
@@ -5867,8 +5442,8 @@
     <row r="404" ht="16.5" spans="4:11">
       <c r="D404" s="3"/>
       <c r="E404" s="1"/>
-      <c r="F404" s="14"/>
-      <c r="G404" s="14"/>
+      <c r="F404" s="11"/>
+      <c r="G404" s="11"/>
       <c r="H404" s="3"/>
       <c r="I404" s="3"/>
       <c r="J404" s="3"/>
@@ -5877,8 +5452,8 @@
     <row r="405" ht="16.5" spans="4:11">
       <c r="D405" s="3"/>
       <c r="E405" s="1"/>
-      <c r="F405" s="14"/>
-      <c r="G405" s="14"/>
+      <c r="F405" s="11"/>
+      <c r="G405" s="11"/>
       <c r="H405" s="3"/>
       <c r="I405" s="3"/>
       <c r="J405" s="3"/>
@@ -5887,8 +5462,8 @@
     <row r="406" ht="16.5" spans="4:11">
       <c r="D406" s="3"/>
       <c r="E406" s="1"/>
-      <c r="F406" s="14"/>
-      <c r="G406" s="14"/>
+      <c r="F406" s="11"/>
+      <c r="G406" s="11"/>
       <c r="H406" s="3"/>
       <c r="I406" s="3"/>
       <c r="J406" s="3"/>
@@ -5897,8 +5472,8 @@
     <row r="407" ht="16.5" spans="4:11">
       <c r="D407" s="3"/>
       <c r="E407" s="1"/>
-      <c r="F407" s="14"/>
-      <c r="G407" s="14"/>
+      <c r="F407" s="11"/>
+      <c r="G407" s="11"/>
       <c r="H407" s="3"/>
       <c r="I407" s="3"/>
       <c r="J407" s="3"/>
@@ -5907,8 +5482,8 @@
     <row r="408" ht="16.5" spans="4:11">
       <c r="D408" s="3"/>
       <c r="E408" s="1"/>
-      <c r="F408" s="14"/>
-      <c r="G408" s="14"/>
+      <c r="F408" s="11"/>
+      <c r="G408" s="11"/>
       <c r="H408" s="3"/>
       <c r="I408" s="3"/>
       <c r="J408" s="3"/>
@@ -5917,8 +5492,8 @@
     <row r="409" ht="16.5" spans="4:11">
       <c r="D409" s="3"/>
       <c r="E409" s="1"/>
-      <c r="F409" s="14"/>
-      <c r="G409" s="14"/>
+      <c r="F409" s="11"/>
+      <c r="G409" s="11"/>
       <c r="H409" s="3"/>
       <c r="I409" s="3"/>
       <c r="J409" s="3"/>
@@ -5927,8 +5502,8 @@
     <row r="410" ht="16.5" spans="4:11">
       <c r="D410" s="3"/>
       <c r="E410" s="1"/>
-      <c r="F410" s="14"/>
-      <c r="G410" s="14"/>
+      <c r="F410" s="11"/>
+      <c r="G410" s="11"/>
       <c r="H410" s="3"/>
       <c r="I410" s="3"/>
       <c r="J410" s="3"/>
@@ -5937,8 +5512,8 @@
     <row r="411" ht="16.5" spans="4:11">
       <c r="D411" s="3"/>
       <c r="E411" s="1"/>
-      <c r="F411" s="14"/>
-      <c r="G411" s="14"/>
+      <c r="F411" s="11"/>
+      <c r="G411" s="11"/>
       <c r="H411" s="3"/>
       <c r="I411" s="3"/>
       <c r="J411" s="3"/>
@@ -5947,8 +5522,8 @@
     <row r="412" ht="16.5" spans="4:11">
       <c r="D412" s="3"/>
       <c r="E412" s="1"/>
-      <c r="F412" s="14"/>
-      <c r="G412" s="14"/>
+      <c r="F412" s="11"/>
+      <c r="G412" s="11"/>
       <c r="H412" s="3"/>
       <c r="I412" s="3"/>
       <c r="J412" s="3"/>
@@ -5957,8 +5532,8 @@
     <row r="413" ht="16.5" spans="4:11">
       <c r="D413" s="3"/>
       <c r="E413" s="1"/>
-      <c r="F413" s="14"/>
-      <c r="G413" s="14"/>
+      <c r="F413" s="11"/>
+      <c r="G413" s="11"/>
       <c r="H413" s="3"/>
       <c r="I413" s="3"/>
       <c r="J413" s="3"/>
@@ -5967,8 +5542,8 @@
     <row r="414" ht="16.5" spans="4:11">
       <c r="D414" s="3"/>
       <c r="E414" s="1"/>
-      <c r="F414" s="14"/>
-      <c r="G414" s="14"/>
+      <c r="F414" s="11"/>
+      <c r="G414" s="11"/>
       <c r="H414" s="3"/>
       <c r="I414" s="3"/>
       <c r="J414" s="3"/>
@@ -5977,8 +5552,8 @@
     <row r="415" ht="16.5" spans="4:11">
       <c r="D415" s="3"/>
       <c r="E415" s="1"/>
-      <c r="F415" s="14"/>
-      <c r="G415" s="14"/>
+      <c r="F415" s="11"/>
+      <c r="G415" s="11"/>
       <c r="H415" s="3"/>
       <c r="I415" s="3"/>
       <c r="J415" s="3"/>
@@ -5987,8 +5562,8 @@
     <row r="416" ht="16.5" spans="4:11">
       <c r="D416" s="3"/>
       <c r="E416" s="1"/>
-      <c r="F416" s="14"/>
-      <c r="G416" s="14"/>
+      <c r="F416" s="11"/>
+      <c r="G416" s="11"/>
       <c r="H416" s="3"/>
       <c r="I416" s="3"/>
       <c r="J416" s="3"/>
@@ -5997,8 +5572,8 @@
     <row r="417" ht="16.5" spans="4:11">
       <c r="D417" s="3"/>
       <c r="E417" s="1"/>
-      <c r="F417" s="14"/>
-      <c r="G417" s="14"/>
+      <c r="F417" s="11"/>
+      <c r="G417" s="11"/>
       <c r="H417" s="3"/>
       <c r="I417" s="3"/>
       <c r="J417" s="3"/>
@@ -6007,8 +5582,8 @@
     <row r="418" ht="16.5" spans="4:11">
       <c r="D418" s="3"/>
       <c r="E418" s="1"/>
-      <c r="F418" s="14"/>
-      <c r="G418" s="14"/>
+      <c r="F418" s="11"/>
+      <c r="G418" s="11"/>
       <c r="H418" s="3"/>
       <c r="I418" s="3"/>
       <c r="J418" s="3"/>
@@ -6017,8 +5592,8 @@
     <row r="419" ht="16.5" spans="4:11">
       <c r="D419" s="3"/>
       <c r="E419" s="1"/>
-      <c r="F419" s="14"/>
-      <c r="G419" s="14"/>
+      <c r="F419" s="11"/>
+      <c r="G419" s="11"/>
       <c r="H419" s="3"/>
       <c r="I419" s="3"/>
       <c r="J419" s="3"/>
@@ -6027,8 +5602,8 @@
     <row r="420" ht="16.5" spans="4:11">
       <c r="D420" s="3"/>
       <c r="E420" s="1"/>
-      <c r="F420" s="14"/>
-      <c r="G420" s="14"/>
+      <c r="F420" s="11"/>
+      <c r="G420" s="11"/>
       <c r="H420" s="3"/>
       <c r="I420" s="3"/>
       <c r="J420" s="3"/>
@@ -6037,8 +5612,8 @@
     <row r="421" ht="16.5" spans="4:11">
       <c r="D421" s="3"/>
       <c r="E421" s="1"/>
-      <c r="F421" s="14"/>
-      <c r="G421" s="14"/>
+      <c r="F421" s="11"/>
+      <c r="G421" s="11"/>
       <c r="H421" s="3"/>
       <c r="I421" s="3"/>
       <c r="J421" s="3"/>
@@ -6047,8 +5622,8 @@
     <row r="422" ht="16.5" spans="4:11">
       <c r="D422" s="3"/>
       <c r="E422" s="1"/>
-      <c r="F422" s="14"/>
-      <c r="G422" s="14"/>
+      <c r="F422" s="11"/>
+      <c r="G422" s="11"/>
       <c r="H422" s="3"/>
       <c r="I422" s="3"/>
       <c r="J422" s="3"/>
@@ -6057,8 +5632,8 @@
     <row r="423" ht="16.5" spans="4:11">
       <c r="D423" s="3"/>
       <c r="E423" s="1"/>
-      <c r="F423" s="14"/>
-      <c r="G423" s="14"/>
+      <c r="F423" s="11"/>
+      <c r="G423" s="11"/>
       <c r="H423" s="3"/>
       <c r="I423" s="3"/>
       <c r="J423" s="3"/>
@@ -6067,8 +5642,8 @@
     <row r="424" ht="16.5" spans="4:11">
       <c r="D424" s="3"/>
       <c r="E424" s="1"/>
-      <c r="F424" s="14"/>
-      <c r="G424" s="14"/>
+      <c r="F424" s="11"/>
+      <c r="G424" s="11"/>
       <c r="H424" s="3"/>
       <c r="I424" s="3"/>
       <c r="J424" s="3"/>
@@ -6077,8 +5652,8 @@
     <row r="425" ht="16.5" spans="4:11">
       <c r="D425" s="3"/>
       <c r="E425" s="1"/>
-      <c r="F425" s="14"/>
-      <c r="G425" s="14"/>
+      <c r="F425" s="11"/>
+      <c r="G425" s="11"/>
       <c r="H425" s="3"/>
       <c r="I425" s="3"/>
       <c r="J425" s="3"/>
@@ -6087,8 +5662,8 @@
     <row r="426" ht="16.5" spans="4:11">
       <c r="D426" s="3"/>
       <c r="E426" s="1"/>
-      <c r="F426" s="14"/>
-      <c r="G426" s="14"/>
+      <c r="F426" s="11"/>
+      <c r="G426" s="11"/>
       <c r="H426" s="3"/>
       <c r="I426" s="3"/>
       <c r="J426" s="3"/>
@@ -6097,8 +5672,8 @@
     <row r="427" ht="16.5" spans="4:11">
       <c r="D427" s="3"/>
       <c r="E427" s="1"/>
-      <c r="F427" s="14"/>
-      <c r="G427" s="14"/>
+      <c r="F427" s="11"/>
+      <c r="G427" s="11"/>
       <c r="H427" s="3"/>
       <c r="I427" s="3"/>
       <c r="J427" s="3"/>
@@ -6107,8 +5682,8 @@
     <row r="428" ht="16.5" spans="4:11">
       <c r="D428" s="3"/>
       <c r="E428" s="1"/>
-      <c r="F428" s="14"/>
-      <c r="G428" s="14"/>
+      <c r="F428" s="11"/>
+      <c r="G428" s="11"/>
       <c r="H428" s="3"/>
       <c r="I428" s="3"/>
       <c r="J428" s="3"/>
@@ -6117,8 +5692,8 @@
     <row r="429" ht="16.5" spans="4:11">
       <c r="D429" s="3"/>
       <c r="E429" s="1"/>
-      <c r="F429" s="14"/>
-      <c r="G429" s="14"/>
+      <c r="F429" s="11"/>
+      <c r="G429" s="11"/>
       <c r="H429" s="3"/>
       <c r="I429" s="3"/>
       <c r="J429" s="3"/>
@@ -6127,8 +5702,8 @@
     <row r="430" ht="16.5" spans="4:11">
       <c r="D430" s="3"/>
       <c r="E430" s="1"/>
-      <c r="F430" s="14"/>
-      <c r="G430" s="14"/>
+      <c r="F430" s="11"/>
+      <c r="G430" s="11"/>
       <c r="H430" s="3"/>
       <c r="I430" s="3"/>
       <c r="J430" s="3"/>
@@ -6137,8 +5712,8 @@
     <row r="431" ht="16.5" spans="4:11">
       <c r="D431" s="3"/>
       <c r="E431" s="1"/>
-      <c r="F431" s="14"/>
-      <c r="G431" s="14"/>
+      <c r="F431" s="11"/>
+      <c r="G431" s="11"/>
       <c r="H431" s="3"/>
       <c r="I431" s="3"/>
       <c r="J431" s="3"/>
@@ -6147,8 +5722,8 @@
     <row r="432" ht="16.5" spans="4:11">
       <c r="D432" s="3"/>
       <c r="E432" s="1"/>
-      <c r="F432" s="14"/>
-      <c r="G432" s="14"/>
+      <c r="F432" s="11"/>
+      <c r="G432" s="11"/>
       <c r="H432" s="3"/>
       <c r="I432" s="3"/>
       <c r="J432" s="3"/>
@@ -6157,8 +5732,8 @@
     <row r="433" ht="16.5" spans="4:11">
       <c r="D433" s="3"/>
       <c r="E433" s="1"/>
-      <c r="F433" s="14"/>
-      <c r="G433" s="14"/>
+      <c r="F433" s="11"/>
+      <c r="G433" s="11"/>
       <c r="H433" s="3"/>
       <c r="I433" s="3"/>
       <c r="J433" s="3"/>
@@ -6167,8 +5742,8 @@
     <row r="434" ht="16.5" spans="4:11">
       <c r="D434" s="3"/>
       <c r="E434" s="1"/>
-      <c r="F434" s="14"/>
-      <c r="G434" s="14"/>
+      <c r="F434" s="11"/>
+      <c r="G434" s="11"/>
       <c r="H434" s="3"/>
       <c r="I434" s="3"/>
       <c r="J434" s="3"/>
@@ -6177,8 +5752,8 @@
     <row r="435" ht="16.5" spans="4:11">
       <c r="D435" s="3"/>
       <c r="E435" s="1"/>
-      <c r="F435" s="14"/>
-      <c r="G435" s="14"/>
+      <c r="F435" s="11"/>
+      <c r="G435" s="11"/>
       <c r="H435" s="3"/>
       <c r="I435" s="3"/>
       <c r="J435" s="3"/>
@@ -6187,8 +5762,8 @@
     <row r="436" ht="16.5" spans="4:11">
       <c r="D436" s="3"/>
       <c r="E436" s="1"/>
-      <c r="F436" s="14"/>
-      <c r="G436" s="14"/>
+      <c r="F436" s="11"/>
+      <c r="G436" s="11"/>
       <c r="H436" s="3"/>
       <c r="I436" s="3"/>
       <c r="J436" s="3"/>
@@ -6197,8 +5772,8 @@
     <row r="437" ht="16.5" spans="4:11">
       <c r="D437" s="3"/>
       <c r="E437" s="1"/>
-      <c r="F437" s="14"/>
-      <c r="G437" s="14"/>
+      <c r="F437" s="11"/>
+      <c r="G437" s="11"/>
       <c r="H437" s="3"/>
       <c r="I437" s="3"/>
       <c r="J437" s="3"/>
@@ -6207,8 +5782,8 @@
     <row r="438" ht="16.5" spans="4:11">
       <c r="D438" s="3"/>
       <c r="E438" s="1"/>
-      <c r="F438" s="14"/>
-      <c r="G438" s="14"/>
+      <c r="F438" s="11"/>
+      <c r="G438" s="11"/>
       <c r="H438" s="3"/>
       <c r="I438" s="3"/>
       <c r="J438" s="3"/>
@@ -6217,8 +5792,8 @@
     <row r="439" ht="16.5" spans="4:11">
       <c r="D439" s="3"/>
       <c r="E439" s="1"/>
-      <c r="F439" s="14"/>
-      <c r="G439" s="14"/>
+      <c r="F439" s="11"/>
+      <c r="G439" s="11"/>
       <c r="H439" s="3"/>
       <c r="I439" s="3"/>
       <c r="J439" s="3"/>
@@ -6227,8 +5802,8 @@
     <row r="440" ht="16.5" spans="4:11">
       <c r="D440" s="3"/>
       <c r="E440" s="1"/>
-      <c r="F440" s="14"/>
-      <c r="G440" s="14"/>
+      <c r="F440" s="11"/>
+      <c r="G440" s="11"/>
       <c r="H440" s="3"/>
       <c r="I440" s="3"/>
       <c r="J440" s="3"/>
@@ -6237,8 +5812,8 @@
     <row r="441" ht="16.5" spans="4:11">
       <c r="D441" s="3"/>
       <c r="E441" s="1"/>
-      <c r="F441" s="14"/>
-      <c r="G441" s="14"/>
+      <c r="F441" s="11"/>
+      <c r="G441" s="11"/>
       <c r="H441" s="3"/>
       <c r="I441" s="3"/>
       <c r="J441" s="3"/>
@@ -6247,8 +5822,8 @@
     <row r="442" ht="16.5" spans="4:11">
       <c r="D442" s="3"/>
       <c r="E442" s="1"/>
-      <c r="F442" s="14"/>
-      <c r="G442" s="14"/>
+      <c r="F442" s="11"/>
+      <c r="G442" s="11"/>
       <c r="H442" s="3"/>
       <c r="I442" s="3"/>
       <c r="J442" s="3"/>
@@ -6257,8 +5832,8 @@
     <row r="443" ht="16.5" spans="4:11">
       <c r="D443" s="3"/>
       <c r="E443" s="1"/>
-      <c r="F443" s="14"/>
-      <c r="G443" s="14"/>
+      <c r="F443" s="11"/>
+      <c r="G443" s="11"/>
       <c r="H443" s="3"/>
       <c r="I443" s="3"/>
       <c r="J443" s="3"/>
@@ -6267,8 +5842,8 @@
     <row r="444" ht="16.5" spans="4:11">
       <c r="D444" s="3"/>
       <c r="E444" s="1"/>
-      <c r="F444" s="14"/>
-      <c r="G444" s="14"/>
+      <c r="F444" s="11"/>
+      <c r="G444" s="11"/>
       <c r="H444" s="3"/>
       <c r="I444" s="3"/>
       <c r="J444" s="3"/>
@@ -6277,8 +5852,8 @@
     <row r="445" ht="16.5" spans="4:11">
       <c r="D445" s="3"/>
       <c r="E445" s="1"/>
-      <c r="F445" s="14"/>
-      <c r="G445" s="14"/>
+      <c r="F445" s="11"/>
+      <c r="G445" s="11"/>
       <c r="H445" s="3"/>
       <c r="I445" s="3"/>
       <c r="J445" s="3"/>
@@ -6287,8 +5862,8 @@
     <row r="446" ht="16.5" spans="4:11">
       <c r="D446" s="3"/>
       <c r="E446" s="1"/>
-      <c r="F446" s="14"/>
-      <c r="G446" s="14"/>
+      <c r="F446" s="11"/>
+      <c r="G446" s="11"/>
       <c r="H446" s="3"/>
       <c r="I446" s="3"/>
       <c r="J446" s="3"/>
@@ -6297,8 +5872,8 @@
     <row r="447" ht="16.5" spans="4:11">
       <c r="D447" s="3"/>
       <c r="E447" s="1"/>
-      <c r="F447" s="14"/>
-      <c r="G447" s="14"/>
+      <c r="F447" s="11"/>
+      <c r="G447" s="11"/>
       <c r="H447" s="3"/>
       <c r="I447" s="3"/>
       <c r="J447" s="3"/>
@@ -6307,8 +5882,8 @@
     <row r="448" ht="16.5" spans="4:11">
       <c r="D448" s="3"/>
       <c r="E448" s="1"/>
-      <c r="F448" s="14"/>
-      <c r="G448" s="14"/>
+      <c r="F448" s="11"/>
+      <c r="G448" s="11"/>
       <c r="H448" s="3"/>
       <c r="I448" s="3"/>
       <c r="J448" s="3"/>
@@ -6317,8 +5892,8 @@
     <row r="449" ht="16.5" spans="4:11">
       <c r="D449" s="3"/>
       <c r="E449" s="1"/>
-      <c r="F449" s="14"/>
-      <c r="G449" s="14"/>
+      <c r="F449" s="11"/>
+      <c r="G449" s="11"/>
       <c r="H449" s="3"/>
       <c r="I449" s="3"/>
       <c r="J449" s="3"/>
@@ -6327,8 +5902,8 @@
     <row r="450" ht="16.5" spans="4:11">
       <c r="D450" s="3"/>
       <c r="E450" s="1"/>
-      <c r="F450" s="14"/>
-      <c r="G450" s="14"/>
+      <c r="F450" s="11"/>
+      <c r="G450" s="11"/>
       <c r="H450" s="3"/>
       <c r="I450" s="3"/>
       <c r="J450" s="3"/>
@@ -6337,18 +5912,18 @@
     <row r="451" ht="16.5" spans="4:11">
       <c r="D451" s="3"/>
       <c r="E451" s="1"/>
-      <c r="F451" s="14"/>
-      <c r="G451" s="14"/>
+      <c r="F451" s="11"/>
+      <c r="G451" s="11"/>
       <c r="H451" s="3"/>
       <c r="I451" s="3"/>
       <c r="J451" s="3"/>
       <c r="K451" s="3"/>
     </row>
     <row r="452" ht="16.5" spans="4:11">
-      <c r="D452" s="7"/>
+      <c r="D452" s="6"/>
       <c r="E452" s="1"/>
-      <c r="F452" s="14"/>
-      <c r="G452" s="14"/>
+      <c r="F452" s="11"/>
+      <c r="G452" s="11"/>
       <c r="H452" s="3"/>
       <c r="I452" s="3"/>
       <c r="J452" s="3"/>
@@ -6357,8 +5932,8 @@
     <row r="453" ht="16.5" spans="4:11">
       <c r="D453" s="3"/>
       <c r="E453" s="1"/>
-      <c r="F453" s="14"/>
-      <c r="G453" s="14"/>
+      <c r="F453" s="11"/>
+      <c r="G453" s="11"/>
       <c r="H453" s="3"/>
       <c r="I453" s="3"/>
       <c r="J453" s="3"/>
@@ -6367,8 +5942,8 @@
     <row r="454" ht="16.5" spans="4:11">
       <c r="D454" s="3"/>
       <c r="E454" s="1"/>
-      <c r="F454" s="14"/>
-      <c r="G454" s="14"/>
+      <c r="F454" s="11"/>
+      <c r="G454" s="11"/>
       <c r="H454" s="3"/>
       <c r="I454" s="3"/>
       <c r="J454" s="3"/>
@@ -6377,8 +5952,8 @@
     <row r="455" ht="16.5" spans="4:11">
       <c r="D455" s="3"/>
       <c r="E455" s="1"/>
-      <c r="F455" s="14"/>
-      <c r="G455" s="14"/>
+      <c r="F455" s="11"/>
+      <c r="G455" s="11"/>
       <c r="H455" s="3"/>
       <c r="I455" s="3"/>
       <c r="J455" s="3"/>
@@ -6387,8 +5962,8 @@
     <row r="456" ht="16.5" spans="4:11">
       <c r="D456" s="3"/>
       <c r="E456" s="1"/>
-      <c r="F456" s="14"/>
-      <c r="G456" s="14"/>
+      <c r="F456" s="11"/>
+      <c r="G456" s="11"/>
       <c r="H456" s="3"/>
       <c r="I456" s="3"/>
       <c r="J456" s="3"/>
@@ -6397,8 +5972,8 @@
     <row r="457" ht="16.5" spans="4:11">
       <c r="D457" s="3"/>
       <c r="E457" s="1"/>
-      <c r="F457" s="14"/>
-      <c r="G457" s="14"/>
+      <c r="F457" s="11"/>
+      <c r="G457" s="11"/>
       <c r="H457" s="3"/>
       <c r="I457" s="3"/>
       <c r="J457" s="3"/>
@@ -6407,8 +5982,8 @@
     <row r="458" ht="16.5" spans="4:11">
       <c r="D458" s="3"/>
       <c r="E458" s="1"/>
-      <c r="F458" s="14"/>
-      <c r="G458" s="14"/>
+      <c r="F458" s="11"/>
+      <c r="G458" s="11"/>
       <c r="H458" s="3"/>
       <c r="I458" s="3"/>
       <c r="J458" s="3"/>
@@ -6417,8 +5992,8 @@
     <row r="459" ht="16.5" spans="4:11">
       <c r="D459" s="3"/>
       <c r="E459" s="1"/>
-      <c r="F459" s="14"/>
-      <c r="G459" s="14"/>
+      <c r="F459" s="11"/>
+      <c r="G459" s="11"/>
       <c r="H459" s="3"/>
       <c r="I459" s="3"/>
       <c r="J459" s="3"/>
@@ -6427,8 +6002,8 @@
     <row r="460" ht="16.5" spans="4:11">
       <c r="D460" s="3"/>
       <c r="E460" s="1"/>
-      <c r="F460" s="14"/>
-      <c r="G460" s="14"/>
+      <c r="F460" s="11"/>
+      <c r="G460" s="11"/>
       <c r="H460" s="3"/>
       <c r="I460" s="3"/>
       <c r="J460" s="3"/>
@@ -6437,8 +6012,8 @@
     <row r="461" ht="16.5" spans="4:11">
       <c r="D461" s="3"/>
       <c r="E461" s="1"/>
-      <c r="F461" s="14"/>
-      <c r="G461" s="14"/>
+      <c r="F461" s="11"/>
+      <c r="G461" s="11"/>
       <c r="H461" s="3"/>
       <c r="I461" s="3"/>
       <c r="J461" s="3"/>
@@ -6447,8 +6022,8 @@
     <row r="462" ht="16.5" spans="4:11">
       <c r="D462" s="3"/>
       <c r="E462" s="1"/>
-      <c r="F462" s="14"/>
-      <c r="G462" s="14"/>
+      <c r="F462" s="11"/>
+      <c r="G462" s="11"/>
       <c r="H462" s="3"/>
       <c r="I462" s="3"/>
       <c r="J462" s="3"/>
@@ -6457,8 +6032,8 @@
     <row r="463" ht="16.5" spans="4:11">
       <c r="D463" s="3"/>
       <c r="E463" s="1"/>
-      <c r="F463" s="14"/>
-      <c r="G463" s="14"/>
+      <c r="F463" s="11"/>
+      <c r="G463" s="11"/>
       <c r="H463" s="3"/>
       <c r="I463" s="3"/>
       <c r="J463" s="3"/>
@@ -6467,18 +6042,18 @@
     <row r="464" ht="16.5" spans="4:11">
       <c r="D464" s="3"/>
       <c r="E464" s="1"/>
-      <c r="F464" s="14"/>
-      <c r="G464" s="14"/>
+      <c r="F464" s="11"/>
+      <c r="G464" s="11"/>
       <c r="H464" s="3"/>
       <c r="I464" s="3"/>
       <c r="J464" s="3"/>
       <c r="K464" s="3"/>
     </row>
     <row r="465" ht="16.5" spans="4:11">
-      <c r="D465" s="14"/>
+      <c r="D465" s="11"/>
       <c r="E465" s="1"/>
-      <c r="F465" s="14"/>
-      <c r="G465" s="14"/>
+      <c r="F465" s="11"/>
+      <c r="G465" s="11"/>
       <c r="H465" s="3"/>
       <c r="I465" s="3"/>
       <c r="J465" s="3"/>
@@ -6487,8 +6062,8 @@
     <row r="466" ht="16.5" spans="4:11">
       <c r="D466" s="3"/>
       <c r="E466" s="1"/>
-      <c r="F466" s="14"/>
-      <c r="G466" s="14"/>
+      <c r="F466" s="11"/>
+      <c r="G466" s="11"/>
       <c r="H466" s="3"/>
       <c r="I466" s="3"/>
       <c r="J466" s="3"/>
@@ -6497,18 +6072,18 @@
     <row r="467" ht="16.5" spans="4:11">
       <c r="D467" s="3"/>
       <c r="E467" s="1"/>
-      <c r="F467" s="14"/>
-      <c r="G467" s="14"/>
+      <c r="F467" s="11"/>
+      <c r="G467" s="11"/>
       <c r="H467" s="3"/>
       <c r="I467" s="3"/>
       <c r="J467" s="3"/>
       <c r="K467" s="3"/>
     </row>
     <row r="468" ht="16.5" spans="4:11">
-      <c r="D468" s="7"/>
+      <c r="D468" s="6"/>
       <c r="E468" s="1"/>
-      <c r="F468" s="14"/>
-      <c r="G468" s="14"/>
+      <c r="F468" s="11"/>
+      <c r="G468" s="11"/>
       <c r="H468" s="3"/>
       <c r="I468" s="3"/>
       <c r="J468" s="3"/>
@@ -6517,8 +6092,8 @@
     <row r="469" ht="16.5" spans="4:11">
       <c r="D469" s="3"/>
       <c r="E469" s="1"/>
-      <c r="F469" s="14"/>
-      <c r="G469" s="14"/>
+      <c r="F469" s="11"/>
+      <c r="G469" s="11"/>
       <c r="H469" s="3"/>
       <c r="I469" s="3"/>
       <c r="J469" s="3"/>
@@ -6527,8 +6102,8 @@
     <row r="470" ht="16.5" spans="4:11">
       <c r="D470" s="3"/>
       <c r="E470" s="1"/>
-      <c r="F470" s="14"/>
-      <c r="G470" s="14"/>
+      <c r="F470" s="11"/>
+      <c r="G470" s="11"/>
       <c r="H470" s="3"/>
       <c r="I470" s="3"/>
       <c r="J470" s="3"/>
@@ -6537,18 +6112,18 @@
     <row r="471" ht="16.5" spans="4:11">
       <c r="D471" s="3"/>
       <c r="E471" s="1"/>
-      <c r="F471" s="14"/>
-      <c r="G471" s="14"/>
+      <c r="F471" s="11"/>
+      <c r="G471" s="11"/>
       <c r="H471" s="3"/>
       <c r="I471" s="3"/>
       <c r="J471" s="3"/>
       <c r="K471" s="3"/>
     </row>
     <row r="472" ht="16.5" spans="4:11">
-      <c r="D472" s="22"/>
+      <c r="D472" s="19"/>
       <c r="E472" s="1"/>
-      <c r="F472" s="14"/>
-      <c r="G472" s="14"/>
+      <c r="F472" s="11"/>
+      <c r="G472" s="11"/>
       <c r="H472" s="3"/>
       <c r="I472" s="3"/>
       <c r="J472" s="3"/>
@@ -6557,8 +6132,8 @@
     <row r="473" ht="16.5" spans="4:11">
       <c r="D473" s="3"/>
       <c r="E473" s="1"/>
-      <c r="F473" s="14"/>
-      <c r="G473" s="14"/>
+      <c r="F473" s="11"/>
+      <c r="G473" s="11"/>
       <c r="H473" s="3"/>
       <c r="I473" s="3"/>
       <c r="J473" s="3"/>
@@ -6567,18 +6142,18 @@
     <row r="474" ht="16.5" spans="4:11">
       <c r="D474" s="3"/>
       <c r="E474" s="1"/>
-      <c r="F474" s="14"/>
-      <c r="G474" s="14"/>
+      <c r="F474" s="11"/>
+      <c r="G474" s="11"/>
       <c r="H474" s="3"/>
       <c r="I474" s="3"/>
       <c r="J474" s="3"/>
       <c r="K474" s="3"/>
     </row>
     <row r="475" ht="16.5" spans="4:11">
-      <c r="D475" s="23"/>
+      <c r="D475" s="20"/>
       <c r="E475" s="1"/>
-      <c r="F475" s="14"/>
-      <c r="G475" s="14"/>
+      <c r="F475" s="11"/>
+      <c r="G475" s="11"/>
       <c r="H475" s="3"/>
       <c r="I475" s="3"/>
       <c r="J475" s="3"/>
@@ -6587,8 +6162,8 @@
     <row r="476" ht="16.5" spans="4:11">
       <c r="D476" s="3"/>
       <c r="E476" s="1"/>
-      <c r="F476" s="14"/>
-      <c r="G476" s="14"/>
+      <c r="F476" s="11"/>
+      <c r="G476" s="11"/>
       <c r="H476" s="3"/>
       <c r="I476" s="3"/>
       <c r="J476" s="3"/>
@@ -6597,8 +6172,8 @@
     <row r="477" ht="16.5" spans="4:11">
       <c r="D477" s="3"/>
       <c r="E477" s="1"/>
-      <c r="F477" s="14"/>
-      <c r="G477" s="14"/>
+      <c r="F477" s="11"/>
+      <c r="G477" s="11"/>
       <c r="H477" s="3"/>
       <c r="I477" s="3"/>
       <c r="J477" s="3"/>
@@ -6607,8 +6182,8 @@
     <row r="478" ht="16.5" spans="4:11">
       <c r="D478" s="3"/>
       <c r="E478" s="1"/>
-      <c r="F478" s="14"/>
-      <c r="G478" s="14"/>
+      <c r="F478" s="11"/>
+      <c r="G478" s="11"/>
       <c r="H478" s="3"/>
       <c r="I478" s="3"/>
       <c r="J478" s="3"/>
@@ -6617,8 +6192,8 @@
     <row r="479" ht="16.5" spans="4:11">
       <c r="D479" s="3"/>
       <c r="E479" s="1"/>
-      <c r="F479" s="14"/>
-      <c r="G479" s="14"/>
+      <c r="F479" s="11"/>
+      <c r="G479" s="11"/>
       <c r="H479" s="3"/>
       <c r="I479" s="3"/>
       <c r="J479" s="3"/>
@@ -6627,8 +6202,8 @@
     <row r="480" ht="16.5" spans="4:11">
       <c r="D480" s="3"/>
       <c r="E480" s="1"/>
-      <c r="F480" s="14"/>
-      <c r="G480" s="14"/>
+      <c r="F480" s="11"/>
+      <c r="G480" s="11"/>
       <c r="H480" s="3"/>
       <c r="I480" s="3"/>
       <c r="J480" s="3"/>
@@ -6637,8 +6212,8 @@
     <row r="481" ht="16.5" spans="4:11">
       <c r="D481" s="3"/>
       <c r="E481" s="1"/>
-      <c r="F481" s="14"/>
-      <c r="G481" s="14"/>
+      <c r="F481" s="11"/>
+      <c r="G481" s="11"/>
       <c r="H481" s="3"/>
       <c r="I481" s="3"/>
       <c r="J481" s="3"/>
@@ -6647,8 +6222,8 @@
     <row r="482" ht="16.5" spans="4:11">
       <c r="D482" s="3"/>
       <c r="E482" s="1"/>
-      <c r="F482" s="14"/>
-      <c r="G482" s="14"/>
+      <c r="F482" s="11"/>
+      <c r="G482" s="11"/>
       <c r="H482" s="3"/>
       <c r="I482" s="3"/>
       <c r="J482" s="3"/>
@@ -6657,8 +6232,8 @@
     <row r="483" ht="16.5" spans="4:11">
       <c r="D483" s="3"/>
       <c r="E483" s="1"/>
-      <c r="F483" s="14"/>
-      <c r="G483" s="14"/>
+      <c r="F483" s="11"/>
+      <c r="G483" s="11"/>
       <c r="H483" s="3"/>
       <c r="I483" s="3"/>
       <c r="J483" s="3"/>
@@ -6667,8 +6242,8 @@
     <row r="484" ht="16.5" spans="4:11">
       <c r="D484" s="3"/>
       <c r="E484" s="1"/>
-      <c r="F484" s="14"/>
-      <c r="G484" s="14"/>
+      <c r="F484" s="11"/>
+      <c r="G484" s="11"/>
       <c r="H484" s="3"/>
       <c r="I484" s="3"/>
       <c r="J484" s="3"/>
@@ -6677,8 +6252,8 @@
     <row r="485" ht="16.5" spans="4:11">
       <c r="D485" s="3"/>
       <c r="E485" s="1"/>
-      <c r="F485" s="14"/>
-      <c r="G485" s="14"/>
+      <c r="F485" s="11"/>
+      <c r="G485" s="11"/>
       <c r="H485" s="3"/>
       <c r="I485" s="3"/>
       <c r="J485" s="3"/>
@@ -6687,8 +6262,8 @@
     <row r="486" ht="16.5" spans="4:11">
       <c r="D486" s="3"/>
       <c r="E486" s="1"/>
-      <c r="F486" s="14"/>
-      <c r="G486" s="14"/>
+      <c r="F486" s="11"/>
+      <c r="G486" s="11"/>
       <c r="H486" s="3"/>
       <c r="I486" s="3"/>
       <c r="J486" s="3"/>
@@ -6697,8 +6272,8 @@
     <row r="487" ht="16.5" spans="4:11">
       <c r="D487" s="3"/>
       <c r="E487" s="1"/>
-      <c r="F487" s="14"/>
-      <c r="G487" s="14"/>
+      <c r="F487" s="11"/>
+      <c r="G487" s="11"/>
       <c r="H487" s="3"/>
       <c r="I487" s="3"/>
       <c r="J487" s="3"/>
@@ -6707,8 +6282,8 @@
     <row r="488" ht="16.5" spans="4:11">
       <c r="D488" s="3"/>
       <c r="E488" s="1"/>
-      <c r="F488" s="14"/>
-      <c r="G488" s="14"/>
+      <c r="F488" s="11"/>
+      <c r="G488" s="11"/>
       <c r="H488" s="3"/>
       <c r="I488" s="3"/>
       <c r="J488" s="3"/>
@@ -6717,8 +6292,8 @@
     <row r="489" ht="16.5" spans="4:11">
       <c r="D489" s="3"/>
       <c r="E489" s="1"/>
-      <c r="F489" s="14"/>
-      <c r="G489" s="14"/>
+      <c r="F489" s="11"/>
+      <c r="G489" s="11"/>
       <c r="H489" s="3"/>
       <c r="I489" s="3"/>
       <c r="J489" s="3"/>
@@ -6727,8 +6302,8 @@
     <row r="490" ht="16.5" spans="4:11">
       <c r="D490" s="3"/>
       <c r="E490" s="1"/>
-      <c r="F490" s="14"/>
-      <c r="G490" s="14"/>
+      <c r="F490" s="11"/>
+      <c r="G490" s="11"/>
       <c r="H490" s="3"/>
       <c r="I490" s="3"/>
       <c r="J490" s="3"/>
@@ -6737,28 +6312,28 @@
     <row r="491" ht="16.5" spans="4:11">
       <c r="D491" s="3"/>
       <c r="E491" s="1"/>
-      <c r="F491" s="14"/>
-      <c r="G491" s="14"/>
+      <c r="F491" s="11"/>
+      <c r="G491" s="11"/>
       <c r="H491" s="3"/>
       <c r="I491" s="3"/>
       <c r="J491" s="3"/>
       <c r="K491" s="3"/>
     </row>
     <row r="492" ht="16.5" spans="4:11">
-      <c r="D492" s="7"/>
+      <c r="D492" s="6"/>
       <c r="E492" s="1"/>
-      <c r="F492" s="14"/>
-      <c r="G492" s="14"/>
+      <c r="F492" s="11"/>
+      <c r="G492" s="11"/>
       <c r="H492" s="3"/>
       <c r="I492" s="3"/>
       <c r="J492" s="3"/>
       <c r="K492" s="3"/>
     </row>
     <row r="493" ht="16.5" spans="4:11">
-      <c r="D493" s="7"/>
+      <c r="D493" s="6"/>
       <c r="E493" s="1"/>
-      <c r="F493" s="14"/>
-      <c r="G493" s="14"/>
+      <c r="F493" s="11"/>
+      <c r="G493" s="11"/>
       <c r="H493" s="3"/>
       <c r="I493" s="3"/>
       <c r="J493" s="3"/>
@@ -6767,18 +6342,18 @@
     <row r="494" ht="16.5" spans="4:11">
       <c r="D494" s="3"/>
       <c r="E494" s="1"/>
-      <c r="F494" s="14"/>
-      <c r="G494" s="14"/>
+      <c r="F494" s="11"/>
+      <c r="G494" s="11"/>
       <c r="H494" s="3"/>
       <c r="I494" s="3"/>
       <c r="J494" s="3"/>
       <c r="K494" s="3"/>
     </row>
     <row r="495" ht="16.5" spans="4:11">
-      <c r="D495" s="11"/>
+      <c r="D495" s="8"/>
       <c r="E495" s="1"/>
-      <c r="F495" s="14"/>
-      <c r="G495" s="14"/>
+      <c r="F495" s="11"/>
+      <c r="G495" s="11"/>
       <c r="H495" s="3"/>
       <c r="I495" s="3"/>
       <c r="J495" s="3"/>
@@ -6787,38 +6362,38 @@
     <row r="496" ht="16.5" spans="4:11">
       <c r="D496" s="3"/>
       <c r="E496" s="1"/>
-      <c r="F496" s="14"/>
-      <c r="G496" s="14"/>
+      <c r="F496" s="11"/>
+      <c r="G496" s="11"/>
       <c r="H496" s="3"/>
       <c r="I496" s="3"/>
       <c r="J496" s="3"/>
       <c r="K496" s="3"/>
     </row>
     <row r="497" ht="16.5" spans="4:11">
-      <c r="D497" s="11"/>
+      <c r="D497" s="8"/>
       <c r="E497" s="1"/>
-      <c r="F497" s="14"/>
-      <c r="G497" s="14"/>
+      <c r="F497" s="11"/>
+      <c r="G497" s="11"/>
       <c r="H497" s="3"/>
       <c r="I497" s="3"/>
       <c r="J497" s="3"/>
       <c r="K497" s="3"/>
     </row>
     <row r="498" ht="16.5" spans="4:11">
-      <c r="D498" s="11"/>
+      <c r="D498" s="8"/>
       <c r="E498" s="1"/>
-      <c r="F498" s="14"/>
-      <c r="G498" s="14"/>
+      <c r="F498" s="11"/>
+      <c r="G498" s="11"/>
       <c r="H498" s="3"/>
       <c r="I498" s="3"/>
       <c r="J498" s="3"/>
       <c r="K498" s="3"/>
     </row>
     <row r="499" ht="16.5" spans="4:11">
-      <c r="D499" s="11"/>
+      <c r="D499" s="8"/>
       <c r="E499" s="1"/>
-      <c r="F499" s="14"/>
-      <c r="G499" s="14"/>
+      <c r="F499" s="11"/>
+      <c r="G499" s="11"/>
       <c r="H499" s="3"/>
       <c r="I499" s="3"/>
       <c r="J499" s="3"/>
@@ -6827,8 +6402,8 @@
     <row r="500" ht="16.5" spans="4:11">
       <c r="D500" s="3"/>
       <c r="E500" s="1"/>
-      <c r="F500" s="14"/>
-      <c r="G500" s="14"/>
+      <c r="F500" s="11"/>
+      <c r="G500" s="11"/>
       <c r="H500" s="3"/>
       <c r="I500" s="3"/>
       <c r="J500" s="3"/>
@@ -6837,8 +6412,8 @@
     <row r="501" ht="16.5" spans="4:11">
       <c r="D501" s="3"/>
       <c r="E501" s="1"/>
-      <c r="F501" s="14"/>
-      <c r="G501" s="14"/>
+      <c r="F501" s="11"/>
+      <c r="G501" s="11"/>
       <c r="H501" s="3"/>
       <c r="I501" s="3"/>
       <c r="J501" s="3"/>
@@ -6847,8 +6422,8 @@
     <row r="502" ht="16.5" spans="4:11">
       <c r="D502" s="3"/>
       <c r="E502" s="1"/>
-      <c r="F502" s="14"/>
-      <c r="G502" s="14"/>
+      <c r="F502" s="11"/>
+      <c r="G502" s="11"/>
       <c r="H502" s="3"/>
       <c r="I502" s="3"/>
       <c r="J502" s="3"/>
@@ -6857,8 +6432,8 @@
     <row r="503" ht="16.5" spans="4:11">
       <c r="D503" s="3"/>
       <c r="E503" s="1"/>
-      <c r="F503" s="14"/>
-      <c r="G503" s="14"/>
+      <c r="F503" s="11"/>
+      <c r="G503" s="11"/>
       <c r="H503" s="3"/>
       <c r="I503" s="3"/>
       <c r="J503" s="3"/>
@@ -6867,8 +6442,8 @@
     <row r="504" ht="16.5" spans="4:11">
       <c r="D504" s="3"/>
       <c r="E504" s="1"/>
-      <c r="F504" s="14"/>
-      <c r="G504" s="14"/>
+      <c r="F504" s="11"/>
+      <c r="G504" s="11"/>
       <c r="H504" s="3"/>
       <c r="I504" s="3"/>
       <c r="J504" s="3"/>
@@ -6877,8 +6452,8 @@
     <row r="505" ht="16.5" spans="4:11">
       <c r="D505" s="3"/>
       <c r="E505" s="1"/>
-      <c r="F505" s="14"/>
-      <c r="G505" s="14"/>
+      <c r="F505" s="11"/>
+      <c r="G505" s="11"/>
       <c r="H505" s="3"/>
       <c r="I505" s="3"/>
       <c r="J505" s="3"/>
@@ -6887,48 +6462,48 @@
     <row r="506" ht="16.5" spans="4:11">
       <c r="D506" s="3"/>
       <c r="E506" s="1"/>
-      <c r="F506" s="14"/>
-      <c r="G506" s="14"/>
+      <c r="F506" s="11"/>
+      <c r="G506" s="11"/>
       <c r="H506" s="3"/>
       <c r="I506" s="3"/>
       <c r="J506" s="3"/>
       <c r="K506" s="3"/>
     </row>
     <row r="507" ht="16.5" spans="4:11">
-      <c r="D507" s="7"/>
+      <c r="D507" s="6"/>
       <c r="E507" s="1"/>
-      <c r="F507" s="14"/>
-      <c r="G507" s="14"/>
+      <c r="F507" s="11"/>
+      <c r="G507" s="11"/>
       <c r="H507" s="3"/>
       <c r="I507" s="3"/>
       <c r="J507" s="3"/>
       <c r="K507" s="3"/>
     </row>
     <row r="508" ht="16.5" spans="4:11">
-      <c r="D508" s="24"/>
+      <c r="D508" s="21"/>
       <c r="E508" s="1"/>
-      <c r="F508" s="14"/>
-      <c r="G508" s="14"/>
+      <c r="F508" s="11"/>
+      <c r="G508" s="11"/>
       <c r="H508" s="3"/>
       <c r="I508" s="3"/>
       <c r="J508" s="3"/>
       <c r="K508" s="3"/>
     </row>
     <row r="509" ht="16.5" spans="4:11">
-      <c r="D509" s="25"/>
+      <c r="D509" s="22"/>
       <c r="E509" s="1"/>
-      <c r="F509" s="14"/>
-      <c r="G509" s="14"/>
+      <c r="F509" s="11"/>
+      <c r="G509" s="11"/>
       <c r="H509" s="3"/>
       <c r="I509" s="3"/>
       <c r="J509" s="3"/>
       <c r="K509" s="3"/>
     </row>
     <row r="510" ht="16.5" spans="4:11">
-      <c r="D510" s="7"/>
+      <c r="D510" s="6"/>
       <c r="E510" s="1"/>
-      <c r="F510" s="14"/>
-      <c r="G510" s="14"/>
+      <c r="F510" s="11"/>
+      <c r="G510" s="11"/>
       <c r="H510" s="3"/>
       <c r="I510" s="3"/>
       <c r="J510" s="3"/>
@@ -6937,8 +6512,8 @@
     <row r="511" ht="16.5" spans="4:11">
       <c r="D511" s="3"/>
       <c r="E511" s="1"/>
-      <c r="F511" s="14"/>
-      <c r="G511" s="14"/>
+      <c r="F511" s="11"/>
+      <c r="G511" s="11"/>
       <c r="H511" s="3"/>
       <c r="I511" s="3"/>
       <c r="J511" s="3"/>
@@ -6947,8 +6522,8 @@
     <row r="512" ht="16.5" spans="4:11">
       <c r="D512" s="3"/>
       <c r="E512" s="1"/>
-      <c r="F512" s="14"/>
-      <c r="G512" s="14"/>
+      <c r="F512" s="11"/>
+      <c r="G512" s="11"/>
       <c r="H512" s="3"/>
       <c r="I512" s="3"/>
       <c r="J512" s="3"/>
@@ -6957,8 +6532,8 @@
     <row r="513" ht="16.5" spans="4:11">
       <c r="D513" s="3"/>
       <c r="E513" s="1"/>
-      <c r="F513" s="14"/>
-      <c r="G513" s="14"/>
+      <c r="F513" s="11"/>
+      <c r="G513" s="11"/>
       <c r="H513" s="3"/>
       <c r="I513" s="3"/>
       <c r="J513" s="3"/>
@@ -6967,8 +6542,8 @@
     <row r="514" ht="16.5" spans="4:11">
       <c r="D514" s="3"/>
       <c r="E514" s="1"/>
-      <c r="F514" s="14"/>
-      <c r="G514" s="14"/>
+      <c r="F514" s="11"/>
+      <c r="G514" s="11"/>
       <c r="H514" s="3"/>
       <c r="I514" s="3"/>
       <c r="J514" s="3"/>
@@ -6977,8 +6552,8 @@
     <row r="515" ht="16.5" spans="4:11">
       <c r="D515" s="3"/>
       <c r="E515" s="1"/>
-      <c r="F515" s="14"/>
-      <c r="G515" s="14"/>
+      <c r="F515" s="11"/>
+      <c r="G515" s="11"/>
       <c r="H515" s="3"/>
       <c r="I515" s="3"/>
       <c r="J515" s="3"/>
@@ -6987,8 +6562,8 @@
     <row r="516" ht="16.5" spans="4:11">
       <c r="D516" s="3"/>
       <c r="E516" s="1"/>
-      <c r="F516" s="14"/>
-      <c r="G516" s="14"/>
+      <c r="F516" s="11"/>
+      <c r="G516" s="11"/>
       <c r="H516" s="3"/>
       <c r="I516" s="3"/>
       <c r="J516" s="3"/>
@@ -6997,8 +6572,8 @@
     <row r="517" ht="16.5" spans="4:11">
       <c r="D517" s="3"/>
       <c r="E517" s="1"/>
-      <c r="F517" s="14"/>
-      <c r="G517" s="14"/>
+      <c r="F517" s="11"/>
+      <c r="G517" s="11"/>
       <c r="H517" s="3"/>
       <c r="I517" s="3"/>
       <c r="J517" s="3"/>
@@ -7007,8 +6582,8 @@
     <row r="518" ht="16.5" spans="4:11">
       <c r="D518" s="3"/>
       <c r="E518" s="1"/>
-      <c r="F518" s="14"/>
-      <c r="G518" s="14"/>
+      <c r="F518" s="11"/>
+      <c r="G518" s="11"/>
       <c r="H518" s="3"/>
       <c r="I518" s="3"/>
       <c r="J518" s="3"/>
@@ -7017,8 +6592,8 @@
     <row r="519" ht="16.5" spans="4:11">
       <c r="D519" s="3"/>
       <c r="E519" s="1"/>
-      <c r="F519" s="14"/>
-      <c r="G519" s="14"/>
+      <c r="F519" s="11"/>
+      <c r="G519" s="11"/>
       <c r="H519" s="3"/>
       <c r="I519" s="3"/>
       <c r="J519" s="3"/>
@@ -7027,8 +6602,8 @@
     <row r="520" ht="16.5" spans="4:11">
       <c r="D520" s="3"/>
       <c r="E520" s="1"/>
-      <c r="F520" s="14"/>
-      <c r="G520" s="14"/>
+      <c r="F520" s="11"/>
+      <c r="G520" s="11"/>
       <c r="H520" s="3"/>
       <c r="I520" s="3"/>
       <c r="J520" s="3"/>
@@ -7037,8 +6612,8 @@
     <row r="521" ht="16.5" spans="4:11">
       <c r="D521" s="3"/>
       <c r="E521" s="1"/>
-      <c r="F521" s="14"/>
-      <c r="G521" s="14"/>
+      <c r="F521" s="11"/>
+      <c r="G521" s="11"/>
       <c r="H521" s="3"/>
       <c r="I521" s="3"/>
       <c r="J521" s="3"/>
@@ -7047,8 +6622,8 @@
     <row r="522" ht="16.5" spans="4:11">
       <c r="D522" s="3"/>
       <c r="E522" s="1"/>
-      <c r="F522" s="14"/>
-      <c r="G522" s="14"/>
+      <c r="F522" s="11"/>
+      <c r="G522" s="11"/>
       <c r="H522" s="3"/>
       <c r="I522" s="3"/>
       <c r="J522" s="3"/>
@@ -7057,8 +6632,8 @@
     <row r="523" ht="16.5" spans="4:11">
       <c r="D523" s="3"/>
       <c r="E523" s="1"/>
-      <c r="F523" s="14"/>
-      <c r="G523" s="14"/>
+      <c r="F523" s="11"/>
+      <c r="G523" s="11"/>
       <c r="H523" s="3"/>
       <c r="I523" s="3"/>
       <c r="J523" s="3"/>
@@ -7067,8 +6642,8 @@
     <row r="524" ht="16.5" spans="4:11">
       <c r="D524" s="3"/>
       <c r="E524" s="1"/>
-      <c r="F524" s="14"/>
-      <c r="G524" s="14"/>
+      <c r="F524" s="11"/>
+      <c r="G524" s="11"/>
       <c r="H524" s="3"/>
       <c r="I524" s="3"/>
       <c r="J524" s="3"/>
@@ -7077,8 +6652,8 @@
     <row r="525" ht="16.5" spans="4:11">
       <c r="D525" s="3"/>
       <c r="E525" s="1"/>
-      <c r="F525" s="14"/>
-      <c r="G525" s="14"/>
+      <c r="F525" s="11"/>
+      <c r="G525" s="11"/>
       <c r="H525" s="3"/>
       <c r="I525" s="3"/>
       <c r="J525" s="3"/>
@@ -7087,8 +6662,8 @@
     <row r="526" ht="16.5" spans="4:11">
       <c r="D526" s="3"/>
       <c r="E526" s="1"/>
-      <c r="F526" s="14"/>
-      <c r="G526" s="14"/>
+      <c r="F526" s="11"/>
+      <c r="G526" s="11"/>
       <c r="H526" s="3"/>
       <c r="I526" s="3"/>
       <c r="J526" s="3"/>
@@ -7097,8 +6672,8 @@
     <row r="527" ht="16.5" spans="4:11">
       <c r="D527" s="3"/>
       <c r="E527" s="1"/>
-      <c r="F527" s="14"/>
-      <c r="G527" s="14"/>
+      <c r="F527" s="11"/>
+      <c r="G527" s="11"/>
       <c r="H527" s="3"/>
       <c r="I527" s="3"/>
       <c r="J527" s="3"/>
@@ -7107,8 +6682,8 @@
     <row r="528" ht="16.5" spans="4:11">
       <c r="D528" s="3"/>
       <c r="E528" s="1"/>
-      <c r="F528" s="14"/>
-      <c r="G528" s="14"/>
+      <c r="F528" s="11"/>
+      <c r="G528" s="11"/>
       <c r="H528" s="3"/>
       <c r="I528" s="3"/>
       <c r="J528" s="3"/>
@@ -7117,8 +6692,8 @@
     <row r="529" ht="16.5" spans="4:11">
       <c r="D529" s="3"/>
       <c r="E529" s="1"/>
-      <c r="F529" s="14"/>
-      <c r="G529" s="14"/>
+      <c r="F529" s="11"/>
+      <c r="G529" s="11"/>
       <c r="H529" s="3"/>
       <c r="I529" s="3"/>
       <c r="J529" s="3"/>
@@ -7127,8 +6702,8 @@
     <row r="530" ht="16.5" spans="4:11">
       <c r="D530" s="3"/>
       <c r="E530" s="1"/>
-      <c r="F530" s="14"/>
-      <c r="G530" s="14"/>
+      <c r="F530" s="11"/>
+      <c r="G530" s="11"/>
       <c r="H530" s="3"/>
       <c r="I530" s="3"/>
       <c r="J530" s="3"/>
@@ -7137,8 +6712,8 @@
     <row r="531" ht="16.5" spans="4:11">
       <c r="D531" s="3"/>
       <c r="E531" s="1"/>
-      <c r="F531" s="14"/>
-      <c r="G531" s="14"/>
+      <c r="F531" s="11"/>
+      <c r="G531" s="11"/>
       <c r="H531" s="3"/>
       <c r="I531" s="3"/>
       <c r="J531" s="3"/>
@@ -7147,8 +6722,8 @@
     <row r="532" ht="16.5" spans="4:11">
       <c r="D532" s="3"/>
       <c r="E532" s="1"/>
-      <c r="F532" s="14"/>
-      <c r="G532" s="14"/>
+      <c r="F532" s="11"/>
+      <c r="G532" s="11"/>
       <c r="H532" s="3"/>
       <c r="I532" s="3"/>
       <c r="J532" s="3"/>
@@ -7157,8 +6732,8 @@
     <row r="533" ht="16.5" spans="4:11">
       <c r="D533" s="3"/>
       <c r="E533" s="1"/>
-      <c r="F533" s="14"/>
-      <c r="G533" s="14"/>
+      <c r="F533" s="11"/>
+      <c r="G533" s="11"/>
       <c r="H533" s="3"/>
       <c r="I533" s="3"/>
       <c r="J533" s="3"/>
@@ -7167,18 +6742,18 @@
     <row r="534" ht="16.5" spans="4:11">
       <c r="D534" s="3"/>
       <c r="E534" s="1"/>
-      <c r="F534" s="14"/>
-      <c r="G534" s="14"/>
+      <c r="F534" s="11"/>
+      <c r="G534" s="11"/>
       <c r="H534" s="3"/>
       <c r="I534" s="3"/>
       <c r="J534" s="3"/>
       <c r="K534" s="3"/>
     </row>
     <row r="535" ht="16.5" spans="4:11">
-      <c r="D535" s="7"/>
+      <c r="D535" s="6"/>
       <c r="E535" s="1"/>
-      <c r="F535" s="14"/>
-      <c r="G535" s="14"/>
+      <c r="F535" s="11"/>
+      <c r="G535" s="11"/>
       <c r="H535" s="3"/>
       <c r="I535" s="3"/>
       <c r="J535" s="3"/>
@@ -7187,8 +6762,8 @@
     <row r="536" ht="16.5" spans="4:11">
       <c r="D536" s="3"/>
       <c r="E536" s="1"/>
-      <c r="F536" s="14"/>
-      <c r="G536" s="14"/>
+      <c r="F536" s="11"/>
+      <c r="G536" s="11"/>
       <c r="H536" s="3"/>
       <c r="I536" s="3"/>
       <c r="J536" s="3"/>
@@ -7197,8 +6772,8 @@
     <row r="537" ht="16.5" spans="4:11">
       <c r="D537" s="3"/>
       <c r="E537" s="1"/>
-      <c r="F537" s="14"/>
-      <c r="G537" s="14"/>
+      <c r="F537" s="11"/>
+      <c r="G537" s="11"/>
       <c r="H537" s="3"/>
       <c r="I537" s="3"/>
       <c r="J537" s="3"/>
@@ -7207,8 +6782,8 @@
     <row r="538" ht="16.5" spans="4:11">
       <c r="D538" s="3"/>
       <c r="E538" s="1"/>
-      <c r="F538" s="14"/>
-      <c r="G538" s="14"/>
+      <c r="F538" s="11"/>
+      <c r="G538" s="11"/>
       <c r="H538" s="3"/>
       <c r="I538" s="3"/>
       <c r="J538" s="3"/>
@@ -7217,8 +6792,8 @@
     <row r="539" ht="16.5" spans="4:11">
       <c r="D539" s="3"/>
       <c r="E539" s="1"/>
-      <c r="F539" s="14"/>
-      <c r="G539" s="14"/>
+      <c r="F539" s="11"/>
+      <c r="G539" s="11"/>
       <c r="H539" s="3"/>
       <c r="I539" s="3"/>
       <c r="J539" s="3"/>
@@ -7227,8 +6802,8 @@
     <row r="540" ht="16.5" spans="4:11">
       <c r="D540" s="3"/>
       <c r="E540" s="1"/>
-      <c r="F540" s="14"/>
-      <c r="G540" s="14"/>
+      <c r="F540" s="11"/>
+      <c r="G540" s="11"/>
       <c r="H540" s="3"/>
       <c r="I540" s="3"/>
       <c r="J540" s="3"/>
@@ -7237,8 +6812,8 @@
     <row r="541" ht="16.5" spans="4:11">
       <c r="D541" s="3"/>
       <c r="E541" s="1"/>
-      <c r="F541" s="14"/>
-      <c r="G541" s="14"/>
+      <c r="F541" s="11"/>
+      <c r="G541" s="11"/>
       <c r="H541" s="3"/>
       <c r="I541" s="3"/>
       <c r="J541" s="3"/>
@@ -7247,8 +6822,8 @@
     <row r="542" ht="16.5" spans="4:11">
       <c r="D542" s="3"/>
       <c r="E542" s="1"/>
-      <c r="F542" s="14"/>
-      <c r="G542" s="14"/>
+      <c r="F542" s="11"/>
+      <c r="G542" s="11"/>
       <c r="H542" s="3"/>
       <c r="I542" s="3"/>
       <c r="J542" s="3"/>
@@ -7257,8 +6832,8 @@
     <row r="543" ht="16.5" spans="4:11">
       <c r="D543" s="3"/>
       <c r="E543" s="1"/>
-      <c r="F543" s="14"/>
-      <c r="G543" s="14"/>
+      <c r="F543" s="11"/>
+      <c r="G543" s="11"/>
       <c r="H543" s="3"/>
       <c r="I543" s="3"/>
       <c r="J543" s="3"/>
@@ -7267,8 +6842,8 @@
     <row r="544" ht="16.5" spans="4:11">
       <c r="D544" s="3"/>
       <c r="E544" s="1"/>
-      <c r="F544" s="14"/>
-      <c r="G544" s="14"/>
+      <c r="F544" s="11"/>
+      <c r="G544" s="11"/>
       <c r="H544" s="3"/>
       <c r="I544" s="3"/>
       <c r="J544" s="3"/>
@@ -7277,8 +6852,8 @@
     <row r="545" ht="16.5" spans="4:11">
       <c r="D545" s="3"/>
       <c r="E545" s="1"/>
-      <c r="F545" s="14"/>
-      <c r="G545" s="14"/>
+      <c r="F545" s="11"/>
+      <c r="G545" s="11"/>
       <c r="H545" s="3"/>
       <c r="I545" s="3"/>
       <c r="J545" s="3"/>
@@ -7287,8 +6862,8 @@
     <row r="546" ht="16.5" spans="4:11">
       <c r="D546" s="3"/>
       <c r="E546" s="1"/>
-      <c r="F546" s="14"/>
-      <c r="G546" s="14"/>
+      <c r="F546" s="11"/>
+      <c r="G546" s="11"/>
       <c r="H546" s="3"/>
       <c r="I546" s="3"/>
       <c r="J546" s="3"/>
@@ -7297,8 +6872,8 @@
     <row r="547" ht="16.5" spans="4:11">
       <c r="D547" s="3"/>
       <c r="E547" s="1"/>
-      <c r="F547" s="14"/>
-      <c r="G547" s="14"/>
+      <c r="F547" s="11"/>
+      <c r="G547" s="11"/>
       <c r="H547" s="3"/>
       <c r="I547" s="3"/>
       <c r="J547" s="3"/>
@@ -7307,8 +6882,8 @@
     <row r="548" ht="16.5" spans="4:11">
       <c r="D548" s="3"/>
       <c r="E548" s="1"/>
-      <c r="F548" s="14"/>
-      <c r="G548" s="14"/>
+      <c r="F548" s="11"/>
+      <c r="G548" s="11"/>
       <c r="H548" s="3"/>
       <c r="I548" s="3"/>
       <c r="J548" s="3"/>
@@ -7317,18 +6892,18 @@
     <row r="549" ht="16.5" spans="4:11">
       <c r="D549" s="3"/>
       <c r="E549" s="1"/>
-      <c r="F549" s="14"/>
-      <c r="G549" s="14"/>
+      <c r="F549" s="11"/>
+      <c r="G549" s="11"/>
       <c r="H549" s="3"/>
       <c r="I549" s="3"/>
       <c r="J549" s="3"/>
       <c r="K549" s="3"/>
     </row>
     <row r="550" ht="16.5" spans="4:11">
-      <c r="D550" s="7"/>
+      <c r="D550" s="6"/>
       <c r="E550" s="1"/>
-      <c r="F550" s="14"/>
-      <c r="G550" s="14"/>
+      <c r="F550" s="11"/>
+      <c r="G550" s="11"/>
       <c r="H550" s="3"/>
       <c r="I550" s="3"/>
       <c r="J550" s="3"/>
@@ -7337,18 +6912,18 @@
     <row r="551" ht="16.5" spans="4:11">
       <c r="D551" s="3"/>
       <c r="E551" s="1"/>
-      <c r="F551" s="14"/>
-      <c r="G551" s="14"/>
+      <c r="F551" s="11"/>
+      <c r="G551" s="11"/>
       <c r="H551" s="3"/>
       <c r="I551" s="3"/>
       <c r="J551" s="3"/>
       <c r="K551" s="3"/>
     </row>
     <row r="552" ht="16.5" spans="4:11">
-      <c r="D552" s="11"/>
+      <c r="D552" s="8"/>
       <c r="E552" s="1"/>
-      <c r="F552" s="14"/>
-      <c r="G552" s="14"/>
+      <c r="F552" s="11"/>
+      <c r="G552" s="11"/>
       <c r="H552" s="3"/>
       <c r="I552" s="3"/>
       <c r="J552" s="3"/>
@@ -7357,8 +6932,8 @@
     <row r="553" ht="16.5" spans="4:11">
       <c r="D553" s="3"/>
       <c r="E553" s="1"/>
-      <c r="F553" s="14"/>
-      <c r="G553" s="14"/>
+      <c r="F553" s="11"/>
+      <c r="G553" s="11"/>
       <c r="H553" s="3"/>
       <c r="I553" s="3"/>
       <c r="J553" s="3"/>
@@ -7367,8 +6942,8 @@
     <row r="554" ht="16.5" spans="4:11">
       <c r="D554" s="3"/>
       <c r="E554" s="1"/>
-      <c r="F554" s="14"/>
-      <c r="G554" s="14"/>
+      <c r="F554" s="11"/>
+      <c r="G554" s="11"/>
       <c r="H554" s="3"/>
       <c r="I554" s="3"/>
       <c r="J554" s="3"/>
@@ -7377,8 +6952,8 @@
     <row r="555" ht="16.5" spans="4:11">
       <c r="D555" s="3"/>
       <c r="E555" s="1"/>
-      <c r="F555" s="14"/>
-      <c r="G555" s="14"/>
+      <c r="F555" s="11"/>
+      <c r="G555" s="11"/>
       <c r="H555" s="3"/>
       <c r="I555" s="3"/>
       <c r="J555" s="3"/>
@@ -7387,8 +6962,8 @@
     <row r="556" ht="16.5" spans="4:11">
       <c r="D556" s="3"/>
       <c r="E556" s="1"/>
-      <c r="F556" s="14"/>
-      <c r="G556" s="14"/>
+      <c r="F556" s="11"/>
+      <c r="G556" s="11"/>
       <c r="H556" s="3"/>
       <c r="I556" s="3"/>
       <c r="J556" s="3"/>
@@ -7397,28 +6972,28 @@
     <row r="557" ht="16.5" spans="4:11">
       <c r="D557" s="3"/>
       <c r="E557" s="1"/>
-      <c r="F557" s="14"/>
-      <c r="G557" s="14"/>
+      <c r="F557" s="11"/>
+      <c r="G557" s="11"/>
       <c r="H557" s="3"/>
       <c r="I557" s="3"/>
       <c r="J557" s="3"/>
       <c r="K557" s="3"/>
     </row>
     <row r="558" ht="16.5" spans="4:11">
-      <c r="D558" s="7"/>
+      <c r="D558" s="6"/>
       <c r="E558" s="1"/>
-      <c r="F558" s="14"/>
-      <c r="G558" s="14"/>
+      <c r="F558" s="11"/>
+      <c r="G558" s="11"/>
       <c r="H558" s="3"/>
       <c r="I558" s="3"/>
       <c r="J558" s="3"/>
       <c r="K558" s="3"/>
     </row>
     <row r="559" ht="16.5" spans="4:11">
-      <c r="D559" s="7"/>
+      <c r="D559" s="6"/>
       <c r="E559" s="1"/>
-      <c r="F559" s="14"/>
-      <c r="G559" s="14"/>
+      <c r="F559" s="11"/>
+      <c r="G559" s="11"/>
       <c r="H559" s="3"/>
       <c r="I559" s="3"/>
       <c r="J559" s="3"/>
@@ -7427,8 +7002,8 @@
     <row r="560" ht="16.5" spans="4:11">
       <c r="D560" s="3"/>
       <c r="E560" s="1"/>
-      <c r="F560" s="14"/>
-      <c r="G560" s="14"/>
+      <c r="F560" s="11"/>
+      <c r="G560" s="11"/>
       <c r="H560" s="3"/>
       <c r="I560" s="3"/>
       <c r="J560" s="3"/>
@@ -7437,18 +7012,18 @@
     <row r="561" ht="16.5" spans="4:11">
       <c r="D561" s="3"/>
       <c r="E561" s="1"/>
-      <c r="F561" s="14"/>
-      <c r="G561" s="14"/>
+      <c r="F561" s="11"/>
+      <c r="G561" s="11"/>
       <c r="H561" s="3"/>
       <c r="I561" s="3"/>
       <c r="J561" s="3"/>
       <c r="K561" s="3"/>
     </row>
     <row r="562" ht="16.5" spans="4:11">
-      <c r="D562" s="7"/>
+      <c r="D562" s="6"/>
       <c r="E562" s="1"/>
-      <c r="F562" s="14"/>
-      <c r="G562" s="14"/>
+      <c r="F562" s="11"/>
+      <c r="G562" s="11"/>
       <c r="H562" s="3"/>
       <c r="I562" s="3"/>
       <c r="J562" s="3"/>
@@ -7457,18 +7032,18 @@
     <row r="563" ht="16.5" spans="4:11">
       <c r="D563" s="3"/>
       <c r="E563" s="1"/>
-      <c r="F563" s="14"/>
-      <c r="G563" s="14"/>
+      <c r="F563" s="11"/>
+      <c r="G563" s="11"/>
       <c r="H563" s="3"/>
       <c r="I563" s="3"/>
       <c r="J563" s="3"/>
       <c r="K563" s="3"/>
     </row>
     <row r="564" ht="16.5" spans="4:11">
-      <c r="D564" s="14"/>
+      <c r="D564" s="11"/>
       <c r="E564" s="1"/>
-      <c r="F564" s="14"/>
-      <c r="G564" s="14"/>
+      <c r="F564" s="11"/>
+      <c r="G564" s="11"/>
       <c r="H564" s="3"/>
       <c r="I564" s="3"/>
       <c r="J564" s="3"/>
@@ -7477,8 +7052,8 @@
     <row r="565" ht="16.5" spans="4:11">
       <c r="D565" s="3"/>
       <c r="E565" s="1"/>
-      <c r="F565" s="14"/>
-      <c r="G565" s="14"/>
+      <c r="F565" s="11"/>
+      <c r="G565" s="11"/>
       <c r="H565" s="3"/>
       <c r="I565" s="3"/>
       <c r="J565" s="3"/>
@@ -7487,8 +7062,8 @@
     <row r="566" ht="16.5" spans="4:11">
       <c r="D566" s="3"/>
       <c r="E566" s="1"/>
-      <c r="F566" s="14"/>
-      <c r="G566" s="14"/>
+      <c r="F566" s="11"/>
+      <c r="G566" s="11"/>
       <c r="H566" s="3"/>
       <c r="I566" s="3"/>
       <c r="J566" s="3"/>
@@ -7497,8 +7072,8 @@
     <row r="567" ht="16.5" spans="4:11">
       <c r="D567" s="3"/>
       <c r="E567" s="1"/>
-      <c r="F567" s="14"/>
-      <c r="G567" s="14"/>
+      <c r="F567" s="11"/>
+      <c r="G567" s="11"/>
       <c r="H567" s="3"/>
       <c r="I567" s="3"/>
       <c r="J567" s="3"/>
@@ -7507,8 +7082,8 @@
     <row r="568" ht="16.5" spans="4:11">
       <c r="D568" s="3"/>
       <c r="E568" s="1"/>
-      <c r="F568" s="14"/>
-      <c r="G568" s="14"/>
+      <c r="F568" s="11"/>
+      <c r="G568" s="11"/>
       <c r="H568" s="3"/>
       <c r="I568" s="3"/>
       <c r="J568" s="3"/>
@@ -7517,8 +7092,8 @@
     <row r="569" ht="16.5" spans="4:11">
       <c r="D569" s="3"/>
       <c r="E569" s="1"/>
-      <c r="F569" s="14"/>
-      <c r="G569" s="14"/>
+      <c r="F569" s="11"/>
+      <c r="G569" s="11"/>
       <c r="H569" s="3"/>
       <c r="I569" s="3"/>
       <c r="J569" s="3"/>
@@ -7527,8 +7102,8 @@
     <row r="570" ht="16.5" spans="4:11">
       <c r="D570" s="3"/>
       <c r="E570" s="1"/>
-      <c r="F570" s="14"/>
-      <c r="G570" s="14"/>
+      <c r="F570" s="11"/>
+      <c r="G570" s="11"/>
       <c r="H570" s="3"/>
       <c r="I570" s="3"/>
       <c r="J570" s="3"/>
@@ -7537,8 +7112,8 @@
     <row r="571" ht="16.5" spans="4:11">
       <c r="D571" s="3"/>
       <c r="E571" s="1"/>
-      <c r="F571" s="14"/>
-      <c r="G571" s="14"/>
+      <c r="F571" s="11"/>
+      <c r="G571" s="11"/>
       <c r="H571" s="3"/>
       <c r="I571" s="3"/>
       <c r="J571" s="3"/>
@@ -7547,8 +7122,8 @@
     <row r="572" ht="16.5" spans="4:11">
       <c r="D572" s="3"/>
       <c r="E572" s="1"/>
-      <c r="F572" s="14"/>
-      <c r="G572" s="14"/>
+      <c r="F572" s="11"/>
+      <c r="G572" s="11"/>
       <c r="H572" s="3"/>
       <c r="I572" s="3"/>
       <c r="J572" s="3"/>
@@ -7557,8 +7132,8 @@
     <row r="573" ht="16.5" spans="4:11">
       <c r="D573" s="3"/>
       <c r="E573" s="1"/>
-      <c r="F573" s="14"/>
-      <c r="G573" s="14"/>
+      <c r="F573" s="11"/>
+      <c r="G573" s="11"/>
       <c r="H573" s="3"/>
       <c r="I573" s="3"/>
       <c r="J573" s="3"/>
@@ -7567,8 +7142,8 @@
     <row r="574" ht="16.5" spans="4:11">
       <c r="D574" s="3"/>
       <c r="E574" s="1"/>
-      <c r="F574" s="14"/>
-      <c r="G574" s="14"/>
+      <c r="F574" s="11"/>
+      <c r="G574" s="11"/>
       <c r="H574" s="3"/>
       <c r="I574" s="3"/>
       <c r="J574" s="3"/>
@@ -7577,8 +7152,8 @@
     <row r="575" ht="16.5" spans="4:11">
       <c r="D575" s="3"/>
       <c r="E575" s="1"/>
-      <c r="F575" s="14"/>
-      <c r="G575" s="14"/>
+      <c r="F575" s="11"/>
+      <c r="G575" s="11"/>
       <c r="H575" s="3"/>
       <c r="I575" s="3"/>
       <c r="J575" s="3"/>
@@ -7587,8 +7162,8 @@
     <row r="576" ht="16.5" spans="4:11">
       <c r="D576" s="3"/>
       <c r="E576" s="1"/>
-      <c r="F576" s="14"/>
-      <c r="G576" s="14"/>
+      <c r="F576" s="11"/>
+      <c r="G576" s="11"/>
       <c r="H576" s="3"/>
       <c r="I576" s="3"/>
       <c r="J576" s="3"/>
@@ -7597,8 +7172,8 @@
     <row r="577" ht="16.5" spans="4:11">
       <c r="D577" s="3"/>
       <c r="E577" s="1"/>
-      <c r="F577" s="14"/>
-      <c r="G577" s="14"/>
+      <c r="F577" s="11"/>
+      <c r="G577" s="11"/>
       <c r="H577" s="3"/>
       <c r="I577" s="3"/>
       <c r="J577" s="3"/>
@@ -7607,8 +7182,8 @@
     <row r="578" ht="16.5" spans="4:11">
       <c r="D578" s="3"/>
       <c r="E578" s="1"/>
-      <c r="F578" s="14"/>
-      <c r="G578" s="14"/>
+      <c r="F578" s="11"/>
+      <c r="G578" s="11"/>
       <c r="H578" s="3"/>
       <c r="I578" s="3"/>
       <c r="J578" s="3"/>
@@ -7617,8 +7192,8 @@
     <row r="579" ht="16.5" spans="4:11">
       <c r="D579" s="3"/>
       <c r="E579" s="1"/>
-      <c r="F579" s="14"/>
-      <c r="G579" s="14"/>
+      <c r="F579" s="11"/>
+      <c r="G579" s="11"/>
       <c r="H579" s="3"/>
       <c r="I579" s="3"/>
       <c r="J579" s="3"/>
@@ -7627,8 +7202,8 @@
     <row r="580" ht="16.5" spans="4:11">
       <c r="D580" s="3"/>
       <c r="E580" s="1"/>
-      <c r="F580" s="14"/>
-      <c r="G580" s="14"/>
+      <c r="F580" s="11"/>
+      <c r="G580" s="11"/>
       <c r="H580" s="3"/>
       <c r="I580" s="3"/>
       <c r="J580" s="3"/>
@@ -7637,8 +7212,8 @@
     <row r="581" ht="16.5" spans="4:11">
       <c r="D581" s="3"/>
       <c r="E581" s="1"/>
-      <c r="F581" s="14"/>
-      <c r="G581" s="14"/>
+      <c r="F581" s="11"/>
+      <c r="G581" s="11"/>
       <c r="H581" s="3"/>
       <c r="I581" s="3"/>
       <c r="J581" s="3"/>
@@ -7647,8 +7222,8 @@
     <row r="582" ht="16.5" spans="4:11">
       <c r="D582" s="3"/>
       <c r="E582" s="1"/>
-      <c r="F582" s="14"/>
-      <c r="G582" s="14"/>
+      <c r="F582" s="11"/>
+      <c r="G582" s="11"/>
       <c r="H582" s="3"/>
       <c r="I582" s="3"/>
       <c r="J582" s="3"/>
@@ -7657,8 +7232,8 @@
     <row r="583" ht="16.5" spans="4:11">
       <c r="D583" s="3"/>
       <c r="E583" s="1"/>
-      <c r="F583" s="14"/>
-      <c r="G583" s="14"/>
+      <c r="F583" s="11"/>
+      <c r="G583" s="11"/>
       <c r="H583" s="3"/>
       <c r="I583" s="3"/>
       <c r="J583" s="3"/>
@@ -7667,8 +7242,8 @@
     <row r="584" ht="16.5" spans="4:11">
       <c r="D584" s="3"/>
       <c r="E584" s="1"/>
-      <c r="F584" s="14"/>
-      <c r="G584" s="14"/>
+      <c r="F584" s="11"/>
+      <c r="G584" s="11"/>
       <c r="H584" s="3"/>
       <c r="I584" s="3"/>
       <c r="J584" s="3"/>
@@ -7677,18 +7252,18 @@
     <row r="585" ht="16.5" spans="4:11">
       <c r="D585" s="3"/>
       <c r="E585" s="1"/>
-      <c r="F585" s="14"/>
-      <c r="G585" s="14"/>
+      <c r="F585" s="11"/>
+      <c r="G585" s="11"/>
       <c r="H585" s="3"/>
       <c r="I585" s="3"/>
       <c r="J585" s="3"/>
       <c r="K585" s="3"/>
     </row>
     <row r="586" ht="16.5" spans="4:11">
-      <c r="D586" s="14"/>
+      <c r="D586" s="11"/>
       <c r="E586" s="1"/>
-      <c r="F586" s="14"/>
-      <c r="G586" s="14"/>
+      <c r="F586" s="11"/>
+      <c r="G586" s="11"/>
       <c r="H586" s="3"/>
       <c r="I586" s="3"/>
       <c r="J586" s="3"/>
@@ -7697,18 +7272,18 @@
     <row r="587" ht="16.5" spans="4:11">
       <c r="D587" s="3"/>
       <c r="E587" s="1"/>
-      <c r="F587" s="14"/>
-      <c r="G587" s="14"/>
+      <c r="F587" s="11"/>
+      <c r="G587" s="11"/>
       <c r="H587" s="3"/>
       <c r="I587" s="3"/>
       <c r="J587" s="3"/>
       <c r="K587" s="3"/>
     </row>
     <row r="588" ht="16.5" spans="4:11">
-      <c r="D588" s="11"/>
+      <c r="D588" s="8"/>
       <c r="E588" s="1"/>
-      <c r="F588" s="14"/>
-      <c r="G588" s="14"/>
+      <c r="F588" s="11"/>
+      <c r="G588" s="11"/>
       <c r="H588" s="3"/>
       <c r="I588" s="3"/>
       <c r="J588" s="3"/>
@@ -7717,18 +7292,18 @@
     <row r="589" ht="16.5" spans="4:11">
       <c r="D589" s="3"/>
       <c r="E589" s="1"/>
-      <c r="F589" s="14"/>
-      <c r="G589" s="14"/>
+      <c r="F589" s="11"/>
+      <c r="G589" s="11"/>
       <c r="H589" s="3"/>
       <c r="I589" s="3"/>
       <c r="J589" s="3"/>
       <c r="K589" s="3"/>
     </row>
     <row r="590" ht="16.5" spans="4:11">
-      <c r="D590" s="11"/>
+      <c r="D590" s="8"/>
       <c r="E590" s="1"/>
-      <c r="F590" s="14"/>
-      <c r="G590" s="14"/>
+      <c r="F590" s="11"/>
+      <c r="G590" s="11"/>
       <c r="H590" s="3"/>
       <c r="I590" s="3"/>
       <c r="J590" s="3"/>
@@ -7737,8 +7312,8 @@
     <row r="591" ht="16.5" spans="4:11">
       <c r="D591" s="3"/>
       <c r="E591" s="1"/>
-      <c r="F591" s="14"/>
-      <c r="G591" s="14"/>
+      <c r="F591" s="11"/>
+      <c r="G591" s="11"/>
       <c r="H591" s="3"/>
       <c r="I591" s="3"/>
       <c r="J591" s="3"/>
@@ -7747,8 +7322,8 @@
     <row r="592" ht="16.5" spans="4:11">
       <c r="D592" s="3"/>
       <c r="E592" s="1"/>
-      <c r="F592" s="14"/>
-      <c r="G592" s="14"/>
+      <c r="F592" s="11"/>
+      <c r="G592" s="11"/>
       <c r="H592" s="3"/>
       <c r="I592" s="3"/>
       <c r="J592" s="3"/>
@@ -7757,20 +7332,20 @@
     <row r="593" ht="16.5" spans="4:11">
       <c r="D593" s="3"/>
       <c r="E593" s="1"/>
-      <c r="F593" s="14"/>
-      <c r="G593" s="14"/>
+      <c r="F593" s="11"/>
+      <c r="G593" s="11"/>
       <c r="H593" s="3"/>
       <c r="I593" s="3"/>
       <c r="J593" s="3"/>
       <c r="K593" s="3"/>
     </row>
     <row r="594" ht="16.5" spans="4:11">
-      <c r="D594" s="24" t="s">
-        <v>73</v>
+      <c r="D594" s="21" t="s">
+        <v>6</v>
       </c>
       <c r="E594" s="1"/>
-      <c r="F594" s="14"/>
-      <c r="G594" s="14"/>
+      <c r="F594" s="11"/>
+      <c r="G594" s="11"/>
       <c r="H594" s="3"/>
       <c r="I594" s="3"/>
       <c r="J594" s="3"/>
@@ -7779,30 +7354,30 @@
     <row r="595" ht="16.5" spans="4:11">
       <c r="D595" s="3"/>
       <c r="E595" s="1"/>
-      <c r="F595" s="14"/>
-      <c r="G595" s="14"/>
+      <c r="F595" s="11"/>
+      <c r="G595" s="11"/>
       <c r="H595" s="3"/>
       <c r="I595" s="3"/>
       <c r="J595" s="3"/>
       <c r="K595" s="3"/>
     </row>
     <row r="596" ht="16.5" spans="4:11">
-      <c r="D596" s="7"/>
+      <c r="D596" s="6"/>
       <c r="E596" s="1"/>
-      <c r="F596" s="14"/>
-      <c r="G596" s="14"/>
+      <c r="F596" s="11"/>
+      <c r="G596" s="11"/>
       <c r="H596" s="3"/>
       <c r="I596" s="3"/>
       <c r="J596" s="3"/>
       <c r="K596" s="3"/>
     </row>
     <row r="597" ht="16.5" spans="4:11">
-      <c r="D597" s="7" t="s">
-        <v>74</v>
+      <c r="D597" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="E597" s="1"/>
-      <c r="F597" s="14"/>
-      <c r="G597" s="14"/>
+      <c r="F597" s="11"/>
+      <c r="G597" s="11"/>
       <c r="H597" s="3"/>
       <c r="I597" s="3"/>
       <c r="J597" s="3"/>
@@ -7811,8 +7386,8 @@
     <row r="598" ht="16.5" spans="4:11">
       <c r="D598" s="3"/>
       <c r="E598" s="1"/>
-      <c r="F598" s="14"/>
-      <c r="G598" s="14"/>
+      <c r="F598" s="11"/>
+      <c r="G598" s="11"/>
       <c r="H598" s="3"/>
       <c r="I598" s="3"/>
       <c r="J598" s="3"/>
@@ -7821,8 +7396,8 @@
     <row r="599" ht="16.5" spans="4:11">
       <c r="D599" s="3"/>
       <c r="E599" s="1"/>
-      <c r="F599" s="14"/>
-      <c r="G599" s="14"/>
+      <c r="F599" s="11"/>
+      <c r="G599" s="11"/>
       <c r="H599" s="3"/>
       <c r="I599" s="3"/>
       <c r="J599" s="3"/>
@@ -7831,8 +7406,8 @@
     <row r="600" ht="16.5" spans="4:11">
       <c r="D600" s="3"/>
       <c r="E600" s="1"/>
-      <c r="F600" s="14"/>
-      <c r="G600" s="14"/>
+      <c r="F600" s="11"/>
+      <c r="G600" s="11"/>
       <c r="H600" s="3"/>
       <c r="I600" s="3"/>
       <c r="J600" s="3"/>
@@ -7841,8 +7416,8 @@
     <row r="601" ht="16.5" spans="4:11">
       <c r="D601" s="3"/>
       <c r="E601" s="1"/>
-      <c r="F601" s="14"/>
-      <c r="G601" s="14"/>
+      <c r="F601" s="11"/>
+      <c r="G601" s="11"/>
       <c r="H601" s="3"/>
       <c r="I601" s="3"/>
       <c r="J601" s="3"/>
@@ -7851,8 +7426,8 @@
     <row r="602" ht="16.5" spans="4:11">
       <c r="D602" s="3"/>
       <c r="E602" s="1"/>
-      <c r="F602" s="14"/>
-      <c r="G602" s="14"/>
+      <c r="F602" s="11"/>
+      <c r="G602" s="11"/>
       <c r="H602" s="3"/>
       <c r="I602" s="3"/>
       <c r="J602" s="3"/>
@@ -7861,8 +7436,8 @@
     <row r="603" ht="16.5" spans="4:11">
       <c r="D603" s="3"/>
       <c r="E603" s="1"/>
-      <c r="F603" s="14"/>
-      <c r="G603" s="14"/>
+      <c r="F603" s="11"/>
+      <c r="G603" s="11"/>
       <c r="H603" s="3"/>
       <c r="I603" s="3"/>
       <c r="J603" s="3"/>
@@ -7871,8 +7446,8 @@
     <row r="604" ht="16.5" spans="4:11">
       <c r="D604" s="3"/>
       <c r="E604" s="1"/>
-      <c r="F604" s="14"/>
-      <c r="G604" s="14"/>
+      <c r="F604" s="11"/>
+      <c r="G604" s="11"/>
       <c r="H604" s="3"/>
       <c r="I604" s="3"/>
       <c r="J604" s="3"/>
@@ -7881,8 +7456,8 @@
     <row r="605" ht="16.5" spans="4:11">
       <c r="D605" s="3"/>
       <c r="E605" s="1"/>
-      <c r="F605" s="14"/>
-      <c r="G605" s="14"/>
+      <c r="F605" s="11"/>
+      <c r="G605" s="11"/>
       <c r="H605" s="3"/>
       <c r="I605" s="3"/>
       <c r="J605" s="3"/>
@@ -7891,8 +7466,8 @@
     <row r="606" ht="16.5" spans="4:11">
       <c r="D606" s="3"/>
       <c r="E606" s="1"/>
-      <c r="F606" s="14"/>
-      <c r="G606" s="14"/>
+      <c r="F606" s="11"/>
+      <c r="G606" s="11"/>
       <c r="H606" s="3"/>
       <c r="I606" s="3"/>
       <c r="J606" s="3"/>
@@ -7901,8 +7476,8 @@
     <row r="607" ht="16.5" spans="4:11">
       <c r="D607" s="3"/>
       <c r="E607" s="1"/>
-      <c r="F607" s="14"/>
-      <c r="G607" s="14"/>
+      <c r="F607" s="11"/>
+      <c r="G607" s="11"/>
       <c r="H607" s="3"/>
       <c r="I607" s="3"/>
       <c r="J607" s="3"/>
@@ -7911,8 +7486,8 @@
     <row r="608" ht="16.5" spans="4:11">
       <c r="D608" s="3"/>
       <c r="E608" s="1"/>
-      <c r="F608" s="14"/>
-      <c r="G608" s="14"/>
+      <c r="F608" s="11"/>
+      <c r="G608" s="11"/>
       <c r="H608" s="3"/>
       <c r="I608" s="3"/>
       <c r="J608" s="3"/>
@@ -7921,8 +7496,8 @@
     <row r="609" ht="16.5" spans="4:11">
       <c r="D609" s="3"/>
       <c r="E609" s="1"/>
-      <c r="F609" s="14"/>
-      <c r="G609" s="14"/>
+      <c r="F609" s="11"/>
+      <c r="G609" s="11"/>
       <c r="H609" s="3"/>
       <c r="I609" s="3"/>
       <c r="J609" s="3"/>
@@ -7931,8 +7506,8 @@
     <row r="610" ht="16.5" spans="4:11">
       <c r="D610" s="3"/>
       <c r="E610" s="1"/>
-      <c r="F610" s="14"/>
-      <c r="G610" s="14"/>
+      <c r="F610" s="11"/>
+      <c r="G610" s="11"/>
       <c r="H610" s="3"/>
       <c r="I610" s="3"/>
       <c r="J610" s="3"/>
@@ -7941,8 +7516,8 @@
     <row r="611" ht="16.5" spans="4:11">
       <c r="D611" s="3"/>
       <c r="E611" s="1"/>
-      <c r="F611" s="14"/>
-      <c r="G611" s="14"/>
+      <c r="F611" s="11"/>
+      <c r="G611" s="11"/>
       <c r="H611" s="3"/>
       <c r="I611" s="3"/>
       <c r="J611" s="3"/>
@@ -7951,8 +7526,8 @@
     <row r="612" ht="16.5" spans="4:11">
       <c r="D612" s="3"/>
       <c r="E612" s="1"/>
-      <c r="F612" s="14"/>
-      <c r="G612" s="14"/>
+      <c r="F612" s="11"/>
+      <c r="G612" s="11"/>
       <c r="H612" s="3"/>
       <c r="I612" s="3"/>
       <c r="J612" s="3"/>
@@ -7961,8 +7536,8 @@
     <row r="613" ht="16.5" spans="4:11">
       <c r="D613" s="3"/>
       <c r="E613" s="1"/>
-      <c r="F613" s="14"/>
-      <c r="G613" s="14"/>
+      <c r="F613" s="11"/>
+      <c r="G613" s="11"/>
       <c r="H613" s="3"/>
       <c r="I613" s="3"/>
       <c r="J613" s="3"/>
@@ -7971,8 +7546,8 @@
     <row r="614" ht="16.5" spans="4:11">
       <c r="D614" s="3"/>
       <c r="E614" s="1"/>
-      <c r="F614" s="14"/>
-      <c r="G614" s="14"/>
+      <c r="F614" s="11"/>
+      <c r="G614" s="11"/>
       <c r="H614" s="3"/>
       <c r="I614" s="3"/>
       <c r="J614" s="3"/>
@@ -7981,8 +7556,8 @@
     <row r="615" ht="16.5" spans="4:11">
       <c r="D615" s="3"/>
       <c r="E615" s="1"/>
-      <c r="F615" s="14"/>
-      <c r="G615" s="14"/>
+      <c r="F615" s="11"/>
+      <c r="G615" s="11"/>
       <c r="H615" s="3"/>
       <c r="I615" s="3"/>
       <c r="J615" s="3"/>
@@ -7991,8 +7566,8 @@
     <row r="616" ht="16.5" spans="4:11">
       <c r="D616" s="3"/>
       <c r="E616" s="1"/>
-      <c r="F616" s="14"/>
-      <c r="G616" s="14"/>
+      <c r="F616" s="11"/>
+      <c r="G616" s="11"/>
       <c r="H616" s="3"/>
       <c r="I616" s="3"/>
       <c r="J616" s="3"/>
@@ -8001,8 +7576,8 @@
     <row r="617" ht="16.5" spans="4:11">
       <c r="D617" s="3"/>
       <c r="E617" s="1"/>
-      <c r="F617" s="14"/>
-      <c r="G617" s="14"/>
+      <c r="F617" s="11"/>
+      <c r="G617" s="11"/>
       <c r="H617" s="3"/>
       <c r="I617" s="3"/>
       <c r="J617" s="3"/>
@@ -8011,88 +7586,88 @@
     <row r="618" ht="16.5" spans="4:11">
       <c r="D618" s="3"/>
       <c r="E618" s="1"/>
-      <c r="F618" s="14"/>
-      <c r="G618" s="14"/>
+      <c r="F618" s="11"/>
+      <c r="G618" s="11"/>
       <c r="H618" s="3"/>
       <c r="I618" s="3"/>
       <c r="J618" s="3"/>
       <c r="K618" s="3"/>
     </row>
     <row r="619" ht="16.5" spans="4:11">
-      <c r="D619" s="7"/>
+      <c r="D619" s="6"/>
       <c r="E619" s="1"/>
-      <c r="F619" s="14"/>
-      <c r="G619" s="14"/>
+      <c r="F619" s="11"/>
+      <c r="G619" s="11"/>
       <c r="H619" s="3"/>
       <c r="I619" s="3"/>
       <c r="J619" s="3"/>
       <c r="K619" s="3"/>
     </row>
     <row r="620" ht="16.5" spans="4:11">
-      <c r="D620" s="14"/>
+      <c r="D620" s="11"/>
       <c r="E620" s="1"/>
-      <c r="F620" s="14"/>
-      <c r="G620" s="14"/>
+      <c r="F620" s="11"/>
+      <c r="G620" s="11"/>
       <c r="H620" s="3"/>
       <c r="I620" s="3"/>
       <c r="J620" s="3"/>
       <c r="K620" s="3"/>
     </row>
     <row r="621" ht="16.5" spans="4:11">
-      <c r="D621" s="14"/>
+      <c r="D621" s="11"/>
       <c r="E621" s="1"/>
-      <c r="F621" s="14"/>
-      <c r="G621" s="14"/>
+      <c r="F621" s="11"/>
+      <c r="G621" s="11"/>
       <c r="H621" s="3"/>
       <c r="I621" s="3"/>
       <c r="J621" s="3"/>
       <c r="K621" s="3"/>
     </row>
     <row r="622" ht="16.5" spans="4:11">
-      <c r="D622" s="7"/>
+      <c r="D622" s="6"/>
       <c r="E622" s="1"/>
-      <c r="F622" s="14"/>
-      <c r="G622" s="14"/>
+      <c r="F622" s="11"/>
+      <c r="G622" s="11"/>
       <c r="H622" s="3"/>
       <c r="I622" s="3"/>
       <c r="J622" s="3"/>
       <c r="K622" s="3"/>
     </row>
     <row r="623" ht="16.5" spans="4:11">
-      <c r="D623" s="14"/>
+      <c r="D623" s="11"/>
       <c r="E623" s="1"/>
-      <c r="F623" s="14"/>
-      <c r="G623" s="14"/>
+      <c r="F623" s="11"/>
+      <c r="G623" s="11"/>
       <c r="H623" s="3"/>
       <c r="I623" s="3"/>
       <c r="J623" s="3"/>
       <c r="K623" s="3"/>
     </row>
     <row r="624" ht="16.5" spans="4:11">
-      <c r="D624" s="26"/>
+      <c r="D624" s="23"/>
       <c r="E624" s="1"/>
-      <c r="F624" s="14"/>
-      <c r="G624" s="14"/>
+      <c r="F624" s="11"/>
+      <c r="G624" s="11"/>
       <c r="H624" s="3"/>
       <c r="I624" s="3"/>
       <c r="J624" s="3"/>
       <c r="K624" s="3"/>
     </row>
     <row r="625" ht="16.5" spans="4:11">
-      <c r="D625" s="14"/>
+      <c r="D625" s="11"/>
       <c r="E625" s="1"/>
-      <c r="F625" s="14"/>
-      <c r="G625" s="14"/>
+      <c r="F625" s="11"/>
+      <c r="G625" s="11"/>
       <c r="H625" s="3"/>
       <c r="I625" s="3"/>
       <c r="J625" s="3"/>
       <c r="K625" s="3"/>
     </row>
     <row r="626" ht="16.5" spans="4:11">
-      <c r="D626" s="7"/>
+      <c r="D626" s="6"/>
       <c r="E626" s="1"/>
-      <c r="F626" s="14"/>
-      <c r="G626" s="14"/>
+      <c r="F626" s="11"/>
+      <c r="G626" s="11"/>
       <c r="H626" s="3"/>
       <c r="I626" s="3"/>
       <c r="J626" s="3"/>
@@ -8101,8 +7676,8 @@
     <row r="627" ht="16.5" spans="4:11">
       <c r="D627" s="3"/>
       <c r="E627" s="1"/>
-      <c r="F627" s="14"/>
-      <c r="G627" s="14"/>
+      <c r="F627" s="11"/>
+      <c r="G627" s="11"/>
       <c r="H627" s="3"/>
       <c r="I627" s="3"/>
       <c r="J627" s="3"/>
@@ -8111,8 +7686,8 @@
     <row r="628" ht="16.5" spans="4:11">
       <c r="D628" s="3"/>
       <c r="E628" s="1"/>
-      <c r="F628" s="14"/>
-      <c r="G628" s="14"/>
+      <c r="F628" s="11"/>
+      <c r="G628" s="11"/>
       <c r="H628" s="3"/>
       <c r="I628" s="3"/>
       <c r="J628" s="3"/>
@@ -8121,18 +7696,18 @@
     <row r="629" ht="16.5" spans="4:11">
       <c r="D629" s="3"/>
       <c r="E629" s="1"/>
-      <c r="F629" s="14"/>
-      <c r="G629" s="14"/>
+      <c r="F629" s="11"/>
+      <c r="G629" s="11"/>
       <c r="H629" s="3"/>
       <c r="I629" s="3"/>
       <c r="J629" s="3"/>
       <c r="K629" s="3"/>
     </row>
     <row r="630" ht="16.5" spans="4:11">
-      <c r="D630" s="14"/>
+      <c r="D630" s="11"/>
       <c r="E630" s="1"/>
-      <c r="F630" s="14"/>
-      <c r="G630" s="14"/>
+      <c r="F630" s="11"/>
+      <c r="G630" s="11"/>
       <c r="H630" s="3"/>
       <c r="I630" s="3"/>
       <c r="J630" s="3"/>
@@ -8141,8 +7716,8 @@
     <row r="631" ht="16.5" spans="4:11">
       <c r="D631" s="3"/>
       <c r="E631" s="1"/>
-      <c r="F631" s="14"/>
-      <c r="G631" s="14"/>
+      <c r="F631" s="11"/>
+      <c r="G631" s="11"/>
       <c r="H631" s="3"/>
       <c r="I631" s="3"/>
       <c r="J631" s="3"/>
@@ -8151,8 +7726,8 @@
     <row r="632" ht="16.5" spans="4:11">
       <c r="D632" s="3"/>
       <c r="E632" s="1"/>
-      <c r="F632" s="14"/>
-      <c r="G632" s="14"/>
+      <c r="F632" s="11"/>
+      <c r="G632" s="11"/>
       <c r="H632" s="3"/>
       <c r="I632" s="3"/>
       <c r="J632" s="3"/>
@@ -8161,8 +7736,8 @@
     <row r="633" ht="16.5" spans="4:11">
       <c r="D633" s="3"/>
       <c r="E633" s="1"/>
-      <c r="F633" s="14"/>
-      <c r="G633" s="14"/>
+      <c r="F633" s="11"/>
+      <c r="G633" s="11"/>
       <c r="H633" s="3"/>
       <c r="I633" s="3"/>
       <c r="J633" s="3"/>
@@ -8171,8 +7746,8 @@
     <row r="634" ht="16.5" spans="4:11">
       <c r="D634" s="3"/>
       <c r="E634" s="1"/>
-      <c r="F634" s="14"/>
-      <c r="G634" s="14"/>
+      <c r="F634" s="11"/>
+      <c r="G634" s="11"/>
       <c r="H634" s="3"/>
       <c r="I634" s="3"/>
       <c r="J634" s="3"/>
@@ -8181,8 +7756,8 @@
     <row r="635" ht="16.5" spans="4:11">
       <c r="D635" s="3"/>
       <c r="E635" s="1"/>
-      <c r="F635" s="14"/>
-      <c r="G635" s="14"/>
+      <c r="F635" s="11"/>
+      <c r="G635" s="11"/>
       <c r="H635" s="3"/>
       <c r="I635" s="3"/>
       <c r="J635" s="3"/>
@@ -8191,8 +7766,8 @@
     <row r="636" ht="16.5" spans="4:11">
       <c r="D636" s="3"/>
       <c r="E636" s="1"/>
-      <c r="F636" s="14"/>
-      <c r="G636" s="14"/>
+      <c r="F636" s="11"/>
+      <c r="G636" s="11"/>
       <c r="H636" s="3"/>
       <c r="I636" s="3"/>
       <c r="J636" s="3"/>
@@ -8201,8 +7776,8 @@
     <row r="637" ht="16.5" spans="4:11">
       <c r="D637" s="3"/>
       <c r="E637" s="1"/>
-      <c r="F637" s="14"/>
-      <c r="G637" s="14"/>
+      <c r="F637" s="11"/>
+      <c r="G637" s="11"/>
       <c r="H637" s="3"/>
       <c r="I637" s="3"/>
       <c r="J637" s="3"/>
@@ -8211,8 +7786,8 @@
     <row r="638" ht="16.5" spans="4:11">
       <c r="D638" s="3"/>
       <c r="E638" s="1"/>
-      <c r="F638" s="14"/>
-      <c r="G638" s="14"/>
+      <c r="F638" s="11"/>
+      <c r="G638" s="11"/>
       <c r="H638" s="3"/>
       <c r="I638" s="3"/>
       <c r="J638" s="3"/>
@@ -8221,18 +7796,18 @@
     <row r="639" ht="16.5" spans="4:11">
       <c r="D639" s="3"/>
       <c r="E639" s="1"/>
-      <c r="F639" s="14"/>
-      <c r="G639" s="14"/>
+      <c r="F639" s="11"/>
+      <c r="G639" s="11"/>
       <c r="H639" s="3"/>
       <c r="I639" s="3"/>
       <c r="J639" s="3"/>
       <c r="K639" s="3"/>
     </row>
     <row r="640" ht="16.5" spans="4:11">
-      <c r="D640" s="14"/>
+      <c r="D640" s="11"/>
       <c r="E640" s="1"/>
-      <c r="F640" s="14"/>
-      <c r="G640" s="14"/>
+      <c r="F640" s="11"/>
+      <c r="G640" s="11"/>
       <c r="H640" s="3"/>
       <c r="I640" s="3"/>
       <c r="J640" s="3"/>
@@ -8241,8 +7816,8 @@
     <row r="641" ht="16.5" spans="4:11">
       <c r="D641" s="3"/>
       <c r="E641" s="1"/>
-      <c r="F641" s="14"/>
-      <c r="G641" s="14"/>
+      <c r="F641" s="11"/>
+      <c r="G641" s="11"/>
       <c r="H641" s="3"/>
       <c r="I641" s="3"/>
       <c r="J641" s="3"/>
@@ -8251,8 +7826,8 @@
     <row r="642" ht="16.5" spans="4:11">
       <c r="D642" s="3"/>
       <c r="E642" s="1"/>
-      <c r="F642" s="14"/>
-      <c r="G642" s="14"/>
+      <c r="F642" s="11"/>
+      <c r="G642" s="11"/>
       <c r="H642" s="3"/>
       <c r="I642" s="3"/>
       <c r="J642" s="3"/>
@@ -8261,18 +7836,18 @@
     <row r="643" ht="16.5" spans="4:11">
       <c r="D643" s="3"/>
       <c r="E643" s="1"/>
-      <c r="F643" s="14"/>
-      <c r="G643" s="14"/>
+      <c r="F643" s="11"/>
+      <c r="G643" s="11"/>
       <c r="H643" s="3"/>
       <c r="I643" s="3"/>
       <c r="J643" s="3"/>
       <c r="K643" s="3"/>
     </row>
     <row r="644" ht="16.5" spans="4:11">
-      <c r="D644" s="7"/>
+      <c r="D644" s="6"/>
       <c r="E644" s="1"/>
-      <c r="F644" s="14"/>
-      <c r="G644" s="14"/>
+      <c r="F644" s="11"/>
+      <c r="G644" s="11"/>
       <c r="H644" s="3"/>
       <c r="I644" s="3"/>
       <c r="J644" s="3"/>
@@ -8281,8 +7856,8 @@
     <row r="645" ht="16.5" spans="4:11">
       <c r="D645" s="3"/>
       <c r="E645" s="1"/>
-      <c r="F645" s="14"/>
-      <c r="G645" s="14"/>
+      <c r="F645" s="11"/>
+      <c r="G645" s="11"/>
       <c r="H645" s="3"/>
       <c r="I645" s="3"/>
       <c r="J645" s="3"/>
@@ -8291,8 +7866,8 @@
     <row r="646" ht="16.5" spans="4:11">
       <c r="D646" s="3"/>
       <c r="E646" s="1"/>
-      <c r="F646" s="14"/>
-      <c r="G646" s="14"/>
+      <c r="F646" s="11"/>
+      <c r="G646" s="11"/>
       <c r="H646" s="3"/>
       <c r="I646" s="3"/>
       <c r="J646" s="3"/>
@@ -8301,8 +7876,8 @@
     <row r="647" ht="16.5" spans="4:11">
       <c r="D647" s="3"/>
       <c r="E647" s="1"/>
-      <c r="F647" s="16"/>
-      <c r="G647" s="16"/>
+      <c r="F647" s="13"/>
+      <c r="G647" s="13"/>
       <c r="H647" s="3"/>
       <c r="I647" s="3"/>
       <c r="J647" s="3"/>
@@ -8311,8 +7886,8 @@
     <row r="648" ht="16.5" spans="4:11">
       <c r="D648" s="3"/>
       <c r="E648" s="1"/>
-      <c r="F648" s="16"/>
-      <c r="G648" s="16"/>
+      <c r="F648" s="13"/>
+      <c r="G648" s="13"/>
       <c r="H648" s="3"/>
       <c r="I648" s="3"/>
       <c r="J648" s="3"/>
@@ -8321,8 +7896,8 @@
     <row r="649" ht="16.5" spans="4:11">
       <c r="D649" s="3"/>
       <c r="E649" s="1"/>
-      <c r="F649" s="16"/>
-      <c r="G649" s="16"/>
+      <c r="F649" s="13"/>
+      <c r="G649" s="13"/>
       <c r="H649" s="3"/>
       <c r="I649" s="3"/>
       <c r="J649" s="3"/>
@@ -8331,8 +7906,8 @@
     <row r="650" ht="16.5" spans="4:11">
       <c r="D650" s="3"/>
       <c r="E650" s="1"/>
-      <c r="F650" s="16"/>
-      <c r="G650" s="16"/>
+      <c r="F650" s="13"/>
+      <c r="G650" s="13"/>
       <c r="H650" s="3"/>
       <c r="I650" s="3"/>
       <c r="J650" s="3"/>
@@ -8341,8 +7916,8 @@
     <row r="651" ht="16.5" spans="4:11">
       <c r="D651" s="3"/>
       <c r="E651" s="1"/>
-      <c r="F651" s="16"/>
-      <c r="G651" s="16"/>
+      <c r="F651" s="13"/>
+      <c r="G651" s="13"/>
       <c r="H651" s="3"/>
       <c r="I651" s="3"/>
       <c r="J651" s="3"/>
@@ -8351,8 +7926,8 @@
     <row r="652" ht="16.5" spans="4:11">
       <c r="D652" s="3"/>
       <c r="E652" s="1"/>
-      <c r="F652" s="16"/>
-      <c r="G652" s="16"/>
+      <c r="F652" s="13"/>
+      <c r="G652" s="13"/>
       <c r="H652" s="3"/>
       <c r="I652" s="3"/>
       <c r="J652" s="3"/>
@@ -8361,8 +7936,8 @@
     <row r="653" ht="16.5" spans="4:11">
       <c r="D653" s="3"/>
       <c r="E653" s="1"/>
-      <c r="F653" s="16"/>
-      <c r="G653" s="16"/>
+      <c r="F653" s="13"/>
+      <c r="G653" s="13"/>
       <c r="H653" s="3"/>
       <c r="I653" s="3"/>
       <c r="J653" s="3"/>
@@ -8371,8 +7946,8 @@
     <row r="654" ht="16.5" spans="4:11">
       <c r="D654" s="3"/>
       <c r="E654" s="1"/>
-      <c r="F654" s="16"/>
-      <c r="G654" s="16"/>
+      <c r="F654" s="13"/>
+      <c r="G654" s="13"/>
       <c r="H654" s="3"/>
       <c r="I654" s="3"/>
       <c r="J654" s="3"/>
@@ -8381,8 +7956,8 @@
     <row r="655" ht="16.5" spans="4:11">
       <c r="D655" s="3"/>
       <c r="E655" s="1"/>
-      <c r="F655" s="16"/>
-      <c r="G655" s="16"/>
+      <c r="F655" s="13"/>
+      <c r="G655" s="13"/>
       <c r="H655" s="3"/>
       <c r="I655" s="3"/>
       <c r="J655" s="3"/>
@@ -8391,8 +7966,8 @@
     <row r="656" ht="16.5" spans="4:11">
       <c r="D656" s="3"/>
       <c r="E656" s="1"/>
-      <c r="F656" s="16"/>
-      <c r="G656" s="16"/>
+      <c r="F656" s="13"/>
+      <c r="G656" s="13"/>
       <c r="H656" s="3"/>
       <c r="I656" s="3"/>
       <c r="J656" s="3"/>
@@ -8401,8 +7976,8 @@
     <row r="657" ht="16.5" spans="4:11">
       <c r="D657" s="3"/>
       <c r="E657" s="1"/>
-      <c r="F657" s="16"/>
-      <c r="G657" s="16"/>
+      <c r="F657" s="13"/>
+      <c r="G657" s="13"/>
       <c r="H657" s="3"/>
       <c r="I657" s="3"/>
       <c r="J657" s="3"/>
@@ -8411,8 +7986,8 @@
     <row r="658" ht="16.5" spans="4:11">
       <c r="D658" s="3"/>
       <c r="E658" s="1"/>
-      <c r="F658" s="16"/>
-      <c r="G658" s="16"/>
+      <c r="F658" s="13"/>
+      <c r="G658" s="13"/>
       <c r="H658" s="3"/>
       <c r="I658" s="3"/>
       <c r="J658" s="3"/>
@@ -8421,8 +7996,8 @@
     <row r="659" ht="16.5" spans="4:11">
       <c r="D659" s="3"/>
       <c r="E659" s="1"/>
-      <c r="F659" s="16"/>
-      <c r="G659" s="16"/>
+      <c r="F659" s="13"/>
+      <c r="G659" s="13"/>
       <c r="H659" s="3"/>
       <c r="I659" s="3"/>
       <c r="J659" s="3"/>
@@ -8431,8 +8006,8 @@
     <row r="660" ht="16.5" spans="4:11">
       <c r="D660" s="3"/>
       <c r="E660" s="1"/>
-      <c r="F660" s="16"/>
-      <c r="G660" s="16"/>
+      <c r="F660" s="13"/>
+      <c r="G660" s="13"/>
       <c r="H660" s="3"/>
       <c r="I660" s="3"/>
       <c r="J660" s="3"/>
@@ -8441,8 +8016,8 @@
     <row r="661" ht="16.5" spans="4:11">
       <c r="D661" s="3"/>
       <c r="E661" s="1"/>
-      <c r="F661" s="16"/>
-      <c r="G661" s="16"/>
+      <c r="F661" s="13"/>
+      <c r="G661" s="13"/>
       <c r="H661" s="3"/>
       <c r="I661" s="3"/>
       <c r="J661" s="3"/>
@@ -8451,8 +8026,8 @@
     <row r="662" ht="16.5" spans="4:11">
       <c r="D662" s="3"/>
       <c r="E662" s="1"/>
-      <c r="F662" s="16"/>
-      <c r="G662" s="16"/>
+      <c r="F662" s="13"/>
+      <c r="G662" s="13"/>
       <c r="H662" s="3"/>
       <c r="I662" s="3"/>
       <c r="J662" s="3"/>
@@ -8461,8 +8036,8 @@
     <row r="663" ht="16.5" spans="4:11">
       <c r="D663" s="3"/>
       <c r="E663" s="1"/>
-      <c r="F663" s="16"/>
-      <c r="G663" s="16"/>
+      <c r="F663" s="13"/>
+      <c r="G663" s="13"/>
       <c r="H663" s="3"/>
       <c r="I663" s="3"/>
       <c r="J663" s="3"/>
@@ -8471,8 +8046,8 @@
     <row r="664" ht="16.5" spans="4:11">
       <c r="D664" s="3"/>
       <c r="E664" s="1"/>
-      <c r="F664" s="16"/>
-      <c r="G664" s="16"/>
+      <c r="F664" s="13"/>
+      <c r="G664" s="13"/>
       <c r="H664" s="3"/>
       <c r="I664" s="3"/>
       <c r="J664" s="3"/>
@@ -8481,8 +8056,8 @@
     <row r="665" ht="16.5" spans="4:11">
       <c r="D665" s="3"/>
       <c r="E665" s="1"/>
-      <c r="F665" s="16"/>
-      <c r="G665" s="16"/>
+      <c r="F665" s="13"/>
+      <c r="G665" s="13"/>
       <c r="H665" s="3"/>
       <c r="I665" s="3"/>
       <c r="J665" s="3"/>
@@ -8491,8 +8066,8 @@
     <row r="666" ht="16.5" spans="4:11">
       <c r="D666" s="3"/>
       <c r="E666" s="1"/>
-      <c r="F666" s="16"/>
-      <c r="G666" s="16"/>
+      <c r="F666" s="13"/>
+      <c r="G666" s="13"/>
       <c r="H666" s="3"/>
       <c r="I666" s="3"/>
       <c r="J666" s="3"/>
@@ -8501,8 +8076,8 @@
     <row r="667" ht="16.5" spans="4:11">
       <c r="D667" s="3"/>
       <c r="E667" s="1"/>
-      <c r="F667" s="16"/>
-      <c r="G667" s="16"/>
+      <c r="F667" s="13"/>
+      <c r="G667" s="13"/>
       <c r="H667" s="3"/>
       <c r="I667" s="3"/>
       <c r="J667" s="3"/>

--- a/docs/lang.xlsx
+++ b/docs/lang.xlsx
@@ -9,12 +9,25 @@
   <sheets>
     <sheet name="demo" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t>key</t>
   </si>
@@ -25,40 +38,227 @@
     <t>en-US</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>trans0001</t>
-    </r>
+    <t>trans0001</t>
   </si>
   <si>
-    <t>{msg} 世界</t>
+    <t>请求出错，请稍候重试</t>
   </si>
   <si>
-    <t>{msg} world</t>
+    <t>The interface request failed, please try again later!</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>trans0002</t>
   </si>
   <si>
-    <t xml:space="preserve">	</t>
+    <t>操作成功</t>
+  </si>
+  <si>
+    <t>Operation Success</t>
+  </si>
+  <si>
+    <t>trans0003</t>
+  </si>
+  <si>
+    <t>成功提示</t>
+  </si>
+  <si>
+    <t>Success Tip</t>
+  </si>
+  <si>
+    <t>trans0004</t>
+  </si>
+  <si>
+    <t>登录超时,请重新登录!</t>
+  </si>
+  <si>
+    <t>Login timed out, please log in again!</t>
+  </si>
+  <si>
+    <t>trans0005</t>
+  </si>
+  <si>
+    <t>错误提示</t>
+  </si>
+  <si>
+    <t>Error Tip</t>
+  </si>
+  <si>
+    <t>trans0006</t>
+  </si>
+  <si>
+    <t>trans0007</t>
+  </si>
+  <si>
+    <t>接口请求超时,请刷新页面重试!</t>
+  </si>
+  <si>
+    <t>The interface request timed out, please refresh the page and try again!</t>
+  </si>
+  <si>
+    <t>trans0008</t>
+  </si>
+  <si>
+    <t>网络异常，请检查您的网络连接是否正常!</t>
+  </si>
+  <si>
+    <t>Please check if your network connection is normal! The network is abnormal</t>
+  </si>
+  <si>
+    <t>trans0009</t>
+  </si>
+  <si>
+    <t>确认</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>trans0010</t>
+  </si>
+  <si>
+    <t>用户没有权限（令牌、用户名、密码错误）!</t>
+  </si>
+  <si>
+    <t>The user does not have permission (token, user name, password error)!</t>
+  </si>
+  <si>
+    <t>trans0011</t>
+  </si>
+  <si>
+    <t>用户得到授权，但是访问是被禁止的。!</t>
+  </si>
+  <si>
+    <t>The user is authorized, but access is forbidden!</t>
+  </si>
+  <si>
+    <t>trans0012</t>
+  </si>
+  <si>
+    <t>网络请求错误,未找到该资源!</t>
+  </si>
+  <si>
+    <t>Network request error, the resource was not found!</t>
+  </si>
+  <si>
+    <t>trans0013</t>
+  </si>
+  <si>
+    <t>网络请求错误,请求方法未允许!</t>
+  </si>
+  <si>
+    <t>Network request error, request method not allowed!</t>
+  </si>
+  <si>
+    <t>trans0014</t>
+  </si>
+  <si>
+    <t>网络请求超时!</t>
+  </si>
+  <si>
+    <t>Network request timed out!</t>
+  </si>
+  <si>
+    <t>trans0015</t>
+  </si>
+  <si>
+    <t>服务器错误,请联系管理员!</t>
+  </si>
+  <si>
+    <t>Server error, please contact the administrator!</t>
+  </si>
+  <si>
+    <t>trans0016</t>
+  </si>
+  <si>
+    <t>网络未实现!</t>
+  </si>
+  <si>
+    <t>The network is not implemented!</t>
+  </si>
+  <si>
+    <t>trans0017</t>
+  </si>
+  <si>
+    <t>网络错误!</t>
+  </si>
+  <si>
+    <t>Network Error!</t>
+  </si>
+  <si>
+    <t>trans0018</t>
+  </si>
+  <si>
+    <t>服务不可用，服务器暂时过载或维护!</t>
+  </si>
+  <si>
+    <t>The service is unavailable, the server is temporarily overloaded or maintained!</t>
+  </si>
+  <si>
+    <t>trans0019</t>
+  </si>
+  <si>
+    <t>网络超时!</t>
+  </si>
+  <si>
+    <t>Network timeout!</t>
+  </si>
+  <si>
+    <t>trans0020</t>
+  </si>
+  <si>
+    <t>http版本不支持该请求!</t>
+  </si>
+  <si>
+    <t>The http version does not support the request!</t>
+  </si>
+  <si>
+    <t>trans0021</t>
+  </si>
+  <si>
+    <t>操作失败</t>
+  </si>
+  <si>
+    <t>Operation failed</t>
+  </si>
+  <si>
+    <t>trans0022</t>
+  </si>
+  <si>
+    <t>操作失败,系统异常!</t>
+  </si>
+  <si>
+    <t>The operation failed, the system is abnormal!</t>
+  </si>
+  <si>
+    <t>trans0023</t>
+  </si>
+  <si>
+    <t>网络异常</t>
+  </si>
+  <si>
+    <t>network anomaly</t>
+  </si>
+  <si>
+    <t>trans0024</t>
+  </si>
+  <si>
+    <t>trans0025</t>
+  </si>
+  <si>
+    <t>trans0026</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -69,6 +269,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -87,6 +293,16 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -624,31 +840,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,119 +861,131 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -780,7 +996,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -789,55 +1005,64 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1375,14 +1600,14 @@
   <sheetPr/>
   <dimension ref="A1:K667"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
+      <selection activeCell="E588" sqref="E588"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="2" max="2" width="41" customWidth="1"/>
     <col min="3" max="3" width="60" customWidth="1"/>
     <col min="4" max="11" width="11" customWidth="1"/>
   </cols>
@@ -1425,7 +1650,16 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" ht="16.5" spans="4:11">
+    <row r="3" ht="16.5" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
@@ -1435,27 +1669,54 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" ht="16.5" spans="4:11">
-      <c r="D4" s="4"/>
+    <row r="4" ht="16.5" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" ht="16.5" spans="4:11">
-      <c r="D5" s="6"/>
+    <row r="5" ht="16.5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="6"/>
+      <c r="H5" s="7"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" ht="16.5" spans="4:11">
+    <row r="6" ht="16.5" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
@@ -1465,7 +1726,16 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" ht="16.5" spans="4:11">
+    <row r="7" ht="16.5" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
@@ -1475,7 +1745,16 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" ht="16.5" spans="4:11">
+    <row r="8" ht="16.5" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
@@ -1485,7 +1764,16 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" ht="16.5" spans="4:11">
+    <row r="9" ht="16.5" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
@@ -1495,47 +1783,92 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" ht="16.5" spans="4:11">
+    <row r="10" ht="16.5" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="6"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" ht="16.5" spans="4:11">
+    <row r="11" ht="16.5" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="6"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" ht="16.5" spans="4:11">
+    <row r="12" ht="16.5" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="1"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="6"/>
+      <c r="H12" s="7"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" ht="16.5" spans="4:11">
+    <row r="13" ht="16.5" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="1"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="7"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" ht="16.5" spans="4:11">
+    <row r="14" ht="16.5" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
@@ -1545,27 +1878,54 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" ht="16.5" spans="4:11">
+    <row r="15" ht="16.5" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="1"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="6"/>
+      <c r="H15" s="7"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" ht="16.5" spans="4:11">
+    <row r="16" ht="17.25" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="1"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="6"/>
+      <c r="H16" s="7"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" ht="16.5" spans="4:11">
+    <row r="17" ht="16.5" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="1"/>
       <c r="F17" s="2"/>
@@ -1575,17 +1935,35 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" ht="16.5" spans="4:11">
+    <row r="18" ht="16.5" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="1"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="6"/>
+      <c r="H18" s="7"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" ht="16.5" spans="4:11">
+    <row r="19" ht="16.5" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="1"/>
       <c r="F19" s="2"/>
@@ -1595,7 +1973,16 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" ht="16.5" spans="4:11">
+    <row r="20" ht="16.5" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
@@ -1605,7 +1992,16 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" ht="16.5" spans="4:11">
+    <row r="21" ht="16.5" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="1"/>
       <c r="F21" s="2"/>
@@ -1615,7 +2011,16 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" ht="16.5" spans="4:11">
+    <row r="22" ht="16.5" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="1"/>
       <c r="F22" s="2"/>
@@ -1625,151 +2030,178 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" ht="16.5" spans="4:11">
+    <row r="23" ht="16.5" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" ht="16.5" spans="4:11">
+    <row r="24" ht="16.5" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" ht="16.5" spans="4:11">
+    <row r="25" ht="16.5" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" ht="17.25" spans="4:11">
-      <c r="D26" s="9"/>
+    <row r="26" ht="17.25" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="12"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="13"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" ht="16.5" spans="4:11">
+    <row r="27" ht="16.5" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
     <row r="28" ht="16.5" spans="4:11">
-      <c r="D28" s="6"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="6"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="7"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
     <row r="29" ht="16.5" spans="4:11">
-      <c r="D29" s="7"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
     </row>
     <row r="30" ht="16.5" spans="4:11">
-      <c r="D30" s="6"/>
+      <c r="D30" s="7"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="6"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="7"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
     <row r="31" ht="16.5" spans="4:11">
-      <c r="D31" s="6"/>
+      <c r="D31" s="7"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="6"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="7"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
     </row>
     <row r="32" ht="16.5" spans="4:11">
-      <c r="D32" s="6"/>
+      <c r="D32" s="7"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="6"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="7"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
     <row r="33" ht="16.5" spans="4:11">
-      <c r="D33" s="11"/>
+      <c r="D33" s="14"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="11"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="14"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
     </row>
     <row r="34" ht="16.5" spans="4:11">
-      <c r="D34" s="6"/>
+      <c r="D34" s="7"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="6"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="7"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
     </row>
     <row r="35" ht="16.5" spans="4:11">
-      <c r="D35" s="7"/>
+      <c r="D35" s="10"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
     </row>
     <row r="36" ht="16.5" spans="4:11">
-      <c r="D36" s="7"/>
+      <c r="D36" s="10"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
     </row>
     <row r="37" ht="16.5" spans="4:11">
-      <c r="D37" s="7"/>
+      <c r="D37" s="10"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -1778,29 +2210,29 @@
     <row r="38" ht="16.5" spans="4:11">
       <c r="D38" s="3"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
     </row>
     <row r="39" ht="16.5" spans="4:11">
-      <c r="D39" s="11"/>
+      <c r="D39" s="14"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="6"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="7"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
     <row r="40" ht="16.5" spans="4:11">
-      <c r="D40" s="6"/>
+      <c r="D40" s="7"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="6"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="7"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -1808,8 +2240,8 @@
     <row r="41" ht="16.5" spans="4:11">
       <c r="D41" s="3"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
@@ -1818,8 +2250,8 @@
     <row r="42" ht="16.5" spans="4:11">
       <c r="D42" s="3"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -1828,8 +2260,8 @@
     <row r="43" ht="16.5" spans="4:11">
       <c r="D43" s="3"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -1838,58 +2270,58 @@
     <row r="44" ht="16.5" spans="4:11">
       <c r="D44" s="3"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
     <row r="45" ht="16.5" spans="4:11">
-      <c r="D45" s="6"/>
+      <c r="D45" s="7"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
     </row>
     <row r="46" ht="16.5" spans="4:11">
-      <c r="D46" s="6"/>
+      <c r="D46" s="7"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
     </row>
     <row r="47" ht="16.5" spans="4:11">
-      <c r="D47" s="6"/>
+      <c r="D47" s="7"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
     </row>
     <row r="48" ht="16.5" spans="4:11">
-      <c r="D48" s="6"/>
+      <c r="D48" s="7"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
     </row>
     <row r="49" ht="16.5" spans="4:11">
-      <c r="D49" s="7"/>
+      <c r="D49" s="10"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -1898,8 +2330,8 @@
     <row r="50" ht="16.5" spans="4:11">
       <c r="D50" s="3"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
@@ -1908,8 +2340,8 @@
     <row r="51" ht="16.5" spans="4:11">
       <c r="D51" s="3"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -1918,8 +2350,8 @@
     <row r="52" ht="16.5" spans="4:11">
       <c r="D52" s="3"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
@@ -1928,18 +2360,18 @@
     <row r="53" ht="16.5" spans="4:11">
       <c r="D53" s="3"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
     </row>
     <row r="54" ht="17.25" spans="4:11">
-      <c r="D54" s="12"/>
+      <c r="D54" s="15"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
@@ -1948,8 +2380,8 @@
     <row r="55" ht="16.5" spans="4:11">
       <c r="D55" s="3"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
@@ -1958,8 +2390,8 @@
     <row r="56" ht="16.5" spans="4:11">
       <c r="D56" s="3"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
@@ -1968,8 +2400,8 @@
     <row r="57" ht="16.5" spans="4:11">
       <c r="D57" s="3"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
@@ -1978,8 +2410,8 @@
     <row r="58" ht="16.5" spans="4:11">
       <c r="D58" s="3"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
@@ -1988,8 +2420,8 @@
     <row r="59" ht="16.5" spans="4:11">
       <c r="D59" s="3"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
@@ -1998,8 +2430,8 @@
     <row r="60" ht="16.5" spans="4:11">
       <c r="D60" s="3"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
@@ -2008,19 +2440,19 @@
     <row r="61" ht="16.5" spans="4:11">
       <c r="D61" s="3"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
     </row>
     <row r="62" ht="16.5" spans="4:11">
-      <c r="D62" s="13"/>
+      <c r="D62" s="16"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="13"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="16"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
@@ -2028,8 +2460,8 @@
     <row r="63" ht="16.5" spans="4:11">
       <c r="D63" s="3"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
@@ -2038,8 +2470,8 @@
     <row r="64" ht="16.5" spans="4:11">
       <c r="D64" s="3"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
@@ -2048,8 +2480,8 @@
     <row r="65" ht="16.5" spans="4:11">
       <c r="D65" s="3"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
@@ -2058,8 +2490,8 @@
     <row r="66" ht="16.5" spans="4:11">
       <c r="D66" s="3"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
@@ -2068,8 +2500,8 @@
     <row r="67" ht="16.5" spans="4:11">
       <c r="D67" s="3"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
@@ -2078,18 +2510,18 @@
     <row r="68" ht="16.5" spans="4:11">
       <c r="D68" s="3"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
     </row>
     <row r="69" ht="17.25" spans="4:11">
-      <c r="D69" s="14"/>
+      <c r="D69" s="17"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
@@ -2098,18 +2530,18 @@
     <row r="70" ht="16.5" spans="4:11">
       <c r="D70" s="3"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
     </row>
     <row r="71" ht="16.5" spans="4:11">
-      <c r="D71" s="6"/>
+      <c r="D71" s="7"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
@@ -2118,8 +2550,8 @@
     <row r="72" ht="16.5" spans="4:11">
       <c r="D72" s="3"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
@@ -2128,8 +2560,8 @@
     <row r="73" ht="16.5" spans="4:11">
       <c r="D73" s="3"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
@@ -2138,8 +2570,8 @@
     <row r="74" ht="16.5" spans="4:11">
       <c r="D74" s="3"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
@@ -2148,18 +2580,18 @@
     <row r="75" ht="16.5" spans="4:11">
       <c r="D75" s="3"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
     </row>
     <row r="76" ht="16.5" spans="4:11">
-      <c r="D76" s="6"/>
+      <c r="D76" s="7"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
@@ -2168,8 +2600,8 @@
     <row r="77" ht="16.5" spans="4:11">
       <c r="D77" s="3"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
@@ -2178,8 +2610,8 @@
     <row r="78" ht="16.5" spans="4:11">
       <c r="D78" s="3"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
@@ -2188,29 +2620,29 @@
     <row r="79" ht="16.5" spans="4:11">
       <c r="D79" s="3"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
     </row>
     <row r="80" ht="16.5" spans="4:11">
-      <c r="D80" s="6"/>
+      <c r="D80" s="7"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="6"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="7"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
     </row>
     <row r="81" ht="16.5" spans="4:11">
-      <c r="D81" s="11"/>
+      <c r="D81" s="14"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="16"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="19"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
@@ -2218,8 +2650,8 @@
     <row r="82" ht="16.5" spans="4:11">
       <c r="D82" s="3"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
@@ -2228,19 +2660,19 @@
     <row r="83" ht="16.5" spans="4:11">
       <c r="D83" s="3"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
     </row>
     <row r="84" ht="16.5" spans="4:11">
-      <c r="D84" s="6"/>
+      <c r="D84" s="7"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="6"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="7"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
@@ -2248,8 +2680,8 @@
     <row r="85" ht="16.5" spans="4:11">
       <c r="D85" s="3"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
@@ -2258,29 +2690,29 @@
     <row r="86" ht="16.5" spans="4:11">
       <c r="D86" s="3"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
     </row>
     <row r="87" ht="16.5" spans="4:11">
-      <c r="D87" s="6"/>
+      <c r="D87" s="7"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="6"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="7"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
     </row>
     <row r="88" ht="16.5" spans="4:11">
-      <c r="D88" s="6"/>
+      <c r="D88" s="7"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="6"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="7"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
@@ -2288,8 +2720,8 @@
     <row r="89" ht="16.5" spans="4:11">
       <c r="D89" s="3"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
@@ -2298,8 +2730,8 @@
     <row r="90" ht="16.5" spans="4:11">
       <c r="D90" s="3"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
@@ -2308,8 +2740,8 @@
     <row r="91" ht="16.5" spans="4:11">
       <c r="D91" s="3"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
@@ -2318,8 +2750,8 @@
     <row r="92" ht="16.5" spans="4:11">
       <c r="D92" s="3"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
@@ -2328,8 +2760,8 @@
     <row r="93" ht="16.5" spans="4:11">
       <c r="D93" s="3"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
@@ -2338,8 +2770,8 @@
     <row r="94" ht="16.5" spans="4:11">
       <c r="D94" s="3"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
@@ -2348,8 +2780,8 @@
     <row r="95" ht="16.5" spans="4:11">
       <c r="D95" s="3"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
@@ -2358,8 +2790,8 @@
     <row r="96" ht="16.5" spans="4:11">
       <c r="D96" s="3"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
@@ -2368,8 +2800,8 @@
     <row r="97" ht="16.5" spans="4:11">
       <c r="D97" s="3"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
@@ -2378,8 +2810,8 @@
     <row r="98" ht="16.5" spans="4:11">
       <c r="D98" s="3"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
@@ -2388,8 +2820,8 @@
     <row r="99" ht="16.5" spans="4:11">
       <c r="D99" s="3"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
@@ -2398,29 +2830,29 @@
     <row r="100" ht="16.5" spans="4:11">
       <c r="D100" s="3"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
     </row>
     <row r="101" ht="16.5" spans="4:11">
-      <c r="D101" s="6"/>
+      <c r="D101" s="7"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="11"/>
-      <c r="G101" s="11"/>
-      <c r="H101" s="6"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="7"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
     </row>
     <row r="102" ht="16.5" spans="4:11">
-      <c r="D102" s="8"/>
+      <c r="D102" s="11"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="11"/>
-      <c r="G102" s="11"/>
-      <c r="H102" s="8"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="11"/>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
@@ -2428,8 +2860,8 @@
     <row r="103" ht="16.5" spans="4:11">
       <c r="D103" s="3"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
@@ -2438,8 +2870,8 @@
     <row r="104" ht="16.5" spans="4:11">
       <c r="D104" s="3"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="14"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
@@ -2448,8 +2880,8 @@
     <row r="105" ht="16.5" spans="4:11">
       <c r="D105" s="3"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="14"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
@@ -2458,8 +2890,8 @@
     <row r="106" ht="16.5" spans="4:11">
       <c r="D106" s="3"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
@@ -2468,8 +2900,8 @@
     <row r="107" ht="16.5" spans="4:11">
       <c r="D107" s="3"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="14"/>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
@@ -2478,8 +2910,8 @@
     <row r="108" ht="16.5" spans="4:11">
       <c r="D108" s="3"/>
       <c r="E108" s="1"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="11"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="14"/>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
@@ -2488,8 +2920,8 @@
     <row r="109" ht="16.5" spans="4:11">
       <c r="D109" s="3"/>
       <c r="E109" s="1"/>
-      <c r="F109" s="11"/>
-      <c r="G109" s="11"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="14"/>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
@@ -2498,8 +2930,8 @@
     <row r="110" ht="16.5" spans="4:11">
       <c r="D110" s="3"/>
       <c r="E110" s="1"/>
-      <c r="F110" s="11"/>
-      <c r="G110" s="11"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="14"/>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
@@ -2508,8 +2940,8 @@
     <row r="111" ht="16.5" spans="4:11">
       <c r="D111" s="3"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11"/>
+      <c r="F111" s="14"/>
+      <c r="G111" s="14"/>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
@@ -2518,19 +2950,19 @@
     <row r="112" ht="16.5" spans="4:11">
       <c r="D112" s="3"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="11"/>
-      <c r="G112" s="11"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="14"/>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
     </row>
     <row r="113" ht="16.5" spans="4:11">
-      <c r="D113" s="11"/>
+      <c r="D113" s="14"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="11"/>
-      <c r="G113" s="11"/>
-      <c r="H113" s="11"/>
+      <c r="F113" s="14"/>
+      <c r="G113" s="14"/>
+      <c r="H113" s="14"/>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
@@ -2538,8 +2970,8 @@
     <row r="114" ht="16.5" spans="4:11">
       <c r="D114" s="3"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="11"/>
-      <c r="G114" s="11"/>
+      <c r="F114" s="14"/>
+      <c r="G114" s="14"/>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
@@ -2548,8 +2980,8 @@
     <row r="115" ht="16.5" spans="4:11">
       <c r="D115" s="3"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="11"/>
-      <c r="G115" s="11"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="14"/>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
@@ -2558,8 +2990,8 @@
     <row r="116" ht="16.5" spans="4:11">
       <c r="D116" s="3"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="11"/>
-      <c r="G116" s="11"/>
+      <c r="F116" s="14"/>
+      <c r="G116" s="14"/>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
@@ -2568,8 +3000,8 @@
     <row r="117" ht="16.5" spans="4:11">
       <c r="D117" s="3"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="11"/>
-      <c r="G117" s="11"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="14"/>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
@@ -2578,8 +3010,8 @@
     <row r="118" ht="16.5" spans="4:11">
       <c r="D118" s="3"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="11"/>
-      <c r="G118" s="11"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="14"/>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
@@ -2588,8 +3020,8 @@
     <row r="119" ht="16.5" spans="4:11">
       <c r="D119" s="3"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="11"/>
-      <c r="G119" s="11"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="14"/>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
@@ -2598,8 +3030,8 @@
     <row r="120" ht="16.5" spans="4:11">
       <c r="D120" s="3"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="11"/>
-      <c r="G120" s="11"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="14"/>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
@@ -2608,20 +3040,18 @@
     <row r="121" ht="16.5" spans="4:11">
       <c r="D121" s="3"/>
       <c r="E121" s="1"/>
-      <c r="F121" s="11"/>
-      <c r="G121" s="11"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="14"/>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
     </row>
     <row r="122" ht="16.5" spans="4:11">
-      <c r="D122" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="D122" s="7"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="11"/>
-      <c r="G122" s="11"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="14"/>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
@@ -2630,8 +3060,8 @@
     <row r="123" ht="16.5" spans="4:11">
       <c r="D123" s="3"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="11"/>
-      <c r="G123" s="11"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="14"/>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
@@ -2640,8 +3070,8 @@
     <row r="124" ht="16.5" spans="4:11">
       <c r="D124" s="3"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="11"/>
-      <c r="G124" s="11"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="14"/>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
@@ -2650,8 +3080,8 @@
     <row r="125" ht="16.5" spans="4:11">
       <c r="D125" s="3"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="11"/>
-      <c r="G125" s="11"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="14"/>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
@@ -2660,8 +3090,8 @@
     <row r="126" ht="16.5" spans="4:11">
       <c r="D126" s="3"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="11"/>
-      <c r="G126" s="11"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="14"/>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
@@ -2670,8 +3100,8 @@
     <row r="127" ht="16.5" spans="4:11">
       <c r="D127" s="3"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="11"/>
-      <c r="G127" s="11"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="14"/>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
@@ -2680,8 +3110,8 @@
     <row r="128" ht="16.5" spans="4:11">
       <c r="D128" s="3"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="11"/>
-      <c r="G128" s="11"/>
+      <c r="F128" s="14"/>
+      <c r="G128" s="14"/>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
@@ -2690,8 +3120,8 @@
     <row r="129" ht="16.5" spans="4:11">
       <c r="D129" s="3"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="11"/>
-      <c r="G129" s="11"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="14"/>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
@@ -2700,8 +3130,8 @@
     <row r="130" ht="16.5" spans="4:11">
       <c r="D130" s="3"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="11"/>
-      <c r="G130" s="11"/>
+      <c r="F130" s="14"/>
+      <c r="G130" s="14"/>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
@@ -2710,8 +3140,8 @@
     <row r="131" ht="16.5" spans="4:11">
       <c r="D131" s="3"/>
       <c r="E131" s="1"/>
-      <c r="F131" s="11"/>
-      <c r="G131" s="11"/>
+      <c r="F131" s="14"/>
+      <c r="G131" s="14"/>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
@@ -2720,8 +3150,8 @@
     <row r="132" ht="16.5" spans="4:11">
       <c r="D132" s="3"/>
       <c r="E132" s="1"/>
-      <c r="F132" s="11"/>
-      <c r="G132" s="11"/>
+      <c r="F132" s="14"/>
+      <c r="G132" s="14"/>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
@@ -2730,8 +3160,8 @@
     <row r="133" ht="16.5" spans="4:11">
       <c r="D133" s="3"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="11"/>
-      <c r="G133" s="11"/>
+      <c r="F133" s="14"/>
+      <c r="G133" s="14"/>
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
@@ -2740,8 +3170,8 @@
     <row r="134" ht="16.5" spans="4:11">
       <c r="D134" s="3"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="11"/>
-      <c r="G134" s="11"/>
+      <c r="F134" s="14"/>
+      <c r="G134" s="14"/>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
@@ -2750,8 +3180,8 @@
     <row r="135" ht="16.5" spans="4:11">
       <c r="D135" s="3"/>
       <c r="E135" s="1"/>
-      <c r="F135" s="11"/>
-      <c r="G135" s="11"/>
+      <c r="F135" s="14"/>
+      <c r="G135" s="14"/>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
@@ -2760,8 +3190,8 @@
     <row r="136" ht="16.5" spans="4:11">
       <c r="D136" s="3"/>
       <c r="E136" s="1"/>
-      <c r="F136" s="11"/>
-      <c r="G136" s="11"/>
+      <c r="F136" s="14"/>
+      <c r="G136" s="14"/>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
@@ -2770,8 +3200,8 @@
     <row r="137" ht="16.5" spans="4:11">
       <c r="D137" s="3"/>
       <c r="E137" s="1"/>
-      <c r="F137" s="11"/>
-      <c r="G137" s="11"/>
+      <c r="F137" s="14"/>
+      <c r="G137" s="14"/>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
@@ -2780,8 +3210,8 @@
     <row r="138" ht="16.5" spans="4:11">
       <c r="D138" s="3"/>
       <c r="E138" s="1"/>
-      <c r="F138" s="11"/>
-      <c r="G138" s="11"/>
+      <c r="F138" s="14"/>
+      <c r="G138" s="14"/>
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
@@ -2790,8 +3220,8 @@
     <row r="139" ht="16.5" spans="4:11">
       <c r="D139" s="3"/>
       <c r="E139" s="1"/>
-      <c r="F139" s="11"/>
-      <c r="G139" s="11"/>
+      <c r="F139" s="14"/>
+      <c r="G139" s="14"/>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
@@ -2800,8 +3230,8 @@
     <row r="140" ht="16.5" spans="4:11">
       <c r="D140" s="3"/>
       <c r="E140" s="1"/>
-      <c r="F140" s="11"/>
-      <c r="G140" s="11"/>
+      <c r="F140" s="14"/>
+      <c r="G140" s="14"/>
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
@@ -2810,8 +3240,8 @@
     <row r="141" ht="16.5" spans="4:11">
       <c r="D141" s="3"/>
       <c r="E141" s="1"/>
-      <c r="F141" s="11"/>
-      <c r="G141" s="11"/>
+      <c r="F141" s="14"/>
+      <c r="G141" s="14"/>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
@@ -2820,18 +3250,18 @@
     <row r="142" ht="16.5" spans="4:11">
       <c r="D142" s="3"/>
       <c r="E142" s="1"/>
-      <c r="F142" s="11"/>
-      <c r="G142" s="11"/>
+      <c r="F142" s="14"/>
+      <c r="G142" s="14"/>
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
     </row>
     <row r="143" ht="16.5" spans="4:11">
-      <c r="D143" s="6"/>
+      <c r="D143" s="7"/>
       <c r="E143" s="1"/>
-      <c r="F143" s="11"/>
-      <c r="G143" s="11"/>
+      <c r="F143" s="14"/>
+      <c r="G143" s="14"/>
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
@@ -2840,8 +3270,8 @@
     <row r="144" ht="16.5" spans="4:11">
       <c r="D144" s="3"/>
       <c r="E144" s="1"/>
-      <c r="F144" s="11"/>
-      <c r="G144" s="11"/>
+      <c r="F144" s="14"/>
+      <c r="G144" s="14"/>
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
@@ -2850,8 +3280,8 @@
     <row r="145" ht="16.5" spans="4:11">
       <c r="D145" s="3"/>
       <c r="E145" s="1"/>
-      <c r="F145" s="11"/>
-      <c r="G145" s="11"/>
+      <c r="F145" s="14"/>
+      <c r="G145" s="14"/>
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
@@ -2860,8 +3290,8 @@
     <row r="146" ht="16.5" spans="4:11">
       <c r="D146" s="3"/>
       <c r="E146" s="1"/>
-      <c r="F146" s="11"/>
-      <c r="G146" s="11"/>
+      <c r="F146" s="14"/>
+      <c r="G146" s="14"/>
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
@@ -2870,8 +3300,8 @@
     <row r="147" ht="16.5" spans="4:11">
       <c r="D147" s="3"/>
       <c r="E147" s="1"/>
-      <c r="F147" s="11"/>
-      <c r="G147" s="11"/>
+      <c r="F147" s="14"/>
+      <c r="G147" s="14"/>
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
@@ -2880,8 +3310,8 @@
     <row r="148" ht="16.5" spans="4:11">
       <c r="D148" s="3"/>
       <c r="E148" s="1"/>
-      <c r="F148" s="11"/>
-      <c r="G148" s="11"/>
+      <c r="F148" s="14"/>
+      <c r="G148" s="14"/>
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
@@ -2890,8 +3320,8 @@
     <row r="149" ht="16.5" spans="4:11">
       <c r="D149" s="3"/>
       <c r="E149" s="1"/>
-      <c r="F149" s="11"/>
-      <c r="G149" s="11"/>
+      <c r="F149" s="14"/>
+      <c r="G149" s="14"/>
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
@@ -2900,8 +3330,8 @@
     <row r="150" ht="16.5" spans="4:11">
       <c r="D150" s="3"/>
       <c r="E150" s="1"/>
-      <c r="F150" s="11"/>
-      <c r="G150" s="11"/>
+      <c r="F150" s="14"/>
+      <c r="G150" s="14"/>
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
@@ -2910,8 +3340,8 @@
     <row r="151" ht="16.5" spans="4:11">
       <c r="D151" s="3"/>
       <c r="E151" s="1"/>
-      <c r="F151" s="11"/>
-      <c r="G151" s="11"/>
+      <c r="F151" s="14"/>
+      <c r="G151" s="14"/>
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
@@ -2920,8 +3350,8 @@
     <row r="152" ht="16.5" spans="4:11">
       <c r="D152" s="3"/>
       <c r="E152" s="1"/>
-      <c r="F152" s="11"/>
-      <c r="G152" s="11"/>
+      <c r="F152" s="14"/>
+      <c r="G152" s="14"/>
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
@@ -2930,8 +3360,8 @@
     <row r="153" ht="16.5" spans="4:11">
       <c r="D153" s="3"/>
       <c r="E153" s="1"/>
-      <c r="F153" s="11"/>
-      <c r="G153" s="11"/>
+      <c r="F153" s="14"/>
+      <c r="G153" s="14"/>
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
@@ -2940,18 +3370,18 @@
     <row r="154" ht="16.5" spans="4:11">
       <c r="D154" s="3"/>
       <c r="E154" s="1"/>
-      <c r="F154" s="11"/>
-      <c r="G154" s="11"/>
+      <c r="F154" s="14"/>
+      <c r="G154" s="14"/>
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
     </row>
     <row r="155" ht="16.5" spans="4:11">
-      <c r="D155" s="8"/>
+      <c r="D155" s="11"/>
       <c r="E155" s="1"/>
-      <c r="F155" s="11"/>
-      <c r="G155" s="11"/>
+      <c r="F155" s="14"/>
+      <c r="G155" s="14"/>
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
@@ -2960,8 +3390,8 @@
     <row r="156" ht="16.5" spans="4:11">
       <c r="D156" s="3"/>
       <c r="E156" s="1"/>
-      <c r="F156" s="11"/>
-      <c r="G156" s="11"/>
+      <c r="F156" s="14"/>
+      <c r="G156" s="14"/>
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
@@ -2970,8 +3400,8 @@
     <row r="157" ht="16.5" spans="4:11">
       <c r="D157" s="3"/>
       <c r="E157" s="1"/>
-      <c r="F157" s="11"/>
-      <c r="G157" s="11"/>
+      <c r="F157" s="14"/>
+      <c r="G157" s="14"/>
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
@@ -2980,8 +3410,8 @@
     <row r="158" ht="16.5" spans="4:11">
       <c r="D158" s="3"/>
       <c r="E158" s="1"/>
-      <c r="F158" s="11"/>
-      <c r="G158" s="11"/>
+      <c r="F158" s="14"/>
+      <c r="G158" s="14"/>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
@@ -2990,8 +3420,8 @@
     <row r="159" ht="16.5" spans="4:11">
       <c r="D159" s="3"/>
       <c r="E159" s="1"/>
-      <c r="F159" s="11"/>
-      <c r="G159" s="11"/>
+      <c r="F159" s="14"/>
+      <c r="G159" s="14"/>
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
@@ -3000,8 +3430,8 @@
     <row r="160" ht="16.5" spans="4:11">
       <c r="D160" s="3"/>
       <c r="E160" s="1"/>
-      <c r="F160" s="11"/>
-      <c r="G160" s="11"/>
+      <c r="F160" s="14"/>
+      <c r="G160" s="14"/>
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
@@ -3010,8 +3440,8 @@
     <row r="161" ht="16.5" spans="4:11">
       <c r="D161" s="3"/>
       <c r="E161" s="1"/>
-      <c r="F161" s="11"/>
-      <c r="G161" s="11"/>
+      <c r="F161" s="14"/>
+      <c r="G161" s="14"/>
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
@@ -3020,8 +3450,8 @@
     <row r="162" ht="16.5" spans="4:11">
       <c r="D162" s="3"/>
       <c r="E162" s="1"/>
-      <c r="F162" s="11"/>
-      <c r="G162" s="11"/>
+      <c r="F162" s="14"/>
+      <c r="G162" s="14"/>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
@@ -3030,8 +3460,8 @@
     <row r="163" ht="16.5" spans="4:11">
       <c r="D163" s="3"/>
       <c r="E163" s="1"/>
-      <c r="F163" s="11"/>
-      <c r="G163" s="11"/>
+      <c r="F163" s="14"/>
+      <c r="G163" s="14"/>
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
@@ -3040,8 +3470,8 @@
     <row r="164" ht="16.5" spans="4:11">
       <c r="D164" s="3"/>
       <c r="E164" s="1"/>
-      <c r="F164" s="11"/>
-      <c r="G164" s="11"/>
+      <c r="F164" s="14"/>
+      <c r="G164" s="14"/>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
@@ -3050,8 +3480,8 @@
     <row r="165" ht="16.5" spans="4:11">
       <c r="D165" s="3"/>
       <c r="E165" s="1"/>
-      <c r="F165" s="11"/>
-      <c r="G165" s="11"/>
+      <c r="F165" s="14"/>
+      <c r="G165" s="14"/>
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
@@ -3060,8 +3490,8 @@
     <row r="166" ht="16.5" spans="4:11">
       <c r="D166" s="3"/>
       <c r="E166" s="1"/>
-      <c r="F166" s="11"/>
-      <c r="G166" s="11"/>
+      <c r="F166" s="14"/>
+      <c r="G166" s="14"/>
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
@@ -3070,8 +3500,8 @@
     <row r="167" ht="16.5" spans="4:11">
       <c r="D167" s="3"/>
       <c r="E167" s="1"/>
-      <c r="F167" s="11"/>
-      <c r="G167" s="11"/>
+      <c r="F167" s="14"/>
+      <c r="G167" s="14"/>
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
@@ -3080,30 +3510,28 @@
     <row r="168" ht="16.5" spans="4:11">
       <c r="D168" s="3"/>
       <c r="E168" s="1"/>
-      <c r="F168" s="11"/>
-      <c r="G168" s="11"/>
+      <c r="F168" s="14"/>
+      <c r="G168" s="14"/>
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="3"/>
     </row>
     <row r="169" ht="16.5" spans="4:11">
-      <c r="D169" s="11"/>
+      <c r="D169" s="14"/>
       <c r="E169" s="1"/>
-      <c r="F169" s="11"/>
-      <c r="G169" s="11"/>
+      <c r="F169" s="14"/>
+      <c r="G169" s="14"/>
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3"/>
     </row>
     <row r="170" ht="16.5" spans="4:11">
-      <c r="D170" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="D170" s="14"/>
       <c r="E170" s="1"/>
-      <c r="F170" s="11"/>
-      <c r="G170" s="11"/>
+      <c r="F170" s="14"/>
+      <c r="G170" s="14"/>
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
@@ -3112,8 +3540,8 @@
     <row r="171" ht="16.5" spans="4:11">
       <c r="D171" s="3"/>
       <c r="E171" s="1"/>
-      <c r="F171" s="11"/>
-      <c r="G171" s="11"/>
+      <c r="F171" s="14"/>
+      <c r="G171" s="14"/>
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
@@ -3122,88 +3550,88 @@
     <row r="172" ht="16.5" spans="4:11">
       <c r="D172" s="3"/>
       <c r="E172" s="1"/>
-      <c r="F172" s="11"/>
-      <c r="G172" s="11"/>
+      <c r="F172" s="14"/>
+      <c r="G172" s="14"/>
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
     </row>
     <row r="173" ht="16.5" spans="4:11">
-      <c r="D173" s="6"/>
+      <c r="D173" s="7"/>
       <c r="E173" s="1"/>
-      <c r="F173" s="11"/>
-      <c r="G173" s="11"/>
+      <c r="F173" s="14"/>
+      <c r="G173" s="14"/>
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
       <c r="K173" s="3"/>
     </row>
     <row r="174" ht="16.5" spans="4:11">
-      <c r="D174" s="11"/>
+      <c r="D174" s="14"/>
       <c r="E174" s="1"/>
-      <c r="F174" s="11"/>
-      <c r="G174" s="11"/>
+      <c r="F174" s="14"/>
+      <c r="G174" s="14"/>
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
       <c r="K174" s="3"/>
     </row>
     <row r="175" ht="16.5" spans="4:11">
-      <c r="D175" s="11"/>
+      <c r="D175" s="14"/>
       <c r="E175" s="1"/>
-      <c r="F175" s="11"/>
-      <c r="G175" s="11"/>
+      <c r="F175" s="14"/>
+      <c r="G175" s="14"/>
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
       <c r="K175" s="3"/>
     </row>
     <row r="176" ht="16.5" spans="4:11">
-      <c r="D176" s="11"/>
+      <c r="D176" s="14"/>
       <c r="E176" s="1"/>
-      <c r="F176" s="11"/>
-      <c r="G176" s="11"/>
+      <c r="F176" s="14"/>
+      <c r="G176" s="14"/>
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
       <c r="K176" s="3"/>
     </row>
     <row r="177" ht="16.5" spans="4:11">
-      <c r="D177" s="6"/>
+      <c r="D177" s="7"/>
       <c r="E177" s="1"/>
-      <c r="F177" s="11"/>
-      <c r="G177" s="11"/>
+      <c r="F177" s="14"/>
+      <c r="G177" s="14"/>
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
       <c r="K177" s="3"/>
     </row>
     <row r="178" ht="16.5" spans="4:11">
-      <c r="D178" s="8"/>
+      <c r="D178" s="11"/>
       <c r="E178" s="1"/>
-      <c r="F178" s="11"/>
-      <c r="G178" s="11"/>
+      <c r="F178" s="14"/>
+      <c r="G178" s="14"/>
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
       <c r="K178" s="3"/>
     </row>
     <row r="179" ht="16.5" spans="4:11">
-      <c r="D179" s="6"/>
+      <c r="D179" s="7"/>
       <c r="E179" s="1"/>
-      <c r="F179" s="11"/>
-      <c r="G179" s="11"/>
+      <c r="F179" s="14"/>
+      <c r="G179" s="14"/>
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
     </row>
     <row r="180" ht="16.5" spans="4:11">
-      <c r="D180" s="11"/>
+      <c r="D180" s="14"/>
       <c r="E180" s="1"/>
-      <c r="F180" s="11"/>
-      <c r="G180" s="11"/>
+      <c r="F180" s="14"/>
+      <c r="G180" s="14"/>
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
@@ -3212,8 +3640,8 @@
     <row r="181" ht="16.5" spans="4:11">
       <c r="D181" s="3"/>
       <c r="E181" s="1"/>
-      <c r="F181" s="11"/>
-      <c r="G181" s="11"/>
+      <c r="F181" s="14"/>
+      <c r="G181" s="14"/>
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
@@ -3222,8 +3650,8 @@
     <row r="182" ht="16.5" spans="4:11">
       <c r="D182" s="3"/>
       <c r="E182" s="1"/>
-      <c r="F182" s="11"/>
-      <c r="G182" s="11"/>
+      <c r="F182" s="14"/>
+      <c r="G182" s="14"/>
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
@@ -3232,8 +3660,8 @@
     <row r="183" ht="16.5" spans="4:11">
       <c r="D183" s="3"/>
       <c r="E183" s="1"/>
-      <c r="F183" s="11"/>
-      <c r="G183" s="11"/>
+      <c r="F183" s="14"/>
+      <c r="G183" s="14"/>
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
@@ -3242,8 +3670,8 @@
     <row r="184" ht="16.5" spans="4:11">
       <c r="D184" s="3"/>
       <c r="E184" s="1"/>
-      <c r="F184" s="11"/>
-      <c r="G184" s="11"/>
+      <c r="F184" s="14"/>
+      <c r="G184" s="14"/>
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
@@ -3252,8 +3680,8 @@
     <row r="185" ht="16.5" spans="4:11">
       <c r="D185" s="3"/>
       <c r="E185" s="1"/>
-      <c r="F185" s="11"/>
-      <c r="G185" s="11"/>
+      <c r="F185" s="14"/>
+      <c r="G185" s="14"/>
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
@@ -3262,8 +3690,8 @@
     <row r="186" ht="16.5" spans="4:11">
       <c r="D186" s="3"/>
       <c r="E186" s="1"/>
-      <c r="F186" s="11"/>
-      <c r="G186" s="11"/>
+      <c r="F186" s="14"/>
+      <c r="G186" s="14"/>
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
@@ -3272,8 +3700,8 @@
     <row r="187" ht="16.5" spans="4:11">
       <c r="D187" s="3"/>
       <c r="E187" s="1"/>
-      <c r="F187" s="11"/>
-      <c r="G187" s="11"/>
+      <c r="F187" s="14"/>
+      <c r="G187" s="14"/>
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
@@ -3282,8 +3710,8 @@
     <row r="188" ht="16.5" spans="4:11">
       <c r="D188" s="3"/>
       <c r="E188" s="1"/>
-      <c r="F188" s="11"/>
-      <c r="G188" s="11"/>
+      <c r="F188" s="14"/>
+      <c r="G188" s="14"/>
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
@@ -3292,8 +3720,8 @@
     <row r="189" ht="16.5" spans="4:11">
       <c r="D189" s="3"/>
       <c r="E189" s="1"/>
-      <c r="F189" s="11"/>
-      <c r="G189" s="11"/>
+      <c r="F189" s="14"/>
+      <c r="G189" s="14"/>
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
@@ -3302,8 +3730,8 @@
     <row r="190" ht="16.5" spans="4:11">
       <c r="D190" s="3"/>
       <c r="E190" s="1"/>
-      <c r="F190" s="11"/>
-      <c r="G190" s="11"/>
+      <c r="F190" s="14"/>
+      <c r="G190" s="14"/>
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
@@ -3312,8 +3740,8 @@
     <row r="191" ht="16.5" spans="4:11">
       <c r="D191" s="3"/>
       <c r="E191" s="1"/>
-      <c r="F191" s="11"/>
-      <c r="G191" s="11"/>
+      <c r="F191" s="14"/>
+      <c r="G191" s="14"/>
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
@@ -3322,8 +3750,8 @@
     <row r="192" ht="16.5" spans="4:11">
       <c r="D192" s="3"/>
       <c r="E192" s="1"/>
-      <c r="F192" s="11"/>
-      <c r="G192" s="11"/>
+      <c r="F192" s="14"/>
+      <c r="G192" s="14"/>
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
@@ -3332,8 +3760,8 @@
     <row r="193" ht="16.5" spans="4:11">
       <c r="D193" s="3"/>
       <c r="E193" s="1"/>
-      <c r="F193" s="11"/>
-      <c r="G193" s="11"/>
+      <c r="F193" s="14"/>
+      <c r="G193" s="14"/>
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
@@ -3342,8 +3770,8 @@
     <row r="194" ht="16.5" spans="4:11">
       <c r="D194" s="3"/>
       <c r="E194" s="1"/>
-      <c r="F194" s="11"/>
-      <c r="G194" s="11"/>
+      <c r="F194" s="14"/>
+      <c r="G194" s="14"/>
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
@@ -3352,8 +3780,8 @@
     <row r="195" ht="16.5" spans="4:11">
       <c r="D195" s="3"/>
       <c r="E195" s="1"/>
-      <c r="F195" s="11"/>
-      <c r="G195" s="11"/>
+      <c r="F195" s="14"/>
+      <c r="G195" s="14"/>
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
@@ -3362,8 +3790,8 @@
     <row r="196" ht="16.5" spans="4:11">
       <c r="D196" s="3"/>
       <c r="E196" s="1"/>
-      <c r="F196" s="11"/>
-      <c r="G196" s="11"/>
+      <c r="F196" s="14"/>
+      <c r="G196" s="14"/>
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
@@ -3372,8 +3800,8 @@
     <row r="197" ht="16.5" spans="4:11">
       <c r="D197" s="3"/>
       <c r="E197" s="1"/>
-      <c r="F197" s="11"/>
-      <c r="G197" s="11"/>
+      <c r="F197" s="14"/>
+      <c r="G197" s="14"/>
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
@@ -3382,8 +3810,8 @@
     <row r="198" ht="16.5" spans="4:11">
       <c r="D198" s="3"/>
       <c r="E198" s="1"/>
-      <c r="F198" s="11"/>
-      <c r="G198" s="11"/>
+      <c r="F198" s="14"/>
+      <c r="G198" s="14"/>
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
@@ -3392,8 +3820,8 @@
     <row r="199" ht="16.5" spans="4:11">
       <c r="D199" s="3"/>
       <c r="E199" s="1"/>
-      <c r="F199" s="11"/>
-      <c r="G199" s="11"/>
+      <c r="F199" s="14"/>
+      <c r="G199" s="14"/>
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
@@ -3402,8 +3830,8 @@
     <row r="200" ht="16.5" spans="4:11">
       <c r="D200" s="3"/>
       <c r="E200" s="1"/>
-      <c r="F200" s="11"/>
-      <c r="G200" s="11"/>
+      <c r="F200" s="14"/>
+      <c r="G200" s="14"/>
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
@@ -3412,8 +3840,8 @@
     <row r="201" ht="16.5" spans="4:11">
       <c r="D201" s="3"/>
       <c r="E201" s="1"/>
-      <c r="F201" s="11"/>
-      <c r="G201" s="11"/>
+      <c r="F201" s="14"/>
+      <c r="G201" s="14"/>
       <c r="H201" s="3"/>
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
@@ -3422,8 +3850,8 @@
     <row r="202" ht="16.5" spans="4:11">
       <c r="D202" s="3"/>
       <c r="E202" s="1"/>
-      <c r="F202" s="11"/>
-      <c r="G202" s="11"/>
+      <c r="F202" s="14"/>
+      <c r="G202" s="14"/>
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
@@ -3432,38 +3860,38 @@
     <row r="203" ht="16.5" spans="4:11">
       <c r="D203" s="3"/>
       <c r="E203" s="1"/>
-      <c r="F203" s="11"/>
-      <c r="G203" s="11"/>
+      <c r="F203" s="14"/>
+      <c r="G203" s="14"/>
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
       <c r="K203" s="3"/>
     </row>
     <row r="204" ht="16.5" spans="4:11">
-      <c r="D204" s="11"/>
+      <c r="D204" s="14"/>
       <c r="E204" s="1"/>
-      <c r="F204" s="11"/>
-      <c r="G204" s="11"/>
+      <c r="F204" s="14"/>
+      <c r="G204" s="14"/>
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
       <c r="K204" s="3"/>
     </row>
     <row r="205" ht="16.5" spans="4:11">
-      <c r="D205" s="8"/>
+      <c r="D205" s="11"/>
       <c r="E205" s="1"/>
-      <c r="F205" s="11"/>
-      <c r="G205" s="11"/>
+      <c r="F205" s="14"/>
+      <c r="G205" s="14"/>
       <c r="H205" s="3"/>
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
       <c r="K205" s="3"/>
     </row>
     <row r="206" ht="16.5" spans="4:11">
-      <c r="D206" s="8"/>
+      <c r="D206" s="11"/>
       <c r="E206" s="1"/>
-      <c r="F206" s="11"/>
-      <c r="G206" s="11"/>
+      <c r="F206" s="14"/>
+      <c r="G206" s="14"/>
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
@@ -3472,8 +3900,8 @@
     <row r="207" ht="16.5" spans="4:11">
       <c r="D207" s="3"/>
       <c r="E207" s="1"/>
-      <c r="F207" s="11"/>
-      <c r="G207" s="11"/>
+      <c r="F207" s="14"/>
+      <c r="G207" s="14"/>
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
@@ -3482,8 +3910,8 @@
     <row r="208" ht="16.5" spans="4:11">
       <c r="D208" s="3"/>
       <c r="E208" s="1"/>
-      <c r="F208" s="11"/>
-      <c r="G208" s="11"/>
+      <c r="F208" s="14"/>
+      <c r="G208" s="14"/>
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
@@ -3492,8 +3920,8 @@
     <row r="209" ht="16.5" spans="4:11">
       <c r="D209" s="3"/>
       <c r="E209" s="1"/>
-      <c r="F209" s="11"/>
-      <c r="G209" s="11"/>
+      <c r="F209" s="14"/>
+      <c r="G209" s="14"/>
       <c r="H209" s="3"/>
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
@@ -3502,8 +3930,8 @@
     <row r="210" ht="16.5" spans="4:11">
       <c r="D210" s="3"/>
       <c r="E210" s="1"/>
-      <c r="F210" s="11"/>
-      <c r="G210" s="11"/>
+      <c r="F210" s="14"/>
+      <c r="G210" s="14"/>
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
@@ -3512,8 +3940,8 @@
     <row r="211" ht="16.5" spans="4:11">
       <c r="D211" s="3"/>
       <c r="E211" s="1"/>
-      <c r="F211" s="11"/>
-      <c r="G211" s="11"/>
+      <c r="F211" s="14"/>
+      <c r="G211" s="14"/>
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
@@ -3522,18 +3950,18 @@
     <row r="212" ht="16.5" spans="4:11">
       <c r="D212" s="3"/>
       <c r="E212" s="1"/>
-      <c r="F212" s="11"/>
-      <c r="G212" s="11"/>
+      <c r="F212" s="14"/>
+      <c r="G212" s="14"/>
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
       <c r="K212" s="3"/>
     </row>
     <row r="213" ht="16.5" spans="4:11">
-      <c r="D213" s="8"/>
+      <c r="D213" s="11"/>
       <c r="E213" s="1"/>
-      <c r="F213" s="11"/>
-      <c r="G213" s="11"/>
+      <c r="F213" s="14"/>
+      <c r="G213" s="14"/>
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
@@ -3542,8 +3970,8 @@
     <row r="214" ht="16.5" spans="4:11">
       <c r="D214" s="3"/>
       <c r="E214" s="1"/>
-      <c r="F214" s="11"/>
-      <c r="G214" s="11"/>
+      <c r="F214" s="14"/>
+      <c r="G214" s="14"/>
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
@@ -3552,8 +3980,8 @@
     <row r="215" ht="16.5" spans="4:11">
       <c r="D215" s="3"/>
       <c r="E215" s="1"/>
-      <c r="F215" s="11"/>
-      <c r="G215" s="11"/>
+      <c r="F215" s="14"/>
+      <c r="G215" s="14"/>
       <c r="H215" s="3"/>
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
@@ -3562,8 +3990,8 @@
     <row r="216" ht="16.5" spans="4:11">
       <c r="D216" s="3"/>
       <c r="E216" s="1"/>
-      <c r="F216" s="11"/>
-      <c r="G216" s="11"/>
+      <c r="F216" s="14"/>
+      <c r="G216" s="14"/>
       <c r="H216" s="3"/>
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
@@ -3572,8 +4000,8 @@
     <row r="217" ht="16.5" spans="4:11">
       <c r="D217" s="3"/>
       <c r="E217" s="1"/>
-      <c r="F217" s="11"/>
-      <c r="G217" s="11"/>
+      <c r="F217" s="14"/>
+      <c r="G217" s="14"/>
       <c r="H217" s="3"/>
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
@@ -3582,8 +4010,8 @@
     <row r="218" ht="16.5" spans="4:11">
       <c r="D218" s="3"/>
       <c r="E218" s="1"/>
-      <c r="F218" s="11"/>
-      <c r="G218" s="11"/>
+      <c r="F218" s="14"/>
+      <c r="G218" s="14"/>
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
@@ -3592,8 +4020,8 @@
     <row r="219" ht="16.5" spans="4:11">
       <c r="D219" s="3"/>
       <c r="E219" s="1"/>
-      <c r="F219" s="11"/>
-      <c r="G219" s="11"/>
+      <c r="F219" s="14"/>
+      <c r="G219" s="14"/>
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
@@ -3602,8 +4030,8 @@
     <row r="220" ht="16.5" spans="4:11">
       <c r="D220" s="3"/>
       <c r="E220" s="1"/>
-      <c r="F220" s="11"/>
-      <c r="G220" s="11"/>
+      <c r="F220" s="14"/>
+      <c r="G220" s="14"/>
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
       <c r="J220" s="3"/>
@@ -3612,8 +4040,8 @@
     <row r="221" ht="16.5" spans="4:11">
       <c r="D221" s="3"/>
       <c r="E221" s="1"/>
-      <c r="F221" s="11"/>
-      <c r="G221" s="11"/>
+      <c r="F221" s="14"/>
+      <c r="G221" s="14"/>
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
@@ -3622,58 +4050,58 @@
     <row r="222" ht="16.5" spans="4:11">
       <c r="D222" s="3"/>
       <c r="E222" s="1"/>
-      <c r="F222" s="11"/>
-      <c r="G222" s="11"/>
+      <c r="F222" s="14"/>
+      <c r="G222" s="14"/>
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
       <c r="K222" s="3"/>
     </row>
     <row r="223" ht="16.5" spans="4:11">
-      <c r="D223" s="11"/>
+      <c r="D223" s="14"/>
       <c r="E223" s="1"/>
-      <c r="F223" s="11"/>
-      <c r="G223" s="11"/>
+      <c r="F223" s="14"/>
+      <c r="G223" s="14"/>
       <c r="H223" s="3"/>
       <c r="I223" s="3"/>
       <c r="J223" s="3"/>
       <c r="K223" s="3"/>
     </row>
     <row r="224" ht="16.5" spans="4:11">
-      <c r="D224" s="6"/>
+      <c r="D224" s="7"/>
       <c r="E224" s="1"/>
-      <c r="F224" s="11"/>
-      <c r="G224" s="11"/>
+      <c r="F224" s="14"/>
+      <c r="G224" s="14"/>
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
       <c r="J224" s="3"/>
       <c r="K224" s="3"/>
     </row>
     <row r="225" ht="16.5" spans="4:11">
-      <c r="D225" s="6"/>
+      <c r="D225" s="7"/>
       <c r="E225" s="1"/>
-      <c r="F225" s="11"/>
-      <c r="G225" s="11"/>
+      <c r="F225" s="14"/>
+      <c r="G225" s="14"/>
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
       <c r="K225" s="3"/>
     </row>
     <row r="226" ht="16.5" spans="4:11">
-      <c r="D226" s="11"/>
+      <c r="D226" s="14"/>
       <c r="E226" s="1"/>
-      <c r="F226" s="11"/>
-      <c r="G226" s="11"/>
+      <c r="F226" s="14"/>
+      <c r="G226" s="14"/>
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
       <c r="K226" s="3"/>
     </row>
     <row r="227" ht="16.5" spans="4:11">
-      <c r="D227" s="11"/>
+      <c r="D227" s="14"/>
       <c r="E227" s="1"/>
-      <c r="F227" s="11"/>
-      <c r="G227" s="11"/>
+      <c r="F227" s="14"/>
+      <c r="G227" s="14"/>
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
@@ -3682,18 +4110,18 @@
     <row r="228" ht="16.5" spans="4:11">
       <c r="D228" s="3"/>
       <c r="E228" s="1"/>
-      <c r="F228" s="11"/>
-      <c r="G228" s="11"/>
+      <c r="F228" s="14"/>
+      <c r="G228" s="14"/>
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
       <c r="K228" s="3"/>
     </row>
     <row r="229" ht="16.5" spans="4:11">
-      <c r="D229" s="6"/>
+      <c r="D229" s="7"/>
       <c r="E229" s="1"/>
-      <c r="F229" s="11"/>
-      <c r="G229" s="11"/>
+      <c r="F229" s="14"/>
+      <c r="G229" s="14"/>
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
       <c r="J229" s="3"/>
@@ -3702,8 +4130,8 @@
     <row r="230" ht="16.5" spans="4:11">
       <c r="D230" s="3"/>
       <c r="E230" s="1"/>
-      <c r="F230" s="11"/>
-      <c r="G230" s="11"/>
+      <c r="F230" s="14"/>
+      <c r="G230" s="14"/>
       <c r="H230" s="3"/>
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
@@ -3712,8 +4140,8 @@
     <row r="231" ht="16.5" spans="4:11">
       <c r="D231" s="3"/>
       <c r="E231" s="1"/>
-      <c r="F231" s="11"/>
-      <c r="G231" s="11"/>
+      <c r="F231" s="14"/>
+      <c r="G231" s="14"/>
       <c r="H231" s="3"/>
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
@@ -3722,8 +4150,8 @@
     <row r="232" ht="16.5" spans="4:11">
       <c r="D232" s="3"/>
       <c r="E232" s="1"/>
-      <c r="F232" s="11"/>
-      <c r="G232" s="11"/>
+      <c r="F232" s="14"/>
+      <c r="G232" s="14"/>
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
@@ -3732,8 +4160,8 @@
     <row r="233" ht="16.5" spans="4:11">
       <c r="D233" s="3"/>
       <c r="E233" s="1"/>
-      <c r="F233" s="11"/>
-      <c r="G233" s="11"/>
+      <c r="F233" s="14"/>
+      <c r="G233" s="14"/>
       <c r="H233" s="3"/>
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
@@ -3742,8 +4170,8 @@
     <row r="234" ht="16.5" spans="4:11">
       <c r="D234" s="3"/>
       <c r="E234" s="1"/>
-      <c r="F234" s="11"/>
-      <c r="G234" s="11"/>
+      <c r="F234" s="14"/>
+      <c r="G234" s="14"/>
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
@@ -3752,8 +4180,8 @@
     <row r="235" ht="16.5" spans="4:11">
       <c r="D235" s="3"/>
       <c r="E235" s="1"/>
-      <c r="F235" s="11"/>
-      <c r="G235" s="11"/>
+      <c r="F235" s="14"/>
+      <c r="G235" s="14"/>
       <c r="H235" s="3"/>
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
@@ -3762,8 +4190,8 @@
     <row r="236" ht="16.5" spans="4:11">
       <c r="D236" s="3"/>
       <c r="E236" s="1"/>
-      <c r="F236" s="11"/>
-      <c r="G236" s="11"/>
+      <c r="F236" s="14"/>
+      <c r="G236" s="14"/>
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
@@ -3772,8 +4200,8 @@
     <row r="237" ht="16.5" spans="4:11">
       <c r="D237" s="3"/>
       <c r="E237" s="1"/>
-      <c r="F237" s="11"/>
-      <c r="G237" s="11"/>
+      <c r="F237" s="14"/>
+      <c r="G237" s="14"/>
       <c r="H237" s="3"/>
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
@@ -3782,18 +4210,18 @@
     <row r="238" ht="16.5" spans="4:11">
       <c r="D238" s="3"/>
       <c r="E238" s="1"/>
-      <c r="F238" s="11"/>
-      <c r="G238" s="11"/>
+      <c r="F238" s="14"/>
+      <c r="G238" s="14"/>
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
       <c r="J238" s="3"/>
       <c r="K238" s="3"/>
     </row>
     <row r="239" ht="16.5" spans="4:11">
-      <c r="D239" s="11"/>
+      <c r="D239" s="14"/>
       <c r="E239" s="1"/>
-      <c r="F239" s="11"/>
-      <c r="G239" s="11"/>
+      <c r="F239" s="14"/>
+      <c r="G239" s="14"/>
       <c r="H239" s="3"/>
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
@@ -3802,8 +4230,8 @@
     <row r="240" ht="16.5" spans="4:11">
       <c r="D240" s="3"/>
       <c r="E240" s="1"/>
-      <c r="F240" s="11"/>
-      <c r="G240" s="11"/>
+      <c r="F240" s="14"/>
+      <c r="G240" s="14"/>
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
       <c r="J240" s="3"/>
@@ -3812,8 +4240,8 @@
     <row r="241" ht="16.5" spans="4:11">
       <c r="D241" s="3"/>
       <c r="E241" s="1"/>
-      <c r="F241" s="11"/>
-      <c r="G241" s="11"/>
+      <c r="F241" s="14"/>
+      <c r="G241" s="14"/>
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
       <c r="J241" s="3"/>
@@ -3822,8 +4250,8 @@
     <row r="242" ht="16.5" spans="4:11">
       <c r="D242" s="3"/>
       <c r="E242" s="1"/>
-      <c r="F242" s="11"/>
-      <c r="G242" s="11"/>
+      <c r="F242" s="14"/>
+      <c r="G242" s="14"/>
       <c r="H242" s="3"/>
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
@@ -3832,8 +4260,8 @@
     <row r="243" ht="16.5" spans="4:11">
       <c r="D243" s="3"/>
       <c r="E243" s="1"/>
-      <c r="F243" s="11"/>
-      <c r="G243" s="11"/>
+      <c r="F243" s="14"/>
+      <c r="G243" s="14"/>
       <c r="H243" s="3"/>
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
@@ -3842,8 +4270,8 @@
     <row r="244" ht="16.5" spans="4:11">
       <c r="D244" s="3"/>
       <c r="E244" s="1"/>
-      <c r="F244" s="11"/>
-      <c r="G244" s="11"/>
+      <c r="F244" s="14"/>
+      <c r="G244" s="14"/>
       <c r="H244" s="3"/>
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
@@ -3852,8 +4280,8 @@
     <row r="245" ht="16.5" spans="4:11">
       <c r="D245" s="3"/>
       <c r="E245" s="1"/>
-      <c r="F245" s="11"/>
-      <c r="G245" s="11"/>
+      <c r="F245" s="14"/>
+      <c r="G245" s="14"/>
       <c r="H245" s="3"/>
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
@@ -3862,8 +4290,8 @@
     <row r="246" ht="16.5" spans="4:11">
       <c r="D246" s="3"/>
       <c r="E246" s="1"/>
-      <c r="F246" s="11"/>
-      <c r="G246" s="11"/>
+      <c r="F246" s="14"/>
+      <c r="G246" s="14"/>
       <c r="H246" s="3"/>
       <c r="I246" s="3"/>
       <c r="J246" s="3"/>
@@ -3872,8 +4300,8 @@
     <row r="247" ht="16.5" spans="4:11">
       <c r="D247" s="3"/>
       <c r="E247" s="1"/>
-      <c r="F247" s="11"/>
-      <c r="G247" s="11"/>
+      <c r="F247" s="14"/>
+      <c r="G247" s="14"/>
       <c r="H247" s="3"/>
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>
@@ -3882,8 +4310,8 @@
     <row r="248" ht="16.5" spans="4:11">
       <c r="D248" s="3"/>
       <c r="E248" s="1"/>
-      <c r="F248" s="11"/>
-      <c r="G248" s="11"/>
+      <c r="F248" s="14"/>
+      <c r="G248" s="14"/>
       <c r="H248" s="3"/>
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
@@ -3892,8 +4320,8 @@
     <row r="249" ht="16.5" spans="4:11">
       <c r="D249" s="3"/>
       <c r="E249" s="1"/>
-      <c r="F249" s="11"/>
-      <c r="G249" s="11"/>
+      <c r="F249" s="14"/>
+      <c r="G249" s="14"/>
       <c r="H249" s="3"/>
       <c r="I249" s="3"/>
       <c r="J249" s="3"/>
@@ -3902,8 +4330,8 @@
     <row r="250" ht="16.5" spans="4:11">
       <c r="D250" s="3"/>
       <c r="E250" s="1"/>
-      <c r="F250" s="11"/>
-      <c r="G250" s="11"/>
+      <c r="F250" s="14"/>
+      <c r="G250" s="14"/>
       <c r="H250" s="3"/>
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
@@ -3912,8 +4340,8 @@
     <row r="251" ht="16.5" spans="4:11">
       <c r="D251" s="3"/>
       <c r="E251" s="1"/>
-      <c r="F251" s="11"/>
-      <c r="G251" s="11"/>
+      <c r="F251" s="14"/>
+      <c r="G251" s="14"/>
       <c r="H251" s="3"/>
       <c r="I251" s="3"/>
       <c r="J251" s="3"/>
@@ -3922,8 +4350,8 @@
     <row r="252" ht="16.5" spans="4:11">
       <c r="D252" s="3"/>
       <c r="E252" s="1"/>
-      <c r="F252" s="11"/>
-      <c r="G252" s="11"/>
+      <c r="F252" s="14"/>
+      <c r="G252" s="14"/>
       <c r="H252" s="3"/>
       <c r="I252" s="3"/>
       <c r="J252" s="3"/>
@@ -3932,8 +4360,8 @@
     <row r="253" ht="16.5" spans="4:11">
       <c r="D253" s="3"/>
       <c r="E253" s="1"/>
-      <c r="F253" s="11"/>
-      <c r="G253" s="11"/>
+      <c r="F253" s="14"/>
+      <c r="G253" s="14"/>
       <c r="H253" s="3"/>
       <c r="I253" s="3"/>
       <c r="J253" s="3"/>
@@ -3942,8 +4370,8 @@
     <row r="254" ht="16.5" spans="4:11">
       <c r="D254" s="3"/>
       <c r="E254" s="1"/>
-      <c r="F254" s="11"/>
-      <c r="G254" s="11"/>
+      <c r="F254" s="14"/>
+      <c r="G254" s="14"/>
       <c r="H254" s="3"/>
       <c r="I254" s="3"/>
       <c r="J254" s="3"/>
@@ -3952,18 +4380,18 @@
     <row r="255" ht="16.5" spans="4:11">
       <c r="D255" s="3"/>
       <c r="E255" s="1"/>
-      <c r="F255" s="11"/>
-      <c r="G255" s="11"/>
+      <c r="F255" s="14"/>
+      <c r="G255" s="14"/>
       <c r="H255" s="3"/>
       <c r="I255" s="3"/>
       <c r="J255" s="3"/>
       <c r="K255" s="3"/>
     </row>
     <row r="256" ht="16.5" spans="4:11">
-      <c r="D256" s="6"/>
+      <c r="D256" s="7"/>
       <c r="E256" s="1"/>
-      <c r="F256" s="11"/>
-      <c r="G256" s="11"/>
+      <c r="F256" s="14"/>
+      <c r="G256" s="14"/>
       <c r="H256" s="3"/>
       <c r="I256" s="3"/>
       <c r="J256" s="3"/>
@@ -3972,8 +4400,8 @@
     <row r="257" ht="16.5" spans="4:11">
       <c r="D257" s="3"/>
       <c r="E257" s="1"/>
-      <c r="F257" s="11"/>
-      <c r="G257" s="11"/>
+      <c r="F257" s="14"/>
+      <c r="G257" s="14"/>
       <c r="H257" s="3"/>
       <c r="I257" s="3"/>
       <c r="J257" s="3"/>
@@ -3982,8 +4410,8 @@
     <row r="258" ht="16.5" spans="4:11">
       <c r="D258" s="3"/>
       <c r="E258" s="1"/>
-      <c r="F258" s="11"/>
-      <c r="G258" s="11"/>
+      <c r="F258" s="14"/>
+      <c r="G258" s="14"/>
       <c r="H258" s="3"/>
       <c r="I258" s="3"/>
       <c r="J258" s="3"/>
@@ -3992,8 +4420,8 @@
     <row r="259" ht="16.5" spans="4:11">
       <c r="D259" s="3"/>
       <c r="E259" s="1"/>
-      <c r="F259" s="11"/>
-      <c r="G259" s="11"/>
+      <c r="F259" s="14"/>
+      <c r="G259" s="14"/>
       <c r="H259" s="3"/>
       <c r="I259" s="3"/>
       <c r="J259" s="3"/>
@@ -4002,8 +4430,8 @@
     <row r="260" ht="16.5" spans="4:11">
       <c r="D260" s="3"/>
       <c r="E260" s="1"/>
-      <c r="F260" s="11"/>
-      <c r="G260" s="11"/>
+      <c r="F260" s="14"/>
+      <c r="G260" s="14"/>
       <c r="H260" s="3"/>
       <c r="I260" s="3"/>
       <c r="J260" s="3"/>
@@ -4012,8 +4440,8 @@
     <row r="261" ht="16.5" spans="4:11">
       <c r="D261" s="3"/>
       <c r="E261" s="1"/>
-      <c r="F261" s="11"/>
-      <c r="G261" s="11"/>
+      <c r="F261" s="14"/>
+      <c r="G261" s="14"/>
       <c r="H261" s="3"/>
       <c r="I261" s="3"/>
       <c r="J261" s="3"/>
@@ -4022,8 +4450,8 @@
     <row r="262" ht="16.5" spans="4:11">
       <c r="D262" s="3"/>
       <c r="E262" s="1"/>
-      <c r="F262" s="11"/>
-      <c r="G262" s="11"/>
+      <c r="F262" s="14"/>
+      <c r="G262" s="14"/>
       <c r="H262" s="3"/>
       <c r="I262" s="3"/>
       <c r="J262" s="3"/>
@@ -4032,8 +4460,8 @@
     <row r="263" ht="16.5" spans="4:11">
       <c r="D263" s="3"/>
       <c r="E263" s="1"/>
-      <c r="F263" s="11"/>
-      <c r="G263" s="11"/>
+      <c r="F263" s="14"/>
+      <c r="G263" s="14"/>
       <c r="H263" s="3"/>
       <c r="I263" s="3"/>
       <c r="J263" s="3"/>
@@ -4042,8 +4470,8 @@
     <row r="264" ht="16.5" spans="4:11">
       <c r="D264" s="3"/>
       <c r="E264" s="1"/>
-      <c r="F264" s="11"/>
-      <c r="G264" s="17"/>
+      <c r="F264" s="14"/>
+      <c r="G264" s="20"/>
       <c r="H264" s="3"/>
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
@@ -4052,8 +4480,8 @@
     <row r="265" ht="16.5" spans="4:11">
       <c r="D265" s="3"/>
       <c r="E265" s="1"/>
-      <c r="F265" s="11"/>
-      <c r="G265" s="11"/>
+      <c r="F265" s="14"/>
+      <c r="G265" s="14"/>
       <c r="H265" s="3"/>
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
@@ -4062,8 +4490,8 @@
     <row r="266" ht="16.5" spans="4:11">
       <c r="D266" s="3"/>
       <c r="E266" s="1"/>
-      <c r="F266" s="11"/>
-      <c r="G266" s="11"/>
+      <c r="F266" s="14"/>
+      <c r="G266" s="14"/>
       <c r="H266" s="3"/>
       <c r="I266" s="3"/>
       <c r="J266" s="3"/>
@@ -4072,8 +4500,8 @@
     <row r="267" ht="16.5" spans="4:11">
       <c r="D267" s="3"/>
       <c r="E267" s="1"/>
-      <c r="F267" s="11"/>
-      <c r="G267" s="11"/>
+      <c r="F267" s="14"/>
+      <c r="G267" s="14"/>
       <c r="H267" s="3"/>
       <c r="I267" s="3"/>
       <c r="J267" s="3"/>
@@ -4082,8 +4510,8 @@
     <row r="268" ht="16.5" spans="4:11">
       <c r="D268" s="3"/>
       <c r="E268" s="1"/>
-      <c r="F268" s="11"/>
-      <c r="G268" s="11"/>
+      <c r="F268" s="14"/>
+      <c r="G268" s="14"/>
       <c r="H268" s="3"/>
       <c r="I268" s="3"/>
       <c r="J268" s="3"/>
@@ -4092,8 +4520,8 @@
     <row r="269" ht="16.5" spans="4:11">
       <c r="D269" s="3"/>
       <c r="E269" s="1"/>
-      <c r="F269" s="11"/>
-      <c r="G269" s="11"/>
+      <c r="F269" s="14"/>
+      <c r="G269" s="14"/>
       <c r="H269" s="3"/>
       <c r="I269" s="3"/>
       <c r="J269" s="3"/>
@@ -4102,8 +4530,8 @@
     <row r="270" ht="16.5" spans="4:11">
       <c r="D270" s="3"/>
       <c r="E270" s="1"/>
-      <c r="F270" s="11"/>
-      <c r="G270" s="11"/>
+      <c r="F270" s="14"/>
+      <c r="G270" s="14"/>
       <c r="H270" s="3"/>
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
@@ -4112,8 +4540,8 @@
     <row r="271" ht="16.5" spans="4:11">
       <c r="D271" s="3"/>
       <c r="E271" s="1"/>
-      <c r="F271" s="13"/>
-      <c r="G271" s="13"/>
+      <c r="F271" s="16"/>
+      <c r="G271" s="16"/>
       <c r="H271" s="3"/>
       <c r="I271" s="3"/>
       <c r="J271" s="3"/>
@@ -4122,8 +4550,8 @@
     <row r="272" ht="16.5" spans="4:11">
       <c r="D272" s="3"/>
       <c r="E272" s="1"/>
-      <c r="F272" s="11"/>
-      <c r="G272" s="11"/>
+      <c r="F272" s="14"/>
+      <c r="G272" s="14"/>
       <c r="H272" s="3"/>
       <c r="I272" s="3"/>
       <c r="J272" s="3"/>
@@ -4132,8 +4560,8 @@
     <row r="273" ht="16.5" spans="4:11">
       <c r="D273" s="3"/>
       <c r="E273" s="1"/>
-      <c r="F273" s="11"/>
-      <c r="G273" s="11"/>
+      <c r="F273" s="14"/>
+      <c r="G273" s="14"/>
       <c r="H273" s="3"/>
       <c r="I273" s="3"/>
       <c r="J273" s="3"/>
@@ -4142,8 +4570,8 @@
     <row r="274" ht="16.5" spans="4:11">
       <c r="D274" s="3"/>
       <c r="E274" s="1"/>
-      <c r="F274" s="11"/>
-      <c r="G274" s="11"/>
+      <c r="F274" s="14"/>
+      <c r="G274" s="14"/>
       <c r="H274" s="3"/>
       <c r="I274" s="3"/>
       <c r="J274" s="3"/>
@@ -4152,8 +4580,8 @@
     <row r="275" ht="16.5" spans="4:11">
       <c r="D275" s="3"/>
       <c r="E275" s="1"/>
-      <c r="F275" s="11"/>
-      <c r="G275" s="11"/>
+      <c r="F275" s="14"/>
+      <c r="G275" s="14"/>
       <c r="H275" s="3"/>
       <c r="I275" s="3"/>
       <c r="J275" s="3"/>
@@ -4162,8 +4590,8 @@
     <row r="276" ht="16.5" spans="4:11">
       <c r="D276" s="3"/>
       <c r="E276" s="1"/>
-      <c r="F276" s="11"/>
-      <c r="G276" s="11"/>
+      <c r="F276" s="14"/>
+      <c r="G276" s="14"/>
       <c r="H276" s="3"/>
       <c r="I276" s="3"/>
       <c r="J276" s="3"/>
@@ -4172,8 +4600,8 @@
     <row r="277" ht="16.5" spans="4:11">
       <c r="D277" s="3"/>
       <c r="E277" s="1"/>
-      <c r="F277" s="11"/>
-      <c r="G277" s="11"/>
+      <c r="F277" s="14"/>
+      <c r="G277" s="14"/>
       <c r="H277" s="3"/>
       <c r="I277" s="3"/>
       <c r="J277" s="3"/>
@@ -4182,8 +4610,8 @@
     <row r="278" ht="16.5" spans="4:11">
       <c r="D278" s="3"/>
       <c r="E278" s="1"/>
-      <c r="F278" s="11"/>
-      <c r="G278" s="11"/>
+      <c r="F278" s="14"/>
+      <c r="G278" s="14"/>
       <c r="H278" s="3"/>
       <c r="I278" s="3"/>
       <c r="J278" s="3"/>
@@ -4192,8 +4620,8 @@
     <row r="279" ht="16.5" spans="4:11">
       <c r="D279" s="3"/>
       <c r="E279" s="1"/>
-      <c r="F279" s="11"/>
-      <c r="G279" s="11"/>
+      <c r="F279" s="14"/>
+      <c r="G279" s="14"/>
       <c r="H279" s="3"/>
       <c r="I279" s="3"/>
       <c r="J279" s="3"/>
@@ -4202,18 +4630,18 @@
     <row r="280" ht="16.5" spans="4:11">
       <c r="D280" s="3"/>
       <c r="E280" s="1"/>
-      <c r="F280" s="11"/>
-      <c r="G280" s="11"/>
+      <c r="F280" s="14"/>
+      <c r="G280" s="14"/>
       <c r="H280" s="3"/>
       <c r="I280" s="3"/>
       <c r="J280" s="3"/>
       <c r="K280" s="3"/>
     </row>
     <row r="281" ht="16.5" spans="4:11">
-      <c r="D281" s="8"/>
+      <c r="D281" s="11"/>
       <c r="E281" s="1"/>
-      <c r="F281" s="13"/>
-      <c r="G281" s="13"/>
+      <c r="F281" s="16"/>
+      <c r="G281" s="16"/>
       <c r="H281" s="3"/>
       <c r="I281" s="3"/>
       <c r="J281" s="3"/>
@@ -4222,8 +4650,8 @@
     <row r="282" ht="16.5" spans="4:11">
       <c r="D282" s="3"/>
       <c r="E282" s="1"/>
-      <c r="F282" s="13"/>
-      <c r="G282" s="13"/>
+      <c r="F282" s="16"/>
+      <c r="G282" s="16"/>
       <c r="H282" s="3"/>
       <c r="I282" s="3"/>
       <c r="J282" s="3"/>
@@ -4232,8 +4660,8 @@
     <row r="283" ht="16.5" spans="4:11">
       <c r="D283" s="3"/>
       <c r="E283" s="1"/>
-      <c r="F283" s="13"/>
-      <c r="G283" s="13"/>
+      <c r="F283" s="16"/>
+      <c r="G283" s="16"/>
       <c r="H283" s="3"/>
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
@@ -4242,8 +4670,8 @@
     <row r="284" ht="16.5" spans="4:11">
       <c r="D284" s="3"/>
       <c r="E284" s="1"/>
-      <c r="F284" s="13"/>
-      <c r="G284" s="13"/>
+      <c r="F284" s="16"/>
+      <c r="G284" s="16"/>
       <c r="H284" s="3"/>
       <c r="I284" s="3"/>
       <c r="J284" s="3"/>
@@ -4252,8 +4680,8 @@
     <row r="285" ht="16.5" spans="4:11">
       <c r="D285" s="3"/>
       <c r="E285" s="1"/>
-      <c r="F285" s="13"/>
-      <c r="G285" s="13"/>
+      <c r="F285" s="16"/>
+      <c r="G285" s="16"/>
       <c r="H285" s="3"/>
       <c r="I285" s="3"/>
       <c r="J285" s="3"/>
@@ -4262,8 +4690,8 @@
     <row r="286" ht="16.5" spans="4:11">
       <c r="D286" s="3"/>
       <c r="E286" s="1"/>
-      <c r="F286" s="13"/>
-      <c r="G286" s="13"/>
+      <c r="F286" s="16"/>
+      <c r="G286" s="16"/>
       <c r="H286" s="3"/>
       <c r="I286" s="3"/>
       <c r="J286" s="3"/>
@@ -4272,8 +4700,8 @@
     <row r="287" ht="16.5" spans="4:11">
       <c r="D287" s="3"/>
       <c r="E287" s="1"/>
-      <c r="F287" s="13"/>
-      <c r="G287" s="13"/>
+      <c r="F287" s="16"/>
+      <c r="G287" s="16"/>
       <c r="H287" s="3"/>
       <c r="I287" s="3"/>
       <c r="J287" s="3"/>
@@ -4282,8 +4710,8 @@
     <row r="288" ht="16.5" spans="4:11">
       <c r="D288" s="3"/>
       <c r="E288" s="1"/>
-      <c r="F288" s="13"/>
-      <c r="G288" s="13"/>
+      <c r="F288" s="16"/>
+      <c r="G288" s="16"/>
       <c r="H288" s="3"/>
       <c r="I288" s="3"/>
       <c r="J288" s="3"/>
@@ -4292,8 +4720,8 @@
     <row r="289" ht="16.5" spans="4:11">
       <c r="D289" s="3"/>
       <c r="E289" s="1"/>
-      <c r="F289" s="13"/>
-      <c r="G289" s="13"/>
+      <c r="F289" s="16"/>
+      <c r="G289" s="16"/>
       <c r="H289" s="3"/>
       <c r="I289" s="3"/>
       <c r="J289" s="3"/>
@@ -4302,8 +4730,8 @@
     <row r="290" ht="16.5" spans="4:11">
       <c r="D290" s="3"/>
       <c r="E290" s="1"/>
-      <c r="F290" s="13"/>
-      <c r="G290" s="13"/>
+      <c r="F290" s="16"/>
+      <c r="G290" s="16"/>
       <c r="H290" s="3"/>
       <c r="I290" s="3"/>
       <c r="J290" s="3"/>
@@ -4312,8 +4740,8 @@
     <row r="291" ht="16.5" spans="4:11">
       <c r="D291" s="3"/>
       <c r="E291" s="1"/>
-      <c r="F291" s="13"/>
-      <c r="G291" s="13"/>
+      <c r="F291" s="16"/>
+      <c r="G291" s="16"/>
       <c r="H291" s="3"/>
       <c r="I291" s="3"/>
       <c r="J291" s="3"/>
@@ -4322,8 +4750,8 @@
     <row r="292" ht="16.5" spans="4:11">
       <c r="D292" s="3"/>
       <c r="E292" s="1"/>
-      <c r="F292" s="13"/>
-      <c r="G292" s="13"/>
+      <c r="F292" s="16"/>
+      <c r="G292" s="16"/>
       <c r="H292" s="3"/>
       <c r="I292" s="3"/>
       <c r="J292" s="3"/>
@@ -4332,8 +4760,8 @@
     <row r="293" ht="16.5" spans="4:11">
       <c r="D293" s="3"/>
       <c r="E293" s="1"/>
-      <c r="F293" s="13"/>
-      <c r="G293" s="13"/>
+      <c r="F293" s="16"/>
+      <c r="G293" s="16"/>
       <c r="H293" s="3"/>
       <c r="I293" s="3"/>
       <c r="J293" s="3"/>
@@ -4342,8 +4770,8 @@
     <row r="294" ht="16.5" spans="4:11">
       <c r="D294" s="3"/>
       <c r="E294" s="1"/>
-      <c r="F294" s="13"/>
-      <c r="G294" s="13"/>
+      <c r="F294" s="16"/>
+      <c r="G294" s="16"/>
       <c r="H294" s="3"/>
       <c r="I294" s="3"/>
       <c r="J294" s="3"/>
@@ -4352,8 +4780,8 @@
     <row r="295" ht="16.5" spans="4:11">
       <c r="D295" s="3"/>
       <c r="E295" s="1"/>
-      <c r="F295" s="13"/>
-      <c r="G295" s="13"/>
+      <c r="F295" s="16"/>
+      <c r="G295" s="16"/>
       <c r="H295" s="3"/>
       <c r="I295" s="3"/>
       <c r="J295" s="3"/>
@@ -4362,8 +4790,8 @@
     <row r="296" ht="16.5" spans="4:11">
       <c r="D296" s="3"/>
       <c r="E296" s="1"/>
-      <c r="F296" s="13"/>
-      <c r="G296" s="13"/>
+      <c r="F296" s="16"/>
+      <c r="G296" s="16"/>
       <c r="H296" s="3"/>
       <c r="I296" s="3"/>
       <c r="J296" s="3"/>
@@ -4372,8 +4800,8 @@
     <row r="297" ht="16.5" spans="4:11">
       <c r="D297" s="3"/>
       <c r="E297" s="1"/>
-      <c r="F297" s="13"/>
-      <c r="G297" s="13"/>
+      <c r="F297" s="16"/>
+      <c r="G297" s="16"/>
       <c r="H297" s="3"/>
       <c r="I297" s="3"/>
       <c r="J297" s="3"/>
@@ -4382,8 +4810,8 @@
     <row r="298" ht="16.5" spans="4:11">
       <c r="D298" s="3"/>
       <c r="E298" s="1"/>
-      <c r="F298" s="13"/>
-      <c r="G298" s="13"/>
+      <c r="F298" s="16"/>
+      <c r="G298" s="16"/>
       <c r="H298" s="3"/>
       <c r="I298" s="3"/>
       <c r="J298" s="3"/>
@@ -4392,8 +4820,8 @@
     <row r="299" ht="16.5" spans="4:11">
       <c r="D299" s="3"/>
       <c r="E299" s="1"/>
-      <c r="F299" s="13"/>
-      <c r="G299" s="13"/>
+      <c r="F299" s="16"/>
+      <c r="G299" s="16"/>
       <c r="H299" s="3"/>
       <c r="I299" s="3"/>
       <c r="J299" s="3"/>
@@ -4402,8 +4830,8 @@
     <row r="300" ht="16.5" spans="4:11">
       <c r="D300" s="3"/>
       <c r="E300" s="1"/>
-      <c r="F300" s="13"/>
-      <c r="G300" s="13"/>
+      <c r="F300" s="16"/>
+      <c r="G300" s="16"/>
       <c r="H300" s="3"/>
       <c r="I300" s="3"/>
       <c r="J300" s="3"/>
@@ -4412,8 +4840,8 @@
     <row r="301" ht="16.5" spans="4:11">
       <c r="D301" s="3"/>
       <c r="E301" s="1"/>
-      <c r="F301" s="13"/>
-      <c r="G301" s="13"/>
+      <c r="F301" s="16"/>
+      <c r="G301" s="16"/>
       <c r="H301" s="3"/>
       <c r="I301" s="3"/>
       <c r="J301" s="3"/>
@@ -4422,8 +4850,8 @@
     <row r="302" ht="16.5" spans="4:11">
       <c r="D302" s="3"/>
       <c r="E302" s="1"/>
-      <c r="F302" s="13"/>
-      <c r="G302" s="13"/>
+      <c r="F302" s="16"/>
+      <c r="G302" s="16"/>
       <c r="H302" s="3"/>
       <c r="I302" s="3"/>
       <c r="J302" s="3"/>
@@ -4432,8 +4860,8 @@
     <row r="303" ht="16.5" spans="4:11">
       <c r="D303" s="3"/>
       <c r="E303" s="1"/>
-      <c r="F303" s="13"/>
-      <c r="G303" s="13"/>
+      <c r="F303" s="16"/>
+      <c r="G303" s="16"/>
       <c r="H303" s="3"/>
       <c r="I303" s="3"/>
       <c r="J303" s="3"/>
@@ -4442,8 +4870,8 @@
     <row r="304" ht="16.5" spans="4:11">
       <c r="D304" s="3"/>
       <c r="E304" s="1"/>
-      <c r="F304" s="13"/>
-      <c r="G304" s="13"/>
+      <c r="F304" s="16"/>
+      <c r="G304" s="16"/>
       <c r="H304" s="3"/>
       <c r="I304" s="3"/>
       <c r="J304" s="3"/>
@@ -4452,8 +4880,8 @@
     <row r="305" ht="16.5" spans="4:11">
       <c r="D305" s="3"/>
       <c r="E305" s="1"/>
-      <c r="F305" s="13"/>
-      <c r="G305" s="13"/>
+      <c r="F305" s="16"/>
+      <c r="G305" s="16"/>
       <c r="H305" s="3"/>
       <c r="I305" s="3"/>
       <c r="J305" s="3"/>
@@ -4462,8 +4890,8 @@
     <row r="306" ht="16.5" spans="4:11">
       <c r="D306" s="3"/>
       <c r="E306" s="1"/>
-      <c r="F306" s="13"/>
-      <c r="G306" s="13"/>
+      <c r="F306" s="16"/>
+      <c r="G306" s="16"/>
       <c r="H306" s="3"/>
       <c r="I306" s="3"/>
       <c r="J306" s="3"/>
@@ -4472,8 +4900,8 @@
     <row r="307" ht="16.5" spans="4:11">
       <c r="D307" s="3"/>
       <c r="E307" s="1"/>
-      <c r="F307" s="13"/>
-      <c r="G307" s="13"/>
+      <c r="F307" s="16"/>
+      <c r="G307" s="16"/>
       <c r="H307" s="3"/>
       <c r="I307" s="3"/>
       <c r="J307" s="3"/>
@@ -4482,8 +4910,8 @@
     <row r="308" ht="16.5" spans="4:11">
       <c r="D308" s="3"/>
       <c r="E308" s="1"/>
-      <c r="F308" s="13"/>
-      <c r="G308" s="13"/>
+      <c r="F308" s="16"/>
+      <c r="G308" s="16"/>
       <c r="H308" s="3"/>
       <c r="I308" s="3"/>
       <c r="J308" s="3"/>
@@ -4492,8 +4920,8 @@
     <row r="309" ht="16.5" spans="4:11">
       <c r="D309" s="3"/>
       <c r="E309" s="1"/>
-      <c r="F309" s="13"/>
-      <c r="G309" s="13"/>
+      <c r="F309" s="16"/>
+      <c r="G309" s="16"/>
       <c r="H309" s="3"/>
       <c r="I309" s="3"/>
       <c r="J309" s="3"/>
@@ -4502,8 +4930,8 @@
     <row r="310" ht="16.5" spans="4:11">
       <c r="D310" s="3"/>
       <c r="E310" s="1"/>
-      <c r="F310" s="13"/>
-      <c r="G310" s="13"/>
+      <c r="F310" s="16"/>
+      <c r="G310" s="16"/>
       <c r="H310" s="3"/>
       <c r="I310" s="3"/>
       <c r="J310" s="3"/>
@@ -4512,8 +4940,8 @@
     <row r="311" ht="16.5" spans="4:11">
       <c r="D311" s="3"/>
       <c r="E311" s="1"/>
-      <c r="F311" s="13"/>
-      <c r="G311" s="13"/>
+      <c r="F311" s="16"/>
+      <c r="G311" s="16"/>
       <c r="H311" s="3"/>
       <c r="I311" s="3"/>
       <c r="J311" s="3"/>
@@ -4522,8 +4950,8 @@
     <row r="312" ht="16.5" spans="4:11">
       <c r="D312" s="3"/>
       <c r="E312" s="1"/>
-      <c r="F312" s="13"/>
-      <c r="G312" s="13"/>
+      <c r="F312" s="16"/>
+      <c r="G312" s="16"/>
       <c r="H312" s="3"/>
       <c r="I312" s="3"/>
       <c r="J312" s="3"/>
@@ -4532,8 +4960,8 @@
     <row r="313" ht="16.5" spans="4:11">
       <c r="D313" s="3"/>
       <c r="E313" s="1"/>
-      <c r="F313" s="13"/>
-      <c r="G313" s="13"/>
+      <c r="F313" s="16"/>
+      <c r="G313" s="16"/>
       <c r="H313" s="3"/>
       <c r="I313" s="3"/>
       <c r="J313" s="3"/>
@@ -4542,8 +4970,8 @@
     <row r="314" ht="16.5" spans="4:11">
       <c r="D314" s="3"/>
       <c r="E314" s="1"/>
-      <c r="F314" s="13"/>
-      <c r="G314" s="13"/>
+      <c r="F314" s="16"/>
+      <c r="G314" s="16"/>
       <c r="H314" s="3"/>
       <c r="I314" s="3"/>
       <c r="J314" s="3"/>
@@ -4552,8 +4980,8 @@
     <row r="315" ht="16.5" spans="4:11">
       <c r="D315" s="3"/>
       <c r="E315" s="1"/>
-      <c r="F315" s="13"/>
-      <c r="G315" s="13"/>
+      <c r="F315" s="16"/>
+      <c r="G315" s="16"/>
       <c r="H315" s="3"/>
       <c r="I315" s="3"/>
       <c r="J315" s="3"/>
@@ -4562,8 +4990,8 @@
     <row r="316" ht="16.5" spans="4:11">
       <c r="D316" s="3"/>
       <c r="E316" s="1"/>
-      <c r="F316" s="13"/>
-      <c r="G316" s="13"/>
+      <c r="F316" s="16"/>
+      <c r="G316" s="16"/>
       <c r="H316" s="3"/>
       <c r="I316" s="3"/>
       <c r="J316" s="3"/>
@@ -4572,8 +5000,8 @@
     <row r="317" ht="16.5" spans="4:11">
       <c r="D317" s="3"/>
       <c r="E317" s="1"/>
-      <c r="F317" s="13"/>
-      <c r="G317" s="13"/>
+      <c r="F317" s="16"/>
+      <c r="G317" s="16"/>
       <c r="H317" s="3"/>
       <c r="I317" s="3"/>
       <c r="J317" s="3"/>
@@ -4582,8 +5010,8 @@
     <row r="318" ht="16.5" spans="4:11">
       <c r="D318" s="3"/>
       <c r="E318" s="1"/>
-      <c r="F318" s="13"/>
-      <c r="G318" s="13"/>
+      <c r="F318" s="16"/>
+      <c r="G318" s="16"/>
       <c r="H318" s="3"/>
       <c r="I318" s="3"/>
       <c r="J318" s="3"/>
@@ -4592,8 +5020,8 @@
     <row r="319" ht="16.5" spans="4:11">
       <c r="D319" s="3"/>
       <c r="E319" s="1"/>
-      <c r="F319" s="13"/>
-      <c r="G319" s="13"/>
+      <c r="F319" s="16"/>
+      <c r="G319" s="16"/>
       <c r="H319" s="3"/>
       <c r="I319" s="3"/>
       <c r="J319" s="3"/>
@@ -4602,8 +5030,8 @@
     <row r="320" ht="16.5" spans="4:11">
       <c r="D320" s="3"/>
       <c r="E320" s="1"/>
-      <c r="F320" s="13"/>
-      <c r="G320" s="13"/>
+      <c r="F320" s="16"/>
+      <c r="G320" s="16"/>
       <c r="H320" s="3"/>
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
@@ -4612,8 +5040,8 @@
     <row r="321" ht="16.5" spans="4:11">
       <c r="D321" s="3"/>
       <c r="E321" s="1"/>
-      <c r="F321" s="13"/>
-      <c r="G321" s="13"/>
+      <c r="F321" s="16"/>
+      <c r="G321" s="16"/>
       <c r="H321" s="3"/>
       <c r="I321" s="3"/>
       <c r="J321" s="3"/>
@@ -4622,8 +5050,8 @@
     <row r="322" ht="16.5" spans="4:11">
       <c r="D322" s="3"/>
       <c r="E322" s="1"/>
-      <c r="F322" s="13"/>
-      <c r="G322" s="13"/>
+      <c r="F322" s="16"/>
+      <c r="G322" s="16"/>
       <c r="H322" s="3"/>
       <c r="I322" s="3"/>
       <c r="J322" s="3"/>
@@ -4632,8 +5060,8 @@
     <row r="323" ht="16.5" spans="4:11">
       <c r="D323" s="3"/>
       <c r="E323" s="1"/>
-      <c r="F323" s="13"/>
-      <c r="G323" s="13"/>
+      <c r="F323" s="16"/>
+      <c r="G323" s="16"/>
       <c r="H323" s="3"/>
       <c r="I323" s="3"/>
       <c r="J323" s="3"/>
@@ -4642,8 +5070,8 @@
     <row r="324" ht="16.5" spans="4:11">
       <c r="D324" s="3"/>
       <c r="E324" s="1"/>
-      <c r="F324" s="13"/>
-      <c r="G324" s="13"/>
+      <c r="F324" s="16"/>
+      <c r="G324" s="16"/>
       <c r="H324" s="3"/>
       <c r="I324" s="3"/>
       <c r="J324" s="3"/>
@@ -4652,8 +5080,8 @@
     <row r="325" ht="16.5" spans="4:11">
       <c r="D325" s="3"/>
       <c r="E325" s="1"/>
-      <c r="F325" s="13"/>
-      <c r="G325" s="13"/>
+      <c r="F325" s="16"/>
+      <c r="G325" s="16"/>
       <c r="H325" s="3"/>
       <c r="I325" s="3"/>
       <c r="J325" s="3"/>
@@ -4662,8 +5090,8 @@
     <row r="326" ht="16.5" spans="4:11">
       <c r="D326" s="3"/>
       <c r="E326" s="1"/>
-      <c r="F326" s="13"/>
-      <c r="G326" s="13"/>
+      <c r="F326" s="16"/>
+      <c r="G326" s="16"/>
       <c r="H326" s="3"/>
       <c r="I326" s="3"/>
       <c r="J326" s="3"/>
@@ -4672,8 +5100,8 @@
     <row r="327" ht="16.5" spans="4:11">
       <c r="D327" s="3"/>
       <c r="E327" s="1"/>
-      <c r="F327" s="13"/>
-      <c r="G327" s="13"/>
+      <c r="F327" s="16"/>
+      <c r="G327" s="16"/>
       <c r="H327" s="3"/>
       <c r="I327" s="3"/>
       <c r="J327" s="3"/>
@@ -4682,8 +5110,8 @@
     <row r="328" ht="16.5" spans="4:11">
       <c r="D328" s="3"/>
       <c r="E328" s="1"/>
-      <c r="F328" s="13"/>
-      <c r="G328" s="13"/>
+      <c r="F328" s="16"/>
+      <c r="G328" s="16"/>
       <c r="H328" s="3"/>
       <c r="I328" s="3"/>
       <c r="J328" s="3"/>
@@ -4692,8 +5120,8 @@
     <row r="329" ht="16.5" spans="4:11">
       <c r="D329" s="3"/>
       <c r="E329" s="1"/>
-      <c r="F329" s="13"/>
-      <c r="G329" s="13"/>
+      <c r="F329" s="16"/>
+      <c r="G329" s="16"/>
       <c r="H329" s="3"/>
       <c r="I329" s="3"/>
       <c r="J329" s="3"/>
@@ -4702,8 +5130,8 @@
     <row r="330" ht="16.5" spans="4:11">
       <c r="D330" s="3"/>
       <c r="E330" s="1"/>
-      <c r="F330" s="13"/>
-      <c r="G330" s="13"/>
+      <c r="F330" s="16"/>
+      <c r="G330" s="16"/>
       <c r="H330" s="3"/>
       <c r="I330" s="3"/>
       <c r="J330" s="3"/>
@@ -4712,8 +5140,8 @@
     <row r="331" ht="16.5" spans="4:11">
       <c r="D331" s="3"/>
       <c r="E331" s="1"/>
-      <c r="F331" s="13"/>
-      <c r="G331" s="13"/>
+      <c r="F331" s="16"/>
+      <c r="G331" s="16"/>
       <c r="H331" s="3"/>
       <c r="I331" s="3"/>
       <c r="J331" s="3"/>
@@ -4722,8 +5150,8 @@
     <row r="332" ht="16.5" spans="4:11">
       <c r="D332" s="3"/>
       <c r="E332" s="1"/>
-      <c r="F332" s="13"/>
-      <c r="G332" s="13"/>
+      <c r="F332" s="16"/>
+      <c r="G332" s="16"/>
       <c r="H332" s="3"/>
       <c r="I332" s="3"/>
       <c r="J332" s="3"/>
@@ -4732,8 +5160,8 @@
     <row r="333" ht="16.5" spans="4:11">
       <c r="D333" s="3"/>
       <c r="E333" s="1"/>
-      <c r="F333" s="13"/>
-      <c r="G333" s="13"/>
+      <c r="F333" s="16"/>
+      <c r="G333" s="16"/>
       <c r="H333" s="3"/>
       <c r="I333" s="3"/>
       <c r="J333" s="3"/>
@@ -4742,8 +5170,8 @@
     <row r="334" ht="16.5" spans="4:11">
       <c r="D334" s="3"/>
       <c r="E334" s="1"/>
-      <c r="F334" s="13"/>
-      <c r="G334" s="13"/>
+      <c r="F334" s="16"/>
+      <c r="G334" s="16"/>
       <c r="H334" s="3"/>
       <c r="I334" s="3"/>
       <c r="J334" s="3"/>
@@ -4752,8 +5180,8 @@
     <row r="335" ht="16.5" spans="4:11">
       <c r="D335" s="3"/>
       <c r="E335" s="1"/>
-      <c r="F335" s="13"/>
-      <c r="G335" s="13"/>
+      <c r="F335" s="16"/>
+      <c r="G335" s="16"/>
       <c r="H335" s="3"/>
       <c r="I335" s="3"/>
       <c r="J335" s="3"/>
@@ -4762,8 +5190,8 @@
     <row r="336" ht="16.5" spans="4:11">
       <c r="D336" s="3"/>
       <c r="E336" s="1"/>
-      <c r="F336" s="13"/>
-      <c r="G336" s="13"/>
+      <c r="F336" s="16"/>
+      <c r="G336" s="16"/>
       <c r="H336" s="3"/>
       <c r="I336" s="3"/>
       <c r="J336" s="3"/>
@@ -4772,8 +5200,8 @@
     <row r="337" ht="16.5" spans="4:11">
       <c r="D337" s="3"/>
       <c r="E337" s="1"/>
-      <c r="F337" s="13"/>
-      <c r="G337" s="13"/>
+      <c r="F337" s="16"/>
+      <c r="G337" s="16"/>
       <c r="H337" s="3"/>
       <c r="I337" s="3"/>
       <c r="J337" s="3"/>
@@ -4782,8 +5210,8 @@
     <row r="338" ht="16.5" spans="4:11">
       <c r="D338" s="3"/>
       <c r="E338" s="1"/>
-      <c r="F338" s="13"/>
-      <c r="G338" s="13"/>
+      <c r="F338" s="16"/>
+      <c r="G338" s="16"/>
       <c r="H338" s="3"/>
       <c r="I338" s="3"/>
       <c r="J338" s="3"/>
@@ -4792,8 +5220,8 @@
     <row r="339" ht="16.5" spans="4:11">
       <c r="D339" s="3"/>
       <c r="E339" s="1"/>
-      <c r="F339" s="13"/>
-      <c r="G339" s="13"/>
+      <c r="F339" s="16"/>
+      <c r="G339" s="16"/>
       <c r="H339" s="3"/>
       <c r="I339" s="3"/>
       <c r="J339" s="3"/>
@@ -4802,8 +5230,8 @@
     <row r="340" ht="16.5" spans="4:11">
       <c r="D340" s="3"/>
       <c r="E340" s="1"/>
-      <c r="F340" s="13"/>
-      <c r="G340" s="13"/>
+      <c r="F340" s="16"/>
+      <c r="G340" s="16"/>
       <c r="H340" s="3"/>
       <c r="I340" s="3"/>
       <c r="J340" s="3"/>
@@ -4812,8 +5240,8 @@
     <row r="341" ht="16.5" spans="4:11">
       <c r="D341" s="3"/>
       <c r="E341" s="1"/>
-      <c r="F341" s="13"/>
-      <c r="G341" s="13"/>
+      <c r="F341" s="16"/>
+      <c r="G341" s="16"/>
       <c r="H341" s="3"/>
       <c r="I341" s="3"/>
       <c r="J341" s="3"/>
@@ -4822,8 +5250,8 @@
     <row r="342" ht="16.5" spans="4:11">
       <c r="D342" s="3"/>
       <c r="E342" s="1"/>
-      <c r="F342" s="13"/>
-      <c r="G342" s="13"/>
+      <c r="F342" s="16"/>
+      <c r="G342" s="16"/>
       <c r="H342" s="3"/>
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
@@ -4832,8 +5260,8 @@
     <row r="343" ht="16.5" spans="4:11">
       <c r="D343" s="3"/>
       <c r="E343" s="1"/>
-      <c r="F343" s="13"/>
-      <c r="G343" s="13"/>
+      <c r="F343" s="16"/>
+      <c r="G343" s="16"/>
       <c r="H343" s="3"/>
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
@@ -4842,8 +5270,8 @@
     <row r="344" ht="16.5" spans="4:11">
       <c r="D344" s="3"/>
       <c r="E344" s="1"/>
-      <c r="F344" s="13"/>
-      <c r="G344" s="13"/>
+      <c r="F344" s="16"/>
+      <c r="G344" s="16"/>
       <c r="H344" s="3"/>
       <c r="I344" s="3"/>
       <c r="J344" s="3"/>
@@ -4852,8 +5280,8 @@
     <row r="345" ht="16.5" spans="4:11">
       <c r="D345" s="3"/>
       <c r="E345" s="1"/>
-      <c r="F345" s="13"/>
-      <c r="G345" s="13"/>
+      <c r="F345" s="16"/>
+      <c r="G345" s="16"/>
       <c r="H345" s="3"/>
       <c r="I345" s="3"/>
       <c r="J345" s="3"/>
@@ -4862,8 +5290,8 @@
     <row r="346" ht="16.5" spans="4:11">
       <c r="D346" s="3"/>
       <c r="E346" s="1"/>
-      <c r="F346" s="13"/>
-      <c r="G346" s="13"/>
+      <c r="F346" s="16"/>
+      <c r="G346" s="16"/>
       <c r="H346" s="3"/>
       <c r="I346" s="3"/>
       <c r="J346" s="3"/>
@@ -4872,8 +5300,8 @@
     <row r="347" ht="16.5" spans="4:11">
       <c r="D347" s="3"/>
       <c r="E347" s="1"/>
-      <c r="F347" s="13"/>
-      <c r="G347" s="13"/>
+      <c r="F347" s="16"/>
+      <c r="G347" s="16"/>
       <c r="H347" s="3"/>
       <c r="I347" s="3"/>
       <c r="J347" s="3"/>
@@ -4882,8 +5310,8 @@
     <row r="348" ht="16.5" spans="4:11">
       <c r="D348" s="3"/>
       <c r="E348" s="1"/>
-      <c r="F348" s="13"/>
-      <c r="G348" s="13"/>
+      <c r="F348" s="16"/>
+      <c r="G348" s="16"/>
       <c r="H348" s="3"/>
       <c r="I348" s="3"/>
       <c r="J348" s="3"/>
@@ -4892,8 +5320,8 @@
     <row r="349" ht="16.5" spans="4:11">
       <c r="D349" s="3"/>
       <c r="E349" s="1"/>
-      <c r="F349" s="13"/>
-      <c r="G349" s="13"/>
+      <c r="F349" s="16"/>
+      <c r="G349" s="16"/>
       <c r="H349" s="3"/>
       <c r="I349" s="3"/>
       <c r="J349" s="3"/>
@@ -4902,8 +5330,8 @@
     <row r="350" ht="16.5" spans="4:11">
       <c r="D350" s="3"/>
       <c r="E350" s="1"/>
-      <c r="F350" s="13"/>
-      <c r="G350" s="13"/>
+      <c r="F350" s="16"/>
+      <c r="G350" s="16"/>
       <c r="H350" s="3"/>
       <c r="I350" s="3"/>
       <c r="J350" s="3"/>
@@ -4912,8 +5340,8 @@
     <row r="351" ht="16.5" spans="4:11">
       <c r="D351" s="3"/>
       <c r="E351" s="1"/>
-      <c r="F351" s="13"/>
-      <c r="G351" s="13"/>
+      <c r="F351" s="16"/>
+      <c r="G351" s="16"/>
       <c r="H351" s="3"/>
       <c r="I351" s="3"/>
       <c r="J351" s="3"/>
@@ -4922,8 +5350,8 @@
     <row r="352" ht="16.5" spans="4:11">
       <c r="D352" s="3"/>
       <c r="E352" s="1"/>
-      <c r="F352" s="13"/>
-      <c r="G352" s="13"/>
+      <c r="F352" s="16"/>
+      <c r="G352" s="16"/>
       <c r="H352" s="3"/>
       <c r="I352" s="3"/>
       <c r="J352" s="3"/>
@@ -4932,8 +5360,8 @@
     <row r="353" ht="16.5" spans="4:11">
       <c r="D353" s="3"/>
       <c r="E353" s="1"/>
-      <c r="F353" s="13"/>
-      <c r="G353" s="13"/>
+      <c r="F353" s="16"/>
+      <c r="G353" s="16"/>
       <c r="H353" s="3"/>
       <c r="I353" s="3"/>
       <c r="J353" s="3"/>
@@ -4942,8 +5370,8 @@
     <row r="354" ht="16.5" spans="4:11">
       <c r="D354" s="3"/>
       <c r="E354" s="1"/>
-      <c r="F354" s="13"/>
-      <c r="G354" s="13"/>
+      <c r="F354" s="16"/>
+      <c r="G354" s="16"/>
       <c r="H354" s="3"/>
       <c r="I354" s="3"/>
       <c r="J354" s="3"/>
@@ -4952,8 +5380,8 @@
     <row r="355" ht="16.5" spans="4:11">
       <c r="D355" s="3"/>
       <c r="E355" s="1"/>
-      <c r="F355" s="13"/>
-      <c r="G355" s="13"/>
+      <c r="F355" s="16"/>
+      <c r="G355" s="16"/>
       <c r="H355" s="3"/>
       <c r="I355" s="3"/>
       <c r="J355" s="3"/>
@@ -4962,8 +5390,8 @@
     <row r="356" ht="16.5" spans="4:11">
       <c r="D356" s="3"/>
       <c r="E356" s="1"/>
-      <c r="F356" s="11"/>
-      <c r="G356" s="11"/>
+      <c r="F356" s="14"/>
+      <c r="G356" s="14"/>
       <c r="H356" s="3"/>
       <c r="I356" s="3"/>
       <c r="J356" s="3"/>
@@ -4972,8 +5400,8 @@
     <row r="357" ht="16.5" spans="4:11">
       <c r="D357" s="3"/>
       <c r="E357" s="1"/>
-      <c r="F357" s="11"/>
-      <c r="G357" s="11"/>
+      <c r="F357" s="14"/>
+      <c r="G357" s="14"/>
       <c r="H357" s="3"/>
       <c r="I357" s="3"/>
       <c r="J357" s="3"/>
@@ -4982,8 +5410,8 @@
     <row r="358" ht="16.5" spans="4:11">
       <c r="D358" s="3"/>
       <c r="E358" s="1"/>
-      <c r="F358" s="11"/>
-      <c r="G358" s="11"/>
+      <c r="F358" s="14"/>
+      <c r="G358" s="14"/>
       <c r="H358" s="3"/>
       <c r="I358" s="3"/>
       <c r="J358" s="3"/>
@@ -4992,8 +5420,8 @@
     <row r="359" ht="16.5" spans="4:11">
       <c r="D359" s="3"/>
       <c r="E359" s="1"/>
-      <c r="F359" s="11"/>
-      <c r="G359" s="11"/>
+      <c r="F359" s="14"/>
+      <c r="G359" s="14"/>
       <c r="H359" s="3"/>
       <c r="I359" s="3"/>
       <c r="J359" s="3"/>
@@ -5002,58 +5430,58 @@
     <row r="360" ht="16.5" spans="4:11">
       <c r="D360" s="3"/>
       <c r="E360" s="1"/>
-      <c r="F360" s="11"/>
-      <c r="G360" s="11"/>
+      <c r="F360" s="14"/>
+      <c r="G360" s="14"/>
       <c r="H360" s="3"/>
       <c r="I360" s="3"/>
       <c r="J360" s="3"/>
       <c r="K360" s="3"/>
     </row>
     <row r="361" ht="16.5" spans="4:11">
-      <c r="D361" s="6"/>
+      <c r="D361" s="7"/>
       <c r="E361" s="1"/>
-      <c r="F361" s="11"/>
-      <c r="G361" s="11"/>
+      <c r="F361" s="14"/>
+      <c r="G361" s="14"/>
       <c r="H361" s="3"/>
       <c r="I361" s="3"/>
       <c r="J361" s="3"/>
       <c r="K361" s="3"/>
     </row>
     <row r="362" ht="16.5" spans="4:11">
-      <c r="D362" s="6"/>
+      <c r="D362" s="7"/>
       <c r="E362" s="1"/>
-      <c r="F362" s="11"/>
-      <c r="G362" s="11"/>
+      <c r="F362" s="14"/>
+      <c r="G362" s="14"/>
       <c r="H362" s="3"/>
       <c r="I362" s="3"/>
       <c r="J362" s="3"/>
       <c r="K362" s="3"/>
     </row>
     <row r="363" ht="16.5" spans="4:11">
-      <c r="D363" s="6"/>
+      <c r="D363" s="7"/>
       <c r="E363" s="1"/>
-      <c r="F363" s="11"/>
-      <c r="G363" s="11"/>
+      <c r="F363" s="14"/>
+      <c r="G363" s="14"/>
       <c r="H363" s="3"/>
       <c r="I363" s="3"/>
       <c r="J363" s="3"/>
       <c r="K363" s="3"/>
     </row>
     <row r="364" ht="16.5" spans="4:11">
-      <c r="D364" s="6"/>
+      <c r="D364" s="7"/>
       <c r="E364" s="1"/>
-      <c r="F364" s="11"/>
-      <c r="G364" s="11"/>
+      <c r="F364" s="14"/>
+      <c r="G364" s="14"/>
       <c r="H364" s="3"/>
       <c r="I364" s="3"/>
       <c r="J364" s="3"/>
       <c r="K364" s="3"/>
     </row>
     <row r="365" ht="16.5" spans="4:11">
-      <c r="D365" s="8"/>
+      <c r="D365" s="11"/>
       <c r="E365" s="1"/>
-      <c r="F365" s="11"/>
-      <c r="G365" s="11"/>
+      <c r="F365" s="14"/>
+      <c r="G365" s="14"/>
       <c r="H365" s="3"/>
       <c r="I365" s="3"/>
       <c r="J365" s="3"/>
@@ -5062,8 +5490,8 @@
     <row r="366" ht="16.5" spans="4:11">
       <c r="D366" s="3"/>
       <c r="E366" s="1"/>
-      <c r="F366" s="11"/>
-      <c r="G366" s="11"/>
+      <c r="F366" s="14"/>
+      <c r="G366" s="14"/>
       <c r="H366" s="3"/>
       <c r="I366" s="3"/>
       <c r="J366" s="3"/>
@@ -5072,8 +5500,8 @@
     <row r="367" ht="16.5" spans="4:11">
       <c r="D367" s="3"/>
       <c r="E367" s="1"/>
-      <c r="F367" s="11"/>
-      <c r="G367" s="11"/>
+      <c r="F367" s="14"/>
+      <c r="G367" s="14"/>
       <c r="H367" s="3"/>
       <c r="I367" s="3"/>
       <c r="J367" s="3"/>
@@ -5082,8 +5510,8 @@
     <row r="368" ht="16.5" spans="4:11">
       <c r="D368" s="3"/>
       <c r="E368" s="1"/>
-      <c r="F368" s="11"/>
-      <c r="G368" s="11"/>
+      <c r="F368" s="14"/>
+      <c r="G368" s="14"/>
       <c r="H368" s="3"/>
       <c r="I368" s="3"/>
       <c r="J368" s="3"/>
@@ -5092,8 +5520,8 @@
     <row r="369" ht="16.5" spans="4:11">
       <c r="D369" s="3"/>
       <c r="E369" s="1"/>
-      <c r="F369" s="11"/>
-      <c r="G369" s="11"/>
+      <c r="F369" s="14"/>
+      <c r="G369" s="14"/>
       <c r="H369" s="3"/>
       <c r="I369" s="3"/>
       <c r="J369" s="3"/>
@@ -5102,8 +5530,8 @@
     <row r="370" ht="16.5" spans="4:11">
       <c r="D370" s="3"/>
       <c r="E370" s="1"/>
-      <c r="F370" s="11"/>
-      <c r="G370" s="11"/>
+      <c r="F370" s="14"/>
+      <c r="G370" s="14"/>
       <c r="H370" s="3"/>
       <c r="I370" s="3"/>
       <c r="J370" s="3"/>
@@ -5112,8 +5540,8 @@
     <row r="371" ht="16.5" spans="4:11">
       <c r="D371" s="3"/>
       <c r="E371" s="1"/>
-      <c r="F371" s="11"/>
-      <c r="G371" s="11"/>
+      <c r="F371" s="14"/>
+      <c r="G371" s="14"/>
       <c r="H371" s="3"/>
       <c r="I371" s="3"/>
       <c r="J371" s="3"/>
@@ -5122,8 +5550,8 @@
     <row r="372" ht="16.5" spans="4:11">
       <c r="D372" s="3"/>
       <c r="E372" s="1"/>
-      <c r="F372" s="13"/>
-      <c r="G372" s="13"/>
+      <c r="F372" s="16"/>
+      <c r="G372" s="16"/>
       <c r="H372" s="3"/>
       <c r="I372" s="3"/>
       <c r="J372" s="3"/>
@@ -5132,8 +5560,8 @@
     <row r="373" ht="16.5" spans="4:11">
       <c r="D373" s="3"/>
       <c r="E373" s="1"/>
-      <c r="F373" s="13"/>
-      <c r="G373" s="13"/>
+      <c r="F373" s="16"/>
+      <c r="G373" s="16"/>
       <c r="H373" s="3"/>
       <c r="I373" s="3"/>
       <c r="J373" s="3"/>
@@ -5142,8 +5570,8 @@
     <row r="374" ht="16.5" spans="4:11">
       <c r="D374" s="3"/>
       <c r="E374" s="1"/>
-      <c r="F374" s="11"/>
-      <c r="G374" s="11"/>
+      <c r="F374" s="14"/>
+      <c r="G374" s="14"/>
       <c r="H374" s="3"/>
       <c r="I374" s="3"/>
       <c r="J374" s="3"/>
@@ -5152,8 +5580,8 @@
     <row r="375" ht="16.5" spans="4:11">
       <c r="D375" s="3"/>
       <c r="E375" s="1"/>
-      <c r="F375" s="11"/>
-      <c r="G375" s="11"/>
+      <c r="F375" s="14"/>
+      <c r="G375" s="14"/>
       <c r="H375" s="3"/>
       <c r="I375" s="3"/>
       <c r="J375" s="3"/>
@@ -5162,8 +5590,8 @@
     <row r="376" ht="16.5" spans="4:11">
       <c r="D376" s="3"/>
       <c r="E376" s="1"/>
-      <c r="F376" s="11"/>
-      <c r="G376" s="11"/>
+      <c r="F376" s="14"/>
+      <c r="G376" s="14"/>
       <c r="H376" s="3"/>
       <c r="I376" s="3"/>
       <c r="J376" s="3"/>
@@ -5172,8 +5600,8 @@
     <row r="377" ht="16.5" spans="4:11">
       <c r="D377" s="3"/>
       <c r="E377" s="1"/>
-      <c r="F377" s="11"/>
-      <c r="G377" s="11"/>
+      <c r="F377" s="14"/>
+      <c r="G377" s="14"/>
       <c r="H377" s="3"/>
       <c r="I377" s="3"/>
       <c r="J377" s="3"/>
@@ -5182,18 +5610,18 @@
     <row r="378" ht="16.5" spans="4:11">
       <c r="D378" s="3"/>
       <c r="E378" s="1"/>
-      <c r="F378" s="11"/>
-      <c r="G378" s="11"/>
+      <c r="F378" s="14"/>
+      <c r="G378" s="14"/>
       <c r="H378" s="3"/>
       <c r="I378" s="3"/>
       <c r="J378" s="3"/>
       <c r="K378" s="3"/>
     </row>
     <row r="379" ht="16.5" spans="4:11">
-      <c r="D379" s="6"/>
+      <c r="D379" s="7"/>
       <c r="E379" s="1"/>
-      <c r="F379" s="11"/>
-      <c r="G379" s="11"/>
+      <c r="F379" s="14"/>
+      <c r="G379" s="14"/>
       <c r="H379" s="3"/>
       <c r="I379" s="3"/>
       <c r="J379" s="3"/>
@@ -5202,8 +5630,8 @@
     <row r="380" ht="16.5" spans="4:11">
       <c r="D380" s="3"/>
       <c r="E380" s="1"/>
-      <c r="F380" s="11"/>
-      <c r="G380" s="11"/>
+      <c r="F380" s="14"/>
+      <c r="G380" s="14"/>
       <c r="H380" s="3"/>
       <c r="I380" s="3"/>
       <c r="J380" s="3"/>
@@ -5212,8 +5640,8 @@
     <row r="381" ht="16.5" spans="4:11">
       <c r="D381" s="3"/>
       <c r="E381" s="1"/>
-      <c r="F381" s="11"/>
-      <c r="G381" s="11"/>
+      <c r="F381" s="14"/>
+      <c r="G381" s="14"/>
       <c r="H381" s="3"/>
       <c r="I381" s="3"/>
       <c r="J381" s="3"/>
@@ -5222,8 +5650,8 @@
     <row r="382" ht="16.5" spans="4:11">
       <c r="D382" s="3"/>
       <c r="E382" s="1"/>
-      <c r="F382" s="11"/>
-      <c r="G382" s="11"/>
+      <c r="F382" s="14"/>
+      <c r="G382" s="14"/>
       <c r="H382" s="3"/>
       <c r="I382" s="3"/>
       <c r="J382" s="3"/>
@@ -5232,8 +5660,8 @@
     <row r="383" ht="16.5" spans="4:11">
       <c r="D383" s="3"/>
       <c r="E383" s="1"/>
-      <c r="F383" s="11"/>
-      <c r="G383" s="11"/>
+      <c r="F383" s="14"/>
+      <c r="G383" s="14"/>
       <c r="H383" s="3"/>
       <c r="I383" s="3"/>
       <c r="J383" s="3"/>
@@ -5242,8 +5670,8 @@
     <row r="384" ht="16.5" spans="4:11">
       <c r="D384" s="3"/>
       <c r="E384" s="1"/>
-      <c r="F384" s="11"/>
-      <c r="G384" s="11"/>
+      <c r="F384" s="14"/>
+      <c r="G384" s="14"/>
       <c r="H384" s="3"/>
       <c r="I384" s="3"/>
       <c r="J384" s="3"/>
@@ -5252,8 +5680,8 @@
     <row r="385" ht="16.5" spans="4:11">
       <c r="D385" s="3"/>
       <c r="E385" s="1"/>
-      <c r="F385" s="11"/>
-      <c r="G385" s="11"/>
+      <c r="F385" s="14"/>
+      <c r="G385" s="14"/>
       <c r="H385" s="3"/>
       <c r="I385" s="3"/>
       <c r="J385" s="3"/>
@@ -5262,8 +5690,8 @@
     <row r="386" ht="16.5" spans="4:11">
       <c r="D386" s="3"/>
       <c r="E386" s="1"/>
-      <c r="F386" s="11"/>
-      <c r="G386" s="11"/>
+      <c r="F386" s="14"/>
+      <c r="G386" s="14"/>
       <c r="H386" s="3"/>
       <c r="I386" s="3"/>
       <c r="J386" s="3"/>
@@ -5272,18 +5700,18 @@
     <row r="387" ht="16.5" spans="4:11">
       <c r="D387" s="3"/>
       <c r="E387" s="1"/>
-      <c r="F387" s="11"/>
-      <c r="G387" s="11"/>
+      <c r="F387" s="14"/>
+      <c r="G387" s="14"/>
       <c r="H387" s="3"/>
       <c r="I387" s="3"/>
       <c r="J387" s="3"/>
       <c r="K387" s="3"/>
     </row>
     <row r="388" ht="16.5" spans="4:11">
-      <c r="D388" s="6"/>
+      <c r="D388" s="7"/>
       <c r="E388" s="1"/>
-      <c r="F388" s="11"/>
-      <c r="G388" s="11"/>
+      <c r="F388" s="14"/>
+      <c r="G388" s="14"/>
       <c r="H388" s="3"/>
       <c r="I388" s="3"/>
       <c r="J388" s="3"/>
@@ -5292,8 +5720,8 @@
     <row r="389" ht="16.5" spans="4:11">
       <c r="D389" s="3"/>
       <c r="E389" s="1"/>
-      <c r="F389" s="11"/>
-      <c r="G389" s="11"/>
+      <c r="F389" s="14"/>
+      <c r="G389" s="14"/>
       <c r="H389" s="3"/>
       <c r="I389" s="3"/>
       <c r="J389" s="3"/>
@@ -5302,8 +5730,8 @@
     <row r="390" ht="16.5" spans="4:11">
       <c r="D390" s="3"/>
       <c r="E390" s="1"/>
-      <c r="F390" s="11"/>
-      <c r="G390" s="11"/>
+      <c r="F390" s="14"/>
+      <c r="G390" s="14"/>
       <c r="H390" s="3"/>
       <c r="I390" s="3"/>
       <c r="J390" s="3"/>
@@ -5312,8 +5740,8 @@
     <row r="391" ht="16.5" spans="4:11">
       <c r="D391" s="3"/>
       <c r="E391" s="1"/>
-      <c r="F391" s="11"/>
-      <c r="G391" s="11"/>
+      <c r="F391" s="14"/>
+      <c r="G391" s="14"/>
       <c r="H391" s="3"/>
       <c r="I391" s="3"/>
       <c r="J391" s="3"/>
@@ -5322,8 +5750,8 @@
     <row r="392" ht="16.5" spans="4:11">
       <c r="D392" s="3"/>
       <c r="E392" s="1"/>
-      <c r="F392" s="11"/>
-      <c r="G392" s="11"/>
+      <c r="F392" s="14"/>
+      <c r="G392" s="14"/>
       <c r="H392" s="3"/>
       <c r="I392" s="3"/>
       <c r="J392" s="3"/>
@@ -5332,8 +5760,8 @@
     <row r="393" ht="16.5" spans="4:11">
       <c r="D393" s="3"/>
       <c r="E393" s="1"/>
-      <c r="F393" s="11"/>
-      <c r="G393" s="11"/>
+      <c r="F393" s="14"/>
+      <c r="G393" s="14"/>
       <c r="H393" s="3"/>
       <c r="I393" s="3"/>
       <c r="J393" s="3"/>
@@ -5342,8 +5770,8 @@
     <row r="394" ht="16.5" spans="4:11">
       <c r="D394" s="3"/>
       <c r="E394" s="1"/>
-      <c r="F394" s="11"/>
-      <c r="G394" s="11"/>
+      <c r="F394" s="14"/>
+      <c r="G394" s="14"/>
       <c r="H394" s="3"/>
       <c r="I394" s="3"/>
       <c r="J394" s="3"/>
@@ -5352,8 +5780,8 @@
     <row r="395" ht="16.5" spans="4:11">
       <c r="D395" s="3"/>
       <c r="E395" s="1"/>
-      <c r="F395" s="11"/>
-      <c r="G395" s="11"/>
+      <c r="F395" s="14"/>
+      <c r="G395" s="14"/>
       <c r="H395" s="3"/>
       <c r="I395" s="3"/>
       <c r="J395" s="3"/>
@@ -5362,28 +5790,28 @@
     <row r="396" ht="16.5" spans="4:11">
       <c r="D396" s="3"/>
       <c r="E396" s="1"/>
-      <c r="F396" s="11"/>
-      <c r="G396" s="11"/>
+      <c r="F396" s="14"/>
+      <c r="G396" s="14"/>
       <c r="H396" s="3"/>
       <c r="I396" s="3"/>
       <c r="J396" s="3"/>
       <c r="K396" s="3"/>
     </row>
     <row r="397" ht="16.5" spans="4:11">
-      <c r="D397" s="6"/>
+      <c r="D397" s="7"/>
       <c r="E397" s="1"/>
-      <c r="F397" s="11"/>
-      <c r="G397" s="11"/>
+      <c r="F397" s="14"/>
+      <c r="G397" s="14"/>
       <c r="H397" s="3"/>
       <c r="I397" s="3"/>
       <c r="J397" s="3"/>
       <c r="K397" s="3"/>
     </row>
     <row r="398" ht="16.5" spans="4:11">
-      <c r="D398" s="18"/>
+      <c r="D398" s="21"/>
       <c r="E398" s="1"/>
-      <c r="F398" s="11"/>
-      <c r="G398" s="11"/>
+      <c r="F398" s="14"/>
+      <c r="G398" s="14"/>
       <c r="H398" s="3"/>
       <c r="I398" s="3"/>
       <c r="J398" s="3"/>
@@ -5392,8 +5820,8 @@
     <row r="399" ht="16.5" spans="4:11">
       <c r="D399" s="3"/>
       <c r="E399" s="1"/>
-      <c r="F399" s="11"/>
-      <c r="G399" s="11"/>
+      <c r="F399" s="14"/>
+      <c r="G399" s="14"/>
       <c r="H399" s="3"/>
       <c r="I399" s="3"/>
       <c r="J399" s="3"/>
@@ -5402,38 +5830,38 @@
     <row r="400" ht="16.5" spans="4:11">
       <c r="D400" s="3"/>
       <c r="E400" s="1"/>
-      <c r="F400" s="11"/>
-      <c r="G400" s="11"/>
+      <c r="F400" s="14"/>
+      <c r="G400" s="14"/>
       <c r="H400" s="3"/>
       <c r="I400" s="3"/>
       <c r="J400" s="3"/>
       <c r="K400" s="3"/>
     </row>
     <row r="401" ht="16.5" spans="4:11">
-      <c r="D401" s="8"/>
+      <c r="D401" s="11"/>
       <c r="E401" s="1"/>
-      <c r="F401" s="11"/>
-      <c r="G401" s="11"/>
+      <c r="F401" s="14"/>
+      <c r="G401" s="14"/>
       <c r="H401" s="3"/>
       <c r="I401" s="3"/>
       <c r="J401" s="3"/>
       <c r="K401" s="3"/>
     </row>
     <row r="402" ht="16.5" spans="4:11">
-      <c r="D402" s="6"/>
+      <c r="D402" s="7"/>
       <c r="E402" s="1"/>
-      <c r="F402" s="11"/>
-      <c r="G402" s="11"/>
+      <c r="F402" s="14"/>
+      <c r="G402" s="14"/>
       <c r="H402" s="3"/>
       <c r="I402" s="3"/>
       <c r="J402" s="3"/>
       <c r="K402" s="3"/>
     </row>
     <row r="403" ht="16.5" spans="4:11">
-      <c r="D403" s="6"/>
+      <c r="D403" s="7"/>
       <c r="E403" s="1"/>
-      <c r="F403" s="11"/>
-      <c r="G403" s="11"/>
+      <c r="F403" s="14"/>
+      <c r="G403" s="14"/>
       <c r="H403" s="3"/>
       <c r="I403" s="3"/>
       <c r="J403" s="3"/>
@@ -5442,8 +5870,8 @@
     <row r="404" ht="16.5" spans="4:11">
       <c r="D404" s="3"/>
       <c r="E404" s="1"/>
-      <c r="F404" s="11"/>
-      <c r="G404" s="11"/>
+      <c r="F404" s="14"/>
+      <c r="G404" s="14"/>
       <c r="H404" s="3"/>
       <c r="I404" s="3"/>
       <c r="J404" s="3"/>
@@ -5452,8 +5880,8 @@
     <row r="405" ht="16.5" spans="4:11">
       <c r="D405" s="3"/>
       <c r="E405" s="1"/>
-      <c r="F405" s="11"/>
-      <c r="G405" s="11"/>
+      <c r="F405" s="14"/>
+      <c r="G405" s="14"/>
       <c r="H405" s="3"/>
       <c r="I405" s="3"/>
       <c r="J405" s="3"/>
@@ -5462,8 +5890,8 @@
     <row r="406" ht="16.5" spans="4:11">
       <c r="D406" s="3"/>
       <c r="E406" s="1"/>
-      <c r="F406" s="11"/>
-      <c r="G406" s="11"/>
+      <c r="F406" s="14"/>
+      <c r="G406" s="14"/>
       <c r="H406" s="3"/>
       <c r="I406" s="3"/>
       <c r="J406" s="3"/>
@@ -5472,8 +5900,8 @@
     <row r="407" ht="16.5" spans="4:11">
       <c r="D407" s="3"/>
       <c r="E407" s="1"/>
-      <c r="F407" s="11"/>
-      <c r="G407" s="11"/>
+      <c r="F407" s="14"/>
+      <c r="G407" s="14"/>
       <c r="H407" s="3"/>
       <c r="I407" s="3"/>
       <c r="J407" s="3"/>
@@ -5482,8 +5910,8 @@
     <row r="408" ht="16.5" spans="4:11">
       <c r="D408" s="3"/>
       <c r="E408" s="1"/>
-      <c r="F408" s="11"/>
-      <c r="G408" s="11"/>
+      <c r="F408" s="14"/>
+      <c r="G408" s="14"/>
       <c r="H408" s="3"/>
       <c r="I408" s="3"/>
       <c r="J408" s="3"/>
@@ -5492,8 +5920,8 @@
     <row r="409" ht="16.5" spans="4:11">
       <c r="D409" s="3"/>
       <c r="E409" s="1"/>
-      <c r="F409" s="11"/>
-      <c r="G409" s="11"/>
+      <c r="F409" s="14"/>
+      <c r="G409" s="14"/>
       <c r="H409" s="3"/>
       <c r="I409" s="3"/>
       <c r="J409" s="3"/>
@@ -5502,8 +5930,8 @@
     <row r="410" ht="16.5" spans="4:11">
       <c r="D410" s="3"/>
       <c r="E410" s="1"/>
-      <c r="F410" s="11"/>
-      <c r="G410" s="11"/>
+      <c r="F410" s="14"/>
+      <c r="G410" s="14"/>
       <c r="H410" s="3"/>
       <c r="I410" s="3"/>
       <c r="J410" s="3"/>
@@ -5512,8 +5940,8 @@
     <row r="411" ht="16.5" spans="4:11">
       <c r="D411" s="3"/>
       <c r="E411" s="1"/>
-      <c r="F411" s="11"/>
-      <c r="G411" s="11"/>
+      <c r="F411" s="14"/>
+      <c r="G411" s="14"/>
       <c r="H411" s="3"/>
       <c r="I411" s="3"/>
       <c r="J411" s="3"/>
@@ -5522,8 +5950,8 @@
     <row r="412" ht="16.5" spans="4:11">
       <c r="D412" s="3"/>
       <c r="E412" s="1"/>
-      <c r="F412" s="11"/>
-      <c r="G412" s="11"/>
+      <c r="F412" s="14"/>
+      <c r="G412" s="14"/>
       <c r="H412" s="3"/>
       <c r="I412" s="3"/>
       <c r="J412" s="3"/>
@@ -5532,8 +5960,8 @@
     <row r="413" ht="16.5" spans="4:11">
       <c r="D413" s="3"/>
       <c r="E413" s="1"/>
-      <c r="F413" s="11"/>
-      <c r="G413" s="11"/>
+      <c r="F413" s="14"/>
+      <c r="G413" s="14"/>
       <c r="H413" s="3"/>
       <c r="I413" s="3"/>
       <c r="J413" s="3"/>
@@ -5542,8 +5970,8 @@
     <row r="414" ht="16.5" spans="4:11">
       <c r="D414" s="3"/>
       <c r="E414" s="1"/>
-      <c r="F414" s="11"/>
-      <c r="G414" s="11"/>
+      <c r="F414" s="14"/>
+      <c r="G414" s="14"/>
       <c r="H414" s="3"/>
       <c r="I414" s="3"/>
       <c r="J414" s="3"/>
@@ -5552,8 +5980,8 @@
     <row r="415" ht="16.5" spans="4:11">
       <c r="D415" s="3"/>
       <c r="E415" s="1"/>
-      <c r="F415" s="11"/>
-      <c r="G415" s="11"/>
+      <c r="F415" s="14"/>
+      <c r="G415" s="14"/>
       <c r="H415" s="3"/>
       <c r="I415" s="3"/>
       <c r="J415" s="3"/>
@@ -5562,8 +5990,8 @@
     <row r="416" ht="16.5" spans="4:11">
       <c r="D416" s="3"/>
       <c r="E416" s="1"/>
-      <c r="F416" s="11"/>
-      <c r="G416" s="11"/>
+      <c r="F416" s="14"/>
+      <c r="G416" s="14"/>
       <c r="H416" s="3"/>
       <c r="I416" s="3"/>
       <c r="J416" s="3"/>
@@ -5572,8 +6000,8 @@
     <row r="417" ht="16.5" spans="4:11">
       <c r="D417" s="3"/>
       <c r="E417" s="1"/>
-      <c r="F417" s="11"/>
-      <c r="G417" s="11"/>
+      <c r="F417" s="14"/>
+      <c r="G417" s="14"/>
       <c r="H417" s="3"/>
       <c r="I417" s="3"/>
       <c r="J417" s="3"/>
@@ -5582,8 +6010,8 @@
     <row r="418" ht="16.5" spans="4:11">
       <c r="D418" s="3"/>
       <c r="E418" s="1"/>
-      <c r="F418" s="11"/>
-      <c r="G418" s="11"/>
+      <c r="F418" s="14"/>
+      <c r="G418" s="14"/>
       <c r="H418" s="3"/>
       <c r="I418" s="3"/>
       <c r="J418" s="3"/>
@@ -5592,8 +6020,8 @@
     <row r="419" ht="16.5" spans="4:11">
       <c r="D419" s="3"/>
       <c r="E419" s="1"/>
-      <c r="F419" s="11"/>
-      <c r="G419" s="11"/>
+      <c r="F419" s="14"/>
+      <c r="G419" s="14"/>
       <c r="H419" s="3"/>
       <c r="I419" s="3"/>
       <c r="J419" s="3"/>
@@ -5602,8 +6030,8 @@
     <row r="420" ht="16.5" spans="4:11">
       <c r="D420" s="3"/>
       <c r="E420" s="1"/>
-      <c r="F420" s="11"/>
-      <c r="G420" s="11"/>
+      <c r="F420" s="14"/>
+      <c r="G420" s="14"/>
       <c r="H420" s="3"/>
       <c r="I420" s="3"/>
       <c r="J420" s="3"/>
@@ -5612,8 +6040,8 @@
     <row r="421" ht="16.5" spans="4:11">
       <c r="D421" s="3"/>
       <c r="E421" s="1"/>
-      <c r="F421" s="11"/>
-      <c r="G421" s="11"/>
+      <c r="F421" s="14"/>
+      <c r="G421" s="14"/>
       <c r="H421" s="3"/>
       <c r="I421" s="3"/>
       <c r="J421" s="3"/>
@@ -5622,8 +6050,8 @@
     <row r="422" ht="16.5" spans="4:11">
       <c r="D422" s="3"/>
       <c r="E422" s="1"/>
-      <c r="F422" s="11"/>
-      <c r="G422" s="11"/>
+      <c r="F422" s="14"/>
+      <c r="G422" s="14"/>
       <c r="H422" s="3"/>
       <c r="I422" s="3"/>
       <c r="J422" s="3"/>
@@ -5632,8 +6060,8 @@
     <row r="423" ht="16.5" spans="4:11">
       <c r="D423" s="3"/>
       <c r="E423" s="1"/>
-      <c r="F423" s="11"/>
-      <c r="G423" s="11"/>
+      <c r="F423" s="14"/>
+      <c r="G423" s="14"/>
       <c r="H423" s="3"/>
       <c r="I423" s="3"/>
       <c r="J423" s="3"/>
@@ -5642,8 +6070,8 @@
     <row r="424" ht="16.5" spans="4:11">
       <c r="D424" s="3"/>
       <c r="E424" s="1"/>
-      <c r="F424" s="11"/>
-      <c r="G424" s="11"/>
+      <c r="F424" s="14"/>
+      <c r="G424" s="14"/>
       <c r="H424" s="3"/>
       <c r="I424" s="3"/>
       <c r="J424" s="3"/>
@@ -5652,8 +6080,8 @@
     <row r="425" ht="16.5" spans="4:11">
       <c r="D425" s="3"/>
       <c r="E425" s="1"/>
-      <c r="F425" s="11"/>
-      <c r="G425" s="11"/>
+      <c r="F425" s="14"/>
+      <c r="G425" s="14"/>
       <c r="H425" s="3"/>
       <c r="I425" s="3"/>
       <c r="J425" s="3"/>
@@ -5662,8 +6090,8 @@
     <row r="426" ht="16.5" spans="4:11">
       <c r="D426" s="3"/>
       <c r="E426" s="1"/>
-      <c r="F426" s="11"/>
-      <c r="G426" s="11"/>
+      <c r="F426" s="14"/>
+      <c r="G426" s="14"/>
       <c r="H426" s="3"/>
       <c r="I426" s="3"/>
       <c r="J426" s="3"/>
@@ -5672,8 +6100,8 @@
     <row r="427" ht="16.5" spans="4:11">
       <c r="D427" s="3"/>
       <c r="E427" s="1"/>
-      <c r="F427" s="11"/>
-      <c r="G427" s="11"/>
+      <c r="F427" s="14"/>
+      <c r="G427" s="14"/>
       <c r="H427" s="3"/>
       <c r="I427" s="3"/>
       <c r="J427" s="3"/>
@@ -5682,8 +6110,8 @@
     <row r="428" ht="16.5" spans="4:11">
       <c r="D428" s="3"/>
       <c r="E428" s="1"/>
-      <c r="F428" s="11"/>
-      <c r="G428" s="11"/>
+      <c r="F428" s="14"/>
+      <c r="G428" s="14"/>
       <c r="H428" s="3"/>
       <c r="I428" s="3"/>
       <c r="J428" s="3"/>
@@ -5692,8 +6120,8 @@
     <row r="429" ht="16.5" spans="4:11">
       <c r="D429" s="3"/>
       <c r="E429" s="1"/>
-      <c r="F429" s="11"/>
-      <c r="G429" s="11"/>
+      <c r="F429" s="14"/>
+      <c r="G429" s="14"/>
       <c r="H429" s="3"/>
       <c r="I429" s="3"/>
       <c r="J429" s="3"/>
@@ -5702,8 +6130,8 @@
     <row r="430" ht="16.5" spans="4:11">
       <c r="D430" s="3"/>
       <c r="E430" s="1"/>
-      <c r="F430" s="11"/>
-      <c r="G430" s="11"/>
+      <c r="F430" s="14"/>
+      <c r="G430" s="14"/>
       <c r="H430" s="3"/>
       <c r="I430" s="3"/>
       <c r="J430" s="3"/>
@@ -5712,8 +6140,8 @@
     <row r="431" ht="16.5" spans="4:11">
       <c r="D431" s="3"/>
       <c r="E431" s="1"/>
-      <c r="F431" s="11"/>
-      <c r="G431" s="11"/>
+      <c r="F431" s="14"/>
+      <c r="G431" s="14"/>
       <c r="H431" s="3"/>
       <c r="I431" s="3"/>
       <c r="J431" s="3"/>
@@ -5722,8 +6150,8 @@
     <row r="432" ht="16.5" spans="4:11">
       <c r="D432" s="3"/>
       <c r="E432" s="1"/>
-      <c r="F432" s="11"/>
-      <c r="G432" s="11"/>
+      <c r="F432" s="14"/>
+      <c r="G432" s="14"/>
       <c r="H432" s="3"/>
       <c r="I432" s="3"/>
       <c r="J432" s="3"/>
@@ -5732,8 +6160,8 @@
     <row r="433" ht="16.5" spans="4:11">
       <c r="D433" s="3"/>
       <c r="E433" s="1"/>
-      <c r="F433" s="11"/>
-      <c r="G433" s="11"/>
+      <c r="F433" s="14"/>
+      <c r="G433" s="14"/>
       <c r="H433" s="3"/>
       <c r="I433" s="3"/>
       <c r="J433" s="3"/>
@@ -5742,8 +6170,8 @@
     <row r="434" ht="16.5" spans="4:11">
       <c r="D434" s="3"/>
       <c r="E434" s="1"/>
-      <c r="F434" s="11"/>
-      <c r="G434" s="11"/>
+      <c r="F434" s="14"/>
+      <c r="G434" s="14"/>
       <c r="H434" s="3"/>
       <c r="I434" s="3"/>
       <c r="J434" s="3"/>
@@ -5752,8 +6180,8 @@
     <row r="435" ht="16.5" spans="4:11">
       <c r="D435" s="3"/>
       <c r="E435" s="1"/>
-      <c r="F435" s="11"/>
-      <c r="G435" s="11"/>
+      <c r="F435" s="14"/>
+      <c r="G435" s="14"/>
       <c r="H435" s="3"/>
       <c r="I435" s="3"/>
       <c r="J435" s="3"/>
@@ -5762,8 +6190,8 @@
     <row r="436" ht="16.5" spans="4:11">
       <c r="D436" s="3"/>
       <c r="E436" s="1"/>
-      <c r="F436" s="11"/>
-      <c r="G436" s="11"/>
+      <c r="F436" s="14"/>
+      <c r="G436" s="14"/>
       <c r="H436" s="3"/>
       <c r="I436" s="3"/>
       <c r="J436" s="3"/>
@@ -5772,8 +6200,8 @@
     <row r="437" ht="16.5" spans="4:11">
       <c r="D437" s="3"/>
       <c r="E437" s="1"/>
-      <c r="F437" s="11"/>
-      <c r="G437" s="11"/>
+      <c r="F437" s="14"/>
+      <c r="G437" s="14"/>
       <c r="H437" s="3"/>
       <c r="I437" s="3"/>
       <c r="J437" s="3"/>
@@ -5782,8 +6210,8 @@
     <row r="438" ht="16.5" spans="4:11">
       <c r="D438" s="3"/>
       <c r="E438" s="1"/>
-      <c r="F438" s="11"/>
-      <c r="G438" s="11"/>
+      <c r="F438" s="14"/>
+      <c r="G438" s="14"/>
       <c r="H438" s="3"/>
       <c r="I438" s="3"/>
       <c r="J438" s="3"/>
@@ -5792,8 +6220,8 @@
     <row r="439" ht="16.5" spans="4:11">
       <c r="D439" s="3"/>
       <c r="E439" s="1"/>
-      <c r="F439" s="11"/>
-      <c r="G439" s="11"/>
+      <c r="F439" s="14"/>
+      <c r="G439" s="14"/>
       <c r="H439" s="3"/>
       <c r="I439" s="3"/>
       <c r="J439" s="3"/>
@@ -5802,8 +6230,8 @@
     <row r="440" ht="16.5" spans="4:11">
       <c r="D440" s="3"/>
       <c r="E440" s="1"/>
-      <c r="F440" s="11"/>
-      <c r="G440" s="11"/>
+      <c r="F440" s="14"/>
+      <c r="G440" s="14"/>
       <c r="H440" s="3"/>
       <c r="I440" s="3"/>
       <c r="J440" s="3"/>
@@ -5812,8 +6240,8 @@
     <row r="441" ht="16.5" spans="4:11">
       <c r="D441" s="3"/>
       <c r="E441" s="1"/>
-      <c r="F441" s="11"/>
-      <c r="G441" s="11"/>
+      <c r="F441" s="14"/>
+      <c r="G441" s="14"/>
       <c r="H441" s="3"/>
       <c r="I441" s="3"/>
       <c r="J441" s="3"/>
@@ -5822,8 +6250,8 @@
     <row r="442" ht="16.5" spans="4:11">
       <c r="D442" s="3"/>
       <c r="E442" s="1"/>
-      <c r="F442" s="11"/>
-      <c r="G442" s="11"/>
+      <c r="F442" s="14"/>
+      <c r="G442" s="14"/>
       <c r="H442" s="3"/>
       <c r="I442" s="3"/>
       <c r="J442" s="3"/>
@@ -5832,8 +6260,8 @@
     <row r="443" ht="16.5" spans="4:11">
       <c r="D443" s="3"/>
       <c r="E443" s="1"/>
-      <c r="F443" s="11"/>
-      <c r="G443" s="11"/>
+      <c r="F443" s="14"/>
+      <c r="G443" s="14"/>
       <c r="H443" s="3"/>
       <c r="I443" s="3"/>
       <c r="J443" s="3"/>
@@ -5842,8 +6270,8 @@
     <row r="444" ht="16.5" spans="4:11">
       <c r="D444" s="3"/>
       <c r="E444" s="1"/>
-      <c r="F444" s="11"/>
-      <c r="G444" s="11"/>
+      <c r="F444" s="14"/>
+      <c r="G444" s="14"/>
       <c r="H444" s="3"/>
       <c r="I444" s="3"/>
       <c r="J444" s="3"/>
@@ -5852,8 +6280,8 @@
     <row r="445" ht="16.5" spans="4:11">
       <c r="D445" s="3"/>
       <c r="E445" s="1"/>
-      <c r="F445" s="11"/>
-      <c r="G445" s="11"/>
+      <c r="F445" s="14"/>
+      <c r="G445" s="14"/>
       <c r="H445" s="3"/>
       <c r="I445" s="3"/>
       <c r="J445" s="3"/>
@@ -5862,8 +6290,8 @@
     <row r="446" ht="16.5" spans="4:11">
       <c r="D446" s="3"/>
       <c r="E446" s="1"/>
-      <c r="F446" s="11"/>
-      <c r="G446" s="11"/>
+      <c r="F446" s="14"/>
+      <c r="G446" s="14"/>
       <c r="H446" s="3"/>
       <c r="I446" s="3"/>
       <c r="J446" s="3"/>
@@ -5872,8 +6300,8 @@
     <row r="447" ht="16.5" spans="4:11">
       <c r="D447" s="3"/>
       <c r="E447" s="1"/>
-      <c r="F447" s="11"/>
-      <c r="G447" s="11"/>
+      <c r="F447" s="14"/>
+      <c r="G447" s="14"/>
       <c r="H447" s="3"/>
       <c r="I447" s="3"/>
       <c r="J447" s="3"/>
@@ -5882,8 +6310,8 @@
     <row r="448" ht="16.5" spans="4:11">
       <c r="D448" s="3"/>
       <c r="E448" s="1"/>
-      <c r="F448" s="11"/>
-      <c r="G448" s="11"/>
+      <c r="F448" s="14"/>
+      <c r="G448" s="14"/>
       <c r="H448" s="3"/>
       <c r="I448" s="3"/>
       <c r="J448" s="3"/>
@@ -5892,8 +6320,8 @@
     <row r="449" ht="16.5" spans="4:11">
       <c r="D449" s="3"/>
       <c r="E449" s="1"/>
-      <c r="F449" s="11"/>
-      <c r="G449" s="11"/>
+      <c r="F449" s="14"/>
+      <c r="G449" s="14"/>
       <c r="H449" s="3"/>
       <c r="I449" s="3"/>
       <c r="J449" s="3"/>
@@ -5902,8 +6330,8 @@
     <row r="450" ht="16.5" spans="4:11">
       <c r="D450" s="3"/>
       <c r="E450" s="1"/>
-      <c r="F450" s="11"/>
-      <c r="G450" s="11"/>
+      <c r="F450" s="14"/>
+      <c r="G450" s="14"/>
       <c r="H450" s="3"/>
       <c r="I450" s="3"/>
       <c r="J450" s="3"/>
@@ -5912,18 +6340,18 @@
     <row r="451" ht="16.5" spans="4:11">
       <c r="D451" s="3"/>
       <c r="E451" s="1"/>
-      <c r="F451" s="11"/>
-      <c r="G451" s="11"/>
+      <c r="F451" s="14"/>
+      <c r="G451" s="14"/>
       <c r="H451" s="3"/>
       <c r="I451" s="3"/>
       <c r="J451" s="3"/>
       <c r="K451" s="3"/>
     </row>
     <row r="452" ht="16.5" spans="4:11">
-      <c r="D452" s="6"/>
+      <c r="D452" s="7"/>
       <c r="E452" s="1"/>
-      <c r="F452" s="11"/>
-      <c r="G452" s="11"/>
+      <c r="F452" s="14"/>
+      <c r="G452" s="14"/>
       <c r="H452" s="3"/>
       <c r="I452" s="3"/>
       <c r="J452" s="3"/>
@@ -5932,8 +6360,8 @@
     <row r="453" ht="16.5" spans="4:11">
       <c r="D453" s="3"/>
       <c r="E453" s="1"/>
-      <c r="F453" s="11"/>
-      <c r="G453" s="11"/>
+      <c r="F453" s="14"/>
+      <c r="G453" s="14"/>
       <c r="H453" s="3"/>
       <c r="I453" s="3"/>
       <c r="J453" s="3"/>
@@ -5942,8 +6370,8 @@
     <row r="454" ht="16.5" spans="4:11">
       <c r="D454" s="3"/>
       <c r="E454" s="1"/>
-      <c r="F454" s="11"/>
-      <c r="G454" s="11"/>
+      <c r="F454" s="14"/>
+      <c r="G454" s="14"/>
       <c r="H454" s="3"/>
       <c r="I454" s="3"/>
       <c r="J454" s="3"/>
@@ -5952,8 +6380,8 @@
     <row r="455" ht="16.5" spans="4:11">
       <c r="D455" s="3"/>
       <c r="E455" s="1"/>
-      <c r="F455" s="11"/>
-      <c r="G455" s="11"/>
+      <c r="F455" s="14"/>
+      <c r="G455" s="14"/>
       <c r="H455" s="3"/>
       <c r="I455" s="3"/>
       <c r="J455" s="3"/>
@@ -5962,8 +6390,8 @@
     <row r="456" ht="16.5" spans="4:11">
       <c r="D456" s="3"/>
       <c r="E456" s="1"/>
-      <c r="F456" s="11"/>
-      <c r="G456" s="11"/>
+      <c r="F456" s="14"/>
+      <c r="G456" s="14"/>
       <c r="H456" s="3"/>
       <c r="I456" s="3"/>
       <c r="J456" s="3"/>
@@ -5972,8 +6400,8 @@
     <row r="457" ht="16.5" spans="4:11">
       <c r="D457" s="3"/>
       <c r="E457" s="1"/>
-      <c r="F457" s="11"/>
-      <c r="G457" s="11"/>
+      <c r="F457" s="14"/>
+      <c r="G457" s="14"/>
       <c r="H457" s="3"/>
       <c r="I457" s="3"/>
       <c r="J457" s="3"/>
@@ -5982,8 +6410,8 @@
     <row r="458" ht="16.5" spans="4:11">
       <c r="D458" s="3"/>
       <c r="E458" s="1"/>
-      <c r="F458" s="11"/>
-      <c r="G458" s="11"/>
+      <c r="F458" s="14"/>
+      <c r="G458" s="14"/>
       <c r="H458" s="3"/>
       <c r="I458" s="3"/>
       <c r="J458" s="3"/>
@@ -5992,8 +6420,8 @@
     <row r="459" ht="16.5" spans="4:11">
       <c r="D459" s="3"/>
       <c r="E459" s="1"/>
-      <c r="F459" s="11"/>
-      <c r="G459" s="11"/>
+      <c r="F459" s="14"/>
+      <c r="G459" s="14"/>
       <c r="H459" s="3"/>
       <c r="I459" s="3"/>
       <c r="J459" s="3"/>
@@ -6002,8 +6430,8 @@
     <row r="460" ht="16.5" spans="4:11">
       <c r="D460" s="3"/>
       <c r="E460" s="1"/>
-      <c r="F460" s="11"/>
-      <c r="G460" s="11"/>
+      <c r="F460" s="14"/>
+      <c r="G460" s="14"/>
       <c r="H460" s="3"/>
       <c r="I460" s="3"/>
       <c r="J460" s="3"/>
@@ -6012,8 +6440,8 @@
     <row r="461" ht="16.5" spans="4:11">
       <c r="D461" s="3"/>
       <c r="E461" s="1"/>
-      <c r="F461" s="11"/>
-      <c r="G461" s="11"/>
+      <c r="F461" s="14"/>
+      <c r="G461" s="14"/>
       <c r="H461" s="3"/>
       <c r="I461" s="3"/>
       <c r="J461" s="3"/>
@@ -6022,8 +6450,8 @@
     <row r="462" ht="16.5" spans="4:11">
       <c r="D462" s="3"/>
       <c r="E462" s="1"/>
-      <c r="F462" s="11"/>
-      <c r="G462" s="11"/>
+      <c r="F462" s="14"/>
+      <c r="G462" s="14"/>
       <c r="H462" s="3"/>
       <c r="I462" s="3"/>
       <c r="J462" s="3"/>
@@ -6032,8 +6460,8 @@
     <row r="463" ht="16.5" spans="4:11">
       <c r="D463" s="3"/>
       <c r="E463" s="1"/>
-      <c r="F463" s="11"/>
-      <c r="G463" s="11"/>
+      <c r="F463" s="14"/>
+      <c r="G463" s="14"/>
       <c r="H463" s="3"/>
       <c r="I463" s="3"/>
       <c r="J463" s="3"/>
@@ -6042,18 +6470,18 @@
     <row r="464" ht="16.5" spans="4:11">
       <c r="D464" s="3"/>
       <c r="E464" s="1"/>
-      <c r="F464" s="11"/>
-      <c r="G464" s="11"/>
+      <c r="F464" s="14"/>
+      <c r="G464" s="14"/>
       <c r="H464" s="3"/>
       <c r="I464" s="3"/>
       <c r="J464" s="3"/>
       <c r="K464" s="3"/>
     </row>
     <row r="465" ht="16.5" spans="4:11">
-      <c r="D465" s="11"/>
+      <c r="D465" s="14"/>
       <c r="E465" s="1"/>
-      <c r="F465" s="11"/>
-      <c r="G465" s="11"/>
+      <c r="F465" s="14"/>
+      <c r="G465" s="14"/>
       <c r="H465" s="3"/>
       <c r="I465" s="3"/>
       <c r="J465" s="3"/>
@@ -6062,8 +6490,8 @@
     <row r="466" ht="16.5" spans="4:11">
       <c r="D466" s="3"/>
       <c r="E466" s="1"/>
-      <c r="F466" s="11"/>
-      <c r="G466" s="11"/>
+      <c r="F466" s="14"/>
+      <c r="G466" s="14"/>
       <c r="H466" s="3"/>
       <c r="I466" s="3"/>
       <c r="J466" s="3"/>
@@ -6072,18 +6500,18 @@
     <row r="467" ht="16.5" spans="4:11">
       <c r="D467" s="3"/>
       <c r="E467" s="1"/>
-      <c r="F467" s="11"/>
-      <c r="G467" s="11"/>
+      <c r="F467" s="14"/>
+      <c r="G467" s="14"/>
       <c r="H467" s="3"/>
       <c r="I467" s="3"/>
       <c r="J467" s="3"/>
       <c r="K467" s="3"/>
     </row>
     <row r="468" ht="16.5" spans="4:11">
-      <c r="D468" s="6"/>
+      <c r="D468" s="7"/>
       <c r="E468" s="1"/>
-      <c r="F468" s="11"/>
-      <c r="G468" s="11"/>
+      <c r="F468" s="14"/>
+      <c r="G468" s="14"/>
       <c r="H468" s="3"/>
       <c r="I468" s="3"/>
       <c r="J468" s="3"/>
@@ -6092,8 +6520,8 @@
     <row r="469" ht="16.5" spans="4:11">
       <c r="D469" s="3"/>
       <c r="E469" s="1"/>
-      <c r="F469" s="11"/>
-      <c r="G469" s="11"/>
+      <c r="F469" s="14"/>
+      <c r="G469" s="14"/>
       <c r="H469" s="3"/>
       <c r="I469" s="3"/>
       <c r="J469" s="3"/>
@@ -6102,8 +6530,8 @@
     <row r="470" ht="16.5" spans="4:11">
       <c r="D470" s="3"/>
       <c r="E470" s="1"/>
-      <c r="F470" s="11"/>
-      <c r="G470" s="11"/>
+      <c r="F470" s="14"/>
+      <c r="G470" s="14"/>
       <c r="H470" s="3"/>
       <c r="I470" s="3"/>
       <c r="J470" s="3"/>
@@ -6112,18 +6540,18 @@
     <row r="471" ht="16.5" spans="4:11">
       <c r="D471" s="3"/>
       <c r="E471" s="1"/>
-      <c r="F471" s="11"/>
-      <c r="G471" s="11"/>
+      <c r="F471" s="14"/>
+      <c r="G471" s="14"/>
       <c r="H471" s="3"/>
       <c r="I471" s="3"/>
       <c r="J471" s="3"/>
       <c r="K471" s="3"/>
     </row>
     <row r="472" ht="16.5" spans="4:11">
-      <c r="D472" s="19"/>
+      <c r="D472" s="22"/>
       <c r="E472" s="1"/>
-      <c r="F472" s="11"/>
-      <c r="G472" s="11"/>
+      <c r="F472" s="14"/>
+      <c r="G472" s="14"/>
       <c r="H472" s="3"/>
       <c r="I472" s="3"/>
       <c r="J472" s="3"/>
@@ -6132,8 +6560,8 @@
     <row r="473" ht="16.5" spans="4:11">
       <c r="D473" s="3"/>
       <c r="E473" s="1"/>
-      <c r="F473" s="11"/>
-      <c r="G473" s="11"/>
+      <c r="F473" s="14"/>
+      <c r="G473" s="14"/>
       <c r="H473" s="3"/>
       <c r="I473" s="3"/>
       <c r="J473" s="3"/>
@@ -6142,18 +6570,18 @@
     <row r="474" ht="16.5" spans="4:11">
       <c r="D474" s="3"/>
       <c r="E474" s="1"/>
-      <c r="F474" s="11"/>
-      <c r="G474" s="11"/>
+      <c r="F474" s="14"/>
+      <c r="G474" s="14"/>
       <c r="H474" s="3"/>
       <c r="I474" s="3"/>
       <c r="J474" s="3"/>
       <c r="K474" s="3"/>
     </row>
     <row r="475" ht="16.5" spans="4:11">
-      <c r="D475" s="20"/>
+      <c r="D475" s="23"/>
       <c r="E475" s="1"/>
-      <c r="F475" s="11"/>
-      <c r="G475" s="11"/>
+      <c r="F475" s="14"/>
+      <c r="G475" s="14"/>
       <c r="H475" s="3"/>
       <c r="I475" s="3"/>
       <c r="J475" s="3"/>
@@ -6162,8 +6590,8 @@
     <row r="476" ht="16.5" spans="4:11">
       <c r="D476" s="3"/>
       <c r="E476" s="1"/>
-      <c r="F476" s="11"/>
-      <c r="G476" s="11"/>
+      <c r="F476" s="14"/>
+      <c r="G476" s="14"/>
       <c r="H476" s="3"/>
       <c r="I476" s="3"/>
       <c r="J476" s="3"/>
@@ -6172,8 +6600,8 @@
     <row r="477" ht="16.5" spans="4:11">
       <c r="D477" s="3"/>
       <c r="E477" s="1"/>
-      <c r="F477" s="11"/>
-      <c r="G477" s="11"/>
+      <c r="F477" s="14"/>
+      <c r="G477" s="14"/>
       <c r="H477" s="3"/>
       <c r="I477" s="3"/>
       <c r="J477" s="3"/>
@@ -6182,8 +6610,8 @@
     <row r="478" ht="16.5" spans="4:11">
       <c r="D478" s="3"/>
       <c r="E478" s="1"/>
-      <c r="F478" s="11"/>
-      <c r="G478" s="11"/>
+      <c r="F478" s="14"/>
+      <c r="G478" s="14"/>
       <c r="H478" s="3"/>
       <c r="I478" s="3"/>
       <c r="J478" s="3"/>
@@ -6192,8 +6620,8 @@
     <row r="479" ht="16.5" spans="4:11">
       <c r="D479" s="3"/>
       <c r="E479" s="1"/>
-      <c r="F479" s="11"/>
-      <c r="G479" s="11"/>
+      <c r="F479" s="14"/>
+      <c r="G479" s="14"/>
       <c r="H479" s="3"/>
       <c r="I479" s="3"/>
       <c r="J479" s="3"/>
@@ -6202,8 +6630,8 @@
     <row r="480" ht="16.5" spans="4:11">
       <c r="D480" s="3"/>
       <c r="E480" s="1"/>
-      <c r="F480" s="11"/>
-      <c r="G480" s="11"/>
+      <c r="F480" s="14"/>
+      <c r="G480" s="14"/>
       <c r="H480" s="3"/>
       <c r="I480" s="3"/>
       <c r="J480" s="3"/>
@@ -6212,8 +6640,8 @@
     <row r="481" ht="16.5" spans="4:11">
       <c r="D481" s="3"/>
       <c r="E481" s="1"/>
-      <c r="F481" s="11"/>
-      <c r="G481" s="11"/>
+      <c r="F481" s="14"/>
+      <c r="G481" s="14"/>
       <c r="H481" s="3"/>
       <c r="I481" s="3"/>
       <c r="J481" s="3"/>
@@ -6222,8 +6650,8 @@
     <row r="482" ht="16.5" spans="4:11">
       <c r="D482" s="3"/>
       <c r="E482" s="1"/>
-      <c r="F482" s="11"/>
-      <c r="G482" s="11"/>
+      <c r="F482" s="14"/>
+      <c r="G482" s="14"/>
       <c r="H482" s="3"/>
       <c r="I482" s="3"/>
       <c r="J482" s="3"/>
@@ -6232,8 +6660,8 @@
     <row r="483" ht="16.5" spans="4:11">
       <c r="D483" s="3"/>
       <c r="E483" s="1"/>
-      <c r="F483" s="11"/>
-      <c r="G483" s="11"/>
+      <c r="F483" s="14"/>
+      <c r="G483" s="14"/>
       <c r="H483" s="3"/>
       <c r="I483" s="3"/>
       <c r="J483" s="3"/>
@@ -6242,8 +6670,8 @@
     <row r="484" ht="16.5" spans="4:11">
       <c r="D484" s="3"/>
       <c r="E484" s="1"/>
-      <c r="F484" s="11"/>
-      <c r="G484" s="11"/>
+      <c r="F484" s="14"/>
+      <c r="G484" s="14"/>
       <c r="H484" s="3"/>
       <c r="I484" s="3"/>
       <c r="J484" s="3"/>
@@ -6252,8 +6680,8 @@
     <row r="485" ht="16.5" spans="4:11">
       <c r="D485" s="3"/>
       <c r="E485" s="1"/>
-      <c r="F485" s="11"/>
-      <c r="G485" s="11"/>
+      <c r="F485" s="14"/>
+      <c r="G485" s="14"/>
       <c r="H485" s="3"/>
       <c r="I485" s="3"/>
       <c r="J485" s="3"/>
@@ -6262,8 +6690,8 @@
     <row r="486" ht="16.5" spans="4:11">
       <c r="D486" s="3"/>
       <c r="E486" s="1"/>
-      <c r="F486" s="11"/>
-      <c r="G486" s="11"/>
+      <c r="F486" s="14"/>
+      <c r="G486" s="14"/>
       <c r="H486" s="3"/>
       <c r="I486" s="3"/>
       <c r="J486" s="3"/>
@@ -6272,8 +6700,8 @@
     <row r="487" ht="16.5" spans="4:11">
       <c r="D487" s="3"/>
       <c r="E487" s="1"/>
-      <c r="F487" s="11"/>
-      <c r="G487" s="11"/>
+      <c r="F487" s="14"/>
+      <c r="G487" s="14"/>
       <c r="H487" s="3"/>
       <c r="I487" s="3"/>
       <c r="J487" s="3"/>
@@ -6282,8 +6710,8 @@
     <row r="488" ht="16.5" spans="4:11">
       <c r="D488" s="3"/>
       <c r="E488" s="1"/>
-      <c r="F488" s="11"/>
-      <c r="G488" s="11"/>
+      <c r="F488" s="14"/>
+      <c r="G488" s="14"/>
       <c r="H488" s="3"/>
       <c r="I488" s="3"/>
       <c r="J488" s="3"/>
@@ -6292,8 +6720,8 @@
     <row r="489" ht="16.5" spans="4:11">
       <c r="D489" s="3"/>
       <c r="E489" s="1"/>
-      <c r="F489" s="11"/>
-      <c r="G489" s="11"/>
+      <c r="F489" s="14"/>
+      <c r="G489" s="14"/>
       <c r="H489" s="3"/>
       <c r="I489" s="3"/>
       <c r="J489" s="3"/>
@@ -6302,8 +6730,8 @@
     <row r="490" ht="16.5" spans="4:11">
       <c r="D490" s="3"/>
       <c r="E490" s="1"/>
-      <c r="F490" s="11"/>
-      <c r="G490" s="11"/>
+      <c r="F490" s="14"/>
+      <c r="G490" s="14"/>
       <c r="H490" s="3"/>
       <c r="I490" s="3"/>
       <c r="J490" s="3"/>
@@ -6312,28 +6740,28 @@
     <row r="491" ht="16.5" spans="4:11">
       <c r="D491" s="3"/>
       <c r="E491" s="1"/>
-      <c r="F491" s="11"/>
-      <c r="G491" s="11"/>
+      <c r="F491" s="14"/>
+      <c r="G491" s="14"/>
       <c r="H491" s="3"/>
       <c r="I491" s="3"/>
       <c r="J491" s="3"/>
       <c r="K491" s="3"/>
     </row>
     <row r="492" ht="16.5" spans="4:11">
-      <c r="D492" s="6"/>
+      <c r="D492" s="7"/>
       <c r="E492" s="1"/>
-      <c r="F492" s="11"/>
-      <c r="G492" s="11"/>
+      <c r="F492" s="14"/>
+      <c r="G492" s="14"/>
       <c r="H492" s="3"/>
       <c r="I492" s="3"/>
       <c r="J492" s="3"/>
       <c r="K492" s="3"/>
     </row>
     <row r="493" ht="16.5" spans="4:11">
-      <c r="D493" s="6"/>
+      <c r="D493" s="7"/>
       <c r="E493" s="1"/>
-      <c r="F493" s="11"/>
-      <c r="G493" s="11"/>
+      <c r="F493" s="14"/>
+      <c r="G493" s="14"/>
       <c r="H493" s="3"/>
       <c r="I493" s="3"/>
       <c r="J493" s="3"/>
@@ -6342,18 +6770,18 @@
     <row r="494" ht="16.5" spans="4:11">
       <c r="D494" s="3"/>
       <c r="E494" s="1"/>
-      <c r="F494" s="11"/>
-      <c r="G494" s="11"/>
+      <c r="F494" s="14"/>
+      <c r="G494" s="14"/>
       <c r="H494" s="3"/>
       <c r="I494" s="3"/>
       <c r="J494" s="3"/>
       <c r="K494" s="3"/>
     </row>
     <row r="495" ht="16.5" spans="4:11">
-      <c r="D495" s="8"/>
+      <c r="D495" s="11"/>
       <c r="E495" s="1"/>
-      <c r="F495" s="11"/>
-      <c r="G495" s="11"/>
+      <c r="F495" s="14"/>
+      <c r="G495" s="14"/>
       <c r="H495" s="3"/>
       <c r="I495" s="3"/>
       <c r="J495" s="3"/>
@@ -6362,38 +6790,38 @@
     <row r="496" ht="16.5" spans="4:11">
       <c r="D496" s="3"/>
       <c r="E496" s="1"/>
-      <c r="F496" s="11"/>
-      <c r="G496" s="11"/>
+      <c r="F496" s="14"/>
+      <c r="G496" s="14"/>
       <c r="H496" s="3"/>
       <c r="I496" s="3"/>
       <c r="J496" s="3"/>
       <c r="K496" s="3"/>
     </row>
     <row r="497" ht="16.5" spans="4:11">
-      <c r="D497" s="8"/>
+      <c r="D497" s="11"/>
       <c r="E497" s="1"/>
-      <c r="F497" s="11"/>
-      <c r="G497" s="11"/>
+      <c r="F497" s="14"/>
+      <c r="G497" s="14"/>
       <c r="H497" s="3"/>
       <c r="I497" s="3"/>
       <c r="J497" s="3"/>
       <c r="K497" s="3"/>
     </row>
     <row r="498" ht="16.5" spans="4:11">
-      <c r="D498" s="8"/>
+      <c r="D498" s="11"/>
       <c r="E498" s="1"/>
-      <c r="F498" s="11"/>
-      <c r="G498" s="11"/>
+      <c r="F498" s="14"/>
+      <c r="G498" s="14"/>
       <c r="H498" s="3"/>
       <c r="I498" s="3"/>
       <c r="J498" s="3"/>
       <c r="K498" s="3"/>
     </row>
     <row r="499" ht="16.5" spans="4:11">
-      <c r="D499" s="8"/>
+      <c r="D499" s="11"/>
       <c r="E499" s="1"/>
-      <c r="F499" s="11"/>
-      <c r="G499" s="11"/>
+      <c r="F499" s="14"/>
+      <c r="G499" s="14"/>
       <c r="H499" s="3"/>
       <c r="I499" s="3"/>
       <c r="J499" s="3"/>
@@ -6402,8 +6830,8 @@
     <row r="500" ht="16.5" spans="4:11">
       <c r="D500" s="3"/>
       <c r="E500" s="1"/>
-      <c r="F500" s="11"/>
-      <c r="G500" s="11"/>
+      <c r="F500" s="14"/>
+      <c r="G500" s="14"/>
       <c r="H500" s="3"/>
       <c r="I500" s="3"/>
       <c r="J500" s="3"/>
@@ -6412,8 +6840,8 @@
     <row r="501" ht="16.5" spans="4:11">
       <c r="D501" s="3"/>
       <c r="E501" s="1"/>
-      <c r="F501" s="11"/>
-      <c r="G501" s="11"/>
+      <c r="F501" s="14"/>
+      <c r="G501" s="14"/>
       <c r="H501" s="3"/>
       <c r="I501" s="3"/>
       <c r="J501" s="3"/>
@@ -6422,8 +6850,8 @@
     <row r="502" ht="16.5" spans="4:11">
       <c r="D502" s="3"/>
       <c r="E502" s="1"/>
-      <c r="F502" s="11"/>
-      <c r="G502" s="11"/>
+      <c r="F502" s="14"/>
+      <c r="G502" s="14"/>
       <c r="H502" s="3"/>
       <c r="I502" s="3"/>
       <c r="J502" s="3"/>
@@ -6432,8 +6860,8 @@
     <row r="503" ht="16.5" spans="4:11">
       <c r="D503" s="3"/>
       <c r="E503" s="1"/>
-      <c r="F503" s="11"/>
-      <c r="G503" s="11"/>
+      <c r="F503" s="14"/>
+      <c r="G503" s="14"/>
       <c r="H503" s="3"/>
       <c r="I503" s="3"/>
       <c r="J503" s="3"/>
@@ -6442,8 +6870,8 @@
     <row r="504" ht="16.5" spans="4:11">
       <c r="D504" s="3"/>
       <c r="E504" s="1"/>
-      <c r="F504" s="11"/>
-      <c r="G504" s="11"/>
+      <c r="F504" s="14"/>
+      <c r="G504" s="14"/>
       <c r="H504" s="3"/>
       <c r="I504" s="3"/>
       <c r="J504" s="3"/>
@@ -6452,8 +6880,8 @@
     <row r="505" ht="16.5" spans="4:11">
       <c r="D505" s="3"/>
       <c r="E505" s="1"/>
-      <c r="F505" s="11"/>
-      <c r="G505" s="11"/>
+      <c r="F505" s="14"/>
+      <c r="G505" s="14"/>
       <c r="H505" s="3"/>
       <c r="I505" s="3"/>
       <c r="J505" s="3"/>
@@ -6462,48 +6890,48 @@
     <row r="506" ht="16.5" spans="4:11">
       <c r="D506" s="3"/>
       <c r="E506" s="1"/>
-      <c r="F506" s="11"/>
-      <c r="G506" s="11"/>
+      <c r="F506" s="14"/>
+      <c r="G506" s="14"/>
       <c r="H506" s="3"/>
       <c r="I506" s="3"/>
       <c r="J506" s="3"/>
       <c r="K506" s="3"/>
     </row>
     <row r="507" ht="16.5" spans="4:11">
-      <c r="D507" s="6"/>
+      <c r="D507" s="7"/>
       <c r="E507" s="1"/>
-      <c r="F507" s="11"/>
-      <c r="G507" s="11"/>
+      <c r="F507" s="14"/>
+      <c r="G507" s="14"/>
       <c r="H507" s="3"/>
       <c r="I507" s="3"/>
       <c r="J507" s="3"/>
       <c r="K507" s="3"/>
     </row>
     <row r="508" ht="16.5" spans="4:11">
-      <c r="D508" s="21"/>
+      <c r="D508" s="24"/>
       <c r="E508" s="1"/>
-      <c r="F508" s="11"/>
-      <c r="G508" s="11"/>
+      <c r="F508" s="14"/>
+      <c r="G508" s="14"/>
       <c r="H508" s="3"/>
       <c r="I508" s="3"/>
       <c r="J508" s="3"/>
       <c r="K508" s="3"/>
     </row>
     <row r="509" ht="16.5" spans="4:11">
-      <c r="D509" s="22"/>
+      <c r="D509" s="25"/>
       <c r="E509" s="1"/>
-      <c r="F509" s="11"/>
-      <c r="G509" s="11"/>
+      <c r="F509" s="14"/>
+      <c r="G509" s="14"/>
       <c r="H509" s="3"/>
       <c r="I509" s="3"/>
       <c r="J509" s="3"/>
       <c r="K509" s="3"/>
     </row>
     <row r="510" ht="16.5" spans="4:11">
-      <c r="D510" s="6"/>
+      <c r="D510" s="7"/>
       <c r="E510" s="1"/>
-      <c r="F510" s="11"/>
-      <c r="G510" s="11"/>
+      <c r="F510" s="14"/>
+      <c r="G510" s="14"/>
       <c r="H510" s="3"/>
       <c r="I510" s="3"/>
       <c r="J510" s="3"/>
@@ -6512,8 +6940,8 @@
     <row r="511" ht="16.5" spans="4:11">
       <c r="D511" s="3"/>
       <c r="E511" s="1"/>
-      <c r="F511" s="11"/>
-      <c r="G511" s="11"/>
+      <c r="F511" s="14"/>
+      <c r="G511" s="14"/>
       <c r="H511" s="3"/>
       <c r="I511" s="3"/>
       <c r="J511" s="3"/>
@@ -6522,8 +6950,8 @@
     <row r="512" ht="16.5" spans="4:11">
       <c r="D512" s="3"/>
       <c r="E512" s="1"/>
-      <c r="F512" s="11"/>
-      <c r="G512" s="11"/>
+      <c r="F512" s="14"/>
+      <c r="G512" s="14"/>
       <c r="H512" s="3"/>
       <c r="I512" s="3"/>
       <c r="J512" s="3"/>
@@ -6532,8 +6960,8 @@
     <row r="513" ht="16.5" spans="4:11">
       <c r="D513" s="3"/>
       <c r="E513" s="1"/>
-      <c r="F513" s="11"/>
-      <c r="G513" s="11"/>
+      <c r="F513" s="14"/>
+      <c r="G513" s="14"/>
       <c r="H513" s="3"/>
       <c r="I513" s="3"/>
       <c r="J513" s="3"/>
@@ -6542,8 +6970,8 @@
     <row r="514" ht="16.5" spans="4:11">
       <c r="D514" s="3"/>
       <c r="E514" s="1"/>
-      <c r="F514" s="11"/>
-      <c r="G514" s="11"/>
+      <c r="F514" s="14"/>
+      <c r="G514" s="14"/>
       <c r="H514" s="3"/>
       <c r="I514" s="3"/>
       <c r="J514" s="3"/>
@@ -6552,8 +6980,8 @@
     <row r="515" ht="16.5" spans="4:11">
       <c r="D515" s="3"/>
       <c r="E515" s="1"/>
-      <c r="F515" s="11"/>
-      <c r="G515" s="11"/>
+      <c r="F515" s="14"/>
+      <c r="G515" s="14"/>
       <c r="H515" s="3"/>
       <c r="I515" s="3"/>
       <c r="J515" s="3"/>
@@ -6562,8 +6990,8 @@
     <row r="516" ht="16.5" spans="4:11">
       <c r="D516" s="3"/>
       <c r="E516" s="1"/>
-      <c r="F516" s="11"/>
-      <c r="G516" s="11"/>
+      <c r="F516" s="14"/>
+      <c r="G516" s="14"/>
       <c r="H516" s="3"/>
       <c r="I516" s="3"/>
       <c r="J516" s="3"/>
@@ -6572,8 +7000,8 @@
     <row r="517" ht="16.5" spans="4:11">
       <c r="D517" s="3"/>
       <c r="E517" s="1"/>
-      <c r="F517" s="11"/>
-      <c r="G517" s="11"/>
+      <c r="F517" s="14"/>
+      <c r="G517" s="14"/>
       <c r="H517" s="3"/>
       <c r="I517" s="3"/>
       <c r="J517" s="3"/>
@@ -6582,8 +7010,8 @@
     <row r="518" ht="16.5" spans="4:11">
       <c r="D518" s="3"/>
       <c r="E518" s="1"/>
-      <c r="F518" s="11"/>
-      <c r="G518" s="11"/>
+      <c r="F518" s="14"/>
+      <c r="G518" s="14"/>
       <c r="H518" s="3"/>
       <c r="I518" s="3"/>
       <c r="J518" s="3"/>
@@ -6592,8 +7020,8 @@
     <row r="519" ht="16.5" spans="4:11">
       <c r="D519" s="3"/>
       <c r="E519" s="1"/>
-      <c r="F519" s="11"/>
-      <c r="G519" s="11"/>
+      <c r="F519" s="14"/>
+      <c r="G519" s="14"/>
       <c r="H519" s="3"/>
       <c r="I519" s="3"/>
       <c r="J519" s="3"/>
@@ -6602,8 +7030,8 @@
     <row r="520" ht="16.5" spans="4:11">
       <c r="D520" s="3"/>
       <c r="E520" s="1"/>
-      <c r="F520" s="11"/>
-      <c r="G520" s="11"/>
+      <c r="F520" s="14"/>
+      <c r="G520" s="14"/>
       <c r="H520" s="3"/>
       <c r="I520" s="3"/>
       <c r="J520" s="3"/>
@@ -6612,8 +7040,8 @@
     <row r="521" ht="16.5" spans="4:11">
       <c r="D521" s="3"/>
       <c r="E521" s="1"/>
-      <c r="F521" s="11"/>
-      <c r="G521" s="11"/>
+      <c r="F521" s="14"/>
+      <c r="G521" s="14"/>
       <c r="H521" s="3"/>
       <c r="I521" s="3"/>
       <c r="J521" s="3"/>
@@ -6622,8 +7050,8 @@
     <row r="522" ht="16.5" spans="4:11">
       <c r="D522" s="3"/>
       <c r="E522" s="1"/>
-      <c r="F522" s="11"/>
-      <c r="G522" s="11"/>
+      <c r="F522" s="14"/>
+      <c r="G522" s="14"/>
       <c r="H522" s="3"/>
       <c r="I522" s="3"/>
       <c r="J522" s="3"/>
@@ -6632,8 +7060,8 @@
     <row r="523" ht="16.5" spans="4:11">
       <c r="D523" s="3"/>
       <c r="E523" s="1"/>
-      <c r="F523" s="11"/>
-      <c r="G523" s="11"/>
+      <c r="F523" s="14"/>
+      <c r="G523" s="14"/>
       <c r="H523" s="3"/>
       <c r="I523" s="3"/>
       <c r="J523" s="3"/>
@@ -6642,8 +7070,8 @@
     <row r="524" ht="16.5" spans="4:11">
       <c r="D524" s="3"/>
       <c r="E524" s="1"/>
-      <c r="F524" s="11"/>
-      <c r="G524" s="11"/>
+      <c r="F524" s="14"/>
+      <c r="G524" s="14"/>
       <c r="H524" s="3"/>
       <c r="I524" s="3"/>
       <c r="J524" s="3"/>
@@ -6652,8 +7080,8 @@
     <row r="525" ht="16.5" spans="4:11">
       <c r="D525" s="3"/>
       <c r="E525" s="1"/>
-      <c r="F525" s="11"/>
-      <c r="G525" s="11"/>
+      <c r="F525" s="14"/>
+      <c r="G525" s="14"/>
       <c r="H525" s="3"/>
       <c r="I525" s="3"/>
       <c r="J525" s="3"/>
@@ -6662,8 +7090,8 @@
     <row r="526" ht="16.5" spans="4:11">
       <c r="D526" s="3"/>
       <c r="E526" s="1"/>
-      <c r="F526" s="11"/>
-      <c r="G526" s="11"/>
+      <c r="F526" s="14"/>
+      <c r="G526" s="14"/>
       <c r="H526" s="3"/>
       <c r="I526" s="3"/>
       <c r="J526" s="3"/>
@@ -6672,8 +7100,8 @@
     <row r="527" ht="16.5" spans="4:11">
       <c r="D527" s="3"/>
       <c r="E527" s="1"/>
-      <c r="F527" s="11"/>
-      <c r="G527" s="11"/>
+      <c r="F527" s="14"/>
+      <c r="G527" s="14"/>
       <c r="H527" s="3"/>
       <c r="I527" s="3"/>
       <c r="J527" s="3"/>
@@ -6682,8 +7110,8 @@
     <row r="528" ht="16.5" spans="4:11">
       <c r="D528" s="3"/>
       <c r="E528" s="1"/>
-      <c r="F528" s="11"/>
-      <c r="G528" s="11"/>
+      <c r="F528" s="14"/>
+      <c r="G528" s="14"/>
       <c r="H528" s="3"/>
       <c r="I528" s="3"/>
       <c r="J528" s="3"/>
@@ -6692,8 +7120,8 @@
     <row r="529" ht="16.5" spans="4:11">
       <c r="D529" s="3"/>
       <c r="E529" s="1"/>
-      <c r="F529" s="11"/>
-      <c r="G529" s="11"/>
+      <c r="F529" s="14"/>
+      <c r="G529" s="14"/>
       <c r="H529" s="3"/>
       <c r="I529" s="3"/>
       <c r="J529" s="3"/>
@@ -6702,8 +7130,8 @@
     <row r="530" ht="16.5" spans="4:11">
       <c r="D530" s="3"/>
       <c r="E530" s="1"/>
-      <c r="F530" s="11"/>
-      <c r="G530" s="11"/>
+      <c r="F530" s="14"/>
+      <c r="G530" s="14"/>
       <c r="H530" s="3"/>
       <c r="I530" s="3"/>
       <c r="J530" s="3"/>
@@ -6712,8 +7140,8 @@
     <row r="531" ht="16.5" spans="4:11">
       <c r="D531" s="3"/>
       <c r="E531" s="1"/>
-      <c r="F531" s="11"/>
-      <c r="G531" s="11"/>
+      <c r="F531" s="14"/>
+      <c r="G531" s="14"/>
       <c r="H531" s="3"/>
       <c r="I531" s="3"/>
       <c r="J531" s="3"/>
@@ -6722,8 +7150,8 @@
     <row r="532" ht="16.5" spans="4:11">
       <c r="D532" s="3"/>
       <c r="E532" s="1"/>
-      <c r="F532" s="11"/>
-      <c r="G532" s="11"/>
+      <c r="F532" s="14"/>
+      <c r="G532" s="14"/>
       <c r="H532" s="3"/>
       <c r="I532" s="3"/>
       <c r="J532" s="3"/>
@@ -6732,8 +7160,8 @@
     <row r="533" ht="16.5" spans="4:11">
       <c r="D533" s="3"/>
       <c r="E533" s="1"/>
-      <c r="F533" s="11"/>
-      <c r="G533" s="11"/>
+      <c r="F533" s="14"/>
+      <c r="G533" s="14"/>
       <c r="H533" s="3"/>
       <c r="I533" s="3"/>
       <c r="J533" s="3"/>
@@ -6742,18 +7170,18 @@
     <row r="534" ht="16.5" spans="4:11">
       <c r="D534" s="3"/>
       <c r="E534" s="1"/>
-      <c r="F534" s="11"/>
-      <c r="G534" s="11"/>
+      <c r="F534" s="14"/>
+      <c r="G534" s="14"/>
       <c r="H534" s="3"/>
       <c r="I534" s="3"/>
       <c r="J534" s="3"/>
       <c r="K534" s="3"/>
     </row>
     <row r="535" ht="16.5" spans="4:11">
-      <c r="D535" s="6"/>
+      <c r="D535" s="7"/>
       <c r="E535" s="1"/>
-      <c r="F535" s="11"/>
-      <c r="G535" s="11"/>
+      <c r="F535" s="14"/>
+      <c r="G535" s="14"/>
       <c r="H535" s="3"/>
       <c r="I535" s="3"/>
       <c r="J535" s="3"/>
@@ -6762,8 +7190,8 @@
     <row r="536" ht="16.5" spans="4:11">
       <c r="D536" s="3"/>
       <c r="E536" s="1"/>
-      <c r="F536" s="11"/>
-      <c r="G536" s="11"/>
+      <c r="F536" s="14"/>
+      <c r="G536" s="14"/>
       <c r="H536" s="3"/>
       <c r="I536" s="3"/>
       <c r="J536" s="3"/>
@@ -6772,8 +7200,8 @@
     <row r="537" ht="16.5" spans="4:11">
       <c r="D537" s="3"/>
       <c r="E537" s="1"/>
-      <c r="F537" s="11"/>
-      <c r="G537" s="11"/>
+      <c r="F537" s="14"/>
+      <c r="G537" s="14"/>
       <c r="H537" s="3"/>
       <c r="I537" s="3"/>
       <c r="J537" s="3"/>
@@ -6782,8 +7210,8 @@
     <row r="538" ht="16.5" spans="4:11">
       <c r="D538" s="3"/>
       <c r="E538" s="1"/>
-      <c r="F538" s="11"/>
-      <c r="G538" s="11"/>
+      <c r="F538" s="14"/>
+      <c r="G538" s="14"/>
       <c r="H538" s="3"/>
       <c r="I538" s="3"/>
       <c r="J538" s="3"/>
@@ -6792,8 +7220,8 @@
     <row r="539" ht="16.5" spans="4:11">
       <c r="D539" s="3"/>
       <c r="E539" s="1"/>
-      <c r="F539" s="11"/>
-      <c r="G539" s="11"/>
+      <c r="F539" s="14"/>
+      <c r="G539" s="14"/>
       <c r="H539" s="3"/>
       <c r="I539" s="3"/>
       <c r="J539" s="3"/>
@@ -6802,8 +7230,8 @@
     <row r="540" ht="16.5" spans="4:11">
       <c r="D540" s="3"/>
       <c r="E540" s="1"/>
-      <c r="F540" s="11"/>
-      <c r="G540" s="11"/>
+      <c r="F540" s="14"/>
+      <c r="G540" s="14"/>
       <c r="H540" s="3"/>
       <c r="I540" s="3"/>
       <c r="J540" s="3"/>
@@ -6812,8 +7240,8 @@
     <row r="541" ht="16.5" spans="4:11">
       <c r="D541" s="3"/>
       <c r="E541" s="1"/>
-      <c r="F541" s="11"/>
-      <c r="G541" s="11"/>
+      <c r="F541" s="14"/>
+      <c r="G541" s="14"/>
       <c r="H541" s="3"/>
       <c r="I541" s="3"/>
       <c r="J541" s="3"/>
@@ -6822,8 +7250,8 @@
     <row r="542" ht="16.5" spans="4:11">
       <c r="D542" s="3"/>
       <c r="E542" s="1"/>
-      <c r="F542" s="11"/>
-      <c r="G542" s="11"/>
+      <c r="F542" s="14"/>
+      <c r="G542" s="14"/>
       <c r="H542" s="3"/>
       <c r="I542" s="3"/>
       <c r="J542" s="3"/>
@@ -6832,8 +7260,8 @@
     <row r="543" ht="16.5" spans="4:11">
       <c r="D543" s="3"/>
       <c r="E543" s="1"/>
-      <c r="F543" s="11"/>
-      <c r="G543" s="11"/>
+      <c r="F543" s="14"/>
+      <c r="G543" s="14"/>
       <c r="H543" s="3"/>
       <c r="I543" s="3"/>
       <c r="J543" s="3"/>
@@ -6842,8 +7270,8 @@
     <row r="544" ht="16.5" spans="4:11">
       <c r="D544" s="3"/>
       <c r="E544" s="1"/>
-      <c r="F544" s="11"/>
-      <c r="G544" s="11"/>
+      <c r="F544" s="14"/>
+      <c r="G544" s="14"/>
       <c r="H544" s="3"/>
       <c r="I544" s="3"/>
       <c r="J544" s="3"/>
@@ -6852,8 +7280,8 @@
     <row r="545" ht="16.5" spans="4:11">
       <c r="D545" s="3"/>
       <c r="E545" s="1"/>
-      <c r="F545" s="11"/>
-      <c r="G545" s="11"/>
+      <c r="F545" s="14"/>
+      <c r="G545" s="14"/>
       <c r="H545" s="3"/>
       <c r="I545" s="3"/>
       <c r="J545" s="3"/>
@@ -6862,8 +7290,8 @@
     <row r="546" ht="16.5" spans="4:11">
       <c r="D546" s="3"/>
       <c r="E546" s="1"/>
-      <c r="F546" s="11"/>
-      <c r="G546" s="11"/>
+      <c r="F546" s="14"/>
+      <c r="G546" s="14"/>
       <c r="H546" s="3"/>
       <c r="I546" s="3"/>
       <c r="J546" s="3"/>
@@ -6872,8 +7300,8 @@
     <row r="547" ht="16.5" spans="4:11">
       <c r="D547" s="3"/>
       <c r="E547" s="1"/>
-      <c r="F547" s="11"/>
-      <c r="G547" s="11"/>
+      <c r="F547" s="14"/>
+      <c r="G547" s="14"/>
       <c r="H547" s="3"/>
       <c r="I547" s="3"/>
       <c r="J547" s="3"/>
@@ -6882,8 +7310,8 @@
     <row r="548" ht="16.5" spans="4:11">
       <c r="D548" s="3"/>
       <c r="E548" s="1"/>
-      <c r="F548" s="11"/>
-      <c r="G548" s="11"/>
+      <c r="F548" s="14"/>
+      <c r="G548" s="14"/>
       <c r="H548" s="3"/>
       <c r="I548" s="3"/>
       <c r="J548" s="3"/>
@@ -6892,18 +7320,18 @@
     <row r="549" ht="16.5" spans="4:11">
       <c r="D549" s="3"/>
       <c r="E549" s="1"/>
-      <c r="F549" s="11"/>
-      <c r="G549" s="11"/>
+      <c r="F549" s="14"/>
+      <c r="G549" s="14"/>
       <c r="H549" s="3"/>
       <c r="I549" s="3"/>
       <c r="J549" s="3"/>
       <c r="K549" s="3"/>
     </row>
     <row r="550" ht="16.5" spans="4:11">
-      <c r="D550" s="6"/>
+      <c r="D550" s="7"/>
       <c r="E550" s="1"/>
-      <c r="F550" s="11"/>
-      <c r="G550" s="11"/>
+      <c r="F550" s="14"/>
+      <c r="G550" s="14"/>
       <c r="H550" s="3"/>
       <c r="I550" s="3"/>
       <c r="J550" s="3"/>
@@ -6912,18 +7340,18 @@
     <row r="551" ht="16.5" spans="4:11">
       <c r="D551" s="3"/>
       <c r="E551" s="1"/>
-      <c r="F551" s="11"/>
-      <c r="G551" s="11"/>
+      <c r="F551" s="14"/>
+      <c r="G551" s="14"/>
       <c r="H551" s="3"/>
       <c r="I551" s="3"/>
       <c r="J551" s="3"/>
       <c r="K551" s="3"/>
     </row>
     <row r="552" ht="16.5" spans="4:11">
-      <c r="D552" s="8"/>
+      <c r="D552" s="11"/>
       <c r="E552" s="1"/>
-      <c r="F552" s="11"/>
-      <c r="G552" s="11"/>
+      <c r="F552" s="14"/>
+      <c r="G552" s="14"/>
       <c r="H552" s="3"/>
       <c r="I552" s="3"/>
       <c r="J552" s="3"/>
@@ -6932,8 +7360,8 @@
     <row r="553" ht="16.5" spans="4:11">
       <c r="D553" s="3"/>
       <c r="E553" s="1"/>
-      <c r="F553" s="11"/>
-      <c r="G553" s="11"/>
+      <c r="F553" s="14"/>
+      <c r="G553" s="14"/>
       <c r="H553" s="3"/>
       <c r="I553" s="3"/>
       <c r="J553" s="3"/>
@@ -6942,8 +7370,8 @@
     <row r="554" ht="16.5" spans="4:11">
       <c r="D554" s="3"/>
       <c r="E554" s="1"/>
-      <c r="F554" s="11"/>
-      <c r="G554" s="11"/>
+      <c r="F554" s="14"/>
+      <c r="G554" s="14"/>
       <c r="H554" s="3"/>
       <c r="I554" s="3"/>
       <c r="J554" s="3"/>
@@ -6952,8 +7380,8 @@
     <row r="555" ht="16.5" spans="4:11">
       <c r="D555" s="3"/>
       <c r="E555" s="1"/>
-      <c r="F555" s="11"/>
-      <c r="G555" s="11"/>
+      <c r="F555" s="14"/>
+      <c r="G555" s="14"/>
       <c r="H555" s="3"/>
       <c r="I555" s="3"/>
       <c r="J555" s="3"/>
@@ -6962,8 +7390,8 @@
     <row r="556" ht="16.5" spans="4:11">
       <c r="D556" s="3"/>
       <c r="E556" s="1"/>
-      <c r="F556" s="11"/>
-      <c r="G556" s="11"/>
+      <c r="F556" s="14"/>
+      <c r="G556" s="14"/>
       <c r="H556" s="3"/>
       <c r="I556" s="3"/>
       <c r="J556" s="3"/>
@@ -6972,28 +7400,28 @@
     <row r="557" ht="16.5" spans="4:11">
       <c r="D557" s="3"/>
       <c r="E557" s="1"/>
-      <c r="F557" s="11"/>
-      <c r="G557" s="11"/>
+      <c r="F557" s="14"/>
+      <c r="G557" s="14"/>
       <c r="H557" s="3"/>
       <c r="I557" s="3"/>
       <c r="J557" s="3"/>
       <c r="K557" s="3"/>
     </row>
     <row r="558" ht="16.5" spans="4:11">
-      <c r="D558" s="6"/>
+      <c r="D558" s="7"/>
       <c r="E558" s="1"/>
-      <c r="F558" s="11"/>
-      <c r="G558" s="11"/>
+      <c r="F558" s="14"/>
+      <c r="G558" s="14"/>
       <c r="H558" s="3"/>
       <c r="I558" s="3"/>
       <c r="J558" s="3"/>
       <c r="K558" s="3"/>
     </row>
     <row r="559" ht="16.5" spans="4:11">
-      <c r="D559" s="6"/>
+      <c r="D559" s="7"/>
       <c r="E559" s="1"/>
-      <c r="F559" s="11"/>
-      <c r="G559" s="11"/>
+      <c r="F559" s="14"/>
+      <c r="G559" s="14"/>
       <c r="H559" s="3"/>
       <c r="I559" s="3"/>
       <c r="J559" s="3"/>
@@ -7002,8 +7430,8 @@
     <row r="560" ht="16.5" spans="4:11">
       <c r="D560" s="3"/>
       <c r="E560" s="1"/>
-      <c r="F560" s="11"/>
-      <c r="G560" s="11"/>
+      <c r="F560" s="14"/>
+      <c r="G560" s="14"/>
       <c r="H560" s="3"/>
       <c r="I560" s="3"/>
       <c r="J560" s="3"/>
@@ -7012,18 +7440,18 @@
     <row r="561" ht="16.5" spans="4:11">
       <c r="D561" s="3"/>
       <c r="E561" s="1"/>
-      <c r="F561" s="11"/>
-      <c r="G561" s="11"/>
+      <c r="F561" s="14"/>
+      <c r="G561" s="14"/>
       <c r="H561" s="3"/>
       <c r="I561" s="3"/>
       <c r="J561" s="3"/>
       <c r="K561" s="3"/>
     </row>
     <row r="562" ht="16.5" spans="4:11">
-      <c r="D562" s="6"/>
+      <c r="D562" s="7"/>
       <c r="E562" s="1"/>
-      <c r="F562" s="11"/>
-      <c r="G562" s="11"/>
+      <c r="F562" s="14"/>
+      <c r="G562" s="14"/>
       <c r="H562" s="3"/>
       <c r="I562" s="3"/>
       <c r="J562" s="3"/>
@@ -7032,18 +7460,18 @@
     <row r="563" ht="16.5" spans="4:11">
       <c r="D563" s="3"/>
       <c r="E563" s="1"/>
-      <c r="F563" s="11"/>
-      <c r="G563" s="11"/>
+      <c r="F563" s="14"/>
+      <c r="G563" s="14"/>
       <c r="H563" s="3"/>
       <c r="I563" s="3"/>
       <c r="J563" s="3"/>
       <c r="K563" s="3"/>
     </row>
     <row r="564" ht="16.5" spans="4:11">
-      <c r="D564" s="11"/>
+      <c r="D564" s="14"/>
       <c r="E564" s="1"/>
-      <c r="F564" s="11"/>
-      <c r="G564" s="11"/>
+      <c r="F564" s="14"/>
+      <c r="G564" s="14"/>
       <c r="H564" s="3"/>
       <c r="I564" s="3"/>
       <c r="J564" s="3"/>
@@ -7052,8 +7480,8 @@
     <row r="565" ht="16.5" spans="4:11">
       <c r="D565" s="3"/>
       <c r="E565" s="1"/>
-      <c r="F565" s="11"/>
-      <c r="G565" s="11"/>
+      <c r="F565" s="14"/>
+      <c r="G565" s="14"/>
       <c r="H565" s="3"/>
       <c r="I565" s="3"/>
       <c r="J565" s="3"/>
@@ -7062,8 +7490,8 @@
     <row r="566" ht="16.5" spans="4:11">
       <c r="D566" s="3"/>
       <c r="E566" s="1"/>
-      <c r="F566" s="11"/>
-      <c r="G566" s="11"/>
+      <c r="F566" s="14"/>
+      <c r="G566" s="14"/>
       <c r="H566" s="3"/>
       <c r="I566" s="3"/>
       <c r="J566" s="3"/>
@@ -7072,8 +7500,8 @@
     <row r="567" ht="16.5" spans="4:11">
       <c r="D567" s="3"/>
       <c r="E567" s="1"/>
-      <c r="F567" s="11"/>
-      <c r="G567" s="11"/>
+      <c r="F567" s="14"/>
+      <c r="G567" s="14"/>
       <c r="H567" s="3"/>
       <c r="I567" s="3"/>
       <c r="J567" s="3"/>
@@ -7082,8 +7510,8 @@
     <row r="568" ht="16.5" spans="4:11">
       <c r="D568" s="3"/>
       <c r="E568" s="1"/>
-      <c r="F568" s="11"/>
-      <c r="G568" s="11"/>
+      <c r="F568" s="14"/>
+      <c r="G568" s="14"/>
       <c r="H568" s="3"/>
       <c r="I568" s="3"/>
       <c r="J568" s="3"/>
@@ -7092,8 +7520,8 @@
     <row r="569" ht="16.5" spans="4:11">
       <c r="D569" s="3"/>
       <c r="E569" s="1"/>
-      <c r="F569" s="11"/>
-      <c r="G569" s="11"/>
+      <c r="F569" s="14"/>
+      <c r="G569" s="14"/>
       <c r="H569" s="3"/>
       <c r="I569" s="3"/>
       <c r="J569" s="3"/>
@@ -7102,8 +7530,8 @@
     <row r="570" ht="16.5" spans="4:11">
       <c r="D570" s="3"/>
       <c r="E570" s="1"/>
-      <c r="F570" s="11"/>
-      <c r="G570" s="11"/>
+      <c r="F570" s="14"/>
+      <c r="G570" s="14"/>
       <c r="H570" s="3"/>
       <c r="I570" s="3"/>
       <c r="J570" s="3"/>
@@ -7112,8 +7540,8 @@
     <row r="571" ht="16.5" spans="4:11">
       <c r="D571" s="3"/>
       <c r="E571" s="1"/>
-      <c r="F571" s="11"/>
-      <c r="G571" s="11"/>
+      <c r="F571" s="14"/>
+      <c r="G571" s="14"/>
       <c r="H571" s="3"/>
       <c r="I571" s="3"/>
       <c r="J571" s="3"/>
@@ -7122,8 +7550,8 @@
     <row r="572" ht="16.5" spans="4:11">
       <c r="D572" s="3"/>
       <c r="E572" s="1"/>
-      <c r="F572" s="11"/>
-      <c r="G572" s="11"/>
+      <c r="F572" s="14"/>
+      <c r="G572" s="14"/>
       <c r="H572" s="3"/>
       <c r="I572" s="3"/>
       <c r="J572" s="3"/>
@@ -7132,8 +7560,8 @@
     <row r="573" ht="16.5" spans="4:11">
       <c r="D573" s="3"/>
       <c r="E573" s="1"/>
-      <c r="F573" s="11"/>
-      <c r="G573" s="11"/>
+      <c r="F573" s="14"/>
+      <c r="G573" s="14"/>
       <c r="H573" s="3"/>
       <c r="I573" s="3"/>
       <c r="J573" s="3"/>
@@ -7142,8 +7570,8 @@
     <row r="574" ht="16.5" spans="4:11">
       <c r="D574" s="3"/>
       <c r="E574" s="1"/>
-      <c r="F574" s="11"/>
-      <c r="G574" s="11"/>
+      <c r="F574" s="14"/>
+      <c r="G574" s="14"/>
       <c r="H574" s="3"/>
       <c r="I574" s="3"/>
       <c r="J574" s="3"/>
@@ -7152,8 +7580,8 @@
     <row r="575" ht="16.5" spans="4:11">
       <c r="D575" s="3"/>
       <c r="E575" s="1"/>
-      <c r="F575" s="11"/>
-      <c r="G575" s="11"/>
+      <c r="F575" s="14"/>
+      <c r="G575" s="14"/>
       <c r="H575" s="3"/>
       <c r="I575" s="3"/>
       <c r="J575" s="3"/>
@@ -7162,8 +7590,8 @@
     <row r="576" ht="16.5" spans="4:11">
       <c r="D576" s="3"/>
       <c r="E576" s="1"/>
-      <c r="F576" s="11"/>
-      <c r="G576" s="11"/>
+      <c r="F576" s="14"/>
+      <c r="G576" s="14"/>
       <c r="H576" s="3"/>
       <c r="I576" s="3"/>
       <c r="J576" s="3"/>
@@ -7172,8 +7600,8 @@
     <row r="577" ht="16.5" spans="4:11">
       <c r="D577" s="3"/>
       <c r="E577" s="1"/>
-      <c r="F577" s="11"/>
-      <c r="G577" s="11"/>
+      <c r="F577" s="14"/>
+      <c r="G577" s="14"/>
       <c r="H577" s="3"/>
       <c r="I577" s="3"/>
       <c r="J577" s="3"/>
@@ -7182,8 +7610,8 @@
     <row r="578" ht="16.5" spans="4:11">
       <c r="D578" s="3"/>
       <c r="E578" s="1"/>
-      <c r="F578" s="11"/>
-      <c r="G578" s="11"/>
+      <c r="F578" s="14"/>
+      <c r="G578" s="14"/>
       <c r="H578" s="3"/>
       <c r="I578" s="3"/>
       <c r="J578" s="3"/>
@@ -7192,8 +7620,8 @@
     <row r="579" ht="16.5" spans="4:11">
       <c r="D579" s="3"/>
       <c r="E579" s="1"/>
-      <c r="F579" s="11"/>
-      <c r="G579" s="11"/>
+      <c r="F579" s="14"/>
+      <c r="G579" s="14"/>
       <c r="H579" s="3"/>
       <c r="I579" s="3"/>
       <c r="J579" s="3"/>
@@ -7202,8 +7630,8 @@
     <row r="580" ht="16.5" spans="4:11">
       <c r="D580" s="3"/>
       <c r="E580" s="1"/>
-      <c r="F580" s="11"/>
-      <c r="G580" s="11"/>
+      <c r="F580" s="14"/>
+      <c r="G580" s="14"/>
       <c r="H580" s="3"/>
       <c r="I580" s="3"/>
       <c r="J580" s="3"/>
@@ -7212,8 +7640,8 @@
     <row r="581" ht="16.5" spans="4:11">
       <c r="D581" s="3"/>
       <c r="E581" s="1"/>
-      <c r="F581" s="11"/>
-      <c r="G581" s="11"/>
+      <c r="F581" s="14"/>
+      <c r="G581" s="14"/>
       <c r="H581" s="3"/>
       <c r="I581" s="3"/>
       <c r="J581" s="3"/>
@@ -7222,8 +7650,8 @@
     <row r="582" ht="16.5" spans="4:11">
       <c r="D582" s="3"/>
       <c r="E582" s="1"/>
-      <c r="F582" s="11"/>
-      <c r="G582" s="11"/>
+      <c r="F582" s="14"/>
+      <c r="G582" s="14"/>
       <c r="H582" s="3"/>
       <c r="I582" s="3"/>
       <c r="J582" s="3"/>
@@ -7232,8 +7660,8 @@
     <row r="583" ht="16.5" spans="4:11">
       <c r="D583" s="3"/>
       <c r="E583" s="1"/>
-      <c r="F583" s="11"/>
-      <c r="G583" s="11"/>
+      <c r="F583" s="14"/>
+      <c r="G583" s="14"/>
       <c r="H583" s="3"/>
       <c r="I583" s="3"/>
       <c r="J583" s="3"/>
@@ -7242,8 +7670,8 @@
     <row r="584" ht="16.5" spans="4:11">
       <c r="D584" s="3"/>
       <c r="E584" s="1"/>
-      <c r="F584" s="11"/>
-      <c r="G584" s="11"/>
+      <c r="F584" s="14"/>
+      <c r="G584" s="14"/>
       <c r="H584" s="3"/>
       <c r="I584" s="3"/>
       <c r="J584" s="3"/>
@@ -7252,18 +7680,18 @@
     <row r="585" ht="16.5" spans="4:11">
       <c r="D585" s="3"/>
       <c r="E585" s="1"/>
-      <c r="F585" s="11"/>
-      <c r="G585" s="11"/>
+      <c r="F585" s="14"/>
+      <c r="G585" s="14"/>
       <c r="H585" s="3"/>
       <c r="I585" s="3"/>
       <c r="J585" s="3"/>
       <c r="K585" s="3"/>
     </row>
     <row r="586" ht="16.5" spans="4:11">
-      <c r="D586" s="11"/>
+      <c r="D586" s="14"/>
       <c r="E586" s="1"/>
-      <c r="F586" s="11"/>
-      <c r="G586" s="11"/>
+      <c r="F586" s="14"/>
+      <c r="G586" s="14"/>
       <c r="H586" s="3"/>
       <c r="I586" s="3"/>
       <c r="J586" s="3"/>
@@ -7272,18 +7700,18 @@
     <row r="587" ht="16.5" spans="4:11">
       <c r="D587" s="3"/>
       <c r="E587" s="1"/>
-      <c r="F587" s="11"/>
-      <c r="G587" s="11"/>
+      <c r="F587" s="14"/>
+      <c r="G587" s="14"/>
       <c r="H587" s="3"/>
       <c r="I587" s="3"/>
       <c r="J587" s="3"/>
       <c r="K587" s="3"/>
     </row>
     <row r="588" ht="16.5" spans="4:11">
-      <c r="D588" s="8"/>
+      <c r="D588" s="11"/>
       <c r="E588" s="1"/>
-      <c r="F588" s="11"/>
-      <c r="G588" s="11"/>
+      <c r="F588" s="14"/>
+      <c r="G588" s="14"/>
       <c r="H588" s="3"/>
       <c r="I588" s="3"/>
       <c r="J588" s="3"/>
@@ -7292,18 +7720,18 @@
     <row r="589" ht="16.5" spans="4:11">
       <c r="D589" s="3"/>
       <c r="E589" s="1"/>
-      <c r="F589" s="11"/>
-      <c r="G589" s="11"/>
+      <c r="F589" s="14"/>
+      <c r="G589" s="14"/>
       <c r="H589" s="3"/>
       <c r="I589" s="3"/>
       <c r="J589" s="3"/>
       <c r="K589" s="3"/>
     </row>
     <row r="590" ht="16.5" spans="4:11">
-      <c r="D590" s="8"/>
+      <c r="D590" s="11"/>
       <c r="E590" s="1"/>
-      <c r="F590" s="11"/>
-      <c r="G590" s="11"/>
+      <c r="F590" s="14"/>
+      <c r="G590" s="14"/>
       <c r="H590" s="3"/>
       <c r="I590" s="3"/>
       <c r="J590" s="3"/>
@@ -7312,8 +7740,8 @@
     <row r="591" ht="16.5" spans="4:11">
       <c r="D591" s="3"/>
       <c r="E591" s="1"/>
-      <c r="F591" s="11"/>
-      <c r="G591" s="11"/>
+      <c r="F591" s="14"/>
+      <c r="G591" s="14"/>
       <c r="H591" s="3"/>
       <c r="I591" s="3"/>
       <c r="J591" s="3"/>
@@ -7322,8 +7750,8 @@
     <row r="592" ht="16.5" spans="4:11">
       <c r="D592" s="3"/>
       <c r="E592" s="1"/>
-      <c r="F592" s="11"/>
-      <c r="G592" s="11"/>
+      <c r="F592" s="14"/>
+      <c r="G592" s="14"/>
       <c r="H592" s="3"/>
       <c r="I592" s="3"/>
       <c r="J592" s="3"/>
@@ -7332,20 +7760,18 @@
     <row r="593" ht="16.5" spans="4:11">
       <c r="D593" s="3"/>
       <c r="E593" s="1"/>
-      <c r="F593" s="11"/>
-      <c r="G593" s="11"/>
+      <c r="F593" s="14"/>
+      <c r="G593" s="14"/>
       <c r="H593" s="3"/>
       <c r="I593" s="3"/>
       <c r="J593" s="3"/>
       <c r="K593" s="3"/>
     </row>
     <row r="594" ht="16.5" spans="4:11">
-      <c r="D594" s="21" t="s">
-        <v>6</v>
-      </c>
+      <c r="D594" s="24"/>
       <c r="E594" s="1"/>
-      <c r="F594" s="11"/>
-      <c r="G594" s="11"/>
+      <c r="F594" s="14"/>
+      <c r="G594" s="14"/>
       <c r="H594" s="3"/>
       <c r="I594" s="3"/>
       <c r="J594" s="3"/>
@@ -7354,30 +7780,28 @@
     <row r="595" ht="16.5" spans="4:11">
       <c r="D595" s="3"/>
       <c r="E595" s="1"/>
-      <c r="F595" s="11"/>
-      <c r="G595" s="11"/>
+      <c r="F595" s="14"/>
+      <c r="G595" s="14"/>
       <c r="H595" s="3"/>
       <c r="I595" s="3"/>
       <c r="J595" s="3"/>
       <c r="K595" s="3"/>
     </row>
     <row r="596" ht="16.5" spans="4:11">
-      <c r="D596" s="6"/>
+      <c r="D596" s="7"/>
       <c r="E596" s="1"/>
-      <c r="F596" s="11"/>
-      <c r="G596" s="11"/>
+      <c r="F596" s="14"/>
+      <c r="G596" s="14"/>
       <c r="H596" s="3"/>
       <c r="I596" s="3"/>
       <c r="J596" s="3"/>
       <c r="K596" s="3"/>
     </row>
     <row r="597" ht="16.5" spans="4:11">
-      <c r="D597" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="D597" s="7"/>
       <c r="E597" s="1"/>
-      <c r="F597" s="11"/>
-      <c r="G597" s="11"/>
+      <c r="F597" s="14"/>
+      <c r="G597" s="14"/>
       <c r="H597" s="3"/>
       <c r="I597" s="3"/>
       <c r="J597" s="3"/>
@@ -7386,8 +7810,8 @@
     <row r="598" ht="16.5" spans="4:11">
       <c r="D598" s="3"/>
       <c r="E598" s="1"/>
-      <c r="F598" s="11"/>
-      <c r="G598" s="11"/>
+      <c r="F598" s="14"/>
+      <c r="G598" s="14"/>
       <c r="H598" s="3"/>
       <c r="I598" s="3"/>
       <c r="J598" s="3"/>
@@ -7396,8 +7820,8 @@
     <row r="599" ht="16.5" spans="4:11">
       <c r="D599" s="3"/>
       <c r="E599" s="1"/>
-      <c r="F599" s="11"/>
-      <c r="G599" s="11"/>
+      <c r="F599" s="14"/>
+      <c r="G599" s="14"/>
       <c r="H599" s="3"/>
       <c r="I599" s="3"/>
       <c r="J599" s="3"/>
@@ -7406,8 +7830,8 @@
     <row r="600" ht="16.5" spans="4:11">
       <c r="D600" s="3"/>
       <c r="E600" s="1"/>
-      <c r="F600" s="11"/>
-      <c r="G600" s="11"/>
+      <c r="F600" s="14"/>
+      <c r="G600" s="14"/>
       <c r="H600" s="3"/>
       <c r="I600" s="3"/>
       <c r="J600" s="3"/>
@@ -7416,8 +7840,8 @@
     <row r="601" ht="16.5" spans="4:11">
       <c r="D601" s="3"/>
       <c r="E601" s="1"/>
-      <c r="F601" s="11"/>
-      <c r="G601" s="11"/>
+      <c r="F601" s="14"/>
+      <c r="G601" s="14"/>
       <c r="H601" s="3"/>
       <c r="I601" s="3"/>
       <c r="J601" s="3"/>
@@ -7426,8 +7850,8 @@
     <row r="602" ht="16.5" spans="4:11">
       <c r="D602" s="3"/>
       <c r="E602" s="1"/>
-      <c r="F602" s="11"/>
-      <c r="G602" s="11"/>
+      <c r="F602" s="14"/>
+      <c r="G602" s="14"/>
       <c r="H602" s="3"/>
       <c r="I602" s="3"/>
       <c r="J602" s="3"/>
@@ -7436,8 +7860,8 @@
     <row r="603" ht="16.5" spans="4:11">
       <c r="D603" s="3"/>
       <c r="E603" s="1"/>
-      <c r="F603" s="11"/>
-      <c r="G603" s="11"/>
+      <c r="F603" s="14"/>
+      <c r="G603" s="14"/>
       <c r="H603" s="3"/>
       <c r="I603" s="3"/>
       <c r="J603" s="3"/>
@@ -7446,8 +7870,8 @@
     <row r="604" ht="16.5" spans="4:11">
       <c r="D604" s="3"/>
       <c r="E604" s="1"/>
-      <c r="F604" s="11"/>
-      <c r="G604" s="11"/>
+      <c r="F604" s="14"/>
+      <c r="G604" s="14"/>
       <c r="H604" s="3"/>
       <c r="I604" s="3"/>
       <c r="J604" s="3"/>
@@ -7456,8 +7880,8 @@
     <row r="605" ht="16.5" spans="4:11">
       <c r="D605" s="3"/>
       <c r="E605" s="1"/>
-      <c r="F605" s="11"/>
-      <c r="G605" s="11"/>
+      <c r="F605" s="14"/>
+      <c r="G605" s="14"/>
       <c r="H605" s="3"/>
       <c r="I605" s="3"/>
       <c r="J605" s="3"/>
@@ -7466,8 +7890,8 @@
     <row r="606" ht="16.5" spans="4:11">
       <c r="D606" s="3"/>
       <c r="E606" s="1"/>
-      <c r="F606" s="11"/>
-      <c r="G606" s="11"/>
+      <c r="F606" s="14"/>
+      <c r="G606" s="14"/>
       <c r="H606" s="3"/>
       <c r="I606" s="3"/>
       <c r="J606" s="3"/>
@@ -7476,8 +7900,8 @@
     <row r="607" ht="16.5" spans="4:11">
       <c r="D607" s="3"/>
       <c r="E607" s="1"/>
-      <c r="F607" s="11"/>
-      <c r="G607" s="11"/>
+      <c r="F607" s="14"/>
+      <c r="G607" s="14"/>
       <c r="H607" s="3"/>
       <c r="I607" s="3"/>
       <c r="J607" s="3"/>
@@ -7486,8 +7910,8 @@
     <row r="608" ht="16.5" spans="4:11">
       <c r="D608" s="3"/>
       <c r="E608" s="1"/>
-      <c r="F608" s="11"/>
-      <c r="G608" s="11"/>
+      <c r="F608" s="14"/>
+      <c r="G608" s="14"/>
       <c r="H608" s="3"/>
       <c r="I608" s="3"/>
       <c r="J608" s="3"/>
@@ -7496,8 +7920,8 @@
     <row r="609" ht="16.5" spans="4:11">
       <c r="D609" s="3"/>
       <c r="E609" s="1"/>
-      <c r="F609" s="11"/>
-      <c r="G609" s="11"/>
+      <c r="F609" s="14"/>
+      <c r="G609" s="14"/>
       <c r="H609" s="3"/>
       <c r="I609" s="3"/>
       <c r="J609" s="3"/>
@@ -7506,8 +7930,8 @@
     <row r="610" ht="16.5" spans="4:11">
       <c r="D610" s="3"/>
       <c r="E610" s="1"/>
-      <c r="F610" s="11"/>
-      <c r="G610" s="11"/>
+      <c r="F610" s="14"/>
+      <c r="G610" s="14"/>
       <c r="H610" s="3"/>
       <c r="I610" s="3"/>
       <c r="J610" s="3"/>
@@ -7516,8 +7940,8 @@
     <row r="611" ht="16.5" spans="4:11">
       <c r="D611" s="3"/>
       <c r="E611" s="1"/>
-      <c r="F611" s="11"/>
-      <c r="G611" s="11"/>
+      <c r="F611" s="14"/>
+      <c r="G611" s="14"/>
       <c r="H611" s="3"/>
       <c r="I611" s="3"/>
       <c r="J611" s="3"/>
@@ -7526,8 +7950,8 @@
     <row r="612" ht="16.5" spans="4:11">
       <c r="D612" s="3"/>
       <c r="E612" s="1"/>
-      <c r="F612" s="11"/>
-      <c r="G612" s="11"/>
+      <c r="F612" s="14"/>
+      <c r="G612" s="14"/>
       <c r="H612" s="3"/>
       <c r="I612" s="3"/>
       <c r="J612" s="3"/>
@@ -7536,8 +7960,8 @@
     <row r="613" ht="16.5" spans="4:11">
       <c r="D613" s="3"/>
       <c r="E613" s="1"/>
-      <c r="F613" s="11"/>
-      <c r="G613" s="11"/>
+      <c r="F613" s="14"/>
+      <c r="G613" s="14"/>
       <c r="H613" s="3"/>
       <c r="I613" s="3"/>
       <c r="J613" s="3"/>
@@ -7546,8 +7970,8 @@
     <row r="614" ht="16.5" spans="4:11">
       <c r="D614" s="3"/>
       <c r="E614" s="1"/>
-      <c r="F614" s="11"/>
-      <c r="G614" s="11"/>
+      <c r="F614" s="14"/>
+      <c r="G614" s="14"/>
       <c r="H614" s="3"/>
       <c r="I614" s="3"/>
       <c r="J614" s="3"/>
@@ -7556,8 +7980,8 @@
     <row r="615" ht="16.5" spans="4:11">
       <c r="D615" s="3"/>
       <c r="E615" s="1"/>
-      <c r="F615" s="11"/>
-      <c r="G615" s="11"/>
+      <c r="F615" s="14"/>
+      <c r="G615" s="14"/>
       <c r="H615" s="3"/>
       <c r="I615" s="3"/>
       <c r="J615" s="3"/>
@@ -7566,8 +7990,8 @@
     <row r="616" ht="16.5" spans="4:11">
       <c r="D616" s="3"/>
       <c r="E616" s="1"/>
-      <c r="F616" s="11"/>
-      <c r="G616" s="11"/>
+      <c r="F616" s="14"/>
+      <c r="G616" s="14"/>
       <c r="H616" s="3"/>
       <c r="I616" s="3"/>
       <c r="J616" s="3"/>
@@ -7576,8 +8000,8 @@
     <row r="617" ht="16.5" spans="4:11">
       <c r="D617" s="3"/>
       <c r="E617" s="1"/>
-      <c r="F617" s="11"/>
-      <c r="G617" s="11"/>
+      <c r="F617" s="14"/>
+      <c r="G617" s="14"/>
       <c r="H617" s="3"/>
       <c r="I617" s="3"/>
       <c r="J617" s="3"/>
@@ -7586,88 +8010,88 @@
     <row r="618" ht="16.5" spans="4:11">
       <c r="D618" s="3"/>
       <c r="E618" s="1"/>
-      <c r="F618" s="11"/>
-      <c r="G618" s="11"/>
+      <c r="F618" s="14"/>
+      <c r="G618" s="14"/>
       <c r="H618" s="3"/>
       <c r="I618" s="3"/>
       <c r="J618" s="3"/>
       <c r="K618" s="3"/>
     </row>
     <row r="619" ht="16.5" spans="4:11">
-      <c r="D619" s="6"/>
+      <c r="D619" s="7"/>
       <c r="E619" s="1"/>
-      <c r="F619" s="11"/>
-      <c r="G619" s="11"/>
+      <c r="F619" s="14"/>
+      <c r="G619" s="14"/>
       <c r="H619" s="3"/>
       <c r="I619" s="3"/>
       <c r="J619" s="3"/>
       <c r="K619" s="3"/>
     </row>
     <row r="620" ht="16.5" spans="4:11">
-      <c r="D620" s="11"/>
+      <c r="D620" s="14"/>
       <c r="E620" s="1"/>
-      <c r="F620" s="11"/>
-      <c r="G620" s="11"/>
+      <c r="F620" s="14"/>
+      <c r="G620" s="14"/>
       <c r="H620" s="3"/>
       <c r="I620" s="3"/>
       <c r="J620" s="3"/>
       <c r="K620" s="3"/>
     </row>
     <row r="621" ht="16.5" spans="4:11">
-      <c r="D621" s="11"/>
+      <c r="D621" s="14"/>
       <c r="E621" s="1"/>
-      <c r="F621" s="11"/>
-      <c r="G621" s="11"/>
+      <c r="F621" s="14"/>
+      <c r="G621" s="14"/>
       <c r="H621" s="3"/>
       <c r="I621" s="3"/>
       <c r="J621" s="3"/>
       <c r="K621" s="3"/>
     </row>
     <row r="622" ht="16.5" spans="4:11">
-      <c r="D622" s="6"/>
+      <c r="D622" s="7"/>
       <c r="E622" s="1"/>
-      <c r="F622" s="11"/>
-      <c r="G622" s="11"/>
+      <c r="F622" s="14"/>
+      <c r="G622" s="14"/>
       <c r="H622" s="3"/>
       <c r="I622" s="3"/>
       <c r="J622" s="3"/>
       <c r="K622" s="3"/>
     </row>
     <row r="623" ht="16.5" spans="4:11">
-      <c r="D623" s="11"/>
+      <c r="D623" s="14"/>
       <c r="E623" s="1"/>
-      <c r="F623" s="11"/>
-      <c r="G623" s="11"/>
+      <c r="F623" s="14"/>
+      <c r="G623" s="14"/>
       <c r="H623" s="3"/>
       <c r="I623" s="3"/>
       <c r="J623" s="3"/>
       <c r="K623" s="3"/>
     </row>
     <row r="624" ht="16.5" spans="4:11">
-      <c r="D624" s="23"/>
+      <c r="D624" s="26"/>
       <c r="E624" s="1"/>
-      <c r="F624" s="11"/>
-      <c r="G624" s="11"/>
+      <c r="F624" s="14"/>
+      <c r="G624" s="14"/>
       <c r="H624" s="3"/>
       <c r="I624" s="3"/>
       <c r="J624" s="3"/>
       <c r="K624" s="3"/>
     </row>
     <row r="625" ht="16.5" spans="4:11">
-      <c r="D625" s="11"/>
+      <c r="D625" s="14"/>
       <c r="E625" s="1"/>
-      <c r="F625" s="11"/>
-      <c r="G625" s="11"/>
+      <c r="F625" s="14"/>
+      <c r="G625" s="14"/>
       <c r="H625" s="3"/>
       <c r="I625" s="3"/>
       <c r="J625" s="3"/>
       <c r="K625" s="3"/>
     </row>
     <row r="626" ht="16.5" spans="4:11">
-      <c r="D626" s="6"/>
+      <c r="D626" s="7"/>
       <c r="E626" s="1"/>
-      <c r="F626" s="11"/>
-      <c r="G626" s="11"/>
+      <c r="F626" s="14"/>
+      <c r="G626" s="14"/>
       <c r="H626" s="3"/>
       <c r="I626" s="3"/>
       <c r="J626" s="3"/>
@@ -7676,8 +8100,8 @@
     <row r="627" ht="16.5" spans="4:11">
       <c r="D627" s="3"/>
       <c r="E627" s="1"/>
-      <c r="F627" s="11"/>
-      <c r="G627" s="11"/>
+      <c r="F627" s="14"/>
+      <c r="G627" s="14"/>
       <c r="H627" s="3"/>
       <c r="I627" s="3"/>
       <c r="J627" s="3"/>
@@ -7686,8 +8110,8 @@
     <row r="628" ht="16.5" spans="4:11">
       <c r="D628" s="3"/>
       <c r="E628" s="1"/>
-      <c r="F628" s="11"/>
-      <c r="G628" s="11"/>
+      <c r="F628" s="14"/>
+      <c r="G628" s="14"/>
       <c r="H628" s="3"/>
       <c r="I628" s="3"/>
       <c r="J628" s="3"/>
@@ -7696,18 +8120,18 @@
     <row r="629" ht="16.5" spans="4:11">
       <c r="D629" s="3"/>
       <c r="E629" s="1"/>
-      <c r="F629" s="11"/>
-      <c r="G629" s="11"/>
+      <c r="F629" s="14"/>
+      <c r="G629" s="14"/>
       <c r="H629" s="3"/>
       <c r="I629" s="3"/>
       <c r="J629" s="3"/>
       <c r="K629" s="3"/>
     </row>
     <row r="630" ht="16.5" spans="4:11">
-      <c r="D630" s="11"/>
+      <c r="D630" s="14"/>
       <c r="E630" s="1"/>
-      <c r="F630" s="11"/>
-      <c r="G630" s="11"/>
+      <c r="F630" s="14"/>
+      <c r="G630" s="14"/>
       <c r="H630" s="3"/>
       <c r="I630" s="3"/>
       <c r="J630" s="3"/>
@@ -7716,8 +8140,8 @@
     <row r="631" ht="16.5" spans="4:11">
       <c r="D631" s="3"/>
       <c r="E631" s="1"/>
-      <c r="F631" s="11"/>
-      <c r="G631" s="11"/>
+      <c r="F631" s="14"/>
+      <c r="G631" s="14"/>
       <c r="H631" s="3"/>
       <c r="I631" s="3"/>
       <c r="J631" s="3"/>
@@ -7726,8 +8150,8 @@
     <row r="632" ht="16.5" spans="4:11">
       <c r="D632" s="3"/>
       <c r="E632" s="1"/>
-      <c r="F632" s="11"/>
-      <c r="G632" s="11"/>
+      <c r="F632" s="14"/>
+      <c r="G632" s="14"/>
       <c r="H632" s="3"/>
       <c r="I632" s="3"/>
       <c r="J632" s="3"/>
@@ -7736,8 +8160,8 @@
     <row r="633" ht="16.5" spans="4:11">
       <c r="D633" s="3"/>
       <c r="E633" s="1"/>
-      <c r="F633" s="11"/>
-      <c r="G633" s="11"/>
+      <c r="F633" s="14"/>
+      <c r="G633" s="14"/>
       <c r="H633" s="3"/>
       <c r="I633" s="3"/>
       <c r="J633" s="3"/>
@@ -7746,8 +8170,8 @@
     <row r="634" ht="16.5" spans="4:11">
       <c r="D634" s="3"/>
       <c r="E634" s="1"/>
-      <c r="F634" s="11"/>
-      <c r="G634" s="11"/>
+      <c r="F634" s="14"/>
+      <c r="G634" s="14"/>
       <c r="H634" s="3"/>
       <c r="I634" s="3"/>
       <c r="J634" s="3"/>
@@ -7756,8 +8180,8 @@
     <row r="635" ht="16.5" spans="4:11">
       <c r="D635" s="3"/>
       <c r="E635" s="1"/>
-      <c r="F635" s="11"/>
-      <c r="G635" s="11"/>
+      <c r="F635" s="14"/>
+      <c r="G635" s="14"/>
       <c r="H635" s="3"/>
       <c r="I635" s="3"/>
       <c r="J635" s="3"/>
@@ -7766,8 +8190,8 @@
     <row r="636" ht="16.5" spans="4:11">
       <c r="D636" s="3"/>
       <c r="E636" s="1"/>
-      <c r="F636" s="11"/>
-      <c r="G636" s="11"/>
+      <c r="F636" s="14"/>
+      <c r="G636" s="14"/>
       <c r="H636" s="3"/>
       <c r="I636" s="3"/>
       <c r="J636" s="3"/>
@@ -7776,8 +8200,8 @@
     <row r="637" ht="16.5" spans="4:11">
       <c r="D637" s="3"/>
       <c r="E637" s="1"/>
-      <c r="F637" s="11"/>
-      <c r="G637" s="11"/>
+      <c r="F637" s="14"/>
+      <c r="G637" s="14"/>
       <c r="H637" s="3"/>
       <c r="I637" s="3"/>
       <c r="J637" s="3"/>
@@ -7786,8 +8210,8 @@
     <row r="638" ht="16.5" spans="4:11">
       <c r="D638" s="3"/>
       <c r="E638" s="1"/>
-      <c r="F638" s="11"/>
-      <c r="G638" s="11"/>
+      <c r="F638" s="14"/>
+      <c r="G638" s="14"/>
       <c r="H638" s="3"/>
       <c r="I638" s="3"/>
       <c r="J638" s="3"/>
@@ -7796,18 +8220,18 @@
     <row r="639" ht="16.5" spans="4:11">
       <c r="D639" s="3"/>
       <c r="E639" s="1"/>
-      <c r="F639" s="11"/>
-      <c r="G639" s="11"/>
+      <c r="F639" s="14"/>
+      <c r="G639" s="14"/>
       <c r="H639" s="3"/>
       <c r="I639" s="3"/>
       <c r="J639" s="3"/>
       <c r="K639" s="3"/>
     </row>
     <row r="640" ht="16.5" spans="4:11">
-      <c r="D640" s="11"/>
+      <c r="D640" s="14"/>
       <c r="E640" s="1"/>
-      <c r="F640" s="11"/>
-      <c r="G640" s="11"/>
+      <c r="F640" s="14"/>
+      <c r="G640" s="14"/>
       <c r="H640" s="3"/>
       <c r="I640" s="3"/>
       <c r="J640" s="3"/>
@@ -7816,8 +8240,8 @@
     <row r="641" ht="16.5" spans="4:11">
       <c r="D641" s="3"/>
       <c r="E641" s="1"/>
-      <c r="F641" s="11"/>
-      <c r="G641" s="11"/>
+      <c r="F641" s="14"/>
+      <c r="G641" s="14"/>
       <c r="H641" s="3"/>
       <c r="I641" s="3"/>
       <c r="J641" s="3"/>
@@ -7826,8 +8250,8 @@
     <row r="642" ht="16.5" spans="4:11">
       <c r="D642" s="3"/>
       <c r="E642" s="1"/>
-      <c r="F642" s="11"/>
-      <c r="G642" s="11"/>
+      <c r="F642" s="14"/>
+      <c r="G642" s="14"/>
       <c r="H642" s="3"/>
       <c r="I642" s="3"/>
       <c r="J642" s="3"/>
@@ -7836,18 +8260,18 @@
     <row r="643" ht="16.5" spans="4:11">
       <c r="D643" s="3"/>
       <c r="E643" s="1"/>
-      <c r="F643" s="11"/>
-      <c r="G643" s="11"/>
+      <c r="F643" s="14"/>
+      <c r="G643" s="14"/>
       <c r="H643" s="3"/>
       <c r="I643" s="3"/>
       <c r="J643" s="3"/>
       <c r="K643" s="3"/>
     </row>
     <row r="644" ht="16.5" spans="4:11">
-      <c r="D644" s="6"/>
+      <c r="D644" s="7"/>
       <c r="E644" s="1"/>
-      <c r="F644" s="11"/>
-      <c r="G644" s="11"/>
+      <c r="F644" s="14"/>
+      <c r="G644" s="14"/>
       <c r="H644" s="3"/>
       <c r="I644" s="3"/>
       <c r="J644" s="3"/>
@@ -7856,8 +8280,8 @@
     <row r="645" ht="16.5" spans="4:11">
       <c r="D645" s="3"/>
       <c r="E645" s="1"/>
-      <c r="F645" s="11"/>
-      <c r="G645" s="11"/>
+      <c r="F645" s="14"/>
+      <c r="G645" s="14"/>
       <c r="H645" s="3"/>
       <c r="I645" s="3"/>
       <c r="J645" s="3"/>
@@ -7866,8 +8290,8 @@
     <row r="646" ht="16.5" spans="4:11">
       <c r="D646" s="3"/>
       <c r="E646" s="1"/>
-      <c r="F646" s="11"/>
-      <c r="G646" s="11"/>
+      <c r="F646" s="14"/>
+      <c r="G646" s="14"/>
       <c r="H646" s="3"/>
       <c r="I646" s="3"/>
       <c r="J646" s="3"/>
@@ -7876,8 +8300,8 @@
     <row r="647" ht="16.5" spans="4:11">
       <c r="D647" s="3"/>
       <c r="E647" s="1"/>
-      <c r="F647" s="13"/>
-      <c r="G647" s="13"/>
+      <c r="F647" s="16"/>
+      <c r="G647" s="16"/>
       <c r="H647" s="3"/>
       <c r="I647" s="3"/>
       <c r="J647" s="3"/>
@@ -7886,8 +8310,8 @@
     <row r="648" ht="16.5" spans="4:11">
       <c r="D648" s="3"/>
       <c r="E648" s="1"/>
-      <c r="F648" s="13"/>
-      <c r="G648" s="13"/>
+      <c r="F648" s="16"/>
+      <c r="G648" s="16"/>
       <c r="H648" s="3"/>
       <c r="I648" s="3"/>
       <c r="J648" s="3"/>
@@ -7896,8 +8320,8 @@
     <row r="649" ht="16.5" spans="4:11">
       <c r="D649" s="3"/>
       <c r="E649" s="1"/>
-      <c r="F649" s="13"/>
-      <c r="G649" s="13"/>
+      <c r="F649" s="16"/>
+      <c r="G649" s="16"/>
       <c r="H649" s="3"/>
       <c r="I649" s="3"/>
       <c r="J649" s="3"/>
@@ -7906,8 +8330,8 @@
     <row r="650" ht="16.5" spans="4:11">
       <c r="D650" s="3"/>
       <c r="E650" s="1"/>
-      <c r="F650" s="13"/>
-      <c r="G650" s="13"/>
+      <c r="F650" s="16"/>
+      <c r="G650" s="16"/>
       <c r="H650" s="3"/>
       <c r="I650" s="3"/>
       <c r="J650" s="3"/>
@@ -7916,8 +8340,8 @@
     <row r="651" ht="16.5" spans="4:11">
       <c r="D651" s="3"/>
       <c r="E651" s="1"/>
-      <c r="F651" s="13"/>
-      <c r="G651" s="13"/>
+      <c r="F651" s="16"/>
+      <c r="G651" s="16"/>
       <c r="H651" s="3"/>
       <c r="I651" s="3"/>
       <c r="J651" s="3"/>
@@ -7926,8 +8350,8 @@
     <row r="652" ht="16.5" spans="4:11">
       <c r="D652" s="3"/>
       <c r="E652" s="1"/>
-      <c r="F652" s="13"/>
-      <c r="G652" s="13"/>
+      <c r="F652" s="16"/>
+      <c r="G652" s="16"/>
       <c r="H652" s="3"/>
       <c r="I652" s="3"/>
       <c r="J652" s="3"/>
@@ -7936,8 +8360,8 @@
     <row r="653" ht="16.5" spans="4:11">
       <c r="D653" s="3"/>
       <c r="E653" s="1"/>
-      <c r="F653" s="13"/>
-      <c r="G653" s="13"/>
+      <c r="F653" s="16"/>
+      <c r="G653" s="16"/>
       <c r="H653" s="3"/>
       <c r="I653" s="3"/>
       <c r="J653" s="3"/>
@@ -7946,8 +8370,8 @@
     <row r="654" ht="16.5" spans="4:11">
       <c r="D654" s="3"/>
       <c r="E654" s="1"/>
-      <c r="F654" s="13"/>
-      <c r="G654" s="13"/>
+      <c r="F654" s="16"/>
+      <c r="G654" s="16"/>
       <c r="H654" s="3"/>
       <c r="I654" s="3"/>
       <c r="J654" s="3"/>
@@ -7956,8 +8380,8 @@
     <row r="655" ht="16.5" spans="4:11">
       <c r="D655" s="3"/>
       <c r="E655" s="1"/>
-      <c r="F655" s="13"/>
-      <c r="G655" s="13"/>
+      <c r="F655" s="16"/>
+      <c r="G655" s="16"/>
       <c r="H655" s="3"/>
       <c r="I655" s="3"/>
       <c r="J655" s="3"/>
@@ -7966,8 +8390,8 @@
     <row r="656" ht="16.5" spans="4:11">
       <c r="D656" s="3"/>
       <c r="E656" s="1"/>
-      <c r="F656" s="13"/>
-      <c r="G656" s="13"/>
+      <c r="F656" s="16"/>
+      <c r="G656" s="16"/>
       <c r="H656" s="3"/>
       <c r="I656" s="3"/>
       <c r="J656" s="3"/>
@@ -7976,8 +8400,8 @@
     <row r="657" ht="16.5" spans="4:11">
       <c r="D657" s="3"/>
       <c r="E657" s="1"/>
-      <c r="F657" s="13"/>
-      <c r="G657" s="13"/>
+      <c r="F657" s="16"/>
+      <c r="G657" s="16"/>
       <c r="H657" s="3"/>
       <c r="I657" s="3"/>
       <c r="J657" s="3"/>
@@ -7986,8 +8410,8 @@
     <row r="658" ht="16.5" spans="4:11">
       <c r="D658" s="3"/>
       <c r="E658" s="1"/>
-      <c r="F658" s="13"/>
-      <c r="G658" s="13"/>
+      <c r="F658" s="16"/>
+      <c r="G658" s="16"/>
       <c r="H658" s="3"/>
       <c r="I658" s="3"/>
       <c r="J658" s="3"/>
@@ -7996,8 +8420,8 @@
     <row r="659" ht="16.5" spans="4:11">
       <c r="D659" s="3"/>
       <c r="E659" s="1"/>
-      <c r="F659" s="13"/>
-      <c r="G659" s="13"/>
+      <c r="F659" s="16"/>
+      <c r="G659" s="16"/>
       <c r="H659" s="3"/>
       <c r="I659" s="3"/>
       <c r="J659" s="3"/>
@@ -8006,8 +8430,8 @@
     <row r="660" ht="16.5" spans="4:11">
       <c r="D660" s="3"/>
       <c r="E660" s="1"/>
-      <c r="F660" s="13"/>
-      <c r="G660" s="13"/>
+      <c r="F660" s="16"/>
+      <c r="G660" s="16"/>
       <c r="H660" s="3"/>
       <c r="I660" s="3"/>
       <c r="J660" s="3"/>
@@ -8016,8 +8440,8 @@
     <row r="661" ht="16.5" spans="4:11">
       <c r="D661" s="3"/>
       <c r="E661" s="1"/>
-      <c r="F661" s="13"/>
-      <c r="G661" s="13"/>
+      <c r="F661" s="16"/>
+      <c r="G661" s="16"/>
       <c r="H661" s="3"/>
       <c r="I661" s="3"/>
       <c r="J661" s="3"/>
@@ -8026,8 +8450,8 @@
     <row r="662" ht="16.5" spans="4:11">
       <c r="D662" s="3"/>
       <c r="E662" s="1"/>
-      <c r="F662" s="13"/>
-      <c r="G662" s="13"/>
+      <c r="F662" s="16"/>
+      <c r="G662" s="16"/>
       <c r="H662" s="3"/>
       <c r="I662" s="3"/>
       <c r="J662" s="3"/>
@@ -8036,8 +8460,8 @@
     <row r="663" ht="16.5" spans="4:11">
       <c r="D663" s="3"/>
       <c r="E663" s="1"/>
-      <c r="F663" s="13"/>
-      <c r="G663" s="13"/>
+      <c r="F663" s="16"/>
+      <c r="G663" s="16"/>
       <c r="H663" s="3"/>
       <c r="I663" s="3"/>
       <c r="J663" s="3"/>
@@ -8046,8 +8470,8 @@
     <row r="664" ht="16.5" spans="4:11">
       <c r="D664" s="3"/>
       <c r="E664" s="1"/>
-      <c r="F664" s="13"/>
-      <c r="G664" s="13"/>
+      <c r="F664" s="16"/>
+      <c r="G664" s="16"/>
       <c r="H664" s="3"/>
       <c r="I664" s="3"/>
       <c r="J664" s="3"/>
@@ -8056,8 +8480,8 @@
     <row r="665" ht="16.5" spans="4:11">
       <c r="D665" s="3"/>
       <c r="E665" s="1"/>
-      <c r="F665" s="13"/>
-      <c r="G665" s="13"/>
+      <c r="F665" s="16"/>
+      <c r="G665" s="16"/>
       <c r="H665" s="3"/>
       <c r="I665" s="3"/>
       <c r="J665" s="3"/>
@@ -8066,8 +8490,8 @@
     <row r="666" ht="16.5" spans="4:11">
       <c r="D666" s="3"/>
       <c r="E666" s="1"/>
-      <c r="F666" s="13"/>
-      <c r="G666" s="13"/>
+      <c r="F666" s="16"/>
+      <c r="G666" s="16"/>
       <c r="H666" s="3"/>
       <c r="I666" s="3"/>
       <c r="J666" s="3"/>
@@ -8076,8 +8500,8 @@
     <row r="667" ht="16.5" spans="4:11">
       <c r="D667" s="3"/>
       <c r="E667" s="1"/>
-      <c r="F667" s="13"/>
-      <c r="G667" s="13"/>
+      <c r="F667" s="16"/>
+      <c r="G667" s="16"/>
       <c r="H667" s="3"/>
       <c r="I667" s="3"/>
       <c r="J667" s="3"/>

--- a/docs/lang.xlsx
+++ b/docs/lang.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
   <si>
     <t>key</t>
   </si>
@@ -242,10 +242,67 @@
     <t>trans0024</t>
   </si>
   <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>Sign in</t>
+  </si>
+  <si>
     <t>trans0025</t>
   </si>
   <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
     <t>trans0026</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>trans0027</t>
+  </si>
+  <si>
+    <t>忘记密码？</t>
+  </si>
+  <si>
+    <t>Forget Password?</t>
+  </si>
+  <si>
+    <t>trans0028</t>
+  </si>
+  <si>
+    <t>记住我</t>
+  </si>
+  <si>
+    <t>Remember me</t>
+  </si>
+  <si>
+    <t>trans0029</t>
+  </si>
+  <si>
+    <t>请输入{val}</t>
+  </si>
+  <si>
+    <t>Please input {val}</t>
+  </si>
+  <si>
+    <t>trans0030</t>
+  </si>
+  <si>
+    <t>trans0031</t>
+  </si>
+  <si>
+    <t>trans0032</t>
+  </si>
+  <si>
+    <t>trans0033</t>
   </si>
 </sst>
 </file>
@@ -1600,8 +1657,8 @@
   <sheetPr/>
   <dimension ref="A1:K667"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
-      <selection activeCell="E588" sqref="E588"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2072,6 +2129,12 @@
       <c r="A25" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="B25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="1"/>
       <c r="F25" s="10"/>
@@ -2083,7 +2146,13 @@
     </row>
     <row r="26" ht="17.25" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="1"/>
@@ -2096,7 +2165,13 @@
     </row>
     <row r="27" ht="16.5" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="1"/>
@@ -2107,7 +2182,16 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" ht="16.5" spans="4:11">
+    <row r="28" ht="16.5" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="D28" s="7"/>
       <c r="E28" s="1"/>
       <c r="F28" s="10"/>
@@ -2117,7 +2201,16 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" ht="16.5" spans="4:11">
+    <row r="29" ht="16.5" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="D29" s="10"/>
       <c r="E29" s="1"/>
       <c r="F29" s="10"/>
@@ -2127,7 +2220,16 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" ht="16.5" spans="4:11">
+    <row r="30" ht="16.5" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="D30" s="7"/>
       <c r="E30" s="1"/>
       <c r="F30" s="10"/>
@@ -2137,7 +2239,10 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" ht="16.5" spans="4:11">
+    <row r="31" ht="16.5" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="D31" s="7"/>
       <c r="E31" s="1"/>
       <c r="F31" s="10"/>
@@ -2147,7 +2252,10 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" ht="16.5" spans="4:11">
+    <row r="32" ht="16.5" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="D32" s="7"/>
       <c r="E32" s="1"/>
       <c r="F32" s="10"/>
@@ -2157,7 +2265,10 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" ht="16.5" spans="4:11">
+    <row r="33" ht="16.5" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="D33" s="14"/>
       <c r="E33" s="1"/>
       <c r="F33" s="10"/>
@@ -2167,7 +2278,10 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" ht="16.5" spans="4:11">
+    <row r="34" ht="16.5" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="D34" s="7"/>
       <c r="E34" s="1"/>
       <c r="F34" s="10"/>

--- a/docs/lang.xlsx
+++ b/docs/lang.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
   <si>
     <t>key</t>
   </si>
@@ -296,10 +296,28 @@
     <t>trans0030</t>
   </si>
   <si>
+    <t>暗色模式</t>
+  </si>
+  <si>
+    <t>Dark Mode</t>
+  </si>
+  <si>
     <t>trans0031</t>
   </si>
   <si>
+    <t>亮色模式</t>
+  </si>
+  <si>
+    <t>Light Mode</t>
+  </si>
+  <si>
     <t>trans0032</t>
+  </si>
+  <si>
+    <t>自动模式</t>
+  </si>
+  <si>
+    <t>Automatic Mode</t>
   </si>
   <si>
     <t>trans0033</t>
@@ -1658,7 +1676,7 @@
   <dimension ref="A1:K667"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2243,6 +2261,12 @@
       <c r="A31" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="B31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="D31" s="7"/>
       <c r="E31" s="1"/>
       <c r="F31" s="10"/>
@@ -2254,7 +2278,13 @@
     </row>
     <row r="32" ht="16.5" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="1"/>
@@ -2267,7 +2297,13 @@
     </row>
     <row r="33" ht="16.5" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="1"/>
@@ -2280,7 +2316,7 @@
     </row>
     <row r="34" ht="16.5" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="1"/>
